--- a/Översikt KARLSKRONA.xlsx
+++ b/Översikt KARLSKRONA.xlsx
@@ -572,7 +572,7 @@
         <v>45051</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>43640</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>44509</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>45101</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>43315</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43843</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>44960</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>45027</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>43356</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>43447</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>43963</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44021</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>44132</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>44139</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>44139</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>44140</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>44159</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>44237</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>44445</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
         <v>44467</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>44531</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>44728</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>45037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>43321</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>43332</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43335</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>43341</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43342</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>43349</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43350</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>43356</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         <v>43357</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43359</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43361</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>43363</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>43367</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>43368</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>43368</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>43369</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>43375</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         <v>43376</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>43384</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3635,7 +3635,7 @@
         <v>43396</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>43396</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>43396</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3806,7 +3806,7 @@
         <v>43397</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>43398</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>43398</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>43398</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>43398</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>43402</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>43403</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>43403</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>43405</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>43409</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>43410</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4443,7 +4443,7 @@
         <v>43410</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>43411</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43412</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>43413</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>43416</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>43416</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>43416</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>43417</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>43419</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>43419</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>43420</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>43420</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>43423</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>43424</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>43426</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>43430</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>43430</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>43431</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>43431</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>43434</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         <v>43434</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>43434</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>43437</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>43437</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5816,7 +5816,7 @@
         <v>43437</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>43438</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>43446</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5987,7 +5987,7 @@
         <v>43451</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6044,7 +6044,7 @@
         <v>43451</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>43451</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>43451</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6215,7 +6215,7 @@
         <v>43451</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>43451</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>43453</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         <v>43454</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6443,7 +6443,7 @@
         <v>43454</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6500,7 +6500,7 @@
         <v>43461</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6557,7 +6557,7 @@
         <v>43465</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6614,7 +6614,7 @@
         <v>43467</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6671,7 +6671,7 @@
         <v>43467</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
         <v>43468</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6785,7 +6785,7 @@
         <v>43473</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6842,7 +6842,7 @@
         <v>43475</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6899,7 +6899,7 @@
         <v>43475</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
         <v>43476</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7013,7 +7013,7 @@
         <v>43476</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7070,7 +7070,7 @@
         <v>43479</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7127,7 +7127,7 @@
         <v>43480</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7184,7 +7184,7 @@
         <v>43480</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7241,7 +7241,7 @@
         <v>43481</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7298,7 +7298,7 @@
         <v>43483</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7355,7 +7355,7 @@
         <v>43485</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7412,7 +7412,7 @@
         <v>43485</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7469,7 +7469,7 @@
         <v>43488</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         <v>43488</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>43488</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>43489</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7697,7 +7697,7 @@
         <v>43493</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>43493</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>43493</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>43493</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>43494</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>43496</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43497</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43497</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43500</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43501</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43508</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43508</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43508</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>43510</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8500,7 +8500,7 @@
         <v>43511</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>43516</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>43517</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         <v>43517</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>43518</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         <v>43521</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>43523</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         <v>43529</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>43529</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>43532</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9075,7 +9075,7 @@
         <v>43535</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9132,7 +9132,7 @@
         <v>43537</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         <v>43538</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9246,7 +9246,7 @@
         <v>43538</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9303,7 +9303,7 @@
         <v>43538</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>43538</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>43542</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9474,7 +9474,7 @@
         <v>43543</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>43546</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>43549</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9645,7 +9645,7 @@
         <v>43549</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9702,7 +9702,7 @@
         <v>43549</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>43567</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>43567</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>43571</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9930,7 +9930,7 @@
         <v>43572</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9987,7 +9987,7 @@
         <v>43573</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10044,7 +10044,7 @@
         <v>43580</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43584</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43587</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43592</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>43593</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43594</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>43594</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>43594</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43595</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         <v>43601</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10614,7 +10614,7 @@
         <v>43601</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10671,7 +10671,7 @@
         <v>43602</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10728,7 +10728,7 @@
         <v>43609</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10785,7 +10785,7 @@
         <v>43626</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10842,7 +10842,7 @@
         <v>43626</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>43626</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>43627</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>43640</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11075,7 +11075,7 @@
         <v>43644</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>43648</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11189,7 +11189,7 @@
         <v>43650</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11246,7 +11246,7 @@
         <v>43650</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11303,7 +11303,7 @@
         <v>43655</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11360,7 +11360,7 @@
         <v>43663</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11417,7 +11417,7 @@
         <v>43668</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11474,7 +11474,7 @@
         <v>43671</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11531,7 +11531,7 @@
         <v>43676</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11588,7 +11588,7 @@
         <v>43682</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11645,7 +11645,7 @@
         <v>43683</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11702,7 +11702,7 @@
         <v>43684</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11764,7 +11764,7 @@
         <v>43684</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11821,7 +11821,7 @@
         <v>43684</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11878,7 +11878,7 @@
         <v>43684</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11935,7 +11935,7 @@
         <v>43686</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11992,7 +11992,7 @@
         <v>43686</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12049,7 +12049,7 @@
         <v>43690</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12106,7 +12106,7 @@
         <v>43691</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         <v>43692</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12220,7 +12220,7 @@
         <v>43692</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12277,7 +12277,7 @@
         <v>43692</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         <v>43692</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         <v>43698</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12448,7 +12448,7 @@
         <v>43698</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12505,7 +12505,7 @@
         <v>43698</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12562,7 +12562,7 @@
         <v>43698</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         <v>43698</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12676,7 +12676,7 @@
         <v>43698</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12733,7 +12733,7 @@
         <v>43698</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12790,7 +12790,7 @@
         <v>43698</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12847,7 +12847,7 @@
         <v>43698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12904,7 +12904,7 @@
         <v>43698</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12961,7 +12961,7 @@
         <v>43698</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13018,7 +13018,7 @@
         <v>43698</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13075,7 +13075,7 @@
         <v>43698</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13132,7 +13132,7 @@
         <v>43699</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13189,7 +13189,7 @@
         <v>43701</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13246,7 +13246,7 @@
         <v>43701</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13303,7 +13303,7 @@
         <v>43706</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13360,7 +13360,7 @@
         <v>43710</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13417,7 +13417,7 @@
         <v>43710</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>43711</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13531,7 +13531,7 @@
         <v>43711</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         <v>43712</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
         <v>43712</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         <v>43712</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         <v>43712</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>43712</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>43712</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13935,7 +13935,7 @@
         <v>43718</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13992,7 +13992,7 @@
         <v>43718</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14049,7 +14049,7 @@
         <v>43719</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14106,7 +14106,7 @@
         <v>43719</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14163,7 +14163,7 @@
         <v>43719</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14220,7 +14220,7 @@
         <v>43720</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14277,7 +14277,7 @@
         <v>43720</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14334,7 +14334,7 @@
         <v>43721</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14391,7 +14391,7 @@
         <v>43727</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         <v>43732</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>43735</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14562,7 +14562,7 @@
         <v>43738</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14619,7 +14619,7 @@
         <v>43742</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14676,7 +14676,7 @@
         <v>43746</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14733,7 +14733,7 @@
         <v>43746</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14790,7 +14790,7 @@
         <v>43747</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14847,7 +14847,7 @@
         <v>43748</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14904,7 +14904,7 @@
         <v>43753</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14961,7 +14961,7 @@
         <v>43753</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>43754</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15075,7 +15075,7 @@
         <v>43756</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15132,7 +15132,7 @@
         <v>43760</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15189,7 +15189,7 @@
         <v>43760</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>43761</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15303,7 +15303,7 @@
         <v>43763</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>43763</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>43763</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>43766</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>43766</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>43770</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>43773</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>43774</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15759,7 +15759,7 @@
         <v>43775</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>43775</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15873,7 +15873,7 @@
         <v>43777</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>43782</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>43783</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>43783</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         <v>43788</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>43788</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16215,7 +16215,7 @@
         <v>43789</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>43790</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         <v>43812</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         <v>43812</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16443,7 +16443,7 @@
         <v>43817</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16500,7 +16500,7 @@
         <v>43818</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>43832</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>43832</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>43833</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16728,7 +16728,7 @@
         <v>43837</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16785,7 +16785,7 @@
         <v>43838</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>43838</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>43840</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>43844</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>43844</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>43845</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>43845</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>43849</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17241,7 +17241,7 @@
         <v>43850</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17298,7 +17298,7 @@
         <v>43852</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17355,7 +17355,7 @@
         <v>43852</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>43854</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>43867</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17526,7 +17526,7 @@
         <v>43867</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>43870</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>43870</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>43872</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>43875</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>43879</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>43887</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17925,7 +17925,7 @@
         <v>43887</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17982,7 +17982,7 @@
         <v>43889</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         <v>43889</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18096,7 +18096,7 @@
         <v>43889</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>43894</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18210,7 +18210,7 @@
         <v>43900</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18267,7 +18267,7 @@
         <v>43902</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18324,7 +18324,7 @@
         <v>43902</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18381,7 +18381,7 @@
         <v>43902</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
         <v>43902</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18495,7 +18495,7 @@
         <v>43907</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18552,7 +18552,7 @@
         <v>43907</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18609,7 +18609,7 @@
         <v>43907</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18666,7 +18666,7 @@
         <v>43907</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18723,7 +18723,7 @@
         <v>43913</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18780,7 +18780,7 @@
         <v>43914</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
         <v>43914</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18894,7 +18894,7 @@
         <v>43915</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18951,7 +18951,7 @@
         <v>43915</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19008,7 +19008,7 @@
         <v>43916</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19065,7 +19065,7 @@
         <v>43916</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19122,7 +19122,7 @@
         <v>43917</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19179,7 +19179,7 @@
         <v>43920</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19236,7 +19236,7 @@
         <v>43920</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19293,7 +19293,7 @@
         <v>43920</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19350,7 +19350,7 @@
         <v>43920</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19407,7 +19407,7 @@
         <v>43921</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19464,7 +19464,7 @@
         <v>43923</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19521,7 +19521,7 @@
         <v>43923</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19583,7 +19583,7 @@
         <v>43923</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19640,7 +19640,7 @@
         <v>43925</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19697,7 +19697,7 @@
         <v>43926</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19754,7 +19754,7 @@
         <v>43927</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19811,7 +19811,7 @@
         <v>43927</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19868,7 +19868,7 @@
         <v>43927</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19925,7 +19925,7 @@
         <v>43927</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>43935</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20039,7 +20039,7 @@
         <v>43937</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20096,7 +20096,7 @@
         <v>43937</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>43937</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20210,7 +20210,7 @@
         <v>43938</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20272,7 +20272,7 @@
         <v>43950</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>43977</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>43977</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20448,7 +20448,7 @@
         <v>43977</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20505,7 +20505,7 @@
         <v>43980</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20562,7 +20562,7 @@
         <v>43980</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20619,7 +20619,7 @@
         <v>43986</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20676,7 +20676,7 @@
         <v>43992</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20733,7 +20733,7 @@
         <v>43993</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20790,7 +20790,7 @@
         <v>44005</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         <v>44006</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20904,7 +20904,7 @@
         <v>44007</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20961,7 +20961,7 @@
         <v>44008</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21018,7 +21018,7 @@
         <v>44014</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21075,7 +21075,7 @@
         <v>44015</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21132,7 +21132,7 @@
         <v>44018</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21189,7 +21189,7 @@
         <v>44019</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21246,7 +21246,7 @@
         <v>44026</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21303,7 +21303,7 @@
         <v>44039</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21360,7 +21360,7 @@
         <v>44046</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21417,7 +21417,7 @@
         <v>44048</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21474,7 +21474,7 @@
         <v>44053</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21531,7 +21531,7 @@
         <v>44053</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
         <v>44053</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         <v>44054</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21702,7 +21702,7 @@
         <v>44055</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21759,7 +21759,7 @@
         <v>44055</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21816,7 +21816,7 @@
         <v>44055</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21873,7 +21873,7 @@
         <v>44055</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21930,7 +21930,7 @@
         <v>44057</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44060</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44060</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>44060</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>44062</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44062</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44062</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44071</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44074</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>44075</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>44080</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>44081</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>44083</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22671,7 +22671,7 @@
         <v>44088</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22728,7 +22728,7 @@
         <v>44088</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22785,7 +22785,7 @@
         <v>44090</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22842,7 +22842,7 @@
         <v>44090</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>44090</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22956,7 +22956,7 @@
         <v>44103</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         <v>44113</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>44113</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23127,7 +23127,7 @@
         <v>44120</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23184,7 +23184,7 @@
         <v>44120</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23241,7 +23241,7 @@
         <v>44123</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23298,7 +23298,7 @@
         <v>44124</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23355,7 +23355,7 @@
         <v>44124</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23412,7 +23412,7 @@
         <v>44125</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23469,7 +23469,7 @@
         <v>44127</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23526,7 +23526,7 @@
         <v>44131</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23583,7 +23583,7 @@
         <v>44132</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23640,7 +23640,7 @@
         <v>44132</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23697,7 +23697,7 @@
         <v>44132</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23754,7 +23754,7 @@
         <v>44132</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23811,7 +23811,7 @@
         <v>44132</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23868,7 +23868,7 @@
         <v>44133</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23925,7 +23925,7 @@
         <v>44139</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23982,7 +23982,7 @@
         <v>44139</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24039,7 +24039,7 @@
         <v>44140</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24096,7 +24096,7 @@
         <v>44140</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24153,7 +24153,7 @@
         <v>44140</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24210,7 +24210,7 @@
         <v>44144</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24267,7 +24267,7 @@
         <v>44146</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24324,7 +24324,7 @@
         <v>44146</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         <v>44152</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24438,7 +24438,7 @@
         <v>44153</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24495,7 +24495,7 @@
         <v>44154</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24552,7 +24552,7 @@
         <v>44166</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24609,7 +24609,7 @@
         <v>44167</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24666,7 +24666,7 @@
         <v>44169</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24723,7 +24723,7 @@
         <v>44174</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24780,7 +24780,7 @@
         <v>44179</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24837,7 +24837,7 @@
         <v>44179</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24894,7 +24894,7 @@
         <v>44186</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24951,7 +24951,7 @@
         <v>44188</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25008,7 +25008,7 @@
         <v>44188</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25065,7 +25065,7 @@
         <v>44200</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25122,7 +25122,7 @@
         <v>44202</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25179,7 +25179,7 @@
         <v>44204</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25236,7 +25236,7 @@
         <v>44204</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25293,7 +25293,7 @@
         <v>44204</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25350,7 +25350,7 @@
         <v>44207</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25407,7 +25407,7 @@
         <v>44208</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25464,7 +25464,7 @@
         <v>44208</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25521,7 +25521,7 @@
         <v>44208</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>44209</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         <v>44211</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>44217</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         <v>44222</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25806,7 +25806,7 @@
         <v>44223</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25863,7 +25863,7 @@
         <v>44225</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25920,7 +25920,7 @@
         <v>44225</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25977,7 +25977,7 @@
         <v>44225</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>44230</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>44235</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>44235</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>44235</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>44235</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>44241</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26376,7 +26376,7 @@
         <v>44253</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26433,7 +26433,7 @@
         <v>44256</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26490,7 +26490,7 @@
         <v>44257</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26547,7 +26547,7 @@
         <v>44259</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26604,7 +26604,7 @@
         <v>44259</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26661,7 +26661,7 @@
         <v>44267</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26718,7 +26718,7 @@
         <v>44267</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26775,7 +26775,7 @@
         <v>44270</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26832,7 +26832,7 @@
         <v>44275</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26889,7 +26889,7 @@
         <v>44279</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         <v>44281</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27003,7 +27003,7 @@
         <v>44284</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27060,7 +27060,7 @@
         <v>44284</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27117,7 +27117,7 @@
         <v>44284</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27174,7 +27174,7 @@
         <v>44285</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27231,7 +27231,7 @@
         <v>44286</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27288,7 +27288,7 @@
         <v>44292</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27345,7 +27345,7 @@
         <v>44300</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27402,7 +27402,7 @@
         <v>44300</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27464,7 +27464,7 @@
         <v>44302</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27521,7 +27521,7 @@
         <v>44302</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27578,7 +27578,7 @@
         <v>44302</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27635,7 +27635,7 @@
         <v>44302</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27692,7 +27692,7 @@
         <v>44305</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27749,7 +27749,7 @@
         <v>44305</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27806,7 +27806,7 @@
         <v>44305</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27863,7 +27863,7 @@
         <v>44306</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27920,7 +27920,7 @@
         <v>44309</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27977,7 +27977,7 @@
         <v>44323</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28034,7 +28034,7 @@
         <v>44323</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28091,7 +28091,7 @@
         <v>44325</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28148,7 +28148,7 @@
         <v>44327</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28205,7 +28205,7 @@
         <v>44333</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28262,7 +28262,7 @@
         <v>44342</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28319,7 +28319,7 @@
         <v>44342</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28376,7 +28376,7 @@
         <v>44342</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28433,7 +28433,7 @@
         <v>44342</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28490,7 +28490,7 @@
         <v>44343</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28547,7 +28547,7 @@
         <v>44349</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28604,7 +28604,7 @@
         <v>44350</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28661,7 +28661,7 @@
         <v>44350</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28718,7 +28718,7 @@
         <v>44350</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28775,7 +28775,7 @@
         <v>44354</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28832,7 +28832,7 @@
         <v>44356</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28889,7 +28889,7 @@
         <v>44364</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         <v>44365</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29003,7 +29003,7 @@
         <v>44365</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29060,7 +29060,7 @@
         <v>44368</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29117,7 +29117,7 @@
         <v>44375</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29174,7 +29174,7 @@
         <v>44383</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29231,7 +29231,7 @@
         <v>44384</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29288,7 +29288,7 @@
         <v>44384</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29345,7 +29345,7 @@
         <v>44391</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29402,7 +29402,7 @@
         <v>44391</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29459,7 +29459,7 @@
         <v>44397</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29516,7 +29516,7 @@
         <v>44398</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29573,7 +29573,7 @@
         <v>44399</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29630,7 +29630,7 @@
         <v>44399</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29687,7 +29687,7 @@
         <v>44406</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29744,7 +29744,7 @@
         <v>44411</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29801,7 +29801,7 @@
         <v>44411</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29858,7 +29858,7 @@
         <v>44420</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29915,7 +29915,7 @@
         <v>44420</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29972,7 +29972,7 @@
         <v>44421</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30029,7 +30029,7 @@
         <v>44424</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30086,7 +30086,7 @@
         <v>44425</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30143,7 +30143,7 @@
         <v>44433</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30200,7 +30200,7 @@
         <v>44435</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30257,7 +30257,7 @@
         <v>44435</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30314,7 +30314,7 @@
         <v>44440</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30371,7 +30371,7 @@
         <v>44440</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30433,7 +30433,7 @@
         <v>44441</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30490,7 +30490,7 @@
         <v>44441</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         <v>44441</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30604,7 +30604,7 @@
         <v>44442</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30661,7 +30661,7 @@
         <v>44447</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30718,7 +30718,7 @@
         <v>44449</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30775,7 +30775,7 @@
         <v>44452</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30832,7 +30832,7 @@
         <v>44452</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30889,7 +30889,7 @@
         <v>44458</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         <v>44461</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31003,7 +31003,7 @@
         <v>44461</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31060,7 +31060,7 @@
         <v>44462</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31117,7 +31117,7 @@
         <v>44466</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31174,7 +31174,7 @@
         <v>44468</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31231,7 +31231,7 @@
         <v>44473</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31288,7 +31288,7 @@
         <v>44476</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31345,7 +31345,7 @@
         <v>44481</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31402,7 +31402,7 @@
         <v>44491</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31459,7 +31459,7 @@
         <v>44496</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31516,7 +31516,7 @@
         <v>44496</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31573,7 +31573,7 @@
         <v>44497</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31630,7 +31630,7 @@
         <v>44498</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31687,7 +31687,7 @@
         <v>44502</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31744,7 +31744,7 @@
         <v>44503</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31801,7 +31801,7 @@
         <v>44503</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31858,7 +31858,7 @@
         <v>44512</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         <v>44515</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31972,7 +31972,7 @@
         <v>44516</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32029,7 +32029,7 @@
         <v>44517</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32086,7 +32086,7 @@
         <v>44523</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32143,7 +32143,7 @@
         <v>44529</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32200,7 +32200,7 @@
         <v>44530</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32257,7 +32257,7 @@
         <v>44539</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32314,7 +32314,7 @@
         <v>44543</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32371,7 +32371,7 @@
         <v>44551</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32428,7 +32428,7 @@
         <v>44553</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32485,7 +32485,7 @@
         <v>44559</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32542,7 +32542,7 @@
         <v>44572</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32599,7 +32599,7 @@
         <v>44572</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32656,7 +32656,7 @@
         <v>44578</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32713,7 +32713,7 @@
         <v>44579</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32770,7 +32770,7 @@
         <v>44584</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32827,7 +32827,7 @@
         <v>44585</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32884,7 +32884,7 @@
         <v>44585</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32941,7 +32941,7 @@
         <v>44586</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -32998,7 +32998,7 @@
         <v>44588</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33055,7 +33055,7 @@
         <v>44592</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33112,7 +33112,7 @@
         <v>44595</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33169,7 +33169,7 @@
         <v>44596</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33231,7 +33231,7 @@
         <v>44596</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33288,7 +33288,7 @@
         <v>44599</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33345,7 +33345,7 @@
         <v>44600</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33402,7 +33402,7 @@
         <v>44608</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33459,7 +33459,7 @@
         <v>44614</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33516,7 +33516,7 @@
         <v>44616</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33573,7 +33573,7 @@
         <v>44617</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33630,7 +33630,7 @@
         <v>44619</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33687,7 +33687,7 @@
         <v>44619</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33744,7 +33744,7 @@
         <v>44620</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33801,7 +33801,7 @@
         <v>44620</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33858,7 +33858,7 @@
         <v>44621</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33915,7 +33915,7 @@
         <v>44623</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -33972,7 +33972,7 @@
         <v>44624</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34029,7 +34029,7 @@
         <v>44624</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34086,7 +34086,7 @@
         <v>44628</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34143,7 +34143,7 @@
         <v>44629</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34200,7 +34200,7 @@
         <v>44629</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34257,7 +34257,7 @@
         <v>44636</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34314,7 +34314,7 @@
         <v>44636</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34371,7 +34371,7 @@
         <v>44637</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34428,7 +34428,7 @@
         <v>44644</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34485,7 +34485,7 @@
         <v>44657</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34542,7 +34542,7 @@
         <v>44663</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34599,7 +34599,7 @@
         <v>44670</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34656,7 +34656,7 @@
         <v>44672</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34713,7 +34713,7 @@
         <v>44686</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34770,7 +34770,7 @@
         <v>44687</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34827,7 +34827,7 @@
         <v>44687</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34884,7 +34884,7 @@
         <v>44693</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -34941,7 +34941,7 @@
         <v>44696</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -34998,7 +34998,7 @@
         <v>44698</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35055,7 +35055,7 @@
         <v>44700</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35112,7 +35112,7 @@
         <v>44705</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35169,7 +35169,7 @@
         <v>44706</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35226,7 +35226,7 @@
         <v>44706</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35283,7 +35283,7 @@
         <v>44710</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35340,7 +35340,7 @@
         <v>44711</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35397,7 +35397,7 @@
         <v>44720</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35454,7 +35454,7 @@
         <v>44725</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35511,7 +35511,7 @@
         <v>44742</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35568,7 +35568,7 @@
         <v>44742</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35625,7 +35625,7 @@
         <v>44742</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35682,7 +35682,7 @@
         <v>44742</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35739,7 +35739,7 @@
         <v>44747</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35796,7 +35796,7 @@
         <v>44747</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35853,7 +35853,7 @@
         <v>44748</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -35910,7 +35910,7 @@
         <v>44753</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -35967,7 +35967,7 @@
         <v>44754</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36024,7 +36024,7 @@
         <v>44754</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36081,7 +36081,7 @@
         <v>44757</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36138,7 +36138,7 @@
         <v>44757</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36195,7 +36195,7 @@
         <v>44767</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36252,7 +36252,7 @@
         <v>44799</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36309,7 +36309,7 @@
         <v>44806</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36366,7 +36366,7 @@
         <v>44812</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36423,7 +36423,7 @@
         <v>44820</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36480,7 +36480,7 @@
         <v>44820</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36537,7 +36537,7 @@
         <v>44825</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36594,7 +36594,7 @@
         <v>44826</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36651,7 +36651,7 @@
         <v>44832</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36708,7 +36708,7 @@
         <v>44832</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36765,7 +36765,7 @@
         <v>44837</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -36822,7 +36822,7 @@
         <v>44844</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -36879,7 +36879,7 @@
         <v>44845</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -36936,7 +36936,7 @@
         <v>44847</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -36993,7 +36993,7 @@
         <v>44847</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37050,7 +37050,7 @@
         <v>44847</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37107,7 +37107,7 @@
         <v>44856</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37164,7 +37164,7 @@
         <v>44858</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37221,7 +37221,7 @@
         <v>44858</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37278,7 +37278,7 @@
         <v>44860</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37335,7 +37335,7 @@
         <v>44860</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37392,7 +37392,7 @@
         <v>44860</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37449,7 +37449,7 @@
         <v>44862</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37506,7 +37506,7 @@
         <v>44865</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37563,7 +37563,7 @@
         <v>44866</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37620,7 +37620,7 @@
         <v>44866</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37677,7 +37677,7 @@
         <v>44867</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37734,7 +37734,7 @@
         <v>44874</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -37791,7 +37791,7 @@
         <v>44874</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -37848,7 +37848,7 @@
         <v>44874</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -37905,7 +37905,7 @@
         <v>44875</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -37962,7 +37962,7 @@
         <v>44879</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38019,7 +38019,7 @@
         <v>44881</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38076,7 +38076,7 @@
         <v>44890</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38133,7 +38133,7 @@
         <v>44893</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38190,7 +38190,7 @@
         <v>44893</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38247,7 +38247,7 @@
         <v>44893</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38304,7 +38304,7 @@
         <v>44903</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38361,7 +38361,7 @@
         <v>44909</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38418,7 +38418,7 @@
         <v>44911</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38475,7 +38475,7 @@
         <v>44911</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38532,7 +38532,7 @@
         <v>44920</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38589,7 +38589,7 @@
         <v>44930</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38646,7 +38646,7 @@
         <v>44930</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38703,7 +38703,7 @@
         <v>44936</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38760,7 +38760,7 @@
         <v>44939</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -38817,7 +38817,7 @@
         <v>44942</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -38874,7 +38874,7 @@
         <v>44950</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -38931,7 +38931,7 @@
         <v>44951</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -38988,7 +38988,7 @@
         <v>44952</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39045,7 +39045,7 @@
         <v>44957</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39102,7 +39102,7 @@
         <v>44958</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39159,7 +39159,7 @@
         <v>44967</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39216,7 +39216,7 @@
         <v>44967</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39273,7 +39273,7 @@
         <v>44970</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39330,7 +39330,7 @@
         <v>44981</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39387,7 +39387,7 @@
         <v>44981</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39444,7 +39444,7 @@
         <v>44984</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39501,7 +39501,7 @@
         <v>44986</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39558,7 +39558,7 @@
         <v>44988</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39615,7 +39615,7 @@
         <v>44988</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39672,7 +39672,7 @@
         <v>44988</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39729,7 +39729,7 @@
         <v>44988</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -39786,7 +39786,7 @@
         <v>44998</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -39843,7 +39843,7 @@
         <v>45001</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -39900,7 +39900,7 @@
         <v>45004</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -39957,7 +39957,7 @@
         <v>45005</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40014,7 +40014,7 @@
         <v>45012</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40071,7 +40071,7 @@
         <v>45012</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40128,7 +40128,7 @@
         <v>45012</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40185,7 +40185,7 @@
         <v>45012</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40242,7 +40242,7 @@
         <v>45015</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40299,7 +40299,7 @@
         <v>45016</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40356,7 +40356,7 @@
         <v>45019</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40413,7 +40413,7 @@
         <v>45019</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40470,7 +40470,7 @@
         <v>45020</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40527,7 +40527,7 @@
         <v>45027</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40584,7 +40584,7 @@
         <v>45027</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40641,7 +40641,7 @@
         <v>45027</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40698,7 +40698,7 @@
         <v>45028</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40755,7 +40755,7 @@
         <v>45030</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -40812,7 +40812,7 @@
         <v>45034</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -40869,7 +40869,7 @@
         <v>45034</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -40926,7 +40926,7 @@
         <v>45035</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -40983,7 +40983,7 @@
         <v>45035</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41040,7 +41040,7 @@
         <v>45037</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41097,7 +41097,7 @@
         <v>45040</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41154,7 +41154,7 @@
         <v>45040</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41211,7 +41211,7 @@
         <v>45042</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41268,7 +41268,7 @@
         <v>45048</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41325,7 +41325,7 @@
         <v>45048</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41382,7 +41382,7 @@
         <v>45050</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41439,7 +41439,7 @@
         <v>45050</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41496,7 +41496,7 @@
         <v>45050</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41553,7 +41553,7 @@
         <v>45050</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41610,7 +41610,7 @@
         <v>45055</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41667,7 +41667,7 @@
         <v>45056</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41724,7 +41724,7 @@
         <v>45057</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -41781,7 +41781,7 @@
         <v>45057</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -41838,7 +41838,7 @@
         <v>45057</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -41895,7 +41895,7 @@
         <v>45057</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -41952,7 +41952,7 @@
         <v>45058</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42009,7 +42009,7 @@
         <v>45065</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42066,7 +42066,7 @@
         <v>45069</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42123,7 +42123,7 @@
         <v>45069</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42180,7 +42180,7 @@
         <v>45070</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42237,7 +42237,7 @@
         <v>45070</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42294,7 +42294,7 @@
         <v>45070</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42351,7 +42351,7 @@
         <v>45070</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42408,7 +42408,7 @@
         <v>45075</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42465,7 +42465,7 @@
         <v>45076</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42522,7 +42522,7 @@
         <v>45076</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42579,7 +42579,7 @@
         <v>45077</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42636,7 +42636,7 @@
         <v>45079</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42693,7 +42693,7 @@
         <v>45080</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -42750,7 +42750,7 @@
         <v>45080</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -42807,7 +42807,7 @@
         <v>45082</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -42864,7 +42864,7 @@
         <v>45084</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -42921,7 +42921,7 @@
         <v>45085</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -42978,7 +42978,7 @@
         <v>45085</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43035,7 +43035,7 @@
         <v>45085</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43092,7 +43092,7 @@
         <v>45085</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43149,7 +43149,7 @@
         <v>45085</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43206,7 +43206,7 @@
         <v>45089</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43263,7 +43263,7 @@
         <v>45090</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43320,7 +43320,7 @@
         <v>45091</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43377,7 +43377,7 @@
         <v>45091</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43434,7 +43434,7 @@
         <v>45092</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43491,7 +43491,7 @@
         <v>45092</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -43548,7 +43548,7 @@
         <v>45092</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -43605,7 +43605,7 @@
         <v>45092</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -43662,7 +43662,7 @@
         <v>45093</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -43719,7 +43719,7 @@
         <v>45094</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -43776,7 +43776,7 @@
         <v>45097</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -43833,7 +43833,7 @@
         <v>45098</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -43890,7 +43890,7 @@
         <v>45098</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -43947,7 +43947,7 @@
         <v>45106</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44004,7 +44004,7 @@
         <v>45106</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44061,7 +44061,7 @@
         <v>45106</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44118,7 +44118,7 @@
         <v>45106</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44175,7 +44175,7 @@
         <v>45106</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44232,7 +44232,7 @@
         <v>45107</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44289,7 +44289,7 @@
         <v>45107</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44346,7 +44346,7 @@
         <v>45107</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44403,7 +44403,7 @@
         <v>45108</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44460,7 +44460,7 @@
         <v>45113</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -44517,7 +44517,7 @@
         <v>45113</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -44574,7 +44574,7 @@
         <v>45119</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -44631,7 +44631,7 @@
         <v>45125</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -44688,7 +44688,7 @@
         <v>45127</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -44745,7 +44745,7 @@
         <v>45127</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -44802,7 +44802,7 @@
         <v>45127</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -44859,7 +44859,7 @@
         <v>45132</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -44916,7 +44916,7 @@
         <v>45140</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -44973,7 +44973,7 @@
         <v>45142</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45030,7 +45030,7 @@
         <v>45142</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45087,7 +45087,7 @@
         <v>45142</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45144,7 +45144,7 @@
         <v>45147</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45201,7 +45201,7 @@
         <v>45148</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45258,7 +45258,7 @@
         <v>45155</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45315,7 +45315,7 @@
         <v>45155</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45372,7 +45372,7 @@
         <v>45159</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -45429,7 +45429,7 @@
         <v>45159</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -45486,7 +45486,7 @@
         <v>45162</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -45543,7 +45543,7 @@
         <v>45162</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -45600,7 +45600,7 @@
         <v>45163</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -45657,7 +45657,7 @@
         <v>45169</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -45714,7 +45714,7 @@
         <v>45170</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -45771,7 +45771,7 @@
         <v>45170</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>

--- a/Översikt KARLSKRONA.xlsx
+++ b/Översikt KARLSKRONA.xlsx
@@ -572,7 +572,7 @@
         <v>45051</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>43640</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>44509</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>45101</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>43315</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43843</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>44960</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>45027</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>43356</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>43447</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>43963</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44021</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>44132</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>44139</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>44139</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>44140</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>44159</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>44237</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>44445</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
         <v>44467</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>44531</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>44728</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>45037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>43321</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>43332</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43335</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>43341</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43342</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>43349</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43350</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>43356</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         <v>43357</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43359</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43361</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>43363</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>43367</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>43368</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>43368</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>43369</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>43375</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         <v>43376</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>43384</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3635,7 +3635,7 @@
         <v>43396</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>43396</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>43396</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3806,7 +3806,7 @@
         <v>43397</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>43398</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>43398</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>43398</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>43398</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>43402</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>43403</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>43403</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>43405</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>43409</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>43410</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4443,7 +4443,7 @@
         <v>43410</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>43411</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43412</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>43413</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>43416</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>43416</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>43416</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>43417</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>43419</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>43419</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>43420</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>43420</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>43423</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>43424</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>43426</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>43430</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>43430</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>43431</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>43431</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>43434</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         <v>43434</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>43434</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>43437</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>43437</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5816,7 +5816,7 @@
         <v>43437</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>43438</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>43446</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5987,7 +5987,7 @@
         <v>43451</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6044,7 +6044,7 @@
         <v>43451</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>43451</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>43451</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6215,7 +6215,7 @@
         <v>43451</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>43451</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>43453</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         <v>43454</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6443,7 +6443,7 @@
         <v>43454</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6500,7 +6500,7 @@
         <v>43461</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6557,7 +6557,7 @@
         <v>43465</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6614,7 +6614,7 @@
         <v>43467</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6671,7 +6671,7 @@
         <v>43467</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
         <v>43468</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6785,7 +6785,7 @@
         <v>43473</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6842,7 +6842,7 @@
         <v>43475</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6899,7 +6899,7 @@
         <v>43475</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
         <v>43476</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7013,7 +7013,7 @@
         <v>43476</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7070,7 +7070,7 @@
         <v>43479</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7127,7 +7127,7 @@
         <v>43480</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7184,7 +7184,7 @@
         <v>43480</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7241,7 +7241,7 @@
         <v>43481</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7298,7 +7298,7 @@
         <v>43483</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7355,7 +7355,7 @@
         <v>43485</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7412,7 +7412,7 @@
         <v>43485</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7469,7 +7469,7 @@
         <v>43488</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         <v>43488</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>43488</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>43489</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7697,7 +7697,7 @@
         <v>43493</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>43493</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>43493</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>43493</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>43494</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>43496</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43497</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43497</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43500</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43501</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43508</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43508</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43508</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>43510</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8500,7 +8500,7 @@
         <v>43511</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>43516</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>43517</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         <v>43517</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>43518</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         <v>43521</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>43523</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         <v>43529</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>43529</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>43532</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9075,7 +9075,7 @@
         <v>43535</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9132,7 +9132,7 @@
         <v>43537</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         <v>43538</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9246,7 +9246,7 @@
         <v>43538</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9303,7 +9303,7 @@
         <v>43538</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>43538</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>43542</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9474,7 +9474,7 @@
         <v>43543</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>43546</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>43549</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9645,7 +9645,7 @@
         <v>43549</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9702,7 +9702,7 @@
         <v>43549</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>43567</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>43567</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>43571</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9930,7 +9930,7 @@
         <v>43572</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9987,7 +9987,7 @@
         <v>43573</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10044,7 +10044,7 @@
         <v>43580</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43584</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43587</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43592</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>43593</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43594</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>43594</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>43594</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43595</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         <v>43601</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10614,7 +10614,7 @@
         <v>43601</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10671,7 +10671,7 @@
         <v>43602</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10728,7 +10728,7 @@
         <v>43609</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10785,7 +10785,7 @@
         <v>43626</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10842,7 +10842,7 @@
         <v>43626</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>43626</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>43627</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>43640</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11075,7 +11075,7 @@
         <v>43644</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>43648</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11189,7 +11189,7 @@
         <v>43650</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11246,7 +11246,7 @@
         <v>43650</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11303,7 +11303,7 @@
         <v>43655</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11360,7 +11360,7 @@
         <v>43663</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11417,7 +11417,7 @@
         <v>43668</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11474,7 +11474,7 @@
         <v>43671</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11531,7 +11531,7 @@
         <v>43676</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11588,7 +11588,7 @@
         <v>43682</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11645,7 +11645,7 @@
         <v>43683</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11702,7 +11702,7 @@
         <v>43684</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11764,7 +11764,7 @@
         <v>43684</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11821,7 +11821,7 @@
         <v>43684</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11878,7 +11878,7 @@
         <v>43684</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11935,7 +11935,7 @@
         <v>43686</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11992,7 +11992,7 @@
         <v>43686</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12049,7 +12049,7 @@
         <v>43690</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12106,7 +12106,7 @@
         <v>43691</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         <v>43692</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12220,7 +12220,7 @@
         <v>43692</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12277,7 +12277,7 @@
         <v>43692</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         <v>43692</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         <v>43698</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12448,7 +12448,7 @@
         <v>43698</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12505,7 +12505,7 @@
         <v>43698</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12562,7 +12562,7 @@
         <v>43698</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         <v>43698</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12676,7 +12676,7 @@
         <v>43698</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12733,7 +12733,7 @@
         <v>43698</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12790,7 +12790,7 @@
         <v>43698</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12847,7 +12847,7 @@
         <v>43698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12904,7 +12904,7 @@
         <v>43698</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12961,7 +12961,7 @@
         <v>43698</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13018,7 +13018,7 @@
         <v>43698</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13075,7 +13075,7 @@
         <v>43698</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13132,7 +13132,7 @@
         <v>43699</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13189,7 +13189,7 @@
         <v>43701</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13246,7 +13246,7 @@
         <v>43701</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13303,7 +13303,7 @@
         <v>43706</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13360,7 +13360,7 @@
         <v>43710</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13417,7 +13417,7 @@
         <v>43710</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>43711</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13531,7 +13531,7 @@
         <v>43711</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         <v>43712</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
         <v>43712</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         <v>43712</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         <v>43712</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>43712</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>43712</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13935,7 +13935,7 @@
         <v>43718</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13992,7 +13992,7 @@
         <v>43718</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14049,7 +14049,7 @@
         <v>43719</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14106,7 +14106,7 @@
         <v>43719</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14163,7 +14163,7 @@
         <v>43719</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14220,7 +14220,7 @@
         <v>43720</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14277,7 +14277,7 @@
         <v>43720</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14334,7 +14334,7 @@
         <v>43721</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14391,7 +14391,7 @@
         <v>43727</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         <v>43732</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>43735</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14562,7 +14562,7 @@
         <v>43738</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14619,7 +14619,7 @@
         <v>43742</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14676,7 +14676,7 @@
         <v>43746</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14733,7 +14733,7 @@
         <v>43746</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14790,7 +14790,7 @@
         <v>43747</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14847,7 +14847,7 @@
         <v>43748</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14904,7 +14904,7 @@
         <v>43753</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14961,7 +14961,7 @@
         <v>43753</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>43754</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15075,7 +15075,7 @@
         <v>43756</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15132,7 +15132,7 @@
         <v>43760</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15189,7 +15189,7 @@
         <v>43760</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>43761</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15303,7 +15303,7 @@
         <v>43763</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>43763</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>43763</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>43766</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>43766</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>43770</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>43773</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>43774</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15759,7 +15759,7 @@
         <v>43775</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>43775</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15873,7 +15873,7 @@
         <v>43777</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>43782</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>43783</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>43783</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         <v>43788</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>43788</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16215,7 +16215,7 @@
         <v>43789</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>43790</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         <v>43812</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         <v>43812</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16443,7 +16443,7 @@
         <v>43817</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16500,7 +16500,7 @@
         <v>43818</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>43832</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>43832</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>43833</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16728,7 +16728,7 @@
         <v>43837</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16785,7 +16785,7 @@
         <v>43838</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>43838</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>43840</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>43844</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>43844</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>43845</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>43845</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>43849</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17241,7 +17241,7 @@
         <v>43850</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17298,7 +17298,7 @@
         <v>43852</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17355,7 +17355,7 @@
         <v>43852</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>43854</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>43867</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17526,7 +17526,7 @@
         <v>43867</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>43870</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>43870</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>43872</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>43875</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>43879</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>43887</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17925,7 +17925,7 @@
         <v>43887</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17982,7 +17982,7 @@
         <v>43889</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         <v>43889</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18096,7 +18096,7 @@
         <v>43889</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>43894</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18210,7 +18210,7 @@
         <v>43900</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18267,7 +18267,7 @@
         <v>43902</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18324,7 +18324,7 @@
         <v>43902</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18381,7 +18381,7 @@
         <v>43902</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
         <v>43902</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18495,7 +18495,7 @@
         <v>43907</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18552,7 +18552,7 @@
         <v>43907</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18609,7 +18609,7 @@
         <v>43907</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18666,7 +18666,7 @@
         <v>43907</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18723,7 +18723,7 @@
         <v>43913</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18780,7 +18780,7 @@
         <v>43914</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
         <v>43914</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18894,7 +18894,7 @@
         <v>43915</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18951,7 +18951,7 @@
         <v>43915</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19008,7 +19008,7 @@
         <v>43916</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19065,7 +19065,7 @@
         <v>43916</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19122,7 +19122,7 @@
         <v>43917</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19179,7 +19179,7 @@
         <v>43920</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19236,7 +19236,7 @@
         <v>43920</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19293,7 +19293,7 @@
         <v>43920</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19350,7 +19350,7 @@
         <v>43920</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19407,7 +19407,7 @@
         <v>43921</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19464,7 +19464,7 @@
         <v>43923</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19521,7 +19521,7 @@
         <v>43923</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19583,7 +19583,7 @@
         <v>43923</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19640,7 +19640,7 @@
         <v>43925</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19697,7 +19697,7 @@
         <v>43926</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19754,7 +19754,7 @@
         <v>43927</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19811,7 +19811,7 @@
         <v>43927</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19868,7 +19868,7 @@
         <v>43927</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19925,7 +19925,7 @@
         <v>43927</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>43935</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20039,7 +20039,7 @@
         <v>43937</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20096,7 +20096,7 @@
         <v>43937</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>43937</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20210,7 +20210,7 @@
         <v>43938</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20272,7 +20272,7 @@
         <v>43950</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>43977</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>43977</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20448,7 +20448,7 @@
         <v>43977</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20505,7 +20505,7 @@
         <v>43980</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20562,7 +20562,7 @@
         <v>43980</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20619,7 +20619,7 @@
         <v>43986</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20676,7 +20676,7 @@
         <v>43992</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20733,7 +20733,7 @@
         <v>43993</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20790,7 +20790,7 @@
         <v>44005</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         <v>44006</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20904,7 +20904,7 @@
         <v>44007</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20961,7 +20961,7 @@
         <v>44008</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21018,7 +21018,7 @@
         <v>44014</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21075,7 +21075,7 @@
         <v>44015</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21132,7 +21132,7 @@
         <v>44018</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21189,7 +21189,7 @@
         <v>44019</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21246,7 +21246,7 @@
         <v>44026</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21303,7 +21303,7 @@
         <v>44039</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21360,7 +21360,7 @@
         <v>44046</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21417,7 +21417,7 @@
         <v>44048</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21474,7 +21474,7 @@
         <v>44053</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21531,7 +21531,7 @@
         <v>44053</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
         <v>44053</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         <v>44054</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21702,7 +21702,7 @@
         <v>44055</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21759,7 +21759,7 @@
         <v>44055</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21816,7 +21816,7 @@
         <v>44055</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21873,7 +21873,7 @@
         <v>44055</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21930,7 +21930,7 @@
         <v>44057</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44060</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44060</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>44060</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>44062</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44062</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44062</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44071</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44074</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>44075</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>44080</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>44081</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>44083</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22671,7 +22671,7 @@
         <v>44088</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22728,7 +22728,7 @@
         <v>44088</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22785,7 +22785,7 @@
         <v>44090</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22842,7 +22842,7 @@
         <v>44090</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>44090</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22956,7 +22956,7 @@
         <v>44103</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         <v>44113</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>44113</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23127,7 +23127,7 @@
         <v>44120</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23184,7 +23184,7 @@
         <v>44120</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23241,7 +23241,7 @@
         <v>44123</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23298,7 +23298,7 @@
         <v>44124</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23355,7 +23355,7 @@
         <v>44124</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23412,7 +23412,7 @@
         <v>44125</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23469,7 +23469,7 @@
         <v>44127</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23526,7 +23526,7 @@
         <v>44131</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23583,7 +23583,7 @@
         <v>44132</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23640,7 +23640,7 @@
         <v>44132</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23697,7 +23697,7 @@
         <v>44132</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23754,7 +23754,7 @@
         <v>44132</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23811,7 +23811,7 @@
         <v>44132</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23868,7 +23868,7 @@
         <v>44133</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23925,7 +23925,7 @@
         <v>44139</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23982,7 +23982,7 @@
         <v>44139</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24039,7 +24039,7 @@
         <v>44140</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24096,7 +24096,7 @@
         <v>44140</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24153,7 +24153,7 @@
         <v>44140</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24210,7 +24210,7 @@
         <v>44144</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24267,7 +24267,7 @@
         <v>44146</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24324,7 +24324,7 @@
         <v>44146</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         <v>44152</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24438,7 +24438,7 @@
         <v>44153</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24495,7 +24495,7 @@
         <v>44154</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24552,7 +24552,7 @@
         <v>44166</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24609,7 +24609,7 @@
         <v>44167</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24666,7 +24666,7 @@
         <v>44169</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24723,7 +24723,7 @@
         <v>44174</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24780,7 +24780,7 @@
         <v>44179</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24837,7 +24837,7 @@
         <v>44179</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24894,7 +24894,7 @@
         <v>44186</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24951,7 +24951,7 @@
         <v>44188</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25008,7 +25008,7 @@
         <v>44188</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25065,7 +25065,7 @@
         <v>44200</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25122,7 +25122,7 @@
         <v>44202</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25179,7 +25179,7 @@
         <v>44204</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25236,7 +25236,7 @@
         <v>44204</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25293,7 +25293,7 @@
         <v>44204</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25350,7 +25350,7 @@
         <v>44207</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25407,7 +25407,7 @@
         <v>44208</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25464,7 +25464,7 @@
         <v>44208</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25521,7 +25521,7 @@
         <v>44208</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>44209</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         <v>44211</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>44217</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         <v>44222</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25806,7 +25806,7 @@
         <v>44223</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25863,7 +25863,7 @@
         <v>44225</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25920,7 +25920,7 @@
         <v>44225</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25977,7 +25977,7 @@
         <v>44225</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>44230</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>44235</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>44235</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>44235</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>44235</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>44241</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26376,7 +26376,7 @@
         <v>44253</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26433,7 +26433,7 @@
         <v>44256</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26490,7 +26490,7 @@
         <v>44257</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26547,7 +26547,7 @@
         <v>44259</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26604,7 +26604,7 @@
         <v>44259</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26661,7 +26661,7 @@
         <v>44267</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26718,7 +26718,7 @@
         <v>44267</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26775,7 +26775,7 @@
         <v>44270</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26832,7 +26832,7 @@
         <v>44275</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26889,7 +26889,7 @@
         <v>44279</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         <v>44281</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27003,7 +27003,7 @@
         <v>44284</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27060,7 +27060,7 @@
         <v>44284</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27117,7 +27117,7 @@
         <v>44284</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27174,7 +27174,7 @@
         <v>44285</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27231,7 +27231,7 @@
         <v>44286</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27288,7 +27288,7 @@
         <v>44292</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27345,7 +27345,7 @@
         <v>44300</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27402,7 +27402,7 @@
         <v>44300</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27464,7 +27464,7 @@
         <v>44302</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27521,7 +27521,7 @@
         <v>44302</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27578,7 +27578,7 @@
         <v>44302</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27635,7 +27635,7 @@
         <v>44302</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27692,7 +27692,7 @@
         <v>44305</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27749,7 +27749,7 @@
         <v>44305</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27806,7 +27806,7 @@
         <v>44305</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27863,7 +27863,7 @@
         <v>44306</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27920,7 +27920,7 @@
         <v>44309</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27977,7 +27977,7 @@
         <v>44323</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28034,7 +28034,7 @@
         <v>44323</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28091,7 +28091,7 @@
         <v>44325</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28148,7 +28148,7 @@
         <v>44327</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28205,7 +28205,7 @@
         <v>44333</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28262,7 +28262,7 @@
         <v>44342</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28319,7 +28319,7 @@
         <v>44342</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28376,7 +28376,7 @@
         <v>44342</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28433,7 +28433,7 @@
         <v>44342</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28490,7 +28490,7 @@
         <v>44343</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28547,7 +28547,7 @@
         <v>44349</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28604,7 +28604,7 @@
         <v>44350</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28661,7 +28661,7 @@
         <v>44350</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28718,7 +28718,7 @@
         <v>44350</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28775,7 +28775,7 @@
         <v>44354</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28832,7 +28832,7 @@
         <v>44356</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28889,7 +28889,7 @@
         <v>44364</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         <v>44365</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29003,7 +29003,7 @@
         <v>44365</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29060,7 +29060,7 @@
         <v>44368</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29117,7 +29117,7 @@
         <v>44375</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29174,7 +29174,7 @@
         <v>44383</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29231,7 +29231,7 @@
         <v>44384</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29288,7 +29288,7 @@
         <v>44384</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29345,7 +29345,7 @@
         <v>44391</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29402,7 +29402,7 @@
         <v>44391</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29459,7 +29459,7 @@
         <v>44397</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29516,7 +29516,7 @@
         <v>44398</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29573,7 +29573,7 @@
         <v>44399</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29630,7 +29630,7 @@
         <v>44399</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29687,7 +29687,7 @@
         <v>44406</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29744,7 +29744,7 @@
         <v>44411</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29801,7 +29801,7 @@
         <v>44411</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29858,7 +29858,7 @@
         <v>44420</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29915,7 +29915,7 @@
         <v>44420</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29972,7 +29972,7 @@
         <v>44421</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30029,7 +30029,7 @@
         <v>44424</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30086,7 +30086,7 @@
         <v>44425</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30143,7 +30143,7 @@
         <v>44433</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30200,7 +30200,7 @@
         <v>44435</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30257,7 +30257,7 @@
         <v>44435</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30314,7 +30314,7 @@
         <v>44440</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30371,7 +30371,7 @@
         <v>44440</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30433,7 +30433,7 @@
         <v>44441</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30490,7 +30490,7 @@
         <v>44441</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         <v>44441</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30604,7 +30604,7 @@
         <v>44442</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30661,7 +30661,7 @@
         <v>44447</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30718,7 +30718,7 @@
         <v>44449</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30775,7 +30775,7 @@
         <v>44452</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30832,7 +30832,7 @@
         <v>44452</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30889,7 +30889,7 @@
         <v>44458</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         <v>44461</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31003,7 +31003,7 @@
         <v>44461</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31060,7 +31060,7 @@
         <v>44462</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31117,7 +31117,7 @@
         <v>44466</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31174,7 +31174,7 @@
         <v>44468</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31231,7 +31231,7 @@
         <v>44473</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31288,7 +31288,7 @@
         <v>44476</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31345,7 +31345,7 @@
         <v>44481</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31402,7 +31402,7 @@
         <v>44491</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31459,7 +31459,7 @@
         <v>44496</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31516,7 +31516,7 @@
         <v>44496</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31573,7 +31573,7 @@
         <v>44497</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31630,7 +31630,7 @@
         <v>44498</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31687,7 +31687,7 @@
         <v>44502</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31744,7 +31744,7 @@
         <v>44503</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31801,7 +31801,7 @@
         <v>44503</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31858,7 +31858,7 @@
         <v>44512</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         <v>44515</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31972,7 +31972,7 @@
         <v>44516</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32029,7 +32029,7 @@
         <v>44517</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32086,7 +32086,7 @@
         <v>44523</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32143,7 +32143,7 @@
         <v>44529</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32200,7 +32200,7 @@
         <v>44530</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32257,7 +32257,7 @@
         <v>44539</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32314,7 +32314,7 @@
         <v>44543</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32371,7 +32371,7 @@
         <v>44551</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32428,7 +32428,7 @@
         <v>44553</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32485,7 +32485,7 @@
         <v>44559</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32542,7 +32542,7 @@
         <v>44572</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32599,7 +32599,7 @@
         <v>44572</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32656,7 +32656,7 @@
         <v>44578</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32713,7 +32713,7 @@
         <v>44579</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32770,7 +32770,7 @@
         <v>44584</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32827,7 +32827,7 @@
         <v>44585</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32884,7 +32884,7 @@
         <v>44585</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32941,7 +32941,7 @@
         <v>44586</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -32998,7 +32998,7 @@
         <v>44588</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33055,7 +33055,7 @@
         <v>44592</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33112,7 +33112,7 @@
         <v>44595</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33169,7 +33169,7 @@
         <v>44596</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33231,7 +33231,7 @@
         <v>44596</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33288,7 +33288,7 @@
         <v>44599</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33345,7 +33345,7 @@
         <v>44600</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33402,7 +33402,7 @@
         <v>44608</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33459,7 +33459,7 @@
         <v>44614</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33516,7 +33516,7 @@
         <v>44616</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33573,7 +33573,7 @@
         <v>44617</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33630,7 +33630,7 @@
         <v>44619</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33687,7 +33687,7 @@
         <v>44619</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33744,7 +33744,7 @@
         <v>44620</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33801,7 +33801,7 @@
         <v>44620</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33858,7 +33858,7 @@
         <v>44621</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33915,7 +33915,7 @@
         <v>44623</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -33972,7 +33972,7 @@
         <v>44624</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34029,7 +34029,7 @@
         <v>44624</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34086,7 +34086,7 @@
         <v>44628</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34143,7 +34143,7 @@
         <v>44629</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34200,7 +34200,7 @@
         <v>44629</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34257,7 +34257,7 @@
         <v>44636</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34314,7 +34314,7 @@
         <v>44636</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34371,7 +34371,7 @@
         <v>44637</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34428,7 +34428,7 @@
         <v>44644</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34485,7 +34485,7 @@
         <v>44657</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34542,7 +34542,7 @@
         <v>44663</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34599,7 +34599,7 @@
         <v>44670</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34656,7 +34656,7 @@
         <v>44672</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34713,7 +34713,7 @@
         <v>44686</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34770,7 +34770,7 @@
         <v>44687</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34827,7 +34827,7 @@
         <v>44687</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34884,7 +34884,7 @@
         <v>44693</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -34941,7 +34941,7 @@
         <v>44696</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -34998,7 +34998,7 @@
         <v>44698</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35055,7 +35055,7 @@
         <v>44700</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35112,7 +35112,7 @@
         <v>44705</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35169,7 +35169,7 @@
         <v>44706</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35226,7 +35226,7 @@
         <v>44706</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35283,7 +35283,7 @@
         <v>44710</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35340,7 +35340,7 @@
         <v>44711</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35397,7 +35397,7 @@
         <v>44720</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35454,7 +35454,7 @@
         <v>44725</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35511,7 +35511,7 @@
         <v>44742</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35568,7 +35568,7 @@
         <v>44742</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35625,7 +35625,7 @@
         <v>44742</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35682,7 +35682,7 @@
         <v>44742</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35739,7 +35739,7 @@
         <v>44747</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35796,7 +35796,7 @@
         <v>44747</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35853,7 +35853,7 @@
         <v>44748</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -35910,7 +35910,7 @@
         <v>44753</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -35967,7 +35967,7 @@
         <v>44754</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36024,7 +36024,7 @@
         <v>44754</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36081,7 +36081,7 @@
         <v>44757</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36138,7 +36138,7 @@
         <v>44757</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36195,7 +36195,7 @@
         <v>44767</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36252,7 +36252,7 @@
         <v>44799</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36309,7 +36309,7 @@
         <v>44806</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36366,7 +36366,7 @@
         <v>44812</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36423,7 +36423,7 @@
         <v>44820</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36480,7 +36480,7 @@
         <v>44820</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36537,7 +36537,7 @@
         <v>44825</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36594,7 +36594,7 @@
         <v>44826</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36651,7 +36651,7 @@
         <v>44832</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36708,7 +36708,7 @@
         <v>44832</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36765,7 +36765,7 @@
         <v>44837</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -36822,7 +36822,7 @@
         <v>44844</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -36879,7 +36879,7 @@
         <v>44845</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -36936,7 +36936,7 @@
         <v>44847</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -36993,7 +36993,7 @@
         <v>44847</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37050,7 +37050,7 @@
         <v>44847</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37107,7 +37107,7 @@
         <v>44856</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37164,7 +37164,7 @@
         <v>44858</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37221,7 +37221,7 @@
         <v>44858</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37278,7 +37278,7 @@
         <v>44860</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37335,7 +37335,7 @@
         <v>44860</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37392,7 +37392,7 @@
         <v>44860</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37449,7 +37449,7 @@
         <v>44862</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37506,7 +37506,7 @@
         <v>44865</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37563,7 +37563,7 @@
         <v>44866</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37620,7 +37620,7 @@
         <v>44866</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37677,7 +37677,7 @@
         <v>44867</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37734,7 +37734,7 @@
         <v>44874</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -37791,7 +37791,7 @@
         <v>44874</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -37848,7 +37848,7 @@
         <v>44874</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -37905,7 +37905,7 @@
         <v>44875</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -37962,7 +37962,7 @@
         <v>44879</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38019,7 +38019,7 @@
         <v>44881</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38076,7 +38076,7 @@
         <v>44890</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38133,7 +38133,7 @@
         <v>44893</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38190,7 +38190,7 @@
         <v>44893</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38247,7 +38247,7 @@
         <v>44893</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38304,7 +38304,7 @@
         <v>44903</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38361,7 +38361,7 @@
         <v>44909</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38418,7 +38418,7 @@
         <v>44911</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38475,7 +38475,7 @@
         <v>44911</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38532,7 +38532,7 @@
         <v>44920</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38589,7 +38589,7 @@
         <v>44930</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38646,7 +38646,7 @@
         <v>44930</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38703,7 +38703,7 @@
         <v>44936</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38760,7 +38760,7 @@
         <v>44939</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -38817,7 +38817,7 @@
         <v>44942</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -38874,7 +38874,7 @@
         <v>44950</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -38931,7 +38931,7 @@
         <v>44951</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -38988,7 +38988,7 @@
         <v>44952</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39045,7 +39045,7 @@
         <v>44957</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39102,7 +39102,7 @@
         <v>44958</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39159,7 +39159,7 @@
         <v>44967</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39216,7 +39216,7 @@
         <v>44967</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39273,7 +39273,7 @@
         <v>44970</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39330,7 +39330,7 @@
         <v>44981</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39387,7 +39387,7 @@
         <v>44981</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39444,7 +39444,7 @@
         <v>44984</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39501,7 +39501,7 @@
         <v>44986</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39558,7 +39558,7 @@
         <v>44988</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39615,7 +39615,7 @@
         <v>44988</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39672,7 +39672,7 @@
         <v>44988</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39729,7 +39729,7 @@
         <v>44988</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -39786,7 +39786,7 @@
         <v>44998</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -39843,7 +39843,7 @@
         <v>45001</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -39900,7 +39900,7 @@
         <v>45004</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -39957,7 +39957,7 @@
         <v>45005</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40014,7 +40014,7 @@
         <v>45012</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40071,7 +40071,7 @@
         <v>45012</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40128,7 +40128,7 @@
         <v>45012</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40185,7 +40185,7 @@
         <v>45012</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40242,7 +40242,7 @@
         <v>45015</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40299,7 +40299,7 @@
         <v>45016</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40356,7 +40356,7 @@
         <v>45019</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40413,7 +40413,7 @@
         <v>45019</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40470,7 +40470,7 @@
         <v>45020</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40527,7 +40527,7 @@
         <v>45027</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40584,7 +40584,7 @@
         <v>45027</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40641,7 +40641,7 @@
         <v>45027</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40698,7 +40698,7 @@
         <v>45028</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40755,7 +40755,7 @@
         <v>45030</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -40812,7 +40812,7 @@
         <v>45034</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -40869,7 +40869,7 @@
         <v>45034</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -40926,7 +40926,7 @@
         <v>45035</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -40983,7 +40983,7 @@
         <v>45035</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41040,7 +41040,7 @@
         <v>45037</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41097,7 +41097,7 @@
         <v>45040</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41154,7 +41154,7 @@
         <v>45040</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41211,7 +41211,7 @@
         <v>45042</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41268,7 +41268,7 @@
         <v>45048</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41325,7 +41325,7 @@
         <v>45048</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41382,7 +41382,7 @@
         <v>45050</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41439,7 +41439,7 @@
         <v>45050</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41496,7 +41496,7 @@
         <v>45050</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41553,7 +41553,7 @@
         <v>45050</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41610,7 +41610,7 @@
         <v>45055</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41667,7 +41667,7 @@
         <v>45056</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41724,7 +41724,7 @@
         <v>45057</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -41781,7 +41781,7 @@
         <v>45057</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -41838,7 +41838,7 @@
         <v>45057</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -41895,7 +41895,7 @@
         <v>45057</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -41952,7 +41952,7 @@
         <v>45058</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42009,7 +42009,7 @@
         <v>45065</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42066,7 +42066,7 @@
         <v>45069</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42123,7 +42123,7 @@
         <v>45069</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42180,7 +42180,7 @@
         <v>45070</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42237,7 +42237,7 @@
         <v>45070</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42294,7 +42294,7 @@
         <v>45070</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42351,7 +42351,7 @@
         <v>45070</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42408,7 +42408,7 @@
         <v>45075</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42465,7 +42465,7 @@
         <v>45076</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42522,7 +42522,7 @@
         <v>45076</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42579,7 +42579,7 @@
         <v>45077</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42636,7 +42636,7 @@
         <v>45079</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42693,7 +42693,7 @@
         <v>45080</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -42750,7 +42750,7 @@
         <v>45080</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -42807,7 +42807,7 @@
         <v>45082</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -42864,7 +42864,7 @@
         <v>45084</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -42921,7 +42921,7 @@
         <v>45085</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -42978,7 +42978,7 @@
         <v>45085</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43035,7 +43035,7 @@
         <v>45085</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43092,7 +43092,7 @@
         <v>45085</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43149,7 +43149,7 @@
         <v>45085</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43206,7 +43206,7 @@
         <v>45089</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43263,7 +43263,7 @@
         <v>45090</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43320,7 +43320,7 @@
         <v>45091</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43377,7 +43377,7 @@
         <v>45091</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43434,7 +43434,7 @@
         <v>45092</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43491,7 +43491,7 @@
         <v>45092</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -43548,7 +43548,7 @@
         <v>45092</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -43605,7 +43605,7 @@
         <v>45092</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -43662,7 +43662,7 @@
         <v>45093</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -43719,7 +43719,7 @@
         <v>45094</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -43776,7 +43776,7 @@
         <v>45097</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -43833,7 +43833,7 @@
         <v>45098</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -43890,7 +43890,7 @@
         <v>45098</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -43947,7 +43947,7 @@
         <v>45106</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44004,7 +44004,7 @@
         <v>45106</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44061,7 +44061,7 @@
         <v>45106</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44118,7 +44118,7 @@
         <v>45106</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44175,7 +44175,7 @@
         <v>45106</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44232,7 +44232,7 @@
         <v>45107</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44289,7 +44289,7 @@
         <v>45107</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44346,7 +44346,7 @@
         <v>45107</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44403,7 +44403,7 @@
         <v>45108</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44460,7 +44460,7 @@
         <v>45113</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -44517,7 +44517,7 @@
         <v>45113</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -44574,7 +44574,7 @@
         <v>45119</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -44631,7 +44631,7 @@
         <v>45125</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -44688,7 +44688,7 @@
         <v>45127</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -44745,7 +44745,7 @@
         <v>45127</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -44802,7 +44802,7 @@
         <v>45127</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -44859,7 +44859,7 @@
         <v>45132</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -44916,7 +44916,7 @@
         <v>45140</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -44973,7 +44973,7 @@
         <v>45142</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45030,7 +45030,7 @@
         <v>45142</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45087,7 +45087,7 @@
         <v>45142</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45144,7 +45144,7 @@
         <v>45147</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45201,7 +45201,7 @@
         <v>45148</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45258,7 +45258,7 @@
         <v>45155</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45315,7 +45315,7 @@
         <v>45155</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45372,7 +45372,7 @@
         <v>45159</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -45429,7 +45429,7 @@
         <v>45159</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -45486,7 +45486,7 @@
         <v>45162</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -45543,7 +45543,7 @@
         <v>45162</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -45600,7 +45600,7 @@
         <v>45163</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -45657,7 +45657,7 @@
         <v>45169</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -45714,7 +45714,7 @@
         <v>45170</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -45771,7 +45771,7 @@
         <v>45170</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>

--- a/Översikt KARLSKRONA.xlsx
+++ b/Översikt KARLSKRONA.xlsx
@@ -572,7 +572,7 @@
         <v>45051</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>43640</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>44509</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>45101</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>43315</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43843</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>44960</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>45027</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>43356</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>43447</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>43963</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44021</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>44132</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>44139</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>44139</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>44140</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>44159</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>44237</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>44445</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
         <v>44467</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>44531</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>44728</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>45037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>43321</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>43332</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43335</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>43341</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43342</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>43349</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43350</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>43356</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         <v>43357</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43359</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43361</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>43363</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>43367</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>43368</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>43368</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>43369</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>43375</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         <v>43376</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>43384</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3635,7 +3635,7 @@
         <v>43396</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>43396</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>43396</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3806,7 +3806,7 @@
         <v>43397</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>43398</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>43398</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>43398</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>43398</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>43402</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>43403</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>43403</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>43405</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>43409</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>43410</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4443,7 +4443,7 @@
         <v>43410</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>43411</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43412</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>43413</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>43416</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>43416</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>43416</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>43417</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>43419</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>43419</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>43420</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>43420</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>43423</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>43424</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>43426</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>43430</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>43430</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>43431</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>43431</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>43434</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         <v>43434</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>43434</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>43437</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>43437</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5816,7 +5816,7 @@
         <v>43437</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>43438</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>43446</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5987,7 +5987,7 @@
         <v>43451</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6044,7 +6044,7 @@
         <v>43451</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>43451</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>43451</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6215,7 +6215,7 @@
         <v>43451</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>43451</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>43453</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         <v>43454</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6443,7 +6443,7 @@
         <v>43454</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6500,7 +6500,7 @@
         <v>43461</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6557,7 +6557,7 @@
         <v>43465</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6614,7 +6614,7 @@
         <v>43467</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6671,7 +6671,7 @@
         <v>43467</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
         <v>43468</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6785,7 +6785,7 @@
         <v>43473</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6842,7 +6842,7 @@
         <v>43475</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6899,7 +6899,7 @@
         <v>43475</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
         <v>43476</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7013,7 +7013,7 @@
         <v>43476</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7070,7 +7070,7 @@
         <v>43479</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7127,7 +7127,7 @@
         <v>43480</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7184,7 +7184,7 @@
         <v>43480</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7241,7 +7241,7 @@
         <v>43481</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7298,7 +7298,7 @@
         <v>43483</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7355,7 +7355,7 @@
         <v>43485</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7412,7 +7412,7 @@
         <v>43485</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7469,7 +7469,7 @@
         <v>43488</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         <v>43488</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>43488</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>43489</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7697,7 +7697,7 @@
         <v>43493</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>43493</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>43493</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>43493</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>43494</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>43496</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43497</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43497</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43500</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43501</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43508</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43508</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43508</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>43510</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8500,7 +8500,7 @@
         <v>43511</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>43516</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>43517</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         <v>43517</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>43518</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         <v>43521</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>43523</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         <v>43529</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>43529</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>43532</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9075,7 +9075,7 @@
         <v>43535</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9132,7 +9132,7 @@
         <v>43537</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         <v>43538</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9246,7 +9246,7 @@
         <v>43538</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9303,7 +9303,7 @@
         <v>43538</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>43538</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>43542</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9474,7 +9474,7 @@
         <v>43543</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>43546</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>43549</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9645,7 +9645,7 @@
         <v>43549</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9702,7 +9702,7 @@
         <v>43549</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>43567</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>43567</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>43571</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9930,7 +9930,7 @@
         <v>43572</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9987,7 +9987,7 @@
         <v>43573</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10044,7 +10044,7 @@
         <v>43580</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43584</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43587</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43592</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>43593</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43594</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>43594</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>43594</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43595</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         <v>43601</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10614,7 +10614,7 @@
         <v>43601</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10671,7 +10671,7 @@
         <v>43602</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10728,7 +10728,7 @@
         <v>43609</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10785,7 +10785,7 @@
         <v>43626</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10842,7 +10842,7 @@
         <v>43626</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>43626</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>43627</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>43640</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11075,7 +11075,7 @@
         <v>43644</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>43648</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11189,7 +11189,7 @@
         <v>43650</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11246,7 +11246,7 @@
         <v>43650</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11303,7 +11303,7 @@
         <v>43655</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11360,7 +11360,7 @@
         <v>43663</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11417,7 +11417,7 @@
         <v>43668</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11474,7 +11474,7 @@
         <v>43671</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11531,7 +11531,7 @@
         <v>43676</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11588,7 +11588,7 @@
         <v>43682</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11645,7 +11645,7 @@
         <v>43683</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11702,7 +11702,7 @@
         <v>43684</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11764,7 +11764,7 @@
         <v>43684</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11821,7 +11821,7 @@
         <v>43684</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11878,7 +11878,7 @@
         <v>43684</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11935,7 +11935,7 @@
         <v>43686</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11992,7 +11992,7 @@
         <v>43686</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12049,7 +12049,7 @@
         <v>43690</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12106,7 +12106,7 @@
         <v>43691</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         <v>43692</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12220,7 +12220,7 @@
         <v>43692</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12277,7 +12277,7 @@
         <v>43692</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         <v>43692</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         <v>43698</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12448,7 +12448,7 @@
         <v>43698</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12505,7 +12505,7 @@
         <v>43698</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12562,7 +12562,7 @@
         <v>43698</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         <v>43698</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12676,7 +12676,7 @@
         <v>43698</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12733,7 +12733,7 @@
         <v>43698</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12790,7 +12790,7 @@
         <v>43698</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12847,7 +12847,7 @@
         <v>43698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12904,7 +12904,7 @@
         <v>43698</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12961,7 +12961,7 @@
         <v>43698</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13018,7 +13018,7 @@
         <v>43698</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13075,7 +13075,7 @@
         <v>43698</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13132,7 +13132,7 @@
         <v>43699</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13189,7 +13189,7 @@
         <v>43701</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13246,7 +13246,7 @@
         <v>43701</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13303,7 +13303,7 @@
         <v>43706</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13360,7 +13360,7 @@
         <v>43710</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13417,7 +13417,7 @@
         <v>43710</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>43711</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13531,7 +13531,7 @@
         <v>43711</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         <v>43712</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
         <v>43712</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         <v>43712</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         <v>43712</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>43712</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>43712</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13935,7 +13935,7 @@
         <v>43718</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13992,7 +13992,7 @@
         <v>43718</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14049,7 +14049,7 @@
         <v>43719</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14106,7 +14106,7 @@
         <v>43719</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14163,7 +14163,7 @@
         <v>43719</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14220,7 +14220,7 @@
         <v>43720</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14277,7 +14277,7 @@
         <v>43720</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14334,7 +14334,7 @@
         <v>43721</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14391,7 +14391,7 @@
         <v>43727</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         <v>43732</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>43735</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14562,7 +14562,7 @@
         <v>43738</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14619,7 +14619,7 @@
         <v>43742</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14676,7 +14676,7 @@
         <v>43746</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14733,7 +14733,7 @@
         <v>43746</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14790,7 +14790,7 @@
         <v>43747</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14847,7 +14847,7 @@
         <v>43748</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14904,7 +14904,7 @@
         <v>43753</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14961,7 +14961,7 @@
         <v>43753</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>43754</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15075,7 +15075,7 @@
         <v>43756</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15132,7 +15132,7 @@
         <v>43760</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15189,7 +15189,7 @@
         <v>43760</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>43761</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15303,7 +15303,7 @@
         <v>43763</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>43763</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>43763</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>43766</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>43766</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>43770</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>43773</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>43774</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15759,7 +15759,7 @@
         <v>43775</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>43775</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15873,7 +15873,7 @@
         <v>43777</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>43782</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>43783</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>43783</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         <v>43788</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>43788</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16215,7 +16215,7 @@
         <v>43789</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>43790</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         <v>43812</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         <v>43812</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16443,7 +16443,7 @@
         <v>43817</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16500,7 +16500,7 @@
         <v>43818</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>43832</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>43832</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>43833</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16728,7 +16728,7 @@
         <v>43837</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16785,7 +16785,7 @@
         <v>43838</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>43838</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>43840</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>43844</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>43844</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>43845</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>43845</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>43849</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17241,7 +17241,7 @@
         <v>43850</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17298,7 +17298,7 @@
         <v>43852</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17355,7 +17355,7 @@
         <v>43852</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>43854</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>43867</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17526,7 +17526,7 @@
         <v>43867</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>43870</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>43870</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>43872</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>43875</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>43879</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>43887</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17925,7 +17925,7 @@
         <v>43887</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17982,7 +17982,7 @@
         <v>43889</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         <v>43889</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18096,7 +18096,7 @@
         <v>43889</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>43894</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18210,7 +18210,7 @@
         <v>43900</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18267,7 +18267,7 @@
         <v>43902</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18324,7 +18324,7 @@
         <v>43902</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18381,7 +18381,7 @@
         <v>43902</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
         <v>43902</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18495,7 +18495,7 @@
         <v>43907</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18552,7 +18552,7 @@
         <v>43907</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18609,7 +18609,7 @@
         <v>43907</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18666,7 +18666,7 @@
         <v>43907</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18723,7 +18723,7 @@
         <v>43913</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18780,7 +18780,7 @@
         <v>43914</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
         <v>43914</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18894,7 +18894,7 @@
         <v>43915</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18951,7 +18951,7 @@
         <v>43915</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19008,7 +19008,7 @@
         <v>43916</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19065,7 +19065,7 @@
         <v>43916</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19122,7 +19122,7 @@
         <v>43917</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19179,7 +19179,7 @@
         <v>43920</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19236,7 +19236,7 @@
         <v>43920</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19293,7 +19293,7 @@
         <v>43920</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19350,7 +19350,7 @@
         <v>43920</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19407,7 +19407,7 @@
         <v>43921</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19464,7 +19464,7 @@
         <v>43923</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19521,7 +19521,7 @@
         <v>43923</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19583,7 +19583,7 @@
         <v>43923</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19640,7 +19640,7 @@
         <v>43925</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19697,7 +19697,7 @@
         <v>43926</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19754,7 +19754,7 @@
         <v>43927</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19811,7 +19811,7 @@
         <v>43927</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19868,7 +19868,7 @@
         <v>43927</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19925,7 +19925,7 @@
         <v>43927</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>43935</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20039,7 +20039,7 @@
         <v>43937</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20096,7 +20096,7 @@
         <v>43937</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>43937</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20210,7 +20210,7 @@
         <v>43938</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20272,7 +20272,7 @@
         <v>43950</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>43977</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>43977</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20448,7 +20448,7 @@
         <v>43977</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20505,7 +20505,7 @@
         <v>43980</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20562,7 +20562,7 @@
         <v>43980</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20619,7 +20619,7 @@
         <v>43986</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20676,7 +20676,7 @@
         <v>43992</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20733,7 +20733,7 @@
         <v>43993</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20790,7 +20790,7 @@
         <v>44005</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         <v>44006</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20904,7 +20904,7 @@
         <v>44007</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20961,7 +20961,7 @@
         <v>44008</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21018,7 +21018,7 @@
         <v>44014</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21075,7 +21075,7 @@
         <v>44015</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21132,7 +21132,7 @@
         <v>44018</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21189,7 +21189,7 @@
         <v>44019</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21246,7 +21246,7 @@
         <v>44026</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21303,7 +21303,7 @@
         <v>44039</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21360,7 +21360,7 @@
         <v>44046</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21417,7 +21417,7 @@
         <v>44048</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21474,7 +21474,7 @@
         <v>44053</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21531,7 +21531,7 @@
         <v>44053</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
         <v>44053</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         <v>44054</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21702,7 +21702,7 @@
         <v>44055</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21759,7 +21759,7 @@
         <v>44055</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21816,7 +21816,7 @@
         <v>44055</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21873,7 +21873,7 @@
         <v>44055</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21930,7 +21930,7 @@
         <v>44057</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44060</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44060</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>44060</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>44062</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44062</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44062</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44071</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44074</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>44075</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>44080</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>44081</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>44083</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22671,7 +22671,7 @@
         <v>44088</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22728,7 +22728,7 @@
         <v>44088</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22785,7 +22785,7 @@
         <v>44090</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22842,7 +22842,7 @@
         <v>44090</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>44090</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22956,7 +22956,7 @@
         <v>44103</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         <v>44113</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>44113</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23127,7 +23127,7 @@
         <v>44120</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23184,7 +23184,7 @@
         <v>44120</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23241,7 +23241,7 @@
         <v>44123</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23298,7 +23298,7 @@
         <v>44124</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23355,7 +23355,7 @@
         <v>44124</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23412,7 +23412,7 @@
         <v>44125</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23469,7 +23469,7 @@
         <v>44127</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23526,7 +23526,7 @@
         <v>44131</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23583,7 +23583,7 @@
         <v>44132</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23640,7 +23640,7 @@
         <v>44132</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23697,7 +23697,7 @@
         <v>44132</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23754,7 +23754,7 @@
         <v>44132</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23811,7 +23811,7 @@
         <v>44132</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23868,7 +23868,7 @@
         <v>44133</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23925,7 +23925,7 @@
         <v>44139</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23982,7 +23982,7 @@
         <v>44139</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24039,7 +24039,7 @@
         <v>44140</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24096,7 +24096,7 @@
         <v>44140</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24153,7 +24153,7 @@
         <v>44140</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24210,7 +24210,7 @@
         <v>44144</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24267,7 +24267,7 @@
         <v>44146</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24324,7 +24324,7 @@
         <v>44146</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         <v>44152</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24438,7 +24438,7 @@
         <v>44153</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24495,7 +24495,7 @@
         <v>44154</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24552,7 +24552,7 @@
         <v>44166</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24609,7 +24609,7 @@
         <v>44167</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24666,7 +24666,7 @@
         <v>44169</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24723,7 +24723,7 @@
         <v>44174</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24780,7 +24780,7 @@
         <v>44179</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24837,7 +24837,7 @@
         <v>44179</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24894,7 +24894,7 @@
         <v>44186</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24951,7 +24951,7 @@
         <v>44188</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25008,7 +25008,7 @@
         <v>44188</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25065,7 +25065,7 @@
         <v>44200</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25122,7 +25122,7 @@
         <v>44202</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25179,7 +25179,7 @@
         <v>44204</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25236,7 +25236,7 @@
         <v>44204</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25293,7 +25293,7 @@
         <v>44204</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25350,7 +25350,7 @@
         <v>44207</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25407,7 +25407,7 @@
         <v>44208</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25464,7 +25464,7 @@
         <v>44208</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25521,7 +25521,7 @@
         <v>44208</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>44209</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         <v>44211</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>44217</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         <v>44222</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25806,7 +25806,7 @@
         <v>44223</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25863,7 +25863,7 @@
         <v>44225</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25920,7 +25920,7 @@
         <v>44225</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25977,7 +25977,7 @@
         <v>44225</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>44230</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>44235</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>44235</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>44235</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>44235</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>44241</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26376,7 +26376,7 @@
         <v>44253</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26433,7 +26433,7 @@
         <v>44256</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26490,7 +26490,7 @@
         <v>44257</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26547,7 +26547,7 @@
         <v>44259</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26604,7 +26604,7 @@
         <v>44259</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26661,7 +26661,7 @@
         <v>44267</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26718,7 +26718,7 @@
         <v>44267</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26775,7 +26775,7 @@
         <v>44270</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26832,7 +26832,7 @@
         <v>44275</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26889,7 +26889,7 @@
         <v>44279</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         <v>44281</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27003,7 +27003,7 @@
         <v>44284</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27060,7 +27060,7 @@
         <v>44284</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27117,7 +27117,7 @@
         <v>44284</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27174,7 +27174,7 @@
         <v>44285</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27231,7 +27231,7 @@
         <v>44286</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27288,7 +27288,7 @@
         <v>44292</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27345,7 +27345,7 @@
         <v>44300</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27402,7 +27402,7 @@
         <v>44300</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27464,7 +27464,7 @@
         <v>44302</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27521,7 +27521,7 @@
         <v>44302</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27578,7 +27578,7 @@
         <v>44302</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27635,7 +27635,7 @@
         <v>44302</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27692,7 +27692,7 @@
         <v>44305</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27749,7 +27749,7 @@
         <v>44305</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27806,7 +27806,7 @@
         <v>44305</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27863,7 +27863,7 @@
         <v>44306</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27920,7 +27920,7 @@
         <v>44309</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27977,7 +27977,7 @@
         <v>44323</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28034,7 +28034,7 @@
         <v>44323</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28091,7 +28091,7 @@
         <v>44325</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28148,7 +28148,7 @@
         <v>44327</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28205,7 +28205,7 @@
         <v>44333</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28262,7 +28262,7 @@
         <v>44342</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28319,7 +28319,7 @@
         <v>44342</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28376,7 +28376,7 @@
         <v>44342</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28433,7 +28433,7 @@
         <v>44342</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28490,7 +28490,7 @@
         <v>44343</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28547,7 +28547,7 @@
         <v>44349</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28604,7 +28604,7 @@
         <v>44350</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28661,7 +28661,7 @@
         <v>44350</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28718,7 +28718,7 @@
         <v>44350</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28775,7 +28775,7 @@
         <v>44354</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28832,7 +28832,7 @@
         <v>44356</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28889,7 +28889,7 @@
         <v>44364</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         <v>44365</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29003,7 +29003,7 @@
         <v>44365</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29060,7 +29060,7 @@
         <v>44368</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29117,7 +29117,7 @@
         <v>44375</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29174,7 +29174,7 @@
         <v>44383</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29231,7 +29231,7 @@
         <v>44384</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29288,7 +29288,7 @@
         <v>44384</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29345,7 +29345,7 @@
         <v>44391</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29402,7 +29402,7 @@
         <v>44391</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29459,7 +29459,7 @@
         <v>44397</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29516,7 +29516,7 @@
         <v>44398</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29573,7 +29573,7 @@
         <v>44399</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29630,7 +29630,7 @@
         <v>44399</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29687,7 +29687,7 @@
         <v>44406</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29744,7 +29744,7 @@
         <v>44411</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29801,7 +29801,7 @@
         <v>44411</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29858,7 +29858,7 @@
         <v>44420</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29915,7 +29915,7 @@
         <v>44420</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29972,7 +29972,7 @@
         <v>44421</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30029,7 +30029,7 @@
         <v>44424</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30086,7 +30086,7 @@
         <v>44425</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30143,7 +30143,7 @@
         <v>44433</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30200,7 +30200,7 @@
         <v>44435</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30257,7 +30257,7 @@
         <v>44435</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30314,7 +30314,7 @@
         <v>44440</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30371,7 +30371,7 @@
         <v>44440</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30433,7 +30433,7 @@
         <v>44441</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30490,7 +30490,7 @@
         <v>44441</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         <v>44441</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30604,7 +30604,7 @@
         <v>44442</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30661,7 +30661,7 @@
         <v>44447</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30718,7 +30718,7 @@
         <v>44449</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30775,7 +30775,7 @@
         <v>44452</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30832,7 +30832,7 @@
         <v>44452</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30889,7 +30889,7 @@
         <v>44458</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         <v>44461</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31003,7 +31003,7 @@
         <v>44461</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31060,7 +31060,7 @@
         <v>44462</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31117,7 +31117,7 @@
         <v>44466</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31174,7 +31174,7 @@
         <v>44468</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31231,7 +31231,7 @@
         <v>44473</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31288,7 +31288,7 @@
         <v>44476</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31345,7 +31345,7 @@
         <v>44481</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31402,7 +31402,7 @@
         <v>44491</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31459,7 +31459,7 @@
         <v>44496</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31516,7 +31516,7 @@
         <v>44496</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31573,7 +31573,7 @@
         <v>44497</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31630,7 +31630,7 @@
         <v>44498</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31687,7 +31687,7 @@
         <v>44502</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31744,7 +31744,7 @@
         <v>44503</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31801,7 +31801,7 @@
         <v>44503</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31858,7 +31858,7 @@
         <v>44512</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         <v>44515</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31972,7 +31972,7 @@
         <v>44516</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32029,7 +32029,7 @@
         <v>44517</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32086,7 +32086,7 @@
         <v>44523</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32143,7 +32143,7 @@
         <v>44529</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32200,7 +32200,7 @@
         <v>44530</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32257,7 +32257,7 @@
         <v>44539</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32314,7 +32314,7 @@
         <v>44543</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32371,7 +32371,7 @@
         <v>44551</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32428,7 +32428,7 @@
         <v>44553</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32485,7 +32485,7 @@
         <v>44559</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32542,7 +32542,7 @@
         <v>44572</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32599,7 +32599,7 @@
         <v>44572</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32656,7 +32656,7 @@
         <v>44578</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32713,7 +32713,7 @@
         <v>44579</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32770,7 +32770,7 @@
         <v>44584</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32827,7 +32827,7 @@
         <v>44585</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32884,7 +32884,7 @@
         <v>44585</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32941,7 +32941,7 @@
         <v>44586</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -32998,7 +32998,7 @@
         <v>44588</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33055,7 +33055,7 @@
         <v>44592</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33112,7 +33112,7 @@
         <v>44595</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33169,7 +33169,7 @@
         <v>44596</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33231,7 +33231,7 @@
         <v>44596</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33288,7 +33288,7 @@
         <v>44599</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33345,7 +33345,7 @@
         <v>44600</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33402,7 +33402,7 @@
         <v>44608</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33459,7 +33459,7 @@
         <v>44614</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33516,7 +33516,7 @@
         <v>44616</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33573,7 +33573,7 @@
         <v>44617</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33630,7 +33630,7 @@
         <v>44619</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33687,7 +33687,7 @@
         <v>44619</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33744,7 +33744,7 @@
         <v>44620</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33801,7 +33801,7 @@
         <v>44620</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33858,7 +33858,7 @@
         <v>44621</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33915,7 +33915,7 @@
         <v>44623</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -33972,7 +33972,7 @@
         <v>44624</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34029,7 +34029,7 @@
         <v>44624</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34086,7 +34086,7 @@
         <v>44628</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34143,7 +34143,7 @@
         <v>44629</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34200,7 +34200,7 @@
         <v>44629</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34257,7 +34257,7 @@
         <v>44636</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34314,7 +34314,7 @@
         <v>44636</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34371,7 +34371,7 @@
         <v>44637</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34428,7 +34428,7 @@
         <v>44644</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34485,7 +34485,7 @@
         <v>44657</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34542,7 +34542,7 @@
         <v>44663</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34599,7 +34599,7 @@
         <v>44670</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34656,7 +34656,7 @@
         <v>44672</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34713,7 +34713,7 @@
         <v>44686</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34770,7 +34770,7 @@
         <v>44687</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34827,7 +34827,7 @@
         <v>44687</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34884,7 +34884,7 @@
         <v>44693</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -34941,7 +34941,7 @@
         <v>44696</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -34998,7 +34998,7 @@
         <v>44698</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35055,7 +35055,7 @@
         <v>44700</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35112,7 +35112,7 @@
         <v>44705</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35169,7 +35169,7 @@
         <v>44706</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35226,7 +35226,7 @@
         <v>44706</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35283,7 +35283,7 @@
         <v>44710</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35340,7 +35340,7 @@
         <v>44711</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35397,7 +35397,7 @@
         <v>44720</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35454,7 +35454,7 @@
         <v>44725</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35511,7 +35511,7 @@
         <v>44742</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35568,7 +35568,7 @@
         <v>44742</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35625,7 +35625,7 @@
         <v>44742</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35682,7 +35682,7 @@
         <v>44742</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35739,7 +35739,7 @@
         <v>44747</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35796,7 +35796,7 @@
         <v>44747</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35853,7 +35853,7 @@
         <v>44748</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -35910,7 +35910,7 @@
         <v>44753</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -35967,7 +35967,7 @@
         <v>44754</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36024,7 +36024,7 @@
         <v>44754</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36081,7 +36081,7 @@
         <v>44757</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36138,7 +36138,7 @@
         <v>44757</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36195,7 +36195,7 @@
         <v>44767</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36252,7 +36252,7 @@
         <v>44799</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36309,7 +36309,7 @@
         <v>44806</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36366,7 +36366,7 @@
         <v>44812</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36423,7 +36423,7 @@
         <v>44820</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36480,7 +36480,7 @@
         <v>44820</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36537,7 +36537,7 @@
         <v>44825</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36594,7 +36594,7 @@
         <v>44826</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36651,7 +36651,7 @@
         <v>44832</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36708,7 +36708,7 @@
         <v>44832</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36765,7 +36765,7 @@
         <v>44837</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -36822,7 +36822,7 @@
         <v>44844</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -36879,7 +36879,7 @@
         <v>44845</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -36936,7 +36936,7 @@
         <v>44847</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -36993,7 +36993,7 @@
         <v>44847</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37050,7 +37050,7 @@
         <v>44847</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37107,7 +37107,7 @@
         <v>44856</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37164,7 +37164,7 @@
         <v>44858</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37221,7 +37221,7 @@
         <v>44858</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37278,7 +37278,7 @@
         <v>44860</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37335,7 +37335,7 @@
         <v>44860</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37392,7 +37392,7 @@
         <v>44860</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37449,7 +37449,7 @@
         <v>44862</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37506,7 +37506,7 @@
         <v>44865</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37563,7 +37563,7 @@
         <v>44866</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37620,7 +37620,7 @@
         <v>44866</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37677,7 +37677,7 @@
         <v>44867</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37734,7 +37734,7 @@
         <v>44874</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -37791,7 +37791,7 @@
         <v>44874</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -37848,7 +37848,7 @@
         <v>44874</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -37905,7 +37905,7 @@
         <v>44875</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -37962,7 +37962,7 @@
         <v>44879</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38019,7 +38019,7 @@
         <v>44881</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38076,7 +38076,7 @@
         <v>44890</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38133,7 +38133,7 @@
         <v>44893</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38190,7 +38190,7 @@
         <v>44893</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38247,7 +38247,7 @@
         <v>44893</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38304,7 +38304,7 @@
         <v>44903</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38361,7 +38361,7 @@
         <v>44909</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38418,7 +38418,7 @@
         <v>44911</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38475,7 +38475,7 @@
         <v>44911</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38532,7 +38532,7 @@
         <v>44920</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38589,7 +38589,7 @@
         <v>44930</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38646,7 +38646,7 @@
         <v>44930</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38703,7 +38703,7 @@
         <v>44936</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38760,7 +38760,7 @@
         <v>44939</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -38817,7 +38817,7 @@
         <v>44942</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -38874,7 +38874,7 @@
         <v>44950</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -38931,7 +38931,7 @@
         <v>44951</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -38988,7 +38988,7 @@
         <v>44952</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39045,7 +39045,7 @@
         <v>44957</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39102,7 +39102,7 @@
         <v>44958</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39159,7 +39159,7 @@
         <v>44967</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39216,7 +39216,7 @@
         <v>44967</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39273,7 +39273,7 @@
         <v>44970</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39330,7 +39330,7 @@
         <v>44981</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39387,7 +39387,7 @@
         <v>44981</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39444,7 +39444,7 @@
         <v>44984</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39501,7 +39501,7 @@
         <v>44986</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39558,7 +39558,7 @@
         <v>44988</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39615,7 +39615,7 @@
         <v>44988</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39672,7 +39672,7 @@
         <v>44988</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39729,7 +39729,7 @@
         <v>44988</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -39786,7 +39786,7 @@
         <v>44998</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -39843,7 +39843,7 @@
         <v>45001</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -39900,7 +39900,7 @@
         <v>45004</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -39957,7 +39957,7 @@
         <v>45005</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40014,7 +40014,7 @@
         <v>45012</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40071,7 +40071,7 @@
         <v>45012</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40128,7 +40128,7 @@
         <v>45012</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40185,7 +40185,7 @@
         <v>45012</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40242,7 +40242,7 @@
         <v>45015</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40299,7 +40299,7 @@
         <v>45016</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40356,7 +40356,7 @@
         <v>45019</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40413,7 +40413,7 @@
         <v>45019</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40470,7 +40470,7 @@
         <v>45020</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40527,7 +40527,7 @@
         <v>45027</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40584,7 +40584,7 @@
         <v>45027</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40641,7 +40641,7 @@
         <v>45027</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40698,7 +40698,7 @@
         <v>45028</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40755,7 +40755,7 @@
         <v>45030</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -40812,7 +40812,7 @@
         <v>45034</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -40869,7 +40869,7 @@
         <v>45034</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -40926,7 +40926,7 @@
         <v>45035</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -40983,7 +40983,7 @@
         <v>45035</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41040,7 +41040,7 @@
         <v>45037</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41097,7 +41097,7 @@
         <v>45040</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41154,7 +41154,7 @@
         <v>45040</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41211,7 +41211,7 @@
         <v>45042</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41268,7 +41268,7 @@
         <v>45048</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41325,7 +41325,7 @@
         <v>45048</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41382,7 +41382,7 @@
         <v>45050</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41439,7 +41439,7 @@
         <v>45050</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41496,7 +41496,7 @@
         <v>45050</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41553,7 +41553,7 @@
         <v>45050</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41610,7 +41610,7 @@
         <v>45055</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41667,7 +41667,7 @@
         <v>45056</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41724,7 +41724,7 @@
         <v>45057</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -41781,7 +41781,7 @@
         <v>45057</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -41838,7 +41838,7 @@
         <v>45057</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -41895,7 +41895,7 @@
         <v>45057</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -41952,7 +41952,7 @@
         <v>45058</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42009,7 +42009,7 @@
         <v>45065</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42066,7 +42066,7 @@
         <v>45069</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42123,7 +42123,7 @@
         <v>45069</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42180,7 +42180,7 @@
         <v>45070</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42237,7 +42237,7 @@
         <v>45070</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42294,7 +42294,7 @@
         <v>45070</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42351,7 +42351,7 @@
         <v>45070</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42408,7 +42408,7 @@
         <v>45075</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42465,7 +42465,7 @@
         <v>45076</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42522,7 +42522,7 @@
         <v>45076</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42579,7 +42579,7 @@
         <v>45077</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42636,7 +42636,7 @@
         <v>45079</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42693,7 +42693,7 @@
         <v>45080</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -42750,7 +42750,7 @@
         <v>45080</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -42807,7 +42807,7 @@
         <v>45082</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -42864,7 +42864,7 @@
         <v>45084</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -42921,7 +42921,7 @@
         <v>45085</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -42978,7 +42978,7 @@
         <v>45085</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43035,7 +43035,7 @@
         <v>45085</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43092,7 +43092,7 @@
         <v>45085</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43149,7 +43149,7 @@
         <v>45085</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43206,7 +43206,7 @@
         <v>45089</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43263,7 +43263,7 @@
         <v>45090</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43320,7 +43320,7 @@
         <v>45091</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43377,7 +43377,7 @@
         <v>45091</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43434,7 +43434,7 @@
         <v>45092</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43491,7 +43491,7 @@
         <v>45092</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -43548,7 +43548,7 @@
         <v>45092</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -43605,7 +43605,7 @@
         <v>45092</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -43662,7 +43662,7 @@
         <v>45093</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -43719,7 +43719,7 @@
         <v>45094</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -43776,7 +43776,7 @@
         <v>45097</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -43833,7 +43833,7 @@
         <v>45098</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -43890,7 +43890,7 @@
         <v>45098</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -43947,7 +43947,7 @@
         <v>45106</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44004,7 +44004,7 @@
         <v>45106</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44061,7 +44061,7 @@
         <v>45106</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44118,7 +44118,7 @@
         <v>45106</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44175,7 +44175,7 @@
         <v>45106</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44232,7 +44232,7 @@
         <v>45107</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44289,7 +44289,7 @@
         <v>45107</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44346,7 +44346,7 @@
         <v>45107</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44403,7 +44403,7 @@
         <v>45108</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44460,7 +44460,7 @@
         <v>45113</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -44517,7 +44517,7 @@
         <v>45113</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -44574,7 +44574,7 @@
         <v>45119</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -44631,7 +44631,7 @@
         <v>45125</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -44688,7 +44688,7 @@
         <v>45127</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -44745,7 +44745,7 @@
         <v>45127</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -44802,7 +44802,7 @@
         <v>45127</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -44859,7 +44859,7 @@
         <v>45132</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -44916,7 +44916,7 @@
         <v>45140</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -44973,7 +44973,7 @@
         <v>45142</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45030,7 +45030,7 @@
         <v>45142</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45087,7 +45087,7 @@
         <v>45142</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45144,7 +45144,7 @@
         <v>45147</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45201,7 +45201,7 @@
         <v>45148</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45258,7 +45258,7 @@
         <v>45155</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45315,7 +45315,7 @@
         <v>45155</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45372,7 +45372,7 @@
         <v>45159</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -45429,7 +45429,7 @@
         <v>45159</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -45486,7 +45486,7 @@
         <v>45162</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -45543,7 +45543,7 @@
         <v>45162</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -45600,7 +45600,7 @@
         <v>45163</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -45657,7 +45657,7 @@
         <v>45169</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -45714,7 +45714,7 @@
         <v>45170</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -45771,7 +45771,7 @@
         <v>45170</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>

--- a/Översikt KARLSKRONA.xlsx
+++ b/Översikt KARLSKRONA.xlsx
@@ -572,7 +572,7 @@
         <v>45051</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>43640</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>44509</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>45101</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>43315</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43843</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>44960</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>45027</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>43356</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>43447</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>43963</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44021</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>44132</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>44139</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>44139</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>44140</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>44159</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>44237</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>44445</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
         <v>44467</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>44531</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>44728</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>45037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>43321</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>43332</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43335</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>43341</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43342</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>43349</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43350</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>43356</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         <v>43357</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43359</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43361</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>43363</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>43367</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>43368</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>43368</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>43369</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>43375</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         <v>43376</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>43384</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3635,7 +3635,7 @@
         <v>43396</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>43396</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>43396</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3806,7 +3806,7 @@
         <v>43397</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>43398</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>43398</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>43398</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>43398</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>43402</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>43403</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>43403</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>43405</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>43409</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>43410</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4443,7 +4443,7 @@
         <v>43410</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>43411</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43412</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>43413</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>43416</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>43416</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>43416</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>43417</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>43419</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>43419</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>43420</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>43420</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>43423</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>43424</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>43426</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>43430</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>43430</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>43431</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>43431</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>43434</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         <v>43434</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>43434</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>43437</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>43437</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5816,7 +5816,7 @@
         <v>43437</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>43438</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>43446</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5987,7 +5987,7 @@
         <v>43451</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6044,7 +6044,7 @@
         <v>43451</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>43451</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>43451</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6215,7 +6215,7 @@
         <v>43451</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>43451</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>43453</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         <v>43454</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6443,7 +6443,7 @@
         <v>43454</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6500,7 +6500,7 @@
         <v>43461</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6557,7 +6557,7 @@
         <v>43465</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6614,7 +6614,7 @@
         <v>43467</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6671,7 +6671,7 @@
         <v>43467</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
         <v>43468</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6785,7 +6785,7 @@
         <v>43473</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6842,7 +6842,7 @@
         <v>43475</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6899,7 +6899,7 @@
         <v>43475</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
         <v>43476</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7013,7 +7013,7 @@
         <v>43476</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7070,7 +7070,7 @@
         <v>43479</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7127,7 +7127,7 @@
         <v>43480</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7184,7 +7184,7 @@
         <v>43480</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7241,7 +7241,7 @@
         <v>43481</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7298,7 +7298,7 @@
         <v>43483</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7355,7 +7355,7 @@
         <v>43485</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7412,7 +7412,7 @@
         <v>43485</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7469,7 +7469,7 @@
         <v>43488</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         <v>43488</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>43488</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>43489</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7697,7 +7697,7 @@
         <v>43493</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>43493</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>43493</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>43493</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>43494</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>43496</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43497</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43497</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43500</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43501</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43508</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43508</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43508</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>43510</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8500,7 +8500,7 @@
         <v>43511</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>43516</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>43517</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         <v>43517</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>43518</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         <v>43521</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>43523</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         <v>43529</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>43529</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>43532</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9075,7 +9075,7 @@
         <v>43535</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9132,7 +9132,7 @@
         <v>43537</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         <v>43538</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9246,7 +9246,7 @@
         <v>43538</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9303,7 +9303,7 @@
         <v>43538</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>43538</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>43542</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9474,7 +9474,7 @@
         <v>43543</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>43546</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>43549</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9645,7 +9645,7 @@
         <v>43549</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9702,7 +9702,7 @@
         <v>43549</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>43567</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>43567</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>43571</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9930,7 +9930,7 @@
         <v>43572</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9987,7 +9987,7 @@
         <v>43573</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10044,7 +10044,7 @@
         <v>43580</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43584</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43587</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43592</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>43593</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43594</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>43594</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>43594</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43595</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         <v>43601</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10614,7 +10614,7 @@
         <v>43601</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10671,7 +10671,7 @@
         <v>43602</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10728,7 +10728,7 @@
         <v>43609</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10785,7 +10785,7 @@
         <v>43626</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10842,7 +10842,7 @@
         <v>43626</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>43626</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>43627</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>43640</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11075,7 +11075,7 @@
         <v>43644</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>43648</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11189,7 +11189,7 @@
         <v>43650</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11246,7 +11246,7 @@
         <v>43650</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11303,7 +11303,7 @@
         <v>43655</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11360,7 +11360,7 @@
         <v>43663</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11417,7 +11417,7 @@
         <v>43668</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11474,7 +11474,7 @@
         <v>43671</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11531,7 +11531,7 @@
         <v>43676</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11588,7 +11588,7 @@
         <v>43682</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11645,7 +11645,7 @@
         <v>43683</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11702,7 +11702,7 @@
         <v>43684</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11764,7 +11764,7 @@
         <v>43684</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11821,7 +11821,7 @@
         <v>43684</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11878,7 +11878,7 @@
         <v>43684</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11935,7 +11935,7 @@
         <v>43686</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11992,7 +11992,7 @@
         <v>43686</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12049,7 +12049,7 @@
         <v>43690</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12106,7 +12106,7 @@
         <v>43691</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         <v>43692</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12220,7 +12220,7 @@
         <v>43692</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12277,7 +12277,7 @@
         <v>43692</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         <v>43692</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         <v>43698</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12448,7 +12448,7 @@
         <v>43698</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12505,7 +12505,7 @@
         <v>43698</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12562,7 +12562,7 @@
         <v>43698</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         <v>43698</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12676,7 +12676,7 @@
         <v>43698</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12733,7 +12733,7 @@
         <v>43698</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12790,7 +12790,7 @@
         <v>43698</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12847,7 +12847,7 @@
         <v>43698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12904,7 +12904,7 @@
         <v>43698</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12961,7 +12961,7 @@
         <v>43698</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13018,7 +13018,7 @@
         <v>43698</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13075,7 +13075,7 @@
         <v>43698</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13132,7 +13132,7 @@
         <v>43699</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13189,7 +13189,7 @@
         <v>43701</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13246,7 +13246,7 @@
         <v>43701</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13303,7 +13303,7 @@
         <v>43706</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13360,7 +13360,7 @@
         <v>43710</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13417,7 +13417,7 @@
         <v>43710</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>43711</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13531,7 +13531,7 @@
         <v>43711</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         <v>43712</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
         <v>43712</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         <v>43712</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         <v>43712</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>43712</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>43712</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13935,7 +13935,7 @@
         <v>43718</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13992,7 +13992,7 @@
         <v>43718</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14049,7 +14049,7 @@
         <v>43719</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14106,7 +14106,7 @@
         <v>43719</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14163,7 +14163,7 @@
         <v>43719</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14220,7 +14220,7 @@
         <v>43720</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14277,7 +14277,7 @@
         <v>43720</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14334,7 +14334,7 @@
         <v>43721</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14391,7 +14391,7 @@
         <v>43727</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         <v>43732</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>43735</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14562,7 +14562,7 @@
         <v>43738</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14619,7 +14619,7 @@
         <v>43742</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14676,7 +14676,7 @@
         <v>43746</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14733,7 +14733,7 @@
         <v>43746</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14790,7 +14790,7 @@
         <v>43747</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14847,7 +14847,7 @@
         <v>43748</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14904,7 +14904,7 @@
         <v>43753</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14961,7 +14961,7 @@
         <v>43753</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>43754</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15075,7 +15075,7 @@
         <v>43756</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15132,7 +15132,7 @@
         <v>43760</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15189,7 +15189,7 @@
         <v>43760</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>43761</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15303,7 +15303,7 @@
         <v>43763</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>43763</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>43763</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>43766</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>43766</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>43770</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>43773</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>43774</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15759,7 +15759,7 @@
         <v>43775</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>43775</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15873,7 +15873,7 @@
         <v>43777</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>43782</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>43783</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>43783</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         <v>43788</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>43788</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16215,7 +16215,7 @@
         <v>43789</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>43790</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         <v>43812</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         <v>43812</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16443,7 +16443,7 @@
         <v>43817</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16500,7 +16500,7 @@
         <v>43818</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>43832</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>43832</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>43833</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16728,7 +16728,7 @@
         <v>43837</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16785,7 +16785,7 @@
         <v>43838</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>43838</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>43840</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>43844</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>43844</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>43845</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>43845</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>43849</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17241,7 +17241,7 @@
         <v>43850</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17298,7 +17298,7 @@
         <v>43852</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17355,7 +17355,7 @@
         <v>43852</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>43854</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>43867</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17526,7 +17526,7 @@
         <v>43867</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>43870</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>43870</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>43872</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>43875</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>43879</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>43887</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17925,7 +17925,7 @@
         <v>43887</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17982,7 +17982,7 @@
         <v>43889</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         <v>43889</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18096,7 +18096,7 @@
         <v>43889</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>43894</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18210,7 +18210,7 @@
         <v>43900</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18267,7 +18267,7 @@
         <v>43902</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18324,7 +18324,7 @@
         <v>43902</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18381,7 +18381,7 @@
         <v>43902</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
         <v>43902</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18495,7 +18495,7 @@
         <v>43907</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18552,7 +18552,7 @@
         <v>43907</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18609,7 +18609,7 @@
         <v>43907</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18666,7 +18666,7 @@
         <v>43907</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18723,7 +18723,7 @@
         <v>43913</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18780,7 +18780,7 @@
         <v>43914</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
         <v>43914</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18894,7 +18894,7 @@
         <v>43915</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18951,7 +18951,7 @@
         <v>43915</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19008,7 +19008,7 @@
         <v>43916</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19065,7 +19065,7 @@
         <v>43916</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19122,7 +19122,7 @@
         <v>43917</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19179,7 +19179,7 @@
         <v>43920</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19236,7 +19236,7 @@
         <v>43920</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19293,7 +19293,7 @@
         <v>43920</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19350,7 +19350,7 @@
         <v>43920</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19407,7 +19407,7 @@
         <v>43921</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19464,7 +19464,7 @@
         <v>43923</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19521,7 +19521,7 @@
         <v>43923</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19583,7 +19583,7 @@
         <v>43923</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19640,7 +19640,7 @@
         <v>43925</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19697,7 +19697,7 @@
         <v>43926</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19754,7 +19754,7 @@
         <v>43927</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19811,7 +19811,7 @@
         <v>43927</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19868,7 +19868,7 @@
         <v>43927</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19925,7 +19925,7 @@
         <v>43927</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>43935</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20039,7 +20039,7 @@
         <v>43937</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20096,7 +20096,7 @@
         <v>43937</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>43937</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20210,7 +20210,7 @@
         <v>43938</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20272,7 +20272,7 @@
         <v>43950</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>43977</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>43977</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20448,7 +20448,7 @@
         <v>43977</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20505,7 +20505,7 @@
         <v>43980</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20562,7 +20562,7 @@
         <v>43980</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20619,7 +20619,7 @@
         <v>43986</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20676,7 +20676,7 @@
         <v>43992</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20733,7 +20733,7 @@
         <v>43993</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20790,7 +20790,7 @@
         <v>44005</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         <v>44006</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20904,7 +20904,7 @@
         <v>44007</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20961,7 +20961,7 @@
         <v>44008</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21018,7 +21018,7 @@
         <v>44014</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21075,7 +21075,7 @@
         <v>44015</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21132,7 +21132,7 @@
         <v>44018</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21189,7 +21189,7 @@
         <v>44019</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21246,7 +21246,7 @@
         <v>44026</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21303,7 +21303,7 @@
         <v>44039</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21360,7 +21360,7 @@
         <v>44046</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21417,7 +21417,7 @@
         <v>44048</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21474,7 +21474,7 @@
         <v>44053</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21531,7 +21531,7 @@
         <v>44053</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
         <v>44053</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         <v>44054</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21702,7 +21702,7 @@
         <v>44055</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21759,7 +21759,7 @@
         <v>44055</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21816,7 +21816,7 @@
         <v>44055</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21873,7 +21873,7 @@
         <v>44055</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21930,7 +21930,7 @@
         <v>44057</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44060</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44060</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>44060</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>44062</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44062</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44062</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44071</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44074</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>44075</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>44080</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>44081</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>44083</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22671,7 +22671,7 @@
         <v>44088</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22728,7 +22728,7 @@
         <v>44088</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22785,7 +22785,7 @@
         <v>44090</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22842,7 +22842,7 @@
         <v>44090</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>44090</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22956,7 +22956,7 @@
         <v>44103</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         <v>44113</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>44113</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23127,7 +23127,7 @@
         <v>44120</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23184,7 +23184,7 @@
         <v>44120</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23241,7 +23241,7 @@
         <v>44123</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23298,7 +23298,7 @@
         <v>44124</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23355,7 +23355,7 @@
         <v>44124</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23412,7 +23412,7 @@
         <v>44125</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23469,7 +23469,7 @@
         <v>44127</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23526,7 +23526,7 @@
         <v>44131</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23583,7 +23583,7 @@
         <v>44132</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23640,7 +23640,7 @@
         <v>44132</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23697,7 +23697,7 @@
         <v>44132</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23754,7 +23754,7 @@
         <v>44132</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23811,7 +23811,7 @@
         <v>44132</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23868,7 +23868,7 @@
         <v>44133</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23925,7 +23925,7 @@
         <v>44139</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23982,7 +23982,7 @@
         <v>44139</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24039,7 +24039,7 @@
         <v>44140</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24096,7 +24096,7 @@
         <v>44140</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24153,7 +24153,7 @@
         <v>44140</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24210,7 +24210,7 @@
         <v>44144</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24267,7 +24267,7 @@
         <v>44146</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24324,7 +24324,7 @@
         <v>44146</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         <v>44152</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24438,7 +24438,7 @@
         <v>44153</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24495,7 +24495,7 @@
         <v>44154</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24552,7 +24552,7 @@
         <v>44166</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24609,7 +24609,7 @@
         <v>44167</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24666,7 +24666,7 @@
         <v>44169</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24723,7 +24723,7 @@
         <v>44174</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24780,7 +24780,7 @@
         <v>44179</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24837,7 +24837,7 @@
         <v>44179</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24894,7 +24894,7 @@
         <v>44186</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24951,7 +24951,7 @@
         <v>44188</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25008,7 +25008,7 @@
         <v>44188</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25065,7 +25065,7 @@
         <v>44200</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25122,7 +25122,7 @@
         <v>44202</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25179,7 +25179,7 @@
         <v>44204</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25236,7 +25236,7 @@
         <v>44204</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25293,7 +25293,7 @@
         <v>44204</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25350,7 +25350,7 @@
         <v>44207</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25407,7 +25407,7 @@
         <v>44208</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25464,7 +25464,7 @@
         <v>44208</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25521,7 +25521,7 @@
         <v>44208</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>44209</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         <v>44211</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>44217</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         <v>44222</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25806,7 +25806,7 @@
         <v>44223</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25863,7 +25863,7 @@
         <v>44225</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25920,7 +25920,7 @@
         <v>44225</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25977,7 +25977,7 @@
         <v>44225</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>44230</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>44235</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>44235</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>44235</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>44235</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>44241</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26376,7 +26376,7 @@
         <v>44253</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26433,7 +26433,7 @@
         <v>44256</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26490,7 +26490,7 @@
         <v>44257</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26547,7 +26547,7 @@
         <v>44259</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26604,7 +26604,7 @@
         <v>44259</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26661,7 +26661,7 @@
         <v>44267</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26718,7 +26718,7 @@
         <v>44267</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26775,7 +26775,7 @@
         <v>44270</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26832,7 +26832,7 @@
         <v>44275</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26889,7 +26889,7 @@
         <v>44279</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         <v>44281</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27003,7 +27003,7 @@
         <v>44284</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27060,7 +27060,7 @@
         <v>44284</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27117,7 +27117,7 @@
         <v>44284</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27174,7 +27174,7 @@
         <v>44285</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27231,7 +27231,7 @@
         <v>44286</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27288,7 +27288,7 @@
         <v>44292</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27345,7 +27345,7 @@
         <v>44300</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27402,7 +27402,7 @@
         <v>44300</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27464,7 +27464,7 @@
         <v>44302</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27521,7 +27521,7 @@
         <v>44302</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27578,7 +27578,7 @@
         <v>44302</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27635,7 +27635,7 @@
         <v>44302</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27692,7 +27692,7 @@
         <v>44305</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27749,7 +27749,7 @@
         <v>44305</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27806,7 +27806,7 @@
         <v>44305</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27863,7 +27863,7 @@
         <v>44306</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27920,7 +27920,7 @@
         <v>44309</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27977,7 +27977,7 @@
         <v>44323</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28034,7 +28034,7 @@
         <v>44323</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28091,7 +28091,7 @@
         <v>44325</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28148,7 +28148,7 @@
         <v>44327</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28205,7 +28205,7 @@
         <v>44333</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28262,7 +28262,7 @@
         <v>44342</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28319,7 +28319,7 @@
         <v>44342</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28376,7 +28376,7 @@
         <v>44342</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28433,7 +28433,7 @@
         <v>44342</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28490,7 +28490,7 @@
         <v>44343</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28547,7 +28547,7 @@
         <v>44349</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28604,7 +28604,7 @@
         <v>44350</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28661,7 +28661,7 @@
         <v>44350</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28718,7 +28718,7 @@
         <v>44350</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28775,7 +28775,7 @@
         <v>44354</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28832,7 +28832,7 @@
         <v>44356</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28889,7 +28889,7 @@
         <v>44364</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         <v>44365</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29003,7 +29003,7 @@
         <v>44365</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29060,7 +29060,7 @@
         <v>44368</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29117,7 +29117,7 @@
         <v>44375</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29174,7 +29174,7 @@
         <v>44383</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29231,7 +29231,7 @@
         <v>44384</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29288,7 +29288,7 @@
         <v>44384</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29345,7 +29345,7 @@
         <v>44391</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29402,7 +29402,7 @@
         <v>44391</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29459,7 +29459,7 @@
         <v>44397</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29516,7 +29516,7 @@
         <v>44398</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29573,7 +29573,7 @@
         <v>44399</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29630,7 +29630,7 @@
         <v>44399</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29687,7 +29687,7 @@
         <v>44406</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29744,7 +29744,7 @@
         <v>44411</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29801,7 +29801,7 @@
         <v>44411</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29858,7 +29858,7 @@
         <v>44420</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29915,7 +29915,7 @@
         <v>44420</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29972,7 +29972,7 @@
         <v>44421</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30029,7 +30029,7 @@
         <v>44424</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30086,7 +30086,7 @@
         <v>44425</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30143,7 +30143,7 @@
         <v>44433</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30200,7 +30200,7 @@
         <v>44435</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30257,7 +30257,7 @@
         <v>44435</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30314,7 +30314,7 @@
         <v>44440</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30371,7 +30371,7 @@
         <v>44440</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30433,7 +30433,7 @@
         <v>44441</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30490,7 +30490,7 @@
         <v>44441</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         <v>44441</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30604,7 +30604,7 @@
         <v>44442</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30661,7 +30661,7 @@
         <v>44447</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30718,7 +30718,7 @@
         <v>44449</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30775,7 +30775,7 @@
         <v>44452</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30832,7 +30832,7 @@
         <v>44452</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30889,7 +30889,7 @@
         <v>44458</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         <v>44461</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31003,7 +31003,7 @@
         <v>44461</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31060,7 +31060,7 @@
         <v>44462</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31117,7 +31117,7 @@
         <v>44466</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31174,7 +31174,7 @@
         <v>44468</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31231,7 +31231,7 @@
         <v>44473</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31288,7 +31288,7 @@
         <v>44476</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31345,7 +31345,7 @@
         <v>44481</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31402,7 +31402,7 @@
         <v>44491</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31459,7 +31459,7 @@
         <v>44496</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31516,7 +31516,7 @@
         <v>44496</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31573,7 +31573,7 @@
         <v>44497</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31630,7 +31630,7 @@
         <v>44498</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31687,7 +31687,7 @@
         <v>44502</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31744,7 +31744,7 @@
         <v>44503</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31801,7 +31801,7 @@
         <v>44503</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31858,7 +31858,7 @@
         <v>44512</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         <v>44515</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31972,7 +31972,7 @@
         <v>44516</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32029,7 +32029,7 @@
         <v>44517</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32086,7 +32086,7 @@
         <v>44523</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32143,7 +32143,7 @@
         <v>44529</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32200,7 +32200,7 @@
         <v>44530</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32257,7 +32257,7 @@
         <v>44539</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32314,7 +32314,7 @@
         <v>44543</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32371,7 +32371,7 @@
         <v>44551</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32428,7 +32428,7 @@
         <v>44553</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32485,7 +32485,7 @@
         <v>44559</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32542,7 +32542,7 @@
         <v>44572</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32599,7 +32599,7 @@
         <v>44572</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32656,7 +32656,7 @@
         <v>44578</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32713,7 +32713,7 @@
         <v>44579</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32770,7 +32770,7 @@
         <v>44584</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32827,7 +32827,7 @@
         <v>44585</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32884,7 +32884,7 @@
         <v>44585</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32941,7 +32941,7 @@
         <v>44586</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -32998,7 +32998,7 @@
         <v>44588</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33055,7 +33055,7 @@
         <v>44592</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33112,7 +33112,7 @@
         <v>44595</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33169,7 +33169,7 @@
         <v>44596</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33231,7 +33231,7 @@
         <v>44596</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33288,7 +33288,7 @@
         <v>44599</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33345,7 +33345,7 @@
         <v>44600</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33402,7 +33402,7 @@
         <v>44608</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33459,7 +33459,7 @@
         <v>44614</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33516,7 +33516,7 @@
         <v>44616</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33573,7 +33573,7 @@
         <v>44617</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33630,7 +33630,7 @@
         <v>44619</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33687,7 +33687,7 @@
         <v>44619</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33744,7 +33744,7 @@
         <v>44620</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33801,7 +33801,7 @@
         <v>44620</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33858,7 +33858,7 @@
         <v>44621</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33915,7 +33915,7 @@
         <v>44623</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -33972,7 +33972,7 @@
         <v>44624</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34029,7 +34029,7 @@
         <v>44624</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34086,7 +34086,7 @@
         <v>44628</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34143,7 +34143,7 @@
         <v>44629</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34200,7 +34200,7 @@
         <v>44629</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34257,7 +34257,7 @@
         <v>44636</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34314,7 +34314,7 @@
         <v>44636</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34371,7 +34371,7 @@
         <v>44637</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34428,7 +34428,7 @@
         <v>44644</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34485,7 +34485,7 @@
         <v>44657</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34542,7 +34542,7 @@
         <v>44663</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34599,7 +34599,7 @@
         <v>44670</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34656,7 +34656,7 @@
         <v>44672</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34713,7 +34713,7 @@
         <v>44686</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34770,7 +34770,7 @@
         <v>44687</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34827,7 +34827,7 @@
         <v>44687</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34884,7 +34884,7 @@
         <v>44693</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -34941,7 +34941,7 @@
         <v>44696</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -34998,7 +34998,7 @@
         <v>44698</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35055,7 +35055,7 @@
         <v>44700</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35112,7 +35112,7 @@
         <v>44705</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35169,7 +35169,7 @@
         <v>44706</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35226,7 +35226,7 @@
         <v>44706</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35283,7 +35283,7 @@
         <v>44710</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35340,7 +35340,7 @@
         <v>44711</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35397,7 +35397,7 @@
         <v>44720</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35454,7 +35454,7 @@
         <v>44725</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35511,7 +35511,7 @@
         <v>44742</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35568,7 +35568,7 @@
         <v>44742</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35625,7 +35625,7 @@
         <v>44742</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35682,7 +35682,7 @@
         <v>44742</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35739,7 +35739,7 @@
         <v>44747</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35796,7 +35796,7 @@
         <v>44747</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35853,7 +35853,7 @@
         <v>44748</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -35910,7 +35910,7 @@
         <v>44753</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -35967,7 +35967,7 @@
         <v>44754</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36024,7 +36024,7 @@
         <v>44754</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36081,7 +36081,7 @@
         <v>44757</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36138,7 +36138,7 @@
         <v>44757</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36195,7 +36195,7 @@
         <v>44767</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36252,7 +36252,7 @@
         <v>44799</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36309,7 +36309,7 @@
         <v>44806</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36366,7 +36366,7 @@
         <v>44812</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36423,7 +36423,7 @@
         <v>44820</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36480,7 +36480,7 @@
         <v>44820</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36537,7 +36537,7 @@
         <v>44825</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36594,7 +36594,7 @@
         <v>44826</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36651,7 +36651,7 @@
         <v>44832</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36708,7 +36708,7 @@
         <v>44832</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36765,7 +36765,7 @@
         <v>44837</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -36822,7 +36822,7 @@
         <v>44844</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -36879,7 +36879,7 @@
         <v>44845</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -36936,7 +36936,7 @@
         <v>44847</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -36993,7 +36993,7 @@
         <v>44847</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37050,7 +37050,7 @@
         <v>44847</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37107,7 +37107,7 @@
         <v>44856</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37164,7 +37164,7 @@
         <v>44858</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37221,7 +37221,7 @@
         <v>44858</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37278,7 +37278,7 @@
         <v>44860</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37335,7 +37335,7 @@
         <v>44860</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37392,7 +37392,7 @@
         <v>44860</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37449,7 +37449,7 @@
         <v>44862</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37506,7 +37506,7 @@
         <v>44865</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37563,7 +37563,7 @@
         <v>44866</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37620,7 +37620,7 @@
         <v>44866</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37677,7 +37677,7 @@
         <v>44867</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37734,7 +37734,7 @@
         <v>44874</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -37791,7 +37791,7 @@
         <v>44874</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -37848,7 +37848,7 @@
         <v>44874</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -37905,7 +37905,7 @@
         <v>44875</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -37962,7 +37962,7 @@
         <v>44879</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38019,7 +38019,7 @@
         <v>44881</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38076,7 +38076,7 @@
         <v>44890</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38133,7 +38133,7 @@
         <v>44893</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38190,7 +38190,7 @@
         <v>44893</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38247,7 +38247,7 @@
         <v>44893</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38304,7 +38304,7 @@
         <v>44903</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38361,7 +38361,7 @@
         <v>44909</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38418,7 +38418,7 @@
         <v>44911</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38475,7 +38475,7 @@
         <v>44911</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38532,7 +38532,7 @@
         <v>44920</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38589,7 +38589,7 @@
         <v>44930</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38646,7 +38646,7 @@
         <v>44930</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38703,7 +38703,7 @@
         <v>44936</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38760,7 +38760,7 @@
         <v>44939</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -38817,7 +38817,7 @@
         <v>44942</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -38874,7 +38874,7 @@
         <v>44950</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -38931,7 +38931,7 @@
         <v>44951</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -38988,7 +38988,7 @@
         <v>44952</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39045,7 +39045,7 @@
         <v>44957</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39102,7 +39102,7 @@
         <v>44958</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39159,7 +39159,7 @@
         <v>44967</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39216,7 +39216,7 @@
         <v>44967</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39273,7 +39273,7 @@
         <v>44970</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39330,7 +39330,7 @@
         <v>44981</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39387,7 +39387,7 @@
         <v>44981</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39444,7 +39444,7 @@
         <v>44984</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39501,7 +39501,7 @@
         <v>44986</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39558,7 +39558,7 @@
         <v>44988</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39615,7 +39615,7 @@
         <v>44988</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39672,7 +39672,7 @@
         <v>44988</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39729,7 +39729,7 @@
         <v>44988</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -39786,7 +39786,7 @@
         <v>44998</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -39843,7 +39843,7 @@
         <v>45001</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -39900,7 +39900,7 @@
         <v>45004</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -39957,7 +39957,7 @@
         <v>45005</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40014,7 +40014,7 @@
         <v>45012</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40071,7 +40071,7 @@
         <v>45012</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40128,7 +40128,7 @@
         <v>45012</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40185,7 +40185,7 @@
         <v>45012</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40242,7 +40242,7 @@
         <v>45015</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40299,7 +40299,7 @@
         <v>45016</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40356,7 +40356,7 @@
         <v>45019</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40413,7 +40413,7 @@
         <v>45019</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40470,7 +40470,7 @@
         <v>45020</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40527,7 +40527,7 @@
         <v>45027</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40584,7 +40584,7 @@
         <v>45027</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40641,7 +40641,7 @@
         <v>45027</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40698,7 +40698,7 @@
         <v>45028</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40755,7 +40755,7 @@
         <v>45030</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -40812,7 +40812,7 @@
         <v>45034</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -40869,7 +40869,7 @@
         <v>45034</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -40926,7 +40926,7 @@
         <v>45035</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -40983,7 +40983,7 @@
         <v>45035</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41040,7 +41040,7 @@
         <v>45037</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41097,7 +41097,7 @@
         <v>45040</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41154,7 +41154,7 @@
         <v>45040</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41211,7 +41211,7 @@
         <v>45042</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41268,7 +41268,7 @@
         <v>45048</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41325,7 +41325,7 @@
         <v>45048</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41382,7 +41382,7 @@
         <v>45050</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41439,7 +41439,7 @@
         <v>45050</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41496,7 +41496,7 @@
         <v>45050</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41553,7 +41553,7 @@
         <v>45050</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41610,7 +41610,7 @@
         <v>45055</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41667,7 +41667,7 @@
         <v>45056</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41724,7 +41724,7 @@
         <v>45057</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -41781,7 +41781,7 @@
         <v>45057</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -41838,7 +41838,7 @@
         <v>45057</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -41895,7 +41895,7 @@
         <v>45057</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -41952,7 +41952,7 @@
         <v>45058</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42009,7 +42009,7 @@
         <v>45065</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42066,7 +42066,7 @@
         <v>45069</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42123,7 +42123,7 @@
         <v>45069</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42180,7 +42180,7 @@
         <v>45070</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42237,7 +42237,7 @@
         <v>45070</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42294,7 +42294,7 @@
         <v>45070</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42351,7 +42351,7 @@
         <v>45070</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42408,7 +42408,7 @@
         <v>45075</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42465,7 +42465,7 @@
         <v>45076</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42522,7 +42522,7 @@
         <v>45076</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42579,7 +42579,7 @@
         <v>45077</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42636,7 +42636,7 @@
         <v>45079</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42693,7 +42693,7 @@
         <v>45080</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -42750,7 +42750,7 @@
         <v>45080</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -42807,7 +42807,7 @@
         <v>45082</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -42864,7 +42864,7 @@
         <v>45084</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -42921,7 +42921,7 @@
         <v>45085</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -42978,7 +42978,7 @@
         <v>45085</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43035,7 +43035,7 @@
         <v>45085</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43092,7 +43092,7 @@
         <v>45085</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43149,7 +43149,7 @@
         <v>45085</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43206,7 +43206,7 @@
         <v>45089</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43263,7 +43263,7 @@
         <v>45090</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43320,7 +43320,7 @@
         <v>45091</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43377,7 +43377,7 @@
         <v>45091</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43434,7 +43434,7 @@
         <v>45092</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43491,7 +43491,7 @@
         <v>45092</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -43548,7 +43548,7 @@
         <v>45092</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -43605,7 +43605,7 @@
         <v>45092</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -43662,7 +43662,7 @@
         <v>45093</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -43719,7 +43719,7 @@
         <v>45094</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -43776,7 +43776,7 @@
         <v>45097</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -43833,7 +43833,7 @@
         <v>45098</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -43890,7 +43890,7 @@
         <v>45098</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -43947,7 +43947,7 @@
         <v>45106</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44004,7 +44004,7 @@
         <v>45106</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44061,7 +44061,7 @@
         <v>45106</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44118,7 +44118,7 @@
         <v>45106</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44175,7 +44175,7 @@
         <v>45106</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44232,7 +44232,7 @@
         <v>45107</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44289,7 +44289,7 @@
         <v>45107</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44346,7 +44346,7 @@
         <v>45107</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44403,7 +44403,7 @@
         <v>45108</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44460,7 +44460,7 @@
         <v>45113</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -44517,7 +44517,7 @@
         <v>45113</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -44574,7 +44574,7 @@
         <v>45119</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -44631,7 +44631,7 @@
         <v>45125</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -44688,7 +44688,7 @@
         <v>45127</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -44745,7 +44745,7 @@
         <v>45127</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -44802,7 +44802,7 @@
         <v>45127</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -44859,7 +44859,7 @@
         <v>45132</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -44916,7 +44916,7 @@
         <v>45140</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -44973,7 +44973,7 @@
         <v>45142</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45030,7 +45030,7 @@
         <v>45142</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45087,7 +45087,7 @@
         <v>45142</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45144,7 +45144,7 @@
         <v>45147</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45201,7 +45201,7 @@
         <v>45148</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45258,7 +45258,7 @@
         <v>45155</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45315,7 +45315,7 @@
         <v>45155</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45372,7 +45372,7 @@
         <v>45159</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -45429,7 +45429,7 @@
         <v>45159</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -45486,7 +45486,7 @@
         <v>45162</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -45543,7 +45543,7 @@
         <v>45162</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -45600,7 +45600,7 @@
         <v>45163</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -45657,7 +45657,7 @@
         <v>45169</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -45714,7 +45714,7 @@
         <v>45170</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -45771,7 +45771,7 @@
         <v>45170</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>

--- a/Översikt KARLSKRONA.xlsx
+++ b/Översikt KARLSKRONA.xlsx
@@ -572,7 +572,7 @@
         <v>45051</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>43640</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>44509</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>45101</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>43315</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43843</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>44960</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>45027</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>43356</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>43447</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>43963</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44021</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>44132</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>44139</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>44139</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>44140</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>44159</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>44237</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>44445</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
         <v>44467</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>44531</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>44728</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>45037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>43321</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>43332</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43335</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>43341</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43342</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>43349</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43350</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>43356</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         <v>43357</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43359</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43361</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>43363</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>43367</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>43368</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>43368</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>43369</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>43375</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         <v>43376</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>43384</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3635,7 +3635,7 @@
         <v>43396</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>43396</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>43396</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3806,7 +3806,7 @@
         <v>43397</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>43398</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>43398</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>43398</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>43398</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>43402</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>43403</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>43403</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>43405</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>43409</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>43410</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4443,7 +4443,7 @@
         <v>43410</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>43411</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43412</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>43413</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>43416</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>43416</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>43416</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>43417</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>43419</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>43419</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>43420</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>43420</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>43423</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>43424</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>43426</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>43430</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>43430</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>43431</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>43431</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>43434</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         <v>43434</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>43434</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>43437</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>43437</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5816,7 +5816,7 @@
         <v>43437</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>43438</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>43446</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5987,7 +5987,7 @@
         <v>43451</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6044,7 +6044,7 @@
         <v>43451</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>43451</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>43451</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6215,7 +6215,7 @@
         <v>43451</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>43451</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>43453</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         <v>43454</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6443,7 +6443,7 @@
         <v>43454</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6500,7 +6500,7 @@
         <v>43461</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6557,7 +6557,7 @@
         <v>43465</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6614,7 +6614,7 @@
         <v>43467</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6671,7 +6671,7 @@
         <v>43467</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
         <v>43468</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6785,7 +6785,7 @@
         <v>43473</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6842,7 +6842,7 @@
         <v>43475</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6899,7 +6899,7 @@
         <v>43475</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
         <v>43476</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7013,7 +7013,7 @@
         <v>43476</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7070,7 +7070,7 @@
         <v>43479</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7127,7 +7127,7 @@
         <v>43480</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7184,7 +7184,7 @@
         <v>43480</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7241,7 +7241,7 @@
         <v>43481</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7298,7 +7298,7 @@
         <v>43483</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7355,7 +7355,7 @@
         <v>43485</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7412,7 +7412,7 @@
         <v>43485</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7469,7 +7469,7 @@
         <v>43488</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         <v>43488</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>43488</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>43489</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7697,7 +7697,7 @@
         <v>43493</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>43493</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>43493</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>43493</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>43494</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>43496</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43497</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43497</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43500</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43501</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43508</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43508</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43508</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>43510</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8500,7 +8500,7 @@
         <v>43511</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>43516</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>43517</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         <v>43517</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>43518</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         <v>43521</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>43523</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         <v>43529</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>43529</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>43532</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9075,7 +9075,7 @@
         <v>43535</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9132,7 +9132,7 @@
         <v>43537</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         <v>43538</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9246,7 +9246,7 @@
         <v>43538</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9303,7 +9303,7 @@
         <v>43538</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>43538</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>43542</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9474,7 +9474,7 @@
         <v>43543</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>43546</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>43549</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9645,7 +9645,7 @@
         <v>43549</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9702,7 +9702,7 @@
         <v>43549</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>43567</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>43567</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>43571</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9930,7 +9930,7 @@
         <v>43572</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9987,7 +9987,7 @@
         <v>43573</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10044,7 +10044,7 @@
         <v>43580</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43584</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43587</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43592</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>43593</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43594</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>43594</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>43594</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43595</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         <v>43601</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10614,7 +10614,7 @@
         <v>43601</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10671,7 +10671,7 @@
         <v>43602</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10728,7 +10728,7 @@
         <v>43609</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10785,7 +10785,7 @@
         <v>43626</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10842,7 +10842,7 @@
         <v>43626</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>43626</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>43627</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>43640</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11075,7 +11075,7 @@
         <v>43644</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>43648</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11189,7 +11189,7 @@
         <v>43650</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11246,7 +11246,7 @@
         <v>43650</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11303,7 +11303,7 @@
         <v>43655</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11360,7 +11360,7 @@
         <v>43663</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11417,7 +11417,7 @@
         <v>43668</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11474,7 +11474,7 @@
         <v>43671</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11531,7 +11531,7 @@
         <v>43676</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11588,7 +11588,7 @@
         <v>43682</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11645,7 +11645,7 @@
         <v>43683</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11702,7 +11702,7 @@
         <v>43684</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11764,7 +11764,7 @@
         <v>43684</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11821,7 +11821,7 @@
         <v>43684</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11878,7 +11878,7 @@
         <v>43684</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11935,7 +11935,7 @@
         <v>43686</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11992,7 +11992,7 @@
         <v>43686</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12049,7 +12049,7 @@
         <v>43690</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12106,7 +12106,7 @@
         <v>43691</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         <v>43692</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12220,7 +12220,7 @@
         <v>43692</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12277,7 +12277,7 @@
         <v>43692</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         <v>43692</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         <v>43698</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12448,7 +12448,7 @@
         <v>43698</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12505,7 +12505,7 @@
         <v>43698</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12562,7 +12562,7 @@
         <v>43698</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         <v>43698</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12676,7 +12676,7 @@
         <v>43698</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12733,7 +12733,7 @@
         <v>43698</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12790,7 +12790,7 @@
         <v>43698</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12847,7 +12847,7 @@
         <v>43698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12904,7 +12904,7 @@
         <v>43698</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12961,7 +12961,7 @@
         <v>43698</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13018,7 +13018,7 @@
         <v>43698</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13075,7 +13075,7 @@
         <v>43698</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13132,7 +13132,7 @@
         <v>43699</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13189,7 +13189,7 @@
         <v>43701</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13246,7 +13246,7 @@
         <v>43701</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13303,7 +13303,7 @@
         <v>43706</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13360,7 +13360,7 @@
         <v>43710</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13417,7 +13417,7 @@
         <v>43710</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>43711</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13531,7 +13531,7 @@
         <v>43711</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         <v>43712</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
         <v>43712</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         <v>43712</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         <v>43712</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>43712</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>43712</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13935,7 +13935,7 @@
         <v>43718</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13992,7 +13992,7 @@
         <v>43718</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14049,7 +14049,7 @@
         <v>43719</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14106,7 +14106,7 @@
         <v>43719</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14163,7 +14163,7 @@
         <v>43719</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14220,7 +14220,7 @@
         <v>43720</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14277,7 +14277,7 @@
         <v>43720</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14334,7 +14334,7 @@
         <v>43721</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14391,7 +14391,7 @@
         <v>43727</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         <v>43732</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>43735</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14562,7 +14562,7 @@
         <v>43738</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14619,7 +14619,7 @@
         <v>43742</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14676,7 +14676,7 @@
         <v>43746</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14733,7 +14733,7 @@
         <v>43746</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14790,7 +14790,7 @@
         <v>43747</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14847,7 +14847,7 @@
         <v>43748</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14904,7 +14904,7 @@
         <v>43753</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14961,7 +14961,7 @@
         <v>43753</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>43754</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15075,7 +15075,7 @@
         <v>43756</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15132,7 +15132,7 @@
         <v>43760</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15189,7 +15189,7 @@
         <v>43760</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>43761</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15303,7 +15303,7 @@
         <v>43763</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>43763</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>43763</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>43766</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>43766</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>43770</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>43773</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>43774</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15759,7 +15759,7 @@
         <v>43775</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>43775</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15873,7 +15873,7 @@
         <v>43777</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>43782</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>43783</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>43783</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         <v>43788</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>43788</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16215,7 +16215,7 @@
         <v>43789</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>43790</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         <v>43812</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         <v>43812</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16443,7 +16443,7 @@
         <v>43817</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16500,7 +16500,7 @@
         <v>43818</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>43832</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>43832</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>43833</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16728,7 +16728,7 @@
         <v>43837</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16785,7 +16785,7 @@
         <v>43838</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>43838</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>43840</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>43844</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>43844</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>43845</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>43845</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>43849</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17241,7 +17241,7 @@
         <v>43850</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17298,7 +17298,7 @@
         <v>43852</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17355,7 +17355,7 @@
         <v>43852</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>43854</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>43867</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17526,7 +17526,7 @@
         <v>43867</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>43870</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>43870</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>43872</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>43875</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>43879</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>43887</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17925,7 +17925,7 @@
         <v>43887</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17982,7 +17982,7 @@
         <v>43889</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         <v>43889</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18096,7 +18096,7 @@
         <v>43889</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>43894</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18210,7 +18210,7 @@
         <v>43900</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18267,7 +18267,7 @@
         <v>43902</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18324,7 +18324,7 @@
         <v>43902</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18381,7 +18381,7 @@
         <v>43902</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
         <v>43902</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18495,7 +18495,7 @@
         <v>43907</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18552,7 +18552,7 @@
         <v>43907</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18609,7 +18609,7 @@
         <v>43907</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18666,7 +18666,7 @@
         <v>43907</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18723,7 +18723,7 @@
         <v>43913</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18780,7 +18780,7 @@
         <v>43914</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
         <v>43914</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18894,7 +18894,7 @@
         <v>43915</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18951,7 +18951,7 @@
         <v>43915</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19008,7 +19008,7 @@
         <v>43916</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19065,7 +19065,7 @@
         <v>43916</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19122,7 +19122,7 @@
         <v>43917</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19179,7 +19179,7 @@
         <v>43920</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19236,7 +19236,7 @@
         <v>43920</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19293,7 +19293,7 @@
         <v>43920</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19350,7 +19350,7 @@
         <v>43920</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19407,7 +19407,7 @@
         <v>43921</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19464,7 +19464,7 @@
         <v>43923</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19521,7 +19521,7 @@
         <v>43923</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19583,7 +19583,7 @@
         <v>43923</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19640,7 +19640,7 @@
         <v>43925</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19697,7 +19697,7 @@
         <v>43926</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19754,7 +19754,7 @@
         <v>43927</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19811,7 +19811,7 @@
         <v>43927</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19868,7 +19868,7 @@
         <v>43927</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19925,7 +19925,7 @@
         <v>43927</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>43935</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20039,7 +20039,7 @@
         <v>43937</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20096,7 +20096,7 @@
         <v>43937</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>43937</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20210,7 +20210,7 @@
         <v>43938</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20272,7 +20272,7 @@
         <v>43950</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>43977</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>43977</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20448,7 +20448,7 @@
         <v>43977</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20505,7 +20505,7 @@
         <v>43980</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20562,7 +20562,7 @@
         <v>43980</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20619,7 +20619,7 @@
         <v>43986</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20676,7 +20676,7 @@
         <v>43992</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20733,7 +20733,7 @@
         <v>43993</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20790,7 +20790,7 @@
         <v>44005</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         <v>44006</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20904,7 +20904,7 @@
         <v>44007</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20961,7 +20961,7 @@
         <v>44008</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21018,7 +21018,7 @@
         <v>44014</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21075,7 +21075,7 @@
         <v>44015</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21132,7 +21132,7 @@
         <v>44018</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21189,7 +21189,7 @@
         <v>44019</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21246,7 +21246,7 @@
         <v>44026</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21303,7 +21303,7 @@
         <v>44039</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21360,7 +21360,7 @@
         <v>44046</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21417,7 +21417,7 @@
         <v>44048</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21474,7 +21474,7 @@
         <v>44053</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21531,7 +21531,7 @@
         <v>44053</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
         <v>44053</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         <v>44054</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21702,7 +21702,7 @@
         <v>44055</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21759,7 +21759,7 @@
         <v>44055</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21816,7 +21816,7 @@
         <v>44055</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21873,7 +21873,7 @@
         <v>44055</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21930,7 +21930,7 @@
         <v>44057</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44060</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44060</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>44060</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>44062</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44062</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44062</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44071</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44074</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>44075</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>44080</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>44081</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>44083</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22671,7 +22671,7 @@
         <v>44088</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22728,7 +22728,7 @@
         <v>44088</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22785,7 +22785,7 @@
         <v>44090</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22842,7 +22842,7 @@
         <v>44090</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>44090</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22956,7 +22956,7 @@
         <v>44103</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         <v>44113</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>44113</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23127,7 +23127,7 @@
         <v>44120</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23184,7 +23184,7 @@
         <v>44120</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23241,7 +23241,7 @@
         <v>44123</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23298,7 +23298,7 @@
         <v>44124</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23355,7 +23355,7 @@
         <v>44124</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23412,7 +23412,7 @@
         <v>44125</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23469,7 +23469,7 @@
         <v>44127</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23526,7 +23526,7 @@
         <v>44131</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23583,7 +23583,7 @@
         <v>44132</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23640,7 +23640,7 @@
         <v>44132</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23697,7 +23697,7 @@
         <v>44132</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23754,7 +23754,7 @@
         <v>44132</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23811,7 +23811,7 @@
         <v>44132</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23868,7 +23868,7 @@
         <v>44133</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23925,7 +23925,7 @@
         <v>44139</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23982,7 +23982,7 @@
         <v>44139</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24039,7 +24039,7 @@
         <v>44140</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24096,7 +24096,7 @@
         <v>44140</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24153,7 +24153,7 @@
         <v>44140</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24210,7 +24210,7 @@
         <v>44144</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24267,7 +24267,7 @@
         <v>44146</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24324,7 +24324,7 @@
         <v>44146</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         <v>44152</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24438,7 +24438,7 @@
         <v>44153</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24495,7 +24495,7 @@
         <v>44154</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24552,7 +24552,7 @@
         <v>44166</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24609,7 +24609,7 @@
         <v>44167</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24666,7 +24666,7 @@
         <v>44169</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24723,7 +24723,7 @@
         <v>44174</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24780,7 +24780,7 @@
         <v>44179</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24837,7 +24837,7 @@
         <v>44179</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24894,7 +24894,7 @@
         <v>44186</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24951,7 +24951,7 @@
         <v>44188</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25008,7 +25008,7 @@
         <v>44188</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25065,7 +25065,7 @@
         <v>44200</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25122,7 +25122,7 @@
         <v>44202</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25179,7 +25179,7 @@
         <v>44204</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25236,7 +25236,7 @@
         <v>44204</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25293,7 +25293,7 @@
         <v>44204</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25350,7 +25350,7 @@
         <v>44207</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25407,7 +25407,7 @@
         <v>44208</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25464,7 +25464,7 @@
         <v>44208</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25521,7 +25521,7 @@
         <v>44208</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>44209</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         <v>44211</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>44217</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         <v>44222</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25806,7 +25806,7 @@
         <v>44223</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25863,7 +25863,7 @@
         <v>44225</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25920,7 +25920,7 @@
         <v>44225</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25977,7 +25977,7 @@
         <v>44225</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>44230</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>44235</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>44235</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>44235</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>44235</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>44241</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26376,7 +26376,7 @@
         <v>44253</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26433,7 +26433,7 @@
         <v>44256</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26490,7 +26490,7 @@
         <v>44257</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26547,7 +26547,7 @@
         <v>44259</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26604,7 +26604,7 @@
         <v>44259</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26661,7 +26661,7 @@
         <v>44267</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26718,7 +26718,7 @@
         <v>44267</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26775,7 +26775,7 @@
         <v>44270</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26832,7 +26832,7 @@
         <v>44275</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26889,7 +26889,7 @@
         <v>44279</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         <v>44281</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27003,7 +27003,7 @@
         <v>44284</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27060,7 +27060,7 @@
         <v>44284</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27117,7 +27117,7 @@
         <v>44284</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27174,7 +27174,7 @@
         <v>44285</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27231,7 +27231,7 @@
         <v>44286</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27288,7 +27288,7 @@
         <v>44292</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27345,7 +27345,7 @@
         <v>44300</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27402,7 +27402,7 @@
         <v>44300</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27464,7 +27464,7 @@
         <v>44302</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27521,7 +27521,7 @@
         <v>44302</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27578,7 +27578,7 @@
         <v>44302</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27635,7 +27635,7 @@
         <v>44302</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27692,7 +27692,7 @@
         <v>44305</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27749,7 +27749,7 @@
         <v>44305</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27806,7 +27806,7 @@
         <v>44305</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27863,7 +27863,7 @@
         <v>44306</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27920,7 +27920,7 @@
         <v>44309</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27977,7 +27977,7 @@
         <v>44323</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28034,7 +28034,7 @@
         <v>44323</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28091,7 +28091,7 @@
         <v>44325</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28148,7 +28148,7 @@
         <v>44327</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28205,7 +28205,7 @@
         <v>44333</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28262,7 +28262,7 @@
         <v>44342</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28319,7 +28319,7 @@
         <v>44342</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28376,7 +28376,7 @@
         <v>44342</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28433,7 +28433,7 @@
         <v>44342</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28490,7 +28490,7 @@
         <v>44343</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28547,7 +28547,7 @@
         <v>44349</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28604,7 +28604,7 @@
         <v>44350</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28661,7 +28661,7 @@
         <v>44350</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28718,7 +28718,7 @@
         <v>44350</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28775,7 +28775,7 @@
         <v>44354</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28832,7 +28832,7 @@
         <v>44356</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28889,7 +28889,7 @@
         <v>44364</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         <v>44365</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29003,7 +29003,7 @@
         <v>44365</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29060,7 +29060,7 @@
         <v>44368</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29117,7 +29117,7 @@
         <v>44375</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29174,7 +29174,7 @@
         <v>44383</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29231,7 +29231,7 @@
         <v>44384</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29288,7 +29288,7 @@
         <v>44384</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29345,7 +29345,7 @@
         <v>44391</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29402,7 +29402,7 @@
         <v>44391</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29459,7 +29459,7 @@
         <v>44397</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29516,7 +29516,7 @@
         <v>44398</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29573,7 +29573,7 @@
         <v>44399</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29630,7 +29630,7 @@
         <v>44399</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29687,7 +29687,7 @@
         <v>44406</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29744,7 +29744,7 @@
         <v>44411</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29801,7 +29801,7 @@
         <v>44411</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29858,7 +29858,7 @@
         <v>44420</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29915,7 +29915,7 @@
         <v>44420</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29972,7 +29972,7 @@
         <v>44421</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30029,7 +30029,7 @@
         <v>44424</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30086,7 +30086,7 @@
         <v>44425</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30143,7 +30143,7 @@
         <v>44433</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30200,7 +30200,7 @@
         <v>44435</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30257,7 +30257,7 @@
         <v>44435</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30314,7 +30314,7 @@
         <v>44440</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30371,7 +30371,7 @@
         <v>44440</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30433,7 +30433,7 @@
         <v>44441</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30490,7 +30490,7 @@
         <v>44441</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         <v>44441</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30604,7 +30604,7 @@
         <v>44442</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30661,7 +30661,7 @@
         <v>44447</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30718,7 +30718,7 @@
         <v>44449</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30775,7 +30775,7 @@
         <v>44452</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30832,7 +30832,7 @@
         <v>44452</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30889,7 +30889,7 @@
         <v>44458</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         <v>44461</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31003,7 +31003,7 @@
         <v>44461</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31060,7 +31060,7 @@
         <v>44462</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31117,7 +31117,7 @@
         <v>44466</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31174,7 +31174,7 @@
         <v>44468</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31231,7 +31231,7 @@
         <v>44473</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31288,7 +31288,7 @@
         <v>44476</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31345,7 +31345,7 @@
         <v>44481</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31402,7 +31402,7 @@
         <v>44491</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31459,7 +31459,7 @@
         <v>44496</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31516,7 +31516,7 @@
         <v>44496</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31573,7 +31573,7 @@
         <v>44497</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31630,7 +31630,7 @@
         <v>44498</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31687,7 +31687,7 @@
         <v>44502</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31744,7 +31744,7 @@
         <v>44503</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31801,7 +31801,7 @@
         <v>44503</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31858,7 +31858,7 @@
         <v>44512</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         <v>44515</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31972,7 +31972,7 @@
         <v>44516</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32029,7 +32029,7 @@
         <v>44517</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32086,7 +32086,7 @@
         <v>44523</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32143,7 +32143,7 @@
         <v>44529</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32200,7 +32200,7 @@
         <v>44530</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32257,7 +32257,7 @@
         <v>44539</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32314,7 +32314,7 @@
         <v>44543</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32371,7 +32371,7 @@
         <v>44551</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32428,7 +32428,7 @@
         <v>44553</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32485,7 +32485,7 @@
         <v>44559</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32542,7 +32542,7 @@
         <v>44572</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32599,7 +32599,7 @@
         <v>44572</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32656,7 +32656,7 @@
         <v>44578</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32713,7 +32713,7 @@
         <v>44579</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32770,7 +32770,7 @@
         <v>44584</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32827,7 +32827,7 @@
         <v>44585</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32884,7 +32884,7 @@
         <v>44585</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32941,7 +32941,7 @@
         <v>44586</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -32998,7 +32998,7 @@
         <v>44588</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33055,7 +33055,7 @@
         <v>44592</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33112,7 +33112,7 @@
         <v>44595</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33169,7 +33169,7 @@
         <v>44596</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33231,7 +33231,7 @@
         <v>44596</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33288,7 +33288,7 @@
         <v>44599</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33345,7 +33345,7 @@
         <v>44600</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33402,7 +33402,7 @@
         <v>44608</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33459,7 +33459,7 @@
         <v>44614</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33516,7 +33516,7 @@
         <v>44616</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33573,7 +33573,7 @@
         <v>44617</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33630,7 +33630,7 @@
         <v>44619</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33687,7 +33687,7 @@
         <v>44619</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33744,7 +33744,7 @@
         <v>44620</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33801,7 +33801,7 @@
         <v>44620</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33858,7 +33858,7 @@
         <v>44621</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33915,7 +33915,7 @@
         <v>44623</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -33972,7 +33972,7 @@
         <v>44624</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34029,7 +34029,7 @@
         <v>44624</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34086,7 +34086,7 @@
         <v>44628</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34143,7 +34143,7 @@
         <v>44629</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34200,7 +34200,7 @@
         <v>44629</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34257,7 +34257,7 @@
         <v>44636</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34314,7 +34314,7 @@
         <v>44636</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34371,7 +34371,7 @@
         <v>44637</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34428,7 +34428,7 @@
         <v>44644</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34485,7 +34485,7 @@
         <v>44657</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34542,7 +34542,7 @@
         <v>44663</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34599,7 +34599,7 @@
         <v>44670</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34656,7 +34656,7 @@
         <v>44672</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34713,7 +34713,7 @@
         <v>44686</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34770,7 +34770,7 @@
         <v>44687</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34827,7 +34827,7 @@
         <v>44687</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34884,7 +34884,7 @@
         <v>44693</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -34941,7 +34941,7 @@
         <v>44696</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -34998,7 +34998,7 @@
         <v>44698</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35055,7 +35055,7 @@
         <v>44700</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35112,7 +35112,7 @@
         <v>44705</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35169,7 +35169,7 @@
         <v>44706</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35226,7 +35226,7 @@
         <v>44706</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35283,7 +35283,7 @@
         <v>44710</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35340,7 +35340,7 @@
         <v>44711</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35397,7 +35397,7 @@
         <v>44720</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35454,7 +35454,7 @@
         <v>44725</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35511,7 +35511,7 @@
         <v>44742</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35568,7 +35568,7 @@
         <v>44742</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35625,7 +35625,7 @@
         <v>44742</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35682,7 +35682,7 @@
         <v>44742</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35739,7 +35739,7 @@
         <v>44747</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35796,7 +35796,7 @@
         <v>44747</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35853,7 +35853,7 @@
         <v>44748</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -35910,7 +35910,7 @@
         <v>44753</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -35967,7 +35967,7 @@
         <v>44754</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36024,7 +36024,7 @@
         <v>44754</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36081,7 +36081,7 @@
         <v>44757</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36138,7 +36138,7 @@
         <v>44757</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36195,7 +36195,7 @@
         <v>44767</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36252,7 +36252,7 @@
         <v>44799</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36309,7 +36309,7 @@
         <v>44806</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36366,7 +36366,7 @@
         <v>44812</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36423,7 +36423,7 @@
         <v>44820</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36480,7 +36480,7 @@
         <v>44820</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36537,7 +36537,7 @@
         <v>44825</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36594,7 +36594,7 @@
         <v>44826</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36651,7 +36651,7 @@
         <v>44832</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36708,7 +36708,7 @@
         <v>44832</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36765,7 +36765,7 @@
         <v>44837</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -36822,7 +36822,7 @@
         <v>44844</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -36879,7 +36879,7 @@
         <v>44845</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -36936,7 +36936,7 @@
         <v>44847</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -36993,7 +36993,7 @@
         <v>44847</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37050,7 +37050,7 @@
         <v>44847</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37107,7 +37107,7 @@
         <v>44856</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37164,7 +37164,7 @@
         <v>44858</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37221,7 +37221,7 @@
         <v>44858</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37278,7 +37278,7 @@
         <v>44860</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37335,7 +37335,7 @@
         <v>44860</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37392,7 +37392,7 @@
         <v>44860</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37449,7 +37449,7 @@
         <v>44862</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37506,7 +37506,7 @@
         <v>44865</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37563,7 +37563,7 @@
         <v>44866</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37620,7 +37620,7 @@
         <v>44866</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37677,7 +37677,7 @@
         <v>44867</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37734,7 +37734,7 @@
         <v>44874</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -37791,7 +37791,7 @@
         <v>44874</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -37848,7 +37848,7 @@
         <v>44874</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -37905,7 +37905,7 @@
         <v>44875</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -37962,7 +37962,7 @@
         <v>44879</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38019,7 +38019,7 @@
         <v>44881</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38076,7 +38076,7 @@
         <v>44890</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38133,7 +38133,7 @@
         <v>44893</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38190,7 +38190,7 @@
         <v>44893</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38247,7 +38247,7 @@
         <v>44893</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38304,7 +38304,7 @@
         <v>44903</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38361,7 +38361,7 @@
         <v>44909</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38418,7 +38418,7 @@
         <v>44911</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38475,7 +38475,7 @@
         <v>44911</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38532,7 +38532,7 @@
         <v>44920</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38589,7 +38589,7 @@
         <v>44930</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38646,7 +38646,7 @@
         <v>44930</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38703,7 +38703,7 @@
         <v>44936</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38760,7 +38760,7 @@
         <v>44939</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -38817,7 +38817,7 @@
         <v>44942</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -38874,7 +38874,7 @@
         <v>44950</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -38931,7 +38931,7 @@
         <v>44951</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -38988,7 +38988,7 @@
         <v>44952</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39045,7 +39045,7 @@
         <v>44957</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39102,7 +39102,7 @@
         <v>44958</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39159,7 +39159,7 @@
         <v>44967</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39216,7 +39216,7 @@
         <v>44967</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39273,7 +39273,7 @@
         <v>44970</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39330,7 +39330,7 @@
         <v>44981</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39387,7 +39387,7 @@
         <v>44981</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39444,7 +39444,7 @@
         <v>44984</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39501,7 +39501,7 @@
         <v>44986</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39558,7 +39558,7 @@
         <v>44988</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39615,7 +39615,7 @@
         <v>44988</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39672,7 +39672,7 @@
         <v>44988</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39729,7 +39729,7 @@
         <v>44988</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -39786,7 +39786,7 @@
         <v>44998</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -39843,7 +39843,7 @@
         <v>45001</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -39900,7 +39900,7 @@
         <v>45004</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -39957,7 +39957,7 @@
         <v>45005</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40014,7 +40014,7 @@
         <v>45012</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40071,7 +40071,7 @@
         <v>45012</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40128,7 +40128,7 @@
         <v>45012</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40185,7 +40185,7 @@
         <v>45012</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40242,7 +40242,7 @@
         <v>45015</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40299,7 +40299,7 @@
         <v>45016</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40356,7 +40356,7 @@
         <v>45019</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40413,7 +40413,7 @@
         <v>45019</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40470,7 +40470,7 @@
         <v>45020</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40527,7 +40527,7 @@
         <v>45027</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40584,7 +40584,7 @@
         <v>45027</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40641,7 +40641,7 @@
         <v>45027</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40698,7 +40698,7 @@
         <v>45028</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40755,7 +40755,7 @@
         <v>45030</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -40812,7 +40812,7 @@
         <v>45034</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -40869,7 +40869,7 @@
         <v>45034</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -40926,7 +40926,7 @@
         <v>45035</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -40983,7 +40983,7 @@
         <v>45035</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41040,7 +41040,7 @@
         <v>45037</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41097,7 +41097,7 @@
         <v>45040</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41154,7 +41154,7 @@
         <v>45040</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41211,7 +41211,7 @@
         <v>45042</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41268,7 +41268,7 @@
         <v>45048</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41325,7 +41325,7 @@
         <v>45048</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41382,7 +41382,7 @@
         <v>45050</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41439,7 +41439,7 @@
         <v>45050</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41496,7 +41496,7 @@
         <v>45050</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41553,7 +41553,7 @@
         <v>45050</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41610,7 +41610,7 @@
         <v>45055</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41667,7 +41667,7 @@
         <v>45056</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41724,7 +41724,7 @@
         <v>45057</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -41781,7 +41781,7 @@
         <v>45057</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -41838,7 +41838,7 @@
         <v>45057</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -41895,7 +41895,7 @@
         <v>45057</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -41952,7 +41952,7 @@
         <v>45058</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42009,7 +42009,7 @@
         <v>45065</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42066,7 +42066,7 @@
         <v>45069</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42123,7 +42123,7 @@
         <v>45069</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42180,7 +42180,7 @@
         <v>45070</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42237,7 +42237,7 @@
         <v>45070</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42294,7 +42294,7 @@
         <v>45070</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42351,7 +42351,7 @@
         <v>45070</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42408,7 +42408,7 @@
         <v>45075</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42465,7 +42465,7 @@
         <v>45076</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42522,7 +42522,7 @@
         <v>45076</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42579,7 +42579,7 @@
         <v>45077</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42636,7 +42636,7 @@
         <v>45079</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42693,7 +42693,7 @@
         <v>45080</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -42750,7 +42750,7 @@
         <v>45080</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -42807,7 +42807,7 @@
         <v>45082</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -42864,7 +42864,7 @@
         <v>45084</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -42921,7 +42921,7 @@
         <v>45085</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -42978,7 +42978,7 @@
         <v>45085</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43035,7 +43035,7 @@
         <v>45085</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43092,7 +43092,7 @@
         <v>45085</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43149,7 +43149,7 @@
         <v>45085</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43206,7 +43206,7 @@
         <v>45089</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43263,7 +43263,7 @@
         <v>45090</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43320,7 +43320,7 @@
         <v>45091</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43377,7 +43377,7 @@
         <v>45091</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43434,7 +43434,7 @@
         <v>45092</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43491,7 +43491,7 @@
         <v>45092</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -43548,7 +43548,7 @@
         <v>45092</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -43605,7 +43605,7 @@
         <v>45092</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -43662,7 +43662,7 @@
         <v>45093</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -43719,7 +43719,7 @@
         <v>45094</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -43776,7 +43776,7 @@
         <v>45097</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -43833,7 +43833,7 @@
         <v>45098</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -43890,7 +43890,7 @@
         <v>45098</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -43947,7 +43947,7 @@
         <v>45106</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44004,7 +44004,7 @@
         <v>45106</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44061,7 +44061,7 @@
         <v>45106</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44118,7 +44118,7 @@
         <v>45106</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44175,7 +44175,7 @@
         <v>45106</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44232,7 +44232,7 @@
         <v>45107</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44289,7 +44289,7 @@
         <v>45107</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44346,7 +44346,7 @@
         <v>45107</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44403,7 +44403,7 @@
         <v>45108</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44460,7 +44460,7 @@
         <v>45113</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -44517,7 +44517,7 @@
         <v>45113</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -44574,7 +44574,7 @@
         <v>45119</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -44631,7 +44631,7 @@
         <v>45125</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -44688,7 +44688,7 @@
         <v>45127</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -44745,7 +44745,7 @@
         <v>45127</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -44802,7 +44802,7 @@
         <v>45127</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -44859,7 +44859,7 @@
         <v>45132</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -44916,7 +44916,7 @@
         <v>45140</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -44973,7 +44973,7 @@
         <v>45142</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45030,7 +45030,7 @@
         <v>45142</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45087,7 +45087,7 @@
         <v>45142</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45144,7 +45144,7 @@
         <v>45147</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45201,7 +45201,7 @@
         <v>45148</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45258,7 +45258,7 @@
         <v>45155</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45315,7 +45315,7 @@
         <v>45155</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45372,7 +45372,7 @@
         <v>45159</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -45429,7 +45429,7 @@
         <v>45159</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -45486,7 +45486,7 @@
         <v>45162</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -45543,7 +45543,7 @@
         <v>45162</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -45600,7 +45600,7 @@
         <v>45163</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -45657,7 +45657,7 @@
         <v>45169</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -45714,7 +45714,7 @@
         <v>45170</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -45771,7 +45771,7 @@
         <v>45170</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>

--- a/Översikt KARLSKRONA.xlsx
+++ b/Översikt KARLSKRONA.xlsx
@@ -572,7 +572,7 @@
         <v>45051</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>43640</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>44509</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>45101</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>43315</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43843</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>44960</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>45027</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>43356</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>43447</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>43963</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44021</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>44132</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>44139</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>44139</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>44140</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>44159</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>44237</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>44445</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
         <v>44467</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>44531</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>44728</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>45037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>43321</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>43332</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43335</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>43341</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43342</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>43349</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43350</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>43356</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         <v>43357</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43359</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43361</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>43363</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>43367</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>43368</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>43368</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>43369</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>43375</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         <v>43376</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>43384</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3635,7 +3635,7 @@
         <v>43396</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>43396</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>43396</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3806,7 +3806,7 @@
         <v>43397</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>43398</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>43398</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>43398</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>43398</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>43402</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>43403</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>43403</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>43405</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>43409</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>43410</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4443,7 +4443,7 @@
         <v>43410</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>43411</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43412</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>43413</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>43416</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>43416</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>43416</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>43417</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>43419</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>43419</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>43420</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>43420</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>43423</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>43424</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>43426</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>43430</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>43430</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>43431</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>43431</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>43434</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         <v>43434</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>43434</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>43437</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>43437</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5816,7 +5816,7 @@
         <v>43437</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>43438</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>43446</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5987,7 +5987,7 @@
         <v>43451</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6044,7 +6044,7 @@
         <v>43451</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>43451</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>43451</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6215,7 +6215,7 @@
         <v>43451</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>43451</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>43453</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         <v>43454</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6443,7 +6443,7 @@
         <v>43454</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6500,7 +6500,7 @@
         <v>43461</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6557,7 +6557,7 @@
         <v>43465</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6614,7 +6614,7 @@
         <v>43467</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6671,7 +6671,7 @@
         <v>43467</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
         <v>43468</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6785,7 +6785,7 @@
         <v>43473</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6842,7 +6842,7 @@
         <v>43475</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6899,7 +6899,7 @@
         <v>43475</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
         <v>43476</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7013,7 +7013,7 @@
         <v>43476</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7070,7 +7070,7 @@
         <v>43479</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7127,7 +7127,7 @@
         <v>43480</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7184,7 +7184,7 @@
         <v>43480</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7241,7 +7241,7 @@
         <v>43481</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7298,7 +7298,7 @@
         <v>43483</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7355,7 +7355,7 @@
         <v>43485</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7412,7 +7412,7 @@
         <v>43485</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7469,7 +7469,7 @@
         <v>43488</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         <v>43488</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>43488</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>43489</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7697,7 +7697,7 @@
         <v>43493</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>43493</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>43493</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>43493</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>43494</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>43496</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43497</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43497</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43500</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43501</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43508</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43508</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43508</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>43510</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8500,7 +8500,7 @@
         <v>43511</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>43516</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>43517</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         <v>43517</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>43518</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         <v>43521</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>43523</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         <v>43529</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>43529</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>43532</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9075,7 +9075,7 @@
         <v>43535</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9132,7 +9132,7 @@
         <v>43537</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         <v>43538</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9246,7 +9246,7 @@
         <v>43538</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9303,7 +9303,7 @@
         <v>43538</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>43538</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>43542</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9474,7 +9474,7 @@
         <v>43543</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>43546</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>43549</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9645,7 +9645,7 @@
         <v>43549</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9702,7 +9702,7 @@
         <v>43549</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>43567</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>43567</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>43571</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9930,7 +9930,7 @@
         <v>43572</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9987,7 +9987,7 @@
         <v>43573</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10044,7 +10044,7 @@
         <v>43580</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43584</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43587</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43592</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>43593</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43594</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>43594</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>43594</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43595</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         <v>43601</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10614,7 +10614,7 @@
         <v>43601</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10671,7 +10671,7 @@
         <v>43602</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10728,7 +10728,7 @@
         <v>43609</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10785,7 +10785,7 @@
         <v>43626</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10842,7 +10842,7 @@
         <v>43626</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>43626</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>43627</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>43640</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11075,7 +11075,7 @@
         <v>43644</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>43648</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11189,7 +11189,7 @@
         <v>43650</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11246,7 +11246,7 @@
         <v>43650</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11303,7 +11303,7 @@
         <v>43655</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11360,7 +11360,7 @@
         <v>43663</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11417,7 +11417,7 @@
         <v>43668</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11474,7 +11474,7 @@
         <v>43671</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11531,7 +11531,7 @@
         <v>43676</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11588,7 +11588,7 @@
         <v>43682</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11645,7 +11645,7 @@
         <v>43683</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11702,7 +11702,7 @@
         <v>43684</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11764,7 +11764,7 @@
         <v>43684</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11821,7 +11821,7 @@
         <v>43684</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11878,7 +11878,7 @@
         <v>43684</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11935,7 +11935,7 @@
         <v>43686</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11992,7 +11992,7 @@
         <v>43686</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12049,7 +12049,7 @@
         <v>43690</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12106,7 +12106,7 @@
         <v>43691</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         <v>43692</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12220,7 +12220,7 @@
         <v>43692</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12277,7 +12277,7 @@
         <v>43692</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         <v>43692</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         <v>43698</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12448,7 +12448,7 @@
         <v>43698</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12505,7 +12505,7 @@
         <v>43698</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12562,7 +12562,7 @@
         <v>43698</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         <v>43698</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12676,7 +12676,7 @@
         <v>43698</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12733,7 +12733,7 @@
         <v>43698</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12790,7 +12790,7 @@
         <v>43698</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12847,7 +12847,7 @@
         <v>43698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12904,7 +12904,7 @@
         <v>43698</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12961,7 +12961,7 @@
         <v>43698</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13018,7 +13018,7 @@
         <v>43698</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13075,7 +13075,7 @@
         <v>43698</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13132,7 +13132,7 @@
         <v>43699</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13189,7 +13189,7 @@
         <v>43701</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13246,7 +13246,7 @@
         <v>43701</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13303,7 +13303,7 @@
         <v>43706</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13360,7 +13360,7 @@
         <v>43710</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13417,7 +13417,7 @@
         <v>43710</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>43711</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13531,7 +13531,7 @@
         <v>43711</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         <v>43712</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
         <v>43712</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         <v>43712</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         <v>43712</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>43712</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>43712</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13935,7 +13935,7 @@
         <v>43718</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13992,7 +13992,7 @@
         <v>43718</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14049,7 +14049,7 @@
         <v>43719</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14106,7 +14106,7 @@
         <v>43719</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14163,7 +14163,7 @@
         <v>43719</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14220,7 +14220,7 @@
         <v>43720</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14277,7 +14277,7 @@
         <v>43720</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14334,7 +14334,7 @@
         <v>43721</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14391,7 +14391,7 @@
         <v>43727</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         <v>43732</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>43735</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14562,7 +14562,7 @@
         <v>43738</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14619,7 +14619,7 @@
         <v>43742</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14676,7 +14676,7 @@
         <v>43746</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14733,7 +14733,7 @@
         <v>43746</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14790,7 +14790,7 @@
         <v>43747</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14847,7 +14847,7 @@
         <v>43748</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14904,7 +14904,7 @@
         <v>43753</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14961,7 +14961,7 @@
         <v>43753</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>43754</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15075,7 +15075,7 @@
         <v>43756</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15132,7 +15132,7 @@
         <v>43760</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15189,7 +15189,7 @@
         <v>43760</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>43761</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15303,7 +15303,7 @@
         <v>43763</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>43763</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>43763</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>43766</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>43766</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>43770</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>43773</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>43774</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15759,7 +15759,7 @@
         <v>43775</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>43775</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15873,7 +15873,7 @@
         <v>43777</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>43782</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>43783</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>43783</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         <v>43788</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>43788</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16215,7 +16215,7 @@
         <v>43789</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>43790</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         <v>43812</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         <v>43812</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16443,7 +16443,7 @@
         <v>43817</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16500,7 +16500,7 @@
         <v>43818</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>43832</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>43832</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>43833</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16728,7 +16728,7 @@
         <v>43837</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16785,7 +16785,7 @@
         <v>43838</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>43838</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>43840</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>43844</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>43844</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>43845</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>43845</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>43849</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17241,7 +17241,7 @@
         <v>43850</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17298,7 +17298,7 @@
         <v>43852</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17355,7 +17355,7 @@
         <v>43852</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>43854</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>43867</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17526,7 +17526,7 @@
         <v>43867</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>43870</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>43870</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>43872</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>43875</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>43879</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>43887</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17925,7 +17925,7 @@
         <v>43887</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17982,7 +17982,7 @@
         <v>43889</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         <v>43889</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18096,7 +18096,7 @@
         <v>43889</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>43894</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18210,7 +18210,7 @@
         <v>43900</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18267,7 +18267,7 @@
         <v>43902</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18324,7 +18324,7 @@
         <v>43902</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18381,7 +18381,7 @@
         <v>43902</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
         <v>43902</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18495,7 +18495,7 @@
         <v>43907</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18552,7 +18552,7 @@
         <v>43907</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18609,7 +18609,7 @@
         <v>43907</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18666,7 +18666,7 @@
         <v>43907</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18723,7 +18723,7 @@
         <v>43913</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18780,7 +18780,7 @@
         <v>43914</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
         <v>43914</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18894,7 +18894,7 @@
         <v>43915</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18951,7 +18951,7 @@
         <v>43915</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19008,7 +19008,7 @@
         <v>43916</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19065,7 +19065,7 @@
         <v>43916</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19122,7 +19122,7 @@
         <v>43917</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19179,7 +19179,7 @@
         <v>43920</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19236,7 +19236,7 @@
         <v>43920</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19293,7 +19293,7 @@
         <v>43920</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19350,7 +19350,7 @@
         <v>43920</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19407,7 +19407,7 @@
         <v>43921</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19464,7 +19464,7 @@
         <v>43923</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19521,7 +19521,7 @@
         <v>43923</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19583,7 +19583,7 @@
         <v>43923</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19640,7 +19640,7 @@
         <v>43925</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19697,7 +19697,7 @@
         <v>43926</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19754,7 +19754,7 @@
         <v>43927</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19811,7 +19811,7 @@
         <v>43927</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19868,7 +19868,7 @@
         <v>43927</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19925,7 +19925,7 @@
         <v>43927</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>43935</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20039,7 +20039,7 @@
         <v>43937</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20096,7 +20096,7 @@
         <v>43937</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>43937</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20210,7 +20210,7 @@
         <v>43938</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20272,7 +20272,7 @@
         <v>43950</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>43977</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>43977</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20448,7 +20448,7 @@
         <v>43977</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20505,7 +20505,7 @@
         <v>43980</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20562,7 +20562,7 @@
         <v>43980</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20619,7 +20619,7 @@
         <v>43986</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20676,7 +20676,7 @@
         <v>43992</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20733,7 +20733,7 @@
         <v>43993</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20790,7 +20790,7 @@
         <v>44005</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         <v>44006</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20904,7 +20904,7 @@
         <v>44007</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20961,7 +20961,7 @@
         <v>44008</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21018,7 +21018,7 @@
         <v>44014</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21075,7 +21075,7 @@
         <v>44015</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21132,7 +21132,7 @@
         <v>44018</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21189,7 +21189,7 @@
         <v>44019</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21246,7 +21246,7 @@
         <v>44026</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21303,7 +21303,7 @@
         <v>44039</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21360,7 +21360,7 @@
         <v>44046</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21417,7 +21417,7 @@
         <v>44048</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21474,7 +21474,7 @@
         <v>44053</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21531,7 +21531,7 @@
         <v>44053</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
         <v>44053</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         <v>44054</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21702,7 +21702,7 @@
         <v>44055</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21759,7 +21759,7 @@
         <v>44055</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21816,7 +21816,7 @@
         <v>44055</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21873,7 +21873,7 @@
         <v>44055</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21930,7 +21930,7 @@
         <v>44057</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44060</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44060</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>44060</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>44062</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44062</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44062</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44071</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44074</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>44075</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>44080</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>44081</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>44083</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22671,7 +22671,7 @@
         <v>44088</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22728,7 +22728,7 @@
         <v>44088</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22785,7 +22785,7 @@
         <v>44090</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22842,7 +22842,7 @@
         <v>44090</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>44090</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22956,7 +22956,7 @@
         <v>44103</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         <v>44113</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>44113</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23127,7 +23127,7 @@
         <v>44120</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23184,7 +23184,7 @@
         <v>44120</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23241,7 +23241,7 @@
         <v>44123</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23298,7 +23298,7 @@
         <v>44124</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23355,7 +23355,7 @@
         <v>44124</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23412,7 +23412,7 @@
         <v>44125</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23469,7 +23469,7 @@
         <v>44127</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23526,7 +23526,7 @@
         <v>44131</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23583,7 +23583,7 @@
         <v>44132</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23640,7 +23640,7 @@
         <v>44132</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23697,7 +23697,7 @@
         <v>44132</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23754,7 +23754,7 @@
         <v>44132</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23811,7 +23811,7 @@
         <v>44132</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23868,7 +23868,7 @@
         <v>44133</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23925,7 +23925,7 @@
         <v>44139</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23982,7 +23982,7 @@
         <v>44139</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24039,7 +24039,7 @@
         <v>44140</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24096,7 +24096,7 @@
         <v>44140</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24153,7 +24153,7 @@
         <v>44140</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24210,7 +24210,7 @@
         <v>44144</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24267,7 +24267,7 @@
         <v>44146</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24324,7 +24324,7 @@
         <v>44146</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         <v>44152</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24438,7 +24438,7 @@
         <v>44153</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24495,7 +24495,7 @@
         <v>44154</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24552,7 +24552,7 @@
         <v>44166</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24609,7 +24609,7 @@
         <v>44167</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24666,7 +24666,7 @@
         <v>44169</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24723,7 +24723,7 @@
         <v>44174</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24780,7 +24780,7 @@
         <v>44179</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24837,7 +24837,7 @@
         <v>44179</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24894,7 +24894,7 @@
         <v>44186</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24951,7 +24951,7 @@
         <v>44188</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25008,7 +25008,7 @@
         <v>44188</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25065,7 +25065,7 @@
         <v>44200</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25122,7 +25122,7 @@
         <v>44202</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25179,7 +25179,7 @@
         <v>44204</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25236,7 +25236,7 @@
         <v>44204</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25293,7 +25293,7 @@
         <v>44204</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25350,7 +25350,7 @@
         <v>44207</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25407,7 +25407,7 @@
         <v>44208</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25464,7 +25464,7 @@
         <v>44208</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25521,7 +25521,7 @@
         <v>44208</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>44209</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         <v>44211</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>44217</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         <v>44222</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25806,7 +25806,7 @@
         <v>44223</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25863,7 +25863,7 @@
         <v>44225</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25920,7 +25920,7 @@
         <v>44225</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25977,7 +25977,7 @@
         <v>44225</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>44230</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>44235</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>44235</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>44235</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>44235</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>44241</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26376,7 +26376,7 @@
         <v>44253</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26433,7 +26433,7 @@
         <v>44256</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26490,7 +26490,7 @@
         <v>44257</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26547,7 +26547,7 @@
         <v>44259</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26604,7 +26604,7 @@
         <v>44259</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26661,7 +26661,7 @@
         <v>44267</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26718,7 +26718,7 @@
         <v>44267</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26775,7 +26775,7 @@
         <v>44270</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26832,7 +26832,7 @@
         <v>44275</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26889,7 +26889,7 @@
         <v>44279</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         <v>44281</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27003,7 +27003,7 @@
         <v>44284</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27060,7 +27060,7 @@
         <v>44284</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27117,7 +27117,7 @@
         <v>44284</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27174,7 +27174,7 @@
         <v>44285</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27231,7 +27231,7 @@
         <v>44286</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27288,7 +27288,7 @@
         <v>44292</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27345,7 +27345,7 @@
         <v>44300</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27402,7 +27402,7 @@
         <v>44300</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27464,7 +27464,7 @@
         <v>44302</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27521,7 +27521,7 @@
         <v>44302</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27578,7 +27578,7 @@
         <v>44302</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27635,7 +27635,7 @@
         <v>44302</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27692,7 +27692,7 @@
         <v>44305</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27749,7 +27749,7 @@
         <v>44305</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27806,7 +27806,7 @@
         <v>44305</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27863,7 +27863,7 @@
         <v>44306</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27920,7 +27920,7 @@
         <v>44309</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27977,7 +27977,7 @@
         <v>44323</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28034,7 +28034,7 @@
         <v>44323</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28091,7 +28091,7 @@
         <v>44325</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28148,7 +28148,7 @@
         <v>44327</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28205,7 +28205,7 @@
         <v>44333</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28262,7 +28262,7 @@
         <v>44342</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28319,7 +28319,7 @@
         <v>44342</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28376,7 +28376,7 @@
         <v>44342</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28433,7 +28433,7 @@
         <v>44342</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28490,7 +28490,7 @@
         <v>44343</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28547,7 +28547,7 @@
         <v>44349</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28604,7 +28604,7 @@
         <v>44350</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28661,7 +28661,7 @@
         <v>44350</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28718,7 +28718,7 @@
         <v>44350</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28775,7 +28775,7 @@
         <v>44354</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28832,7 +28832,7 @@
         <v>44356</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28889,7 +28889,7 @@
         <v>44364</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         <v>44365</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29003,7 +29003,7 @@
         <v>44365</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29060,7 +29060,7 @@
         <v>44368</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29117,7 +29117,7 @@
         <v>44375</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29174,7 +29174,7 @@
         <v>44383</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29231,7 +29231,7 @@
         <v>44384</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29288,7 +29288,7 @@
         <v>44384</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29345,7 +29345,7 @@
         <v>44391</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29402,7 +29402,7 @@
         <v>44391</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29459,7 +29459,7 @@
         <v>44397</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29516,7 +29516,7 @@
         <v>44398</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29573,7 +29573,7 @@
         <v>44399</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29630,7 +29630,7 @@
         <v>44399</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29687,7 +29687,7 @@
         <v>44406</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29744,7 +29744,7 @@
         <v>44411</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29801,7 +29801,7 @@
         <v>44411</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29858,7 +29858,7 @@
         <v>44420</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29915,7 +29915,7 @@
         <v>44420</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29972,7 +29972,7 @@
         <v>44421</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30029,7 +30029,7 @@
         <v>44424</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30086,7 +30086,7 @@
         <v>44425</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30143,7 +30143,7 @@
         <v>44433</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30200,7 +30200,7 @@
         <v>44435</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30257,7 +30257,7 @@
         <v>44435</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30314,7 +30314,7 @@
         <v>44440</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30371,7 +30371,7 @@
         <v>44440</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30433,7 +30433,7 @@
         <v>44441</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30490,7 +30490,7 @@
         <v>44441</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         <v>44441</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30604,7 +30604,7 @@
         <v>44442</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30661,7 +30661,7 @@
         <v>44447</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30718,7 +30718,7 @@
         <v>44449</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30775,7 +30775,7 @@
         <v>44452</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30832,7 +30832,7 @@
         <v>44452</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30889,7 +30889,7 @@
         <v>44458</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         <v>44461</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31003,7 +31003,7 @@
         <v>44461</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31060,7 +31060,7 @@
         <v>44462</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31117,7 +31117,7 @@
         <v>44466</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31174,7 +31174,7 @@
         <v>44468</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31231,7 +31231,7 @@
         <v>44473</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31288,7 +31288,7 @@
         <v>44476</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31345,7 +31345,7 @@
         <v>44481</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31402,7 +31402,7 @@
         <v>44491</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31459,7 +31459,7 @@
         <v>44496</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31516,7 +31516,7 @@
         <v>44496</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31573,7 +31573,7 @@
         <v>44497</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31630,7 +31630,7 @@
         <v>44498</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31687,7 +31687,7 @@
         <v>44502</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31744,7 +31744,7 @@
         <v>44503</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31801,7 +31801,7 @@
         <v>44503</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31858,7 +31858,7 @@
         <v>44512</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         <v>44515</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31972,7 +31972,7 @@
         <v>44516</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32029,7 +32029,7 @@
         <v>44517</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32086,7 +32086,7 @@
         <v>44523</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32143,7 +32143,7 @@
         <v>44529</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32200,7 +32200,7 @@
         <v>44530</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32257,7 +32257,7 @@
         <v>44539</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32314,7 +32314,7 @@
         <v>44543</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32371,7 +32371,7 @@
         <v>44551</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32428,7 +32428,7 @@
         <v>44553</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32485,7 +32485,7 @@
         <v>44559</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32542,7 +32542,7 @@
         <v>44572</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32599,7 +32599,7 @@
         <v>44572</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32656,7 +32656,7 @@
         <v>44578</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32713,7 +32713,7 @@
         <v>44579</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32770,7 +32770,7 @@
         <v>44584</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32827,7 +32827,7 @@
         <v>44585</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32884,7 +32884,7 @@
         <v>44585</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32941,7 +32941,7 @@
         <v>44586</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -32998,7 +32998,7 @@
         <v>44588</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33055,7 +33055,7 @@
         <v>44592</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33112,7 +33112,7 @@
         <v>44595</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33169,7 +33169,7 @@
         <v>44596</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33231,7 +33231,7 @@
         <v>44596</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33288,7 +33288,7 @@
         <v>44599</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33345,7 +33345,7 @@
         <v>44600</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33402,7 +33402,7 @@
         <v>44608</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33459,7 +33459,7 @@
         <v>44614</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33516,7 +33516,7 @@
         <v>44616</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33573,7 +33573,7 @@
         <v>44617</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33630,7 +33630,7 @@
         <v>44619</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33687,7 +33687,7 @@
         <v>44619</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33744,7 +33744,7 @@
         <v>44620</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33801,7 +33801,7 @@
         <v>44620</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33858,7 +33858,7 @@
         <v>44621</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33915,7 +33915,7 @@
         <v>44623</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -33972,7 +33972,7 @@
         <v>44624</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34029,7 +34029,7 @@
         <v>44624</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34086,7 +34086,7 @@
         <v>44628</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34143,7 +34143,7 @@
         <v>44629</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34200,7 +34200,7 @@
         <v>44629</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34257,7 +34257,7 @@
         <v>44636</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34314,7 +34314,7 @@
         <v>44636</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34371,7 +34371,7 @@
         <v>44637</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34428,7 +34428,7 @@
         <v>44644</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34485,7 +34485,7 @@
         <v>44657</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34542,7 +34542,7 @@
         <v>44663</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34599,7 +34599,7 @@
         <v>44670</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34656,7 +34656,7 @@
         <v>44672</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34713,7 +34713,7 @@
         <v>44686</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34770,7 +34770,7 @@
         <v>44687</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34827,7 +34827,7 @@
         <v>44687</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34884,7 +34884,7 @@
         <v>44693</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -34941,7 +34941,7 @@
         <v>44696</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -34998,7 +34998,7 @@
         <v>44698</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35055,7 +35055,7 @@
         <v>44700</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35112,7 +35112,7 @@
         <v>44705</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35169,7 +35169,7 @@
         <v>44706</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35226,7 +35226,7 @@
         <v>44706</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35283,7 +35283,7 @@
         <v>44710</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35340,7 +35340,7 @@
         <v>44711</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35397,7 +35397,7 @@
         <v>44720</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35454,7 +35454,7 @@
         <v>44725</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35511,7 +35511,7 @@
         <v>44742</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35568,7 +35568,7 @@
         <v>44742</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35625,7 +35625,7 @@
         <v>44742</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35682,7 +35682,7 @@
         <v>44742</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35739,7 +35739,7 @@
         <v>44747</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35796,7 +35796,7 @@
         <v>44747</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35853,7 +35853,7 @@
         <v>44748</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -35910,7 +35910,7 @@
         <v>44753</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -35967,7 +35967,7 @@
         <v>44754</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36024,7 +36024,7 @@
         <v>44754</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36081,7 +36081,7 @@
         <v>44757</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36138,7 +36138,7 @@
         <v>44757</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36195,7 +36195,7 @@
         <v>44767</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36252,7 +36252,7 @@
         <v>44799</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36309,7 +36309,7 @@
         <v>44806</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36366,7 +36366,7 @@
         <v>44812</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36423,7 +36423,7 @@
         <v>44820</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36480,7 +36480,7 @@
         <v>44820</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36537,7 +36537,7 @@
         <v>44825</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36594,7 +36594,7 @@
         <v>44826</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36651,7 +36651,7 @@
         <v>44832</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36708,7 +36708,7 @@
         <v>44832</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36765,7 +36765,7 @@
         <v>44837</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -36822,7 +36822,7 @@
         <v>44844</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -36879,7 +36879,7 @@
         <v>44845</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -36936,7 +36936,7 @@
         <v>44847</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -36993,7 +36993,7 @@
         <v>44847</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37050,7 +37050,7 @@
         <v>44847</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37107,7 +37107,7 @@
         <v>44856</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37164,7 +37164,7 @@
         <v>44858</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37221,7 +37221,7 @@
         <v>44858</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37278,7 +37278,7 @@
         <v>44860</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37335,7 +37335,7 @@
         <v>44860</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37392,7 +37392,7 @@
         <v>44860</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37449,7 +37449,7 @@
         <v>44862</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37506,7 +37506,7 @@
         <v>44865</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37563,7 +37563,7 @@
         <v>44866</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37620,7 +37620,7 @@
         <v>44866</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37677,7 +37677,7 @@
         <v>44867</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37734,7 +37734,7 @@
         <v>44874</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -37791,7 +37791,7 @@
         <v>44874</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -37848,7 +37848,7 @@
         <v>44874</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -37905,7 +37905,7 @@
         <v>44875</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -37962,7 +37962,7 @@
         <v>44879</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38019,7 +38019,7 @@
         <v>44881</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38076,7 +38076,7 @@
         <v>44890</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38133,7 +38133,7 @@
         <v>44893</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38190,7 +38190,7 @@
         <v>44893</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38247,7 +38247,7 @@
         <v>44893</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38304,7 +38304,7 @@
         <v>44903</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38361,7 +38361,7 @@
         <v>44909</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38418,7 +38418,7 @@
         <v>44911</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38475,7 +38475,7 @@
         <v>44911</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38532,7 +38532,7 @@
         <v>44920</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38589,7 +38589,7 @@
         <v>44930</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38646,7 +38646,7 @@
         <v>44930</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38703,7 +38703,7 @@
         <v>44936</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38760,7 +38760,7 @@
         <v>44939</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -38817,7 +38817,7 @@
         <v>44942</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -38874,7 +38874,7 @@
         <v>44950</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -38931,7 +38931,7 @@
         <v>44951</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -38988,7 +38988,7 @@
         <v>44952</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39045,7 +39045,7 @@
         <v>44957</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39102,7 +39102,7 @@
         <v>44958</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39159,7 +39159,7 @@
         <v>44967</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39216,7 +39216,7 @@
         <v>44967</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39273,7 +39273,7 @@
         <v>44970</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39330,7 +39330,7 @@
         <v>44981</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39387,7 +39387,7 @@
         <v>44981</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39444,7 +39444,7 @@
         <v>44984</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39501,7 +39501,7 @@
         <v>44986</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39558,7 +39558,7 @@
         <v>44988</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39615,7 +39615,7 @@
         <v>44988</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39672,7 +39672,7 @@
         <v>44988</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39729,7 +39729,7 @@
         <v>44988</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -39786,7 +39786,7 @@
         <v>44998</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -39843,7 +39843,7 @@
         <v>45001</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -39900,7 +39900,7 @@
         <v>45004</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -39957,7 +39957,7 @@
         <v>45005</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40014,7 +40014,7 @@
         <v>45012</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40071,7 +40071,7 @@
         <v>45012</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40128,7 +40128,7 @@
         <v>45012</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40185,7 +40185,7 @@
         <v>45012</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40242,7 +40242,7 @@
         <v>45015</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40299,7 +40299,7 @@
         <v>45016</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40356,7 +40356,7 @@
         <v>45019</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40413,7 +40413,7 @@
         <v>45019</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40470,7 +40470,7 @@
         <v>45020</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40527,7 +40527,7 @@
         <v>45027</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40584,7 +40584,7 @@
         <v>45027</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40641,7 +40641,7 @@
         <v>45027</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40698,7 +40698,7 @@
         <v>45028</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40755,7 +40755,7 @@
         <v>45030</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -40812,7 +40812,7 @@
         <v>45034</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -40869,7 +40869,7 @@
         <v>45034</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -40926,7 +40926,7 @@
         <v>45035</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -40983,7 +40983,7 @@
         <v>45035</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41040,7 +41040,7 @@
         <v>45037</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41097,7 +41097,7 @@
         <v>45040</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41154,7 +41154,7 @@
         <v>45040</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41211,7 +41211,7 @@
         <v>45042</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41268,7 +41268,7 @@
         <v>45048</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41325,7 +41325,7 @@
         <v>45048</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41382,7 +41382,7 @@
         <v>45050</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41439,7 +41439,7 @@
         <v>45050</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41496,7 +41496,7 @@
         <v>45050</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41553,7 +41553,7 @@
         <v>45050</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41610,7 +41610,7 @@
         <v>45055</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41667,7 +41667,7 @@
         <v>45056</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41724,7 +41724,7 @@
         <v>45057</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -41781,7 +41781,7 @@
         <v>45057</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -41838,7 +41838,7 @@
         <v>45057</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -41895,7 +41895,7 @@
         <v>45057</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -41952,7 +41952,7 @@
         <v>45058</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42009,7 +42009,7 @@
         <v>45065</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42066,7 +42066,7 @@
         <v>45069</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42123,7 +42123,7 @@
         <v>45069</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42180,7 +42180,7 @@
         <v>45070</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42237,7 +42237,7 @@
         <v>45070</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42294,7 +42294,7 @@
         <v>45070</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42351,7 +42351,7 @@
         <v>45070</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42408,7 +42408,7 @@
         <v>45075</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42465,7 +42465,7 @@
         <v>45076</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42522,7 +42522,7 @@
         <v>45076</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42579,7 +42579,7 @@
         <v>45077</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42636,7 +42636,7 @@
         <v>45079</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42693,7 +42693,7 @@
         <v>45080</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -42750,7 +42750,7 @@
         <v>45080</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -42807,7 +42807,7 @@
         <v>45082</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -42864,7 +42864,7 @@
         <v>45084</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -42921,7 +42921,7 @@
         <v>45085</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -42978,7 +42978,7 @@
         <v>45085</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43035,7 +43035,7 @@
         <v>45085</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43092,7 +43092,7 @@
         <v>45085</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43149,7 +43149,7 @@
         <v>45085</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43206,7 +43206,7 @@
         <v>45089</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43263,7 +43263,7 @@
         <v>45090</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43320,7 +43320,7 @@
         <v>45091</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43377,7 +43377,7 @@
         <v>45091</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43434,7 +43434,7 @@
         <v>45092</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43491,7 +43491,7 @@
         <v>45092</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -43548,7 +43548,7 @@
         <v>45092</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -43605,7 +43605,7 @@
         <v>45092</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -43662,7 +43662,7 @@
         <v>45093</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -43719,7 +43719,7 @@
         <v>45094</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -43776,7 +43776,7 @@
         <v>45097</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -43833,7 +43833,7 @@
         <v>45098</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -43890,7 +43890,7 @@
         <v>45098</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -43947,7 +43947,7 @@
         <v>45106</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44004,7 +44004,7 @@
         <v>45106</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44061,7 +44061,7 @@
         <v>45106</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44118,7 +44118,7 @@
         <v>45106</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44175,7 +44175,7 @@
         <v>45106</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44232,7 +44232,7 @@
         <v>45107</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44289,7 +44289,7 @@
         <v>45107</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44346,7 +44346,7 @@
         <v>45107</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44403,7 +44403,7 @@
         <v>45108</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44460,7 +44460,7 @@
         <v>45113</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -44517,7 +44517,7 @@
         <v>45113</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -44574,7 +44574,7 @@
         <v>45119</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -44631,7 +44631,7 @@
         <v>45125</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -44688,7 +44688,7 @@
         <v>45127</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -44745,7 +44745,7 @@
         <v>45127</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -44802,7 +44802,7 @@
         <v>45127</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -44859,7 +44859,7 @@
         <v>45132</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -44916,7 +44916,7 @@
         <v>45140</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -44973,7 +44973,7 @@
         <v>45142</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45030,7 +45030,7 @@
         <v>45142</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45087,7 +45087,7 @@
         <v>45142</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45144,7 +45144,7 @@
         <v>45147</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45201,7 +45201,7 @@
         <v>45148</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45258,7 +45258,7 @@
         <v>45155</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45315,7 +45315,7 @@
         <v>45155</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45372,7 +45372,7 @@
         <v>45159</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -45429,7 +45429,7 @@
         <v>45159</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -45486,7 +45486,7 @@
         <v>45162</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -45543,7 +45543,7 @@
         <v>45162</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -45600,7 +45600,7 @@
         <v>45163</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -45657,7 +45657,7 @@
         <v>45169</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -45714,7 +45714,7 @@
         <v>45170</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -45771,7 +45771,7 @@
         <v>45170</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>

--- a/Översikt KARLSKRONA.xlsx
+++ b/Översikt KARLSKRONA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y782"/>
+  <dimension ref="A1:Y784"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>45051</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>43640</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>44509</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>45101</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>43315</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43843</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>44960</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>45027</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>43356</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>43447</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>43963</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44021</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>44132</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>44139</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>44139</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>44140</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>44159</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>44237</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>44445</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
         <v>44467</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>44531</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>44728</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>45037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>43321</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>43332</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43335</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>43341</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43342</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>43349</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43350</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>43356</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         <v>43357</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43359</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43361</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>43363</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>43367</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>43368</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>43368</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>43369</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>43375</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         <v>43376</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>43384</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3635,7 +3635,7 @@
         <v>43396</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>43396</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>43396</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3806,7 +3806,7 @@
         <v>43397</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>43398</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>43398</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>43398</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>43398</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>43402</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>43403</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>43403</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>43405</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>43409</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>43410</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4443,7 +4443,7 @@
         <v>43410</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>43411</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43412</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>43413</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>43416</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>43416</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>43416</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>43417</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>43419</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>43419</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>43420</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>43420</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>43423</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>43424</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>43426</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>43430</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>43430</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>43431</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>43431</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>43434</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         <v>43434</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>43434</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>43437</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>43437</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5816,7 +5816,7 @@
         <v>43437</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>43438</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>43446</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5987,7 +5987,7 @@
         <v>43451</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6044,7 +6044,7 @@
         <v>43451</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>43451</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>43451</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6215,7 +6215,7 @@
         <v>43451</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>43451</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>43453</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         <v>43454</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6443,7 +6443,7 @@
         <v>43454</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6500,7 +6500,7 @@
         <v>43461</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6557,7 +6557,7 @@
         <v>43465</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6614,7 +6614,7 @@
         <v>43467</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6671,7 +6671,7 @@
         <v>43467</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
         <v>43468</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6785,7 +6785,7 @@
         <v>43473</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6842,7 +6842,7 @@
         <v>43475</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6899,7 +6899,7 @@
         <v>43475</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
         <v>43476</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7013,7 +7013,7 @@
         <v>43476</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7070,7 +7070,7 @@
         <v>43479</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7127,7 +7127,7 @@
         <v>43480</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7184,7 +7184,7 @@
         <v>43480</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7241,7 +7241,7 @@
         <v>43481</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7298,7 +7298,7 @@
         <v>43483</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7355,7 +7355,7 @@
         <v>43485</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7412,7 +7412,7 @@
         <v>43485</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7469,7 +7469,7 @@
         <v>43488</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         <v>43488</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>43488</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>43489</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7697,7 +7697,7 @@
         <v>43493</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>43493</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>43493</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>43493</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>43494</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>43496</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43497</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43497</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43500</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43501</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43508</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43508</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43508</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>43510</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8500,7 +8500,7 @@
         <v>43511</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>43516</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>43517</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         <v>43517</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>43518</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         <v>43521</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>43523</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         <v>43529</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>43529</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>43532</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9075,7 +9075,7 @@
         <v>43535</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9132,7 +9132,7 @@
         <v>43537</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         <v>43538</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9246,7 +9246,7 @@
         <v>43538</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9303,7 +9303,7 @@
         <v>43538</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>43538</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>43542</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9474,7 +9474,7 @@
         <v>43543</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>43546</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>43549</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9645,7 +9645,7 @@
         <v>43549</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9702,7 +9702,7 @@
         <v>43549</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>43567</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>43567</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>43571</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9930,7 +9930,7 @@
         <v>43572</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9987,7 +9987,7 @@
         <v>43573</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10044,7 +10044,7 @@
         <v>43580</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43584</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43587</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43592</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>43593</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43594</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>43594</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>43594</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43595</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         <v>43601</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10614,7 +10614,7 @@
         <v>43601</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10671,7 +10671,7 @@
         <v>43602</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10728,7 +10728,7 @@
         <v>43609</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10785,7 +10785,7 @@
         <v>43626</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10842,7 +10842,7 @@
         <v>43626</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>43626</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>43627</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>43640</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11075,7 +11075,7 @@
         <v>43644</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>43648</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11189,7 +11189,7 @@
         <v>43650</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11246,7 +11246,7 @@
         <v>43650</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11303,7 +11303,7 @@
         <v>43655</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11360,7 +11360,7 @@
         <v>43663</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11417,7 +11417,7 @@
         <v>43668</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11474,7 +11474,7 @@
         <v>43671</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11531,7 +11531,7 @@
         <v>43676</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11588,7 +11588,7 @@
         <v>43682</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11645,7 +11645,7 @@
         <v>43683</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11702,7 +11702,7 @@
         <v>43684</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11764,7 +11764,7 @@
         <v>43684</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11821,7 +11821,7 @@
         <v>43684</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11878,7 +11878,7 @@
         <v>43684</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11935,7 +11935,7 @@
         <v>43686</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11992,7 +11992,7 @@
         <v>43686</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12049,7 +12049,7 @@
         <v>43690</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12106,7 +12106,7 @@
         <v>43691</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         <v>43692</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12220,7 +12220,7 @@
         <v>43692</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12277,7 +12277,7 @@
         <v>43692</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         <v>43692</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         <v>43698</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12448,7 +12448,7 @@
         <v>43698</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12505,7 +12505,7 @@
         <v>43698</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12562,7 +12562,7 @@
         <v>43698</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         <v>43698</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12676,7 +12676,7 @@
         <v>43698</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12733,7 +12733,7 @@
         <v>43698</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12790,7 +12790,7 @@
         <v>43698</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12847,7 +12847,7 @@
         <v>43698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12904,7 +12904,7 @@
         <v>43698</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12961,7 +12961,7 @@
         <v>43698</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13018,7 +13018,7 @@
         <v>43698</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13075,7 +13075,7 @@
         <v>43698</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13132,7 +13132,7 @@
         <v>43699</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13189,7 +13189,7 @@
         <v>43701</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13246,7 +13246,7 @@
         <v>43701</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13303,7 +13303,7 @@
         <v>43706</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13360,7 +13360,7 @@
         <v>43710</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13417,7 +13417,7 @@
         <v>43710</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>43711</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13531,7 +13531,7 @@
         <v>43711</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         <v>43712</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
         <v>43712</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         <v>43712</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         <v>43712</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>43712</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>43712</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13935,7 +13935,7 @@
         <v>43718</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13992,7 +13992,7 @@
         <v>43718</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14049,7 +14049,7 @@
         <v>43719</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14106,7 +14106,7 @@
         <v>43719</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14163,7 +14163,7 @@
         <v>43719</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14220,7 +14220,7 @@
         <v>43720</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14277,7 +14277,7 @@
         <v>43720</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14334,7 +14334,7 @@
         <v>43721</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14391,7 +14391,7 @@
         <v>43727</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         <v>43732</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>43735</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14562,7 +14562,7 @@
         <v>43738</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14619,7 +14619,7 @@
         <v>43742</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14676,7 +14676,7 @@
         <v>43746</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14733,7 +14733,7 @@
         <v>43746</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14790,7 +14790,7 @@
         <v>43747</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14847,7 +14847,7 @@
         <v>43748</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14904,7 +14904,7 @@
         <v>43753</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14961,7 +14961,7 @@
         <v>43753</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>43754</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15075,7 +15075,7 @@
         <v>43756</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15132,7 +15132,7 @@
         <v>43760</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15189,7 +15189,7 @@
         <v>43760</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>43761</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15303,7 +15303,7 @@
         <v>43763</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>43763</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>43763</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>43766</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>43766</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>43770</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>43773</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>43774</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15759,7 +15759,7 @@
         <v>43775</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>43775</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15873,7 +15873,7 @@
         <v>43777</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>43782</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>43783</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>43783</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         <v>43788</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>43788</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16215,7 +16215,7 @@
         <v>43789</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>43790</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         <v>43812</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         <v>43812</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16443,7 +16443,7 @@
         <v>43817</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16500,7 +16500,7 @@
         <v>43818</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>43832</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>43832</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>43833</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16728,7 +16728,7 @@
         <v>43837</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16785,7 +16785,7 @@
         <v>43838</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>43838</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>43840</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>43844</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>43844</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>43845</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>43845</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>43849</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17241,7 +17241,7 @@
         <v>43850</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17298,7 +17298,7 @@
         <v>43852</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17355,7 +17355,7 @@
         <v>43852</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>43854</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>43867</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17526,7 +17526,7 @@
         <v>43867</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>43870</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>43870</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>43872</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>43875</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>43879</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>43887</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17925,7 +17925,7 @@
         <v>43887</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17982,7 +17982,7 @@
         <v>43889</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         <v>43889</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18096,7 +18096,7 @@
         <v>43889</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>43894</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18210,7 +18210,7 @@
         <v>43900</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18267,7 +18267,7 @@
         <v>43902</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18324,7 +18324,7 @@
         <v>43902</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18381,7 +18381,7 @@
         <v>43902</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
         <v>43902</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18495,7 +18495,7 @@
         <v>43907</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18552,7 +18552,7 @@
         <v>43907</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18609,7 +18609,7 @@
         <v>43907</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18666,7 +18666,7 @@
         <v>43907</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18723,7 +18723,7 @@
         <v>43913</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18780,7 +18780,7 @@
         <v>43914</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
         <v>43914</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18894,7 +18894,7 @@
         <v>43915</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18951,7 +18951,7 @@
         <v>43915</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19008,7 +19008,7 @@
         <v>43916</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19065,7 +19065,7 @@
         <v>43916</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19122,7 +19122,7 @@
         <v>43917</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19179,7 +19179,7 @@
         <v>43920</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19236,7 +19236,7 @@
         <v>43920</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19293,7 +19293,7 @@
         <v>43920</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19350,7 +19350,7 @@
         <v>43920</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19407,7 +19407,7 @@
         <v>43921</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19464,7 +19464,7 @@
         <v>43923</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19521,7 +19521,7 @@
         <v>43923</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19583,7 +19583,7 @@
         <v>43923</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19640,7 +19640,7 @@
         <v>43925</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19697,7 +19697,7 @@
         <v>43926</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19754,7 +19754,7 @@
         <v>43927</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19811,7 +19811,7 @@
         <v>43927</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19868,7 +19868,7 @@
         <v>43927</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19925,7 +19925,7 @@
         <v>43927</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>43935</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20039,7 +20039,7 @@
         <v>43937</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20096,7 +20096,7 @@
         <v>43937</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>43937</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20210,7 +20210,7 @@
         <v>43938</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20272,7 +20272,7 @@
         <v>43950</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>43977</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>43977</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20448,7 +20448,7 @@
         <v>43977</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20505,7 +20505,7 @@
         <v>43980</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20562,7 +20562,7 @@
         <v>43980</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20619,7 +20619,7 @@
         <v>43986</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20676,7 +20676,7 @@
         <v>43992</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20733,7 +20733,7 @@
         <v>43993</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20790,7 +20790,7 @@
         <v>44005</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         <v>44006</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20904,7 +20904,7 @@
         <v>44007</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20961,7 +20961,7 @@
         <v>44008</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21018,7 +21018,7 @@
         <v>44014</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21075,7 +21075,7 @@
         <v>44015</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21132,7 +21132,7 @@
         <v>44018</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21189,7 +21189,7 @@
         <v>44019</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21246,7 +21246,7 @@
         <v>44026</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21303,7 +21303,7 @@
         <v>44039</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21360,7 +21360,7 @@
         <v>44046</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21417,7 +21417,7 @@
         <v>44048</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21474,7 +21474,7 @@
         <v>44053</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21531,7 +21531,7 @@
         <v>44053</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
         <v>44053</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         <v>44054</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21702,7 +21702,7 @@
         <v>44055</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21759,7 +21759,7 @@
         <v>44055</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21816,7 +21816,7 @@
         <v>44055</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21873,7 +21873,7 @@
         <v>44055</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21930,7 +21930,7 @@
         <v>44057</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44060</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44060</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>44060</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>44062</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44062</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44062</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44071</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44074</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>44075</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>44080</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>44081</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>44083</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22671,7 +22671,7 @@
         <v>44088</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22728,7 +22728,7 @@
         <v>44088</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22785,7 +22785,7 @@
         <v>44090</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22842,7 +22842,7 @@
         <v>44090</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>44090</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22956,7 +22956,7 @@
         <v>44103</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         <v>44113</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>44113</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23127,7 +23127,7 @@
         <v>44120</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23184,7 +23184,7 @@
         <v>44120</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23241,7 +23241,7 @@
         <v>44123</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23298,7 +23298,7 @@
         <v>44124</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23355,7 +23355,7 @@
         <v>44124</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23412,7 +23412,7 @@
         <v>44125</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23469,7 +23469,7 @@
         <v>44127</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23526,7 +23526,7 @@
         <v>44131</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23583,7 +23583,7 @@
         <v>44132</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23640,7 +23640,7 @@
         <v>44132</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23697,7 +23697,7 @@
         <v>44132</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23754,7 +23754,7 @@
         <v>44132</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23811,7 +23811,7 @@
         <v>44132</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23868,7 +23868,7 @@
         <v>44133</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23925,7 +23925,7 @@
         <v>44139</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23982,7 +23982,7 @@
         <v>44139</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24039,7 +24039,7 @@
         <v>44140</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24096,7 +24096,7 @@
         <v>44140</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24153,7 +24153,7 @@
         <v>44140</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24210,7 +24210,7 @@
         <v>44144</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24267,7 +24267,7 @@
         <v>44146</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24324,7 +24324,7 @@
         <v>44146</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         <v>44152</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24438,7 +24438,7 @@
         <v>44153</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24495,7 +24495,7 @@
         <v>44154</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24552,7 +24552,7 @@
         <v>44166</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24609,7 +24609,7 @@
         <v>44167</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24666,7 +24666,7 @@
         <v>44169</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24723,7 +24723,7 @@
         <v>44174</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24780,7 +24780,7 @@
         <v>44179</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24837,7 +24837,7 @@
         <v>44179</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24894,7 +24894,7 @@
         <v>44186</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24951,7 +24951,7 @@
         <v>44188</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25008,7 +25008,7 @@
         <v>44188</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25065,7 +25065,7 @@
         <v>44200</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25122,7 +25122,7 @@
         <v>44202</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25179,7 +25179,7 @@
         <v>44204</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25236,7 +25236,7 @@
         <v>44204</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25293,7 +25293,7 @@
         <v>44204</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25350,7 +25350,7 @@
         <v>44207</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25407,7 +25407,7 @@
         <v>44208</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25464,7 +25464,7 @@
         <v>44208</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25521,7 +25521,7 @@
         <v>44208</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>44209</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         <v>44211</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>44217</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         <v>44222</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25806,7 +25806,7 @@
         <v>44223</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25863,7 +25863,7 @@
         <v>44225</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25920,7 +25920,7 @@
         <v>44225</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25977,7 +25977,7 @@
         <v>44225</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>44230</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>44235</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>44235</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>44235</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>44235</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>44241</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26376,7 +26376,7 @@
         <v>44253</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26433,7 +26433,7 @@
         <v>44256</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26490,7 +26490,7 @@
         <v>44257</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26547,7 +26547,7 @@
         <v>44259</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26604,7 +26604,7 @@
         <v>44259</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26661,7 +26661,7 @@
         <v>44267</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26718,7 +26718,7 @@
         <v>44267</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26775,7 +26775,7 @@
         <v>44270</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26832,7 +26832,7 @@
         <v>44275</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26889,7 +26889,7 @@
         <v>44279</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         <v>44281</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27003,7 +27003,7 @@
         <v>44284</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27060,7 +27060,7 @@
         <v>44284</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27117,7 +27117,7 @@
         <v>44284</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27174,7 +27174,7 @@
         <v>44285</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27231,7 +27231,7 @@
         <v>44286</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27288,7 +27288,7 @@
         <v>44292</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27345,7 +27345,7 @@
         <v>44300</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27402,7 +27402,7 @@
         <v>44300</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27464,7 +27464,7 @@
         <v>44302</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27521,7 +27521,7 @@
         <v>44302</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27578,7 +27578,7 @@
         <v>44302</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27635,7 +27635,7 @@
         <v>44302</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27692,7 +27692,7 @@
         <v>44305</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27749,7 +27749,7 @@
         <v>44305</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27806,7 +27806,7 @@
         <v>44305</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27863,7 +27863,7 @@
         <v>44306</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27920,7 +27920,7 @@
         <v>44309</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27977,7 +27977,7 @@
         <v>44323</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28034,7 +28034,7 @@
         <v>44323</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28091,7 +28091,7 @@
         <v>44325</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28148,7 +28148,7 @@
         <v>44327</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28205,7 +28205,7 @@
         <v>44333</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28262,7 +28262,7 @@
         <v>44342</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28319,7 +28319,7 @@
         <v>44342</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28376,7 +28376,7 @@
         <v>44342</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28433,7 +28433,7 @@
         <v>44342</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28490,7 +28490,7 @@
         <v>44343</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28547,7 +28547,7 @@
         <v>44349</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28604,7 +28604,7 @@
         <v>44350</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28661,7 +28661,7 @@
         <v>44350</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28718,7 +28718,7 @@
         <v>44350</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28775,7 +28775,7 @@
         <v>44354</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28832,7 +28832,7 @@
         <v>44356</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28889,7 +28889,7 @@
         <v>44364</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         <v>44365</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29003,7 +29003,7 @@
         <v>44365</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29060,7 +29060,7 @@
         <v>44368</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29117,7 +29117,7 @@
         <v>44375</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29174,7 +29174,7 @@
         <v>44383</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29231,7 +29231,7 @@
         <v>44384</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29288,7 +29288,7 @@
         <v>44384</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29345,7 +29345,7 @@
         <v>44391</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29402,7 +29402,7 @@
         <v>44391</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29459,7 +29459,7 @@
         <v>44397</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29516,7 +29516,7 @@
         <v>44398</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29573,7 +29573,7 @@
         <v>44399</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29630,7 +29630,7 @@
         <v>44399</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29687,7 +29687,7 @@
         <v>44406</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29744,7 +29744,7 @@
         <v>44411</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29801,7 +29801,7 @@
         <v>44411</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29858,7 +29858,7 @@
         <v>44420</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29915,7 +29915,7 @@
         <v>44420</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29972,7 +29972,7 @@
         <v>44421</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30029,7 +30029,7 @@
         <v>44424</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30086,7 +30086,7 @@
         <v>44425</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30143,7 +30143,7 @@
         <v>44433</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30200,7 +30200,7 @@
         <v>44435</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30257,7 +30257,7 @@
         <v>44435</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30314,7 +30314,7 @@
         <v>44440</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30371,7 +30371,7 @@
         <v>44440</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30433,7 +30433,7 @@
         <v>44441</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30490,7 +30490,7 @@
         <v>44441</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         <v>44441</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30604,7 +30604,7 @@
         <v>44442</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30661,7 +30661,7 @@
         <v>44447</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30718,7 +30718,7 @@
         <v>44449</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30775,7 +30775,7 @@
         <v>44452</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30832,7 +30832,7 @@
         <v>44452</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30889,7 +30889,7 @@
         <v>44458</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         <v>44461</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31003,7 +31003,7 @@
         <v>44461</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31060,7 +31060,7 @@
         <v>44462</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31117,7 +31117,7 @@
         <v>44466</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31174,7 +31174,7 @@
         <v>44468</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31231,7 +31231,7 @@
         <v>44473</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31288,7 +31288,7 @@
         <v>44476</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31345,7 +31345,7 @@
         <v>44481</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31402,7 +31402,7 @@
         <v>44491</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31459,7 +31459,7 @@
         <v>44496</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31516,7 +31516,7 @@
         <v>44496</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31573,7 +31573,7 @@
         <v>44497</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31630,7 +31630,7 @@
         <v>44498</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31687,7 +31687,7 @@
         <v>44502</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31744,7 +31744,7 @@
         <v>44503</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31801,7 +31801,7 @@
         <v>44503</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31858,7 +31858,7 @@
         <v>44512</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         <v>44515</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31972,7 +31972,7 @@
         <v>44516</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32029,7 +32029,7 @@
         <v>44517</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32086,7 +32086,7 @@
         <v>44523</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32143,7 +32143,7 @@
         <v>44529</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32200,7 +32200,7 @@
         <v>44530</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32257,7 +32257,7 @@
         <v>44539</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32314,7 +32314,7 @@
         <v>44543</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32371,7 +32371,7 @@
         <v>44551</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32428,7 +32428,7 @@
         <v>44553</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32485,7 +32485,7 @@
         <v>44559</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32542,7 +32542,7 @@
         <v>44572</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32599,7 +32599,7 @@
         <v>44572</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32656,7 +32656,7 @@
         <v>44578</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32713,7 +32713,7 @@
         <v>44579</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32770,7 +32770,7 @@
         <v>44584</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32827,7 +32827,7 @@
         <v>44585</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32884,7 +32884,7 @@
         <v>44585</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32941,7 +32941,7 @@
         <v>44586</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -32998,7 +32998,7 @@
         <v>44588</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33055,7 +33055,7 @@
         <v>44592</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33112,7 +33112,7 @@
         <v>44595</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33169,7 +33169,7 @@
         <v>44596</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33231,7 +33231,7 @@
         <v>44596</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33288,7 +33288,7 @@
         <v>44599</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33345,7 +33345,7 @@
         <v>44600</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33402,7 +33402,7 @@
         <v>44608</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33459,7 +33459,7 @@
         <v>44614</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33516,7 +33516,7 @@
         <v>44616</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33573,7 +33573,7 @@
         <v>44617</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33630,7 +33630,7 @@
         <v>44619</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33687,7 +33687,7 @@
         <v>44619</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33744,7 +33744,7 @@
         <v>44620</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33801,7 +33801,7 @@
         <v>44620</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33858,7 +33858,7 @@
         <v>44621</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33915,7 +33915,7 @@
         <v>44623</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -33972,7 +33972,7 @@
         <v>44624</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34029,7 +34029,7 @@
         <v>44624</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34086,7 +34086,7 @@
         <v>44628</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34143,7 +34143,7 @@
         <v>44629</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34200,7 +34200,7 @@
         <v>44629</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34257,7 +34257,7 @@
         <v>44636</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34314,7 +34314,7 @@
         <v>44636</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34371,7 +34371,7 @@
         <v>44637</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34428,7 +34428,7 @@
         <v>44644</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34485,7 +34485,7 @@
         <v>44657</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34542,7 +34542,7 @@
         <v>44663</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34599,7 +34599,7 @@
         <v>44670</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34656,7 +34656,7 @@
         <v>44672</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34713,7 +34713,7 @@
         <v>44686</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34770,7 +34770,7 @@
         <v>44687</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34827,7 +34827,7 @@
         <v>44687</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34884,7 +34884,7 @@
         <v>44693</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -34941,7 +34941,7 @@
         <v>44696</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -34998,7 +34998,7 @@
         <v>44698</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35055,7 +35055,7 @@
         <v>44700</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35112,7 +35112,7 @@
         <v>44705</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35169,7 +35169,7 @@
         <v>44706</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35226,7 +35226,7 @@
         <v>44706</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35283,7 +35283,7 @@
         <v>44710</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35340,7 +35340,7 @@
         <v>44711</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35397,7 +35397,7 @@
         <v>44720</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35454,7 +35454,7 @@
         <v>44725</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35511,7 +35511,7 @@
         <v>44742</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35568,7 +35568,7 @@
         <v>44742</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35625,7 +35625,7 @@
         <v>44742</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35682,7 +35682,7 @@
         <v>44742</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35739,7 +35739,7 @@
         <v>44747</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35796,7 +35796,7 @@
         <v>44747</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35853,7 +35853,7 @@
         <v>44748</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -35910,7 +35910,7 @@
         <v>44753</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -35967,7 +35967,7 @@
         <v>44754</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36024,7 +36024,7 @@
         <v>44754</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36081,7 +36081,7 @@
         <v>44757</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36138,7 +36138,7 @@
         <v>44757</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36195,7 +36195,7 @@
         <v>44767</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36252,7 +36252,7 @@
         <v>44799</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36309,7 +36309,7 @@
         <v>44806</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36366,7 +36366,7 @@
         <v>44812</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36423,7 +36423,7 @@
         <v>44820</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36480,7 +36480,7 @@
         <v>44820</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36537,7 +36537,7 @@
         <v>44825</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36594,7 +36594,7 @@
         <v>44826</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36651,7 +36651,7 @@
         <v>44832</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36708,7 +36708,7 @@
         <v>44832</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36765,7 +36765,7 @@
         <v>44837</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -36822,7 +36822,7 @@
         <v>44844</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -36879,7 +36879,7 @@
         <v>44845</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -36936,7 +36936,7 @@
         <v>44847</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -36993,7 +36993,7 @@
         <v>44847</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37050,7 +37050,7 @@
         <v>44847</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37107,7 +37107,7 @@
         <v>44856</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37164,7 +37164,7 @@
         <v>44858</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37221,7 +37221,7 @@
         <v>44858</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37278,7 +37278,7 @@
         <v>44860</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37335,7 +37335,7 @@
         <v>44860</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37392,7 +37392,7 @@
         <v>44860</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37449,7 +37449,7 @@
         <v>44862</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37506,7 +37506,7 @@
         <v>44865</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37563,7 +37563,7 @@
         <v>44866</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37620,7 +37620,7 @@
         <v>44866</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37677,7 +37677,7 @@
         <v>44867</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37734,7 +37734,7 @@
         <v>44874</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -37791,7 +37791,7 @@
         <v>44874</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -37848,7 +37848,7 @@
         <v>44874</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -37905,7 +37905,7 @@
         <v>44875</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -37962,7 +37962,7 @@
         <v>44879</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38019,7 +38019,7 @@
         <v>44881</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38076,7 +38076,7 @@
         <v>44890</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38133,7 +38133,7 @@
         <v>44893</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38190,7 +38190,7 @@
         <v>44893</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38247,7 +38247,7 @@
         <v>44893</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38304,7 +38304,7 @@
         <v>44903</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38361,7 +38361,7 @@
         <v>44909</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38418,7 +38418,7 @@
         <v>44911</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38475,7 +38475,7 @@
         <v>44911</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38532,7 +38532,7 @@
         <v>44920</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38589,7 +38589,7 @@
         <v>44930</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38646,7 +38646,7 @@
         <v>44930</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38703,7 +38703,7 @@
         <v>44936</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38760,7 +38760,7 @@
         <v>44939</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -38817,7 +38817,7 @@
         <v>44942</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -38874,7 +38874,7 @@
         <v>44950</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -38931,7 +38931,7 @@
         <v>44951</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -38988,7 +38988,7 @@
         <v>44952</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39045,7 +39045,7 @@
         <v>44957</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39102,7 +39102,7 @@
         <v>44958</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39159,7 +39159,7 @@
         <v>44967</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39216,7 +39216,7 @@
         <v>44967</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39273,7 +39273,7 @@
         <v>44970</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39330,7 +39330,7 @@
         <v>44981</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39387,7 +39387,7 @@
         <v>44981</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39444,7 +39444,7 @@
         <v>44984</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39501,7 +39501,7 @@
         <v>44986</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39558,7 +39558,7 @@
         <v>44988</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39615,7 +39615,7 @@
         <v>44988</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39672,7 +39672,7 @@
         <v>44988</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39729,7 +39729,7 @@
         <v>44988</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -39786,7 +39786,7 @@
         <v>44998</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -39843,7 +39843,7 @@
         <v>45001</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -39900,7 +39900,7 @@
         <v>45004</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -39957,7 +39957,7 @@
         <v>45005</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40014,7 +40014,7 @@
         <v>45012</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40071,7 +40071,7 @@
         <v>45012</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40128,7 +40128,7 @@
         <v>45012</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40185,7 +40185,7 @@
         <v>45012</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40242,7 +40242,7 @@
         <v>45015</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40299,7 +40299,7 @@
         <v>45016</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40356,7 +40356,7 @@
         <v>45019</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40413,7 +40413,7 @@
         <v>45019</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40470,7 +40470,7 @@
         <v>45020</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40527,7 +40527,7 @@
         <v>45027</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40584,7 +40584,7 @@
         <v>45027</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40641,7 +40641,7 @@
         <v>45027</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40698,7 +40698,7 @@
         <v>45028</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40755,7 +40755,7 @@
         <v>45030</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -40812,7 +40812,7 @@
         <v>45034</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -40869,7 +40869,7 @@
         <v>45034</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -40926,7 +40926,7 @@
         <v>45035</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -40983,7 +40983,7 @@
         <v>45035</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41040,7 +41040,7 @@
         <v>45037</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41097,7 +41097,7 @@
         <v>45040</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41154,7 +41154,7 @@
         <v>45040</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41211,7 +41211,7 @@
         <v>45042</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41268,7 +41268,7 @@
         <v>45048</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41325,7 +41325,7 @@
         <v>45048</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41382,7 +41382,7 @@
         <v>45050</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41439,7 +41439,7 @@
         <v>45050</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41496,7 +41496,7 @@
         <v>45050</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41553,7 +41553,7 @@
         <v>45050</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41610,7 +41610,7 @@
         <v>45055</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41667,7 +41667,7 @@
         <v>45056</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41724,7 +41724,7 @@
         <v>45057</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -41781,7 +41781,7 @@
         <v>45057</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -41838,7 +41838,7 @@
         <v>45057</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -41895,7 +41895,7 @@
         <v>45057</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -41952,7 +41952,7 @@
         <v>45058</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42009,7 +42009,7 @@
         <v>45065</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42066,7 +42066,7 @@
         <v>45069</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42123,7 +42123,7 @@
         <v>45069</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42180,7 +42180,7 @@
         <v>45070</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42237,7 +42237,7 @@
         <v>45070</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42294,7 +42294,7 @@
         <v>45070</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42351,7 +42351,7 @@
         <v>45070</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42408,7 +42408,7 @@
         <v>45075</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42465,7 +42465,7 @@
         <v>45076</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42522,7 +42522,7 @@
         <v>45076</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42579,7 +42579,7 @@
         <v>45077</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42636,7 +42636,7 @@
         <v>45079</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42693,7 +42693,7 @@
         <v>45080</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -42750,7 +42750,7 @@
         <v>45080</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -42807,7 +42807,7 @@
         <v>45082</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -42864,7 +42864,7 @@
         <v>45084</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -42921,7 +42921,7 @@
         <v>45085</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -42978,7 +42978,7 @@
         <v>45085</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43035,7 +43035,7 @@
         <v>45085</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43092,7 +43092,7 @@
         <v>45085</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43149,7 +43149,7 @@
         <v>45085</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43206,7 +43206,7 @@
         <v>45089</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43263,7 +43263,7 @@
         <v>45090</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43320,7 +43320,7 @@
         <v>45091</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43377,7 +43377,7 @@
         <v>45091</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43434,7 +43434,7 @@
         <v>45092</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43491,7 +43491,7 @@
         <v>45092</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -43548,7 +43548,7 @@
         <v>45092</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -43605,7 +43605,7 @@
         <v>45092</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -43662,7 +43662,7 @@
         <v>45093</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -43719,7 +43719,7 @@
         <v>45094</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -43776,7 +43776,7 @@
         <v>45097</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -43833,7 +43833,7 @@
         <v>45098</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -43890,7 +43890,7 @@
         <v>45098</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -43947,7 +43947,7 @@
         <v>45106</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44004,7 +44004,7 @@
         <v>45106</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44061,7 +44061,7 @@
         <v>45106</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44118,7 +44118,7 @@
         <v>45106</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44175,7 +44175,7 @@
         <v>45106</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44232,7 +44232,7 @@
         <v>45107</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44289,7 +44289,7 @@
         <v>45107</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44346,7 +44346,7 @@
         <v>45107</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44403,7 +44403,7 @@
         <v>45108</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44460,7 +44460,7 @@
         <v>45113</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -44517,7 +44517,7 @@
         <v>45113</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -44574,7 +44574,7 @@
         <v>45119</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -44631,7 +44631,7 @@
         <v>45125</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -44688,7 +44688,7 @@
         <v>45127</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -44745,7 +44745,7 @@
         <v>45127</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -44802,7 +44802,7 @@
         <v>45127</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -44859,7 +44859,7 @@
         <v>45132</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -44916,7 +44916,7 @@
         <v>45140</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -44973,7 +44973,7 @@
         <v>45142</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45030,7 +45030,7 @@
         <v>45142</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45087,7 +45087,7 @@
         <v>45142</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45144,7 +45144,7 @@
         <v>45147</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45201,7 +45201,7 @@
         <v>45148</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45258,7 +45258,7 @@
         <v>45155</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45315,7 +45315,7 @@
         <v>45155</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45372,7 +45372,7 @@
         <v>45159</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -45429,7 +45429,7 @@
         <v>45159</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -45486,7 +45486,7 @@
         <v>45162</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -45543,7 +45543,7 @@
         <v>45162</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -45600,7 +45600,7 @@
         <v>45163</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -45657,7 +45657,7 @@
         <v>45169</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -45714,7 +45714,7 @@
         <v>45170</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -45761,7 +45761,7 @@
       </c>
       <c r="R781" s="2" t="inlineStr"/>
     </row>
-    <row r="782">
+    <row r="782" ht="15" customHeight="1">
       <c r="A782" t="inlineStr">
         <is>
           <t>A 40579-2023</t>
@@ -45771,7 +45771,7 @@
         <v>45170</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -45817,6 +45817,120 @@
         <v>0</v>
       </c>
       <c r="R782" s="2" t="inlineStr"/>
+    </row>
+    <row r="783" ht="15" customHeight="1">
+      <c r="A783" t="inlineStr">
+        <is>
+          <t>A 42342-2023</t>
+        </is>
+      </c>
+      <c r="B783" s="1" t="n">
+        <v>45180</v>
+      </c>
+      <c r="C783" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="D783" t="inlineStr">
+        <is>
+          <t>BLEKINGE LÄN</t>
+        </is>
+      </c>
+      <c r="E783" t="inlineStr">
+        <is>
+          <t>KARLSKRONA</t>
+        </is>
+      </c>
+      <c r="G783" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H783" t="n">
+        <v>0</v>
+      </c>
+      <c r="I783" t="n">
+        <v>0</v>
+      </c>
+      <c r="J783" t="n">
+        <v>0</v>
+      </c>
+      <c r="K783" t="n">
+        <v>0</v>
+      </c>
+      <c r="L783" t="n">
+        <v>0</v>
+      </c>
+      <c r="M783" t="n">
+        <v>0</v>
+      </c>
+      <c r="N783" t="n">
+        <v>0</v>
+      </c>
+      <c r="O783" t="n">
+        <v>0</v>
+      </c>
+      <c r="P783" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q783" t="n">
+        <v>0</v>
+      </c>
+      <c r="R783" s="2" t="inlineStr"/>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>A 42340-2023</t>
+        </is>
+      </c>
+      <c r="B784" s="1" t="n">
+        <v>45180</v>
+      </c>
+      <c r="C784" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="D784" t="inlineStr">
+        <is>
+          <t>BLEKINGE LÄN</t>
+        </is>
+      </c>
+      <c r="E784" t="inlineStr">
+        <is>
+          <t>KARLSKRONA</t>
+        </is>
+      </c>
+      <c r="G784" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H784" t="n">
+        <v>0</v>
+      </c>
+      <c r="I784" t="n">
+        <v>0</v>
+      </c>
+      <c r="J784" t="n">
+        <v>0</v>
+      </c>
+      <c r="K784" t="n">
+        <v>0</v>
+      </c>
+      <c r="L784" t="n">
+        <v>0</v>
+      </c>
+      <c r="M784" t="n">
+        <v>0</v>
+      </c>
+      <c r="N784" t="n">
+        <v>0</v>
+      </c>
+      <c r="O784" t="n">
+        <v>0</v>
+      </c>
+      <c r="P784" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q784" t="n">
+        <v>0</v>
+      </c>
+      <c r="R784" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt KARLSKRONA.xlsx
+++ b/Översikt KARLSKRONA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y784"/>
+  <dimension ref="A1:Y785"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>45051</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>43640</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>44509</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>45101</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>43315</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43843</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>44960</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>45027</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>43356</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>43447</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>43963</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44021</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>44132</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>44139</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>44139</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>44140</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>44159</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>44237</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>44445</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
         <v>44467</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>44531</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>44728</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>45037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>43321</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>43332</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43335</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>43341</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43342</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>43349</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43350</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>43356</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         <v>43357</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43359</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43361</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>43363</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>43367</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>43368</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>43368</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>43369</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>43375</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         <v>43376</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>43384</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3635,7 +3635,7 @@
         <v>43396</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>43396</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>43396</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3806,7 +3806,7 @@
         <v>43397</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>43398</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>43398</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>43398</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>43398</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>43402</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>43403</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>43403</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>43405</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>43409</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>43410</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4443,7 +4443,7 @@
         <v>43410</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>43411</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43412</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>43413</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>43416</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>43416</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>43416</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>43417</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>43419</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>43419</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>43420</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>43420</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>43423</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>43424</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>43426</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>43430</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>43430</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>43431</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>43431</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>43434</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         <v>43434</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>43434</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>43437</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>43437</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5816,7 +5816,7 @@
         <v>43437</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>43438</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>43446</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5987,7 +5987,7 @@
         <v>43451</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6044,7 +6044,7 @@
         <v>43451</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>43451</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>43451</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6215,7 +6215,7 @@
         <v>43451</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>43451</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>43453</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         <v>43454</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6443,7 +6443,7 @@
         <v>43454</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6500,7 +6500,7 @@
         <v>43461</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6557,7 +6557,7 @@
         <v>43465</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6614,7 +6614,7 @@
         <v>43467</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6671,7 +6671,7 @@
         <v>43467</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
         <v>43468</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6785,7 +6785,7 @@
         <v>43473</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6842,7 +6842,7 @@
         <v>43475</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6899,7 +6899,7 @@
         <v>43475</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
         <v>43476</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7013,7 +7013,7 @@
         <v>43476</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7070,7 +7070,7 @@
         <v>43479</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7127,7 +7127,7 @@
         <v>43480</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7184,7 +7184,7 @@
         <v>43480</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7241,7 +7241,7 @@
         <v>43481</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7298,7 +7298,7 @@
         <v>43483</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7355,7 +7355,7 @@
         <v>43485</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7412,7 +7412,7 @@
         <v>43485</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7469,7 +7469,7 @@
         <v>43488</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         <v>43488</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>43488</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>43489</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7697,7 +7697,7 @@
         <v>43493</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>43493</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>43493</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>43493</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>43494</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>43496</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43497</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43497</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43500</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43501</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43508</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43508</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43508</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>43510</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8500,7 +8500,7 @@
         <v>43511</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>43516</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>43517</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         <v>43517</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>43518</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         <v>43521</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>43523</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         <v>43529</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>43529</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>43532</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9075,7 +9075,7 @@
         <v>43535</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9132,7 +9132,7 @@
         <v>43537</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         <v>43538</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9246,7 +9246,7 @@
         <v>43538</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9303,7 +9303,7 @@
         <v>43538</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>43538</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>43542</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9474,7 +9474,7 @@
         <v>43543</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>43546</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>43549</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9645,7 +9645,7 @@
         <v>43549</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9702,7 +9702,7 @@
         <v>43549</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>43567</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>43567</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>43571</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9930,7 +9930,7 @@
         <v>43572</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9987,7 +9987,7 @@
         <v>43573</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10044,7 +10044,7 @@
         <v>43580</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43584</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43587</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43592</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>43593</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43594</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>43594</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>43594</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43595</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         <v>43601</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10614,7 +10614,7 @@
         <v>43601</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10671,7 +10671,7 @@
         <v>43602</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10728,7 +10728,7 @@
         <v>43609</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10785,7 +10785,7 @@
         <v>43626</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10842,7 +10842,7 @@
         <v>43626</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>43626</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>43627</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>43640</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11075,7 +11075,7 @@
         <v>43644</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>43648</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11189,7 +11189,7 @@
         <v>43650</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11246,7 +11246,7 @@
         <v>43650</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11303,7 +11303,7 @@
         <v>43655</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11360,7 +11360,7 @@
         <v>43663</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11417,7 +11417,7 @@
         <v>43668</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11474,7 +11474,7 @@
         <v>43671</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11531,7 +11531,7 @@
         <v>43676</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11588,7 +11588,7 @@
         <v>43682</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11645,7 +11645,7 @@
         <v>43683</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11702,7 +11702,7 @@
         <v>43684</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11764,7 +11764,7 @@
         <v>43684</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11821,7 +11821,7 @@
         <v>43684</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11878,7 +11878,7 @@
         <v>43684</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11935,7 +11935,7 @@
         <v>43686</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11992,7 +11992,7 @@
         <v>43686</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12049,7 +12049,7 @@
         <v>43690</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12106,7 +12106,7 @@
         <v>43691</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         <v>43692</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12220,7 +12220,7 @@
         <v>43692</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12277,7 +12277,7 @@
         <v>43692</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         <v>43692</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         <v>43698</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12448,7 +12448,7 @@
         <v>43698</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12505,7 +12505,7 @@
         <v>43698</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12562,7 +12562,7 @@
         <v>43698</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         <v>43698</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12676,7 +12676,7 @@
         <v>43698</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12733,7 +12733,7 @@
         <v>43698</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12790,7 +12790,7 @@
         <v>43698</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12847,7 +12847,7 @@
         <v>43698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12904,7 +12904,7 @@
         <v>43698</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12961,7 +12961,7 @@
         <v>43698</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13018,7 +13018,7 @@
         <v>43698</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13075,7 +13075,7 @@
         <v>43698</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13132,7 +13132,7 @@
         <v>43699</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13189,7 +13189,7 @@
         <v>43701</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13246,7 +13246,7 @@
         <v>43701</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13303,7 +13303,7 @@
         <v>43706</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13360,7 +13360,7 @@
         <v>43710</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13417,7 +13417,7 @@
         <v>43710</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>43711</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13531,7 +13531,7 @@
         <v>43711</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         <v>43712</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
         <v>43712</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         <v>43712</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         <v>43712</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>43712</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>43712</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13935,7 +13935,7 @@
         <v>43718</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13992,7 +13992,7 @@
         <v>43718</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14049,7 +14049,7 @@
         <v>43719</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14106,7 +14106,7 @@
         <v>43719</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14163,7 +14163,7 @@
         <v>43719</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14220,7 +14220,7 @@
         <v>43720</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14277,7 +14277,7 @@
         <v>43720</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14334,7 +14334,7 @@
         <v>43721</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14391,7 +14391,7 @@
         <v>43727</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         <v>43732</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>43735</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14562,7 +14562,7 @@
         <v>43738</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14619,7 +14619,7 @@
         <v>43742</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14676,7 +14676,7 @@
         <v>43746</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14733,7 +14733,7 @@
         <v>43746</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14790,7 +14790,7 @@
         <v>43747</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14847,7 +14847,7 @@
         <v>43748</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14904,7 +14904,7 @@
         <v>43753</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14961,7 +14961,7 @@
         <v>43753</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>43754</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15075,7 +15075,7 @@
         <v>43756</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15132,7 +15132,7 @@
         <v>43760</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15189,7 +15189,7 @@
         <v>43760</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>43761</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15303,7 +15303,7 @@
         <v>43763</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>43763</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>43763</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>43766</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>43766</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>43770</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>43773</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>43774</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15759,7 +15759,7 @@
         <v>43775</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>43775</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15873,7 +15873,7 @@
         <v>43777</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>43782</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>43783</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>43783</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         <v>43788</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>43788</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16215,7 +16215,7 @@
         <v>43789</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>43790</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         <v>43812</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         <v>43812</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16443,7 +16443,7 @@
         <v>43817</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16500,7 +16500,7 @@
         <v>43818</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>43832</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>43832</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>43833</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16728,7 +16728,7 @@
         <v>43837</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16785,7 +16785,7 @@
         <v>43838</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>43838</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>43840</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>43844</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>43844</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>43845</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>43845</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>43849</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17241,7 +17241,7 @@
         <v>43850</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17298,7 +17298,7 @@
         <v>43852</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17355,7 +17355,7 @@
         <v>43852</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>43854</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>43867</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17526,7 +17526,7 @@
         <v>43867</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>43870</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>43870</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>43872</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>43875</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>43879</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>43887</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17925,7 +17925,7 @@
         <v>43887</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17982,7 +17982,7 @@
         <v>43889</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         <v>43889</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18096,7 +18096,7 @@
         <v>43889</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>43894</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18210,7 +18210,7 @@
         <v>43900</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18267,7 +18267,7 @@
         <v>43902</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18324,7 +18324,7 @@
         <v>43902</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18381,7 +18381,7 @@
         <v>43902</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
         <v>43902</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18495,7 +18495,7 @@
         <v>43907</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18552,7 +18552,7 @@
         <v>43907</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18609,7 +18609,7 @@
         <v>43907</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18666,7 +18666,7 @@
         <v>43907</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18723,7 +18723,7 @@
         <v>43913</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18780,7 +18780,7 @@
         <v>43914</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
         <v>43914</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18894,7 +18894,7 @@
         <v>43915</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18951,7 +18951,7 @@
         <v>43915</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19008,7 +19008,7 @@
         <v>43916</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19065,7 +19065,7 @@
         <v>43916</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19122,7 +19122,7 @@
         <v>43917</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19179,7 +19179,7 @@
         <v>43920</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19236,7 +19236,7 @@
         <v>43920</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19293,7 +19293,7 @@
         <v>43920</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19350,7 +19350,7 @@
         <v>43920</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19407,7 +19407,7 @@
         <v>43921</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19464,7 +19464,7 @@
         <v>43923</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19521,7 +19521,7 @@
         <v>43923</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19583,7 +19583,7 @@
         <v>43923</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19640,7 +19640,7 @@
         <v>43925</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19697,7 +19697,7 @@
         <v>43926</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19754,7 +19754,7 @@
         <v>43927</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19811,7 +19811,7 @@
         <v>43927</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19868,7 +19868,7 @@
         <v>43927</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19925,7 +19925,7 @@
         <v>43927</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>43935</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20039,7 +20039,7 @@
         <v>43937</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20096,7 +20096,7 @@
         <v>43937</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>43937</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20210,7 +20210,7 @@
         <v>43938</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20272,7 +20272,7 @@
         <v>43950</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>43977</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>43977</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20448,7 +20448,7 @@
         <v>43977</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20505,7 +20505,7 @@
         <v>43980</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20562,7 +20562,7 @@
         <v>43980</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20619,7 +20619,7 @@
         <v>43986</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20676,7 +20676,7 @@
         <v>43992</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20733,7 +20733,7 @@
         <v>43993</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20790,7 +20790,7 @@
         <v>44005</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         <v>44006</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20904,7 +20904,7 @@
         <v>44007</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20961,7 +20961,7 @@
         <v>44008</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21018,7 +21018,7 @@
         <v>44014</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21075,7 +21075,7 @@
         <v>44015</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21132,7 +21132,7 @@
         <v>44018</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21189,7 +21189,7 @@
         <v>44019</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21246,7 +21246,7 @@
         <v>44026</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21303,7 +21303,7 @@
         <v>44039</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21360,7 +21360,7 @@
         <v>44046</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21417,7 +21417,7 @@
         <v>44048</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21474,7 +21474,7 @@
         <v>44053</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21531,7 +21531,7 @@
         <v>44053</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
         <v>44053</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         <v>44054</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21702,7 +21702,7 @@
         <v>44055</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21759,7 +21759,7 @@
         <v>44055</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21816,7 +21816,7 @@
         <v>44055</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21873,7 +21873,7 @@
         <v>44055</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21930,7 +21930,7 @@
         <v>44057</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44060</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44060</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>44060</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>44062</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44062</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44062</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44071</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44074</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>44075</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>44080</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>44081</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>44083</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22671,7 +22671,7 @@
         <v>44088</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22728,7 +22728,7 @@
         <v>44088</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22785,7 +22785,7 @@
         <v>44090</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22842,7 +22842,7 @@
         <v>44090</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>44090</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22956,7 +22956,7 @@
         <v>44103</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         <v>44113</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>44113</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23127,7 +23127,7 @@
         <v>44120</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23184,7 +23184,7 @@
         <v>44120</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23241,7 +23241,7 @@
         <v>44123</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23298,7 +23298,7 @@
         <v>44124</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23355,7 +23355,7 @@
         <v>44124</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23412,7 +23412,7 @@
         <v>44125</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23469,7 +23469,7 @@
         <v>44127</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23526,7 +23526,7 @@
         <v>44131</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23583,7 +23583,7 @@
         <v>44132</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23640,7 +23640,7 @@
         <v>44132</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23697,7 +23697,7 @@
         <v>44132</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23754,7 +23754,7 @@
         <v>44132</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23811,7 +23811,7 @@
         <v>44132</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23868,7 +23868,7 @@
         <v>44133</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23925,7 +23925,7 @@
         <v>44139</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23982,7 +23982,7 @@
         <v>44139</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24039,7 +24039,7 @@
         <v>44140</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24096,7 +24096,7 @@
         <v>44140</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24153,7 +24153,7 @@
         <v>44140</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24210,7 +24210,7 @@
         <v>44144</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24267,7 +24267,7 @@
         <v>44146</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24324,7 +24324,7 @@
         <v>44146</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         <v>44152</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24438,7 +24438,7 @@
         <v>44153</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24495,7 +24495,7 @@
         <v>44154</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24552,7 +24552,7 @@
         <v>44166</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24609,7 +24609,7 @@
         <v>44167</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24666,7 +24666,7 @@
         <v>44169</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24723,7 +24723,7 @@
         <v>44174</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24780,7 +24780,7 @@
         <v>44179</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24837,7 +24837,7 @@
         <v>44179</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24894,7 +24894,7 @@
         <v>44186</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24951,7 +24951,7 @@
         <v>44188</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25008,7 +25008,7 @@
         <v>44188</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25065,7 +25065,7 @@
         <v>44200</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25122,7 +25122,7 @@
         <v>44202</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25179,7 +25179,7 @@
         <v>44204</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25236,7 +25236,7 @@
         <v>44204</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25293,7 +25293,7 @@
         <v>44204</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25350,7 +25350,7 @@
         <v>44207</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25407,7 +25407,7 @@
         <v>44208</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25464,7 +25464,7 @@
         <v>44208</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25521,7 +25521,7 @@
         <v>44208</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>44209</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         <v>44211</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>44217</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         <v>44222</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25806,7 +25806,7 @@
         <v>44223</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25863,7 +25863,7 @@
         <v>44225</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25920,7 +25920,7 @@
         <v>44225</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25977,7 +25977,7 @@
         <v>44225</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>44230</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>44235</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>44235</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>44235</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>44235</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>44241</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26376,7 +26376,7 @@
         <v>44253</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26433,7 +26433,7 @@
         <v>44256</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26490,7 +26490,7 @@
         <v>44257</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26547,7 +26547,7 @@
         <v>44259</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26604,7 +26604,7 @@
         <v>44259</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26661,7 +26661,7 @@
         <v>44267</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26718,7 +26718,7 @@
         <v>44267</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26775,7 +26775,7 @@
         <v>44270</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26832,7 +26832,7 @@
         <v>44275</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26889,7 +26889,7 @@
         <v>44279</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         <v>44281</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27003,7 +27003,7 @@
         <v>44284</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27060,7 +27060,7 @@
         <v>44284</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27117,7 +27117,7 @@
         <v>44284</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27174,7 +27174,7 @@
         <v>44285</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27231,7 +27231,7 @@
         <v>44286</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27288,7 +27288,7 @@
         <v>44292</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27345,7 +27345,7 @@
         <v>44300</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27402,7 +27402,7 @@
         <v>44300</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27464,7 +27464,7 @@
         <v>44302</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27521,7 +27521,7 @@
         <v>44302</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27578,7 +27578,7 @@
         <v>44302</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27635,7 +27635,7 @@
         <v>44302</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27692,7 +27692,7 @@
         <v>44305</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27749,7 +27749,7 @@
         <v>44305</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27806,7 +27806,7 @@
         <v>44305</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27863,7 +27863,7 @@
         <v>44306</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27920,7 +27920,7 @@
         <v>44309</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27977,7 +27977,7 @@
         <v>44323</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28034,7 +28034,7 @@
         <v>44323</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28091,7 +28091,7 @@
         <v>44325</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28148,7 +28148,7 @@
         <v>44327</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28205,7 +28205,7 @@
         <v>44333</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28262,7 +28262,7 @@
         <v>44342</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28319,7 +28319,7 @@
         <v>44342</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28376,7 +28376,7 @@
         <v>44342</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28433,7 +28433,7 @@
         <v>44342</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28490,7 +28490,7 @@
         <v>44343</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28547,7 +28547,7 @@
         <v>44349</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28604,7 +28604,7 @@
         <v>44350</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28661,7 +28661,7 @@
         <v>44350</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28718,7 +28718,7 @@
         <v>44350</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28775,7 +28775,7 @@
         <v>44354</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28832,7 +28832,7 @@
         <v>44356</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28889,7 +28889,7 @@
         <v>44364</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         <v>44365</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29003,7 +29003,7 @@
         <v>44365</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29060,7 +29060,7 @@
         <v>44368</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29117,7 +29117,7 @@
         <v>44375</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29174,7 +29174,7 @@
         <v>44383</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29231,7 +29231,7 @@
         <v>44384</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29288,7 +29288,7 @@
         <v>44384</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29345,7 +29345,7 @@
         <v>44391</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29402,7 +29402,7 @@
         <v>44391</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29459,7 +29459,7 @@
         <v>44397</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29516,7 +29516,7 @@
         <v>44398</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29573,7 +29573,7 @@
         <v>44399</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29630,7 +29630,7 @@
         <v>44399</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29687,7 +29687,7 @@
         <v>44406</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29744,7 +29744,7 @@
         <v>44411</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29801,7 +29801,7 @@
         <v>44411</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29858,7 +29858,7 @@
         <v>44420</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29915,7 +29915,7 @@
         <v>44420</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29972,7 +29972,7 @@
         <v>44421</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30029,7 +30029,7 @@
         <v>44424</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30086,7 +30086,7 @@
         <v>44425</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30143,7 +30143,7 @@
         <v>44433</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30200,7 +30200,7 @@
         <v>44435</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30257,7 +30257,7 @@
         <v>44435</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30314,7 +30314,7 @@
         <v>44440</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30371,7 +30371,7 @@
         <v>44440</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30433,7 +30433,7 @@
         <v>44441</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30490,7 +30490,7 @@
         <v>44441</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         <v>44441</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30604,7 +30604,7 @@
         <v>44442</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30661,7 +30661,7 @@
         <v>44447</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30718,7 +30718,7 @@
         <v>44449</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30775,7 +30775,7 @@
         <v>44452</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30832,7 +30832,7 @@
         <v>44452</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30889,7 +30889,7 @@
         <v>44458</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         <v>44461</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31003,7 +31003,7 @@
         <v>44461</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31060,7 +31060,7 @@
         <v>44462</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31117,7 +31117,7 @@
         <v>44466</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31174,7 +31174,7 @@
         <v>44468</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31231,7 +31231,7 @@
         <v>44473</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31288,7 +31288,7 @@
         <v>44476</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31345,7 +31345,7 @@
         <v>44481</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31402,7 +31402,7 @@
         <v>44491</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31459,7 +31459,7 @@
         <v>44496</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31516,7 +31516,7 @@
         <v>44496</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31573,7 +31573,7 @@
         <v>44497</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31630,7 +31630,7 @@
         <v>44498</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31687,7 +31687,7 @@
         <v>44502</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31744,7 +31744,7 @@
         <v>44503</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31801,7 +31801,7 @@
         <v>44503</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31858,7 +31858,7 @@
         <v>44512</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         <v>44515</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31972,7 +31972,7 @@
         <v>44516</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32029,7 +32029,7 @@
         <v>44517</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32086,7 +32086,7 @@
         <v>44523</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32143,7 +32143,7 @@
         <v>44529</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32200,7 +32200,7 @@
         <v>44530</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32257,7 +32257,7 @@
         <v>44539</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32314,7 +32314,7 @@
         <v>44543</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32371,7 +32371,7 @@
         <v>44551</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32428,7 +32428,7 @@
         <v>44553</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32485,7 +32485,7 @@
         <v>44559</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32542,7 +32542,7 @@
         <v>44572</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32599,7 +32599,7 @@
         <v>44572</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32656,7 +32656,7 @@
         <v>44578</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32713,7 +32713,7 @@
         <v>44579</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32770,7 +32770,7 @@
         <v>44584</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32827,7 +32827,7 @@
         <v>44585</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32884,7 +32884,7 @@
         <v>44585</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32941,7 +32941,7 @@
         <v>44586</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -32998,7 +32998,7 @@
         <v>44588</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33055,7 +33055,7 @@
         <v>44592</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33112,7 +33112,7 @@
         <v>44595</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33169,7 +33169,7 @@
         <v>44596</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33231,7 +33231,7 @@
         <v>44596</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33288,7 +33288,7 @@
         <v>44599</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33345,7 +33345,7 @@
         <v>44600</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33402,7 +33402,7 @@
         <v>44608</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33459,7 +33459,7 @@
         <v>44614</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33516,7 +33516,7 @@
         <v>44616</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33573,7 +33573,7 @@
         <v>44617</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33630,7 +33630,7 @@
         <v>44619</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33687,7 +33687,7 @@
         <v>44619</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33744,7 +33744,7 @@
         <v>44620</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33801,7 +33801,7 @@
         <v>44620</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33858,7 +33858,7 @@
         <v>44621</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33915,7 +33915,7 @@
         <v>44623</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -33972,7 +33972,7 @@
         <v>44624</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34029,7 +34029,7 @@
         <v>44624</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34086,7 +34086,7 @@
         <v>44628</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34143,7 +34143,7 @@
         <v>44629</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34200,7 +34200,7 @@
         <v>44629</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34257,7 +34257,7 @@
         <v>44636</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34314,7 +34314,7 @@
         <v>44636</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34371,7 +34371,7 @@
         <v>44637</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34428,7 +34428,7 @@
         <v>44644</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34485,7 +34485,7 @@
         <v>44657</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34542,7 +34542,7 @@
         <v>44663</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34599,7 +34599,7 @@
         <v>44670</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34656,7 +34656,7 @@
         <v>44672</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34713,7 +34713,7 @@
         <v>44686</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34770,7 +34770,7 @@
         <v>44687</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34827,7 +34827,7 @@
         <v>44687</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34884,7 +34884,7 @@
         <v>44693</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -34941,7 +34941,7 @@
         <v>44696</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -34998,7 +34998,7 @@
         <v>44698</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35055,7 +35055,7 @@
         <v>44700</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35112,7 +35112,7 @@
         <v>44705</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35169,7 +35169,7 @@
         <v>44706</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35226,7 +35226,7 @@
         <v>44706</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35283,7 +35283,7 @@
         <v>44710</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35340,7 +35340,7 @@
         <v>44711</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35397,7 +35397,7 @@
         <v>44720</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35454,7 +35454,7 @@
         <v>44725</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35511,7 +35511,7 @@
         <v>44742</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35568,7 +35568,7 @@
         <v>44742</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35625,7 +35625,7 @@
         <v>44742</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35682,7 +35682,7 @@
         <v>44742</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35739,7 +35739,7 @@
         <v>44747</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35796,7 +35796,7 @@
         <v>44747</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35853,7 +35853,7 @@
         <v>44748</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -35910,7 +35910,7 @@
         <v>44753</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -35967,7 +35967,7 @@
         <v>44754</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36024,7 +36024,7 @@
         <v>44754</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36081,7 +36081,7 @@
         <v>44757</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36138,7 +36138,7 @@
         <v>44757</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36195,7 +36195,7 @@
         <v>44767</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36252,7 +36252,7 @@
         <v>44799</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36309,7 +36309,7 @@
         <v>44806</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36366,7 +36366,7 @@
         <v>44812</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36423,7 +36423,7 @@
         <v>44820</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36480,7 +36480,7 @@
         <v>44820</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36537,7 +36537,7 @@
         <v>44825</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36594,7 +36594,7 @@
         <v>44826</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36651,7 +36651,7 @@
         <v>44832</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36708,7 +36708,7 @@
         <v>44832</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36765,7 +36765,7 @@
         <v>44837</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -36822,7 +36822,7 @@
         <v>44844</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -36879,7 +36879,7 @@
         <v>44845</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -36936,7 +36936,7 @@
         <v>44847</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -36993,7 +36993,7 @@
         <v>44847</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37050,7 +37050,7 @@
         <v>44847</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37107,7 +37107,7 @@
         <v>44856</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37164,7 +37164,7 @@
         <v>44858</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37221,7 +37221,7 @@
         <v>44858</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37278,7 +37278,7 @@
         <v>44860</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37335,7 +37335,7 @@
         <v>44860</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37392,7 +37392,7 @@
         <v>44860</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37449,7 +37449,7 @@
         <v>44862</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37506,7 +37506,7 @@
         <v>44865</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37563,7 +37563,7 @@
         <v>44866</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37620,7 +37620,7 @@
         <v>44866</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37677,7 +37677,7 @@
         <v>44867</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37734,7 +37734,7 @@
         <v>44874</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -37791,7 +37791,7 @@
         <v>44874</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -37848,7 +37848,7 @@
         <v>44874</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -37905,7 +37905,7 @@
         <v>44875</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -37962,7 +37962,7 @@
         <v>44879</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38019,7 +38019,7 @@
         <v>44881</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38076,7 +38076,7 @@
         <v>44890</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38133,7 +38133,7 @@
         <v>44893</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38190,7 +38190,7 @@
         <v>44893</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38247,7 +38247,7 @@
         <v>44893</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38304,7 +38304,7 @@
         <v>44903</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38361,7 +38361,7 @@
         <v>44909</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38418,7 +38418,7 @@
         <v>44911</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38475,7 +38475,7 @@
         <v>44911</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38532,7 +38532,7 @@
         <v>44920</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38589,7 +38589,7 @@
         <v>44930</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38646,7 +38646,7 @@
         <v>44930</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38703,7 +38703,7 @@
         <v>44936</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38760,7 +38760,7 @@
         <v>44939</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -38817,7 +38817,7 @@
         <v>44942</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -38874,7 +38874,7 @@
         <v>44950</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -38931,7 +38931,7 @@
         <v>44951</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -38988,7 +38988,7 @@
         <v>44952</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39045,7 +39045,7 @@
         <v>44957</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39102,7 +39102,7 @@
         <v>44958</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39159,7 +39159,7 @@
         <v>44967</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39216,7 +39216,7 @@
         <v>44967</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39273,7 +39273,7 @@
         <v>44970</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39330,7 +39330,7 @@
         <v>44981</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39387,7 +39387,7 @@
         <v>44981</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39444,7 +39444,7 @@
         <v>44984</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39501,7 +39501,7 @@
         <v>44986</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39558,7 +39558,7 @@
         <v>44988</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39615,7 +39615,7 @@
         <v>44988</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39672,7 +39672,7 @@
         <v>44988</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39729,7 +39729,7 @@
         <v>44988</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -39786,7 +39786,7 @@
         <v>44998</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -39843,7 +39843,7 @@
         <v>45001</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -39900,7 +39900,7 @@
         <v>45004</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -39957,7 +39957,7 @@
         <v>45005</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40014,7 +40014,7 @@
         <v>45012</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40071,7 +40071,7 @@
         <v>45012</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40128,7 +40128,7 @@
         <v>45012</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40185,7 +40185,7 @@
         <v>45012</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40242,7 +40242,7 @@
         <v>45015</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40299,7 +40299,7 @@
         <v>45016</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40356,7 +40356,7 @@
         <v>45019</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40413,7 +40413,7 @@
         <v>45019</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40470,7 +40470,7 @@
         <v>45020</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40527,7 +40527,7 @@
         <v>45027</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40584,7 +40584,7 @@
         <v>45027</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40641,7 +40641,7 @@
         <v>45027</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40698,7 +40698,7 @@
         <v>45028</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40755,7 +40755,7 @@
         <v>45030</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -40812,7 +40812,7 @@
         <v>45034</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -40869,7 +40869,7 @@
         <v>45034</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -40926,7 +40926,7 @@
         <v>45035</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -40983,7 +40983,7 @@
         <v>45035</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41040,7 +41040,7 @@
         <v>45037</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41097,7 +41097,7 @@
         <v>45040</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41154,7 +41154,7 @@
         <v>45040</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41211,7 +41211,7 @@
         <v>45042</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41268,7 +41268,7 @@
         <v>45048</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41325,7 +41325,7 @@
         <v>45048</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41382,7 +41382,7 @@
         <v>45050</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41439,7 +41439,7 @@
         <v>45050</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41496,7 +41496,7 @@
         <v>45050</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41553,7 +41553,7 @@
         <v>45050</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41610,7 +41610,7 @@
         <v>45055</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41667,7 +41667,7 @@
         <v>45056</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41724,7 +41724,7 @@
         <v>45057</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -41781,7 +41781,7 @@
         <v>45057</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -41838,7 +41838,7 @@
         <v>45057</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -41895,7 +41895,7 @@
         <v>45057</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -41952,7 +41952,7 @@
         <v>45058</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42009,7 +42009,7 @@
         <v>45065</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42066,7 +42066,7 @@
         <v>45069</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42123,7 +42123,7 @@
         <v>45069</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42180,7 +42180,7 @@
         <v>45070</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42237,7 +42237,7 @@
         <v>45070</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42294,7 +42294,7 @@
         <v>45070</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42351,7 +42351,7 @@
         <v>45070</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42408,7 +42408,7 @@
         <v>45075</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42465,7 +42465,7 @@
         <v>45076</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42522,7 +42522,7 @@
         <v>45076</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42579,7 +42579,7 @@
         <v>45077</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42636,7 +42636,7 @@
         <v>45079</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42693,7 +42693,7 @@
         <v>45080</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -42750,7 +42750,7 @@
         <v>45080</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -42807,7 +42807,7 @@
         <v>45082</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -42864,7 +42864,7 @@
         <v>45084</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -42921,7 +42921,7 @@
         <v>45085</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -42978,7 +42978,7 @@
         <v>45085</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43035,7 +43035,7 @@
         <v>45085</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43092,7 +43092,7 @@
         <v>45085</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43149,7 +43149,7 @@
         <v>45085</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43206,7 +43206,7 @@
         <v>45089</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43263,7 +43263,7 @@
         <v>45090</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43320,7 +43320,7 @@
         <v>45091</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43377,7 +43377,7 @@
         <v>45091</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43434,7 +43434,7 @@
         <v>45092</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43491,7 +43491,7 @@
         <v>45092</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -43548,7 +43548,7 @@
         <v>45092</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -43605,7 +43605,7 @@
         <v>45092</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -43662,7 +43662,7 @@
         <v>45093</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -43719,7 +43719,7 @@
         <v>45094</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -43776,7 +43776,7 @@
         <v>45097</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -43833,7 +43833,7 @@
         <v>45098</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -43890,7 +43890,7 @@
         <v>45098</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -43947,7 +43947,7 @@
         <v>45106</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44004,7 +44004,7 @@
         <v>45106</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44061,7 +44061,7 @@
         <v>45106</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44118,7 +44118,7 @@
         <v>45106</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44175,7 +44175,7 @@
         <v>45106</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44232,7 +44232,7 @@
         <v>45107</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44289,7 +44289,7 @@
         <v>45107</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44346,7 +44346,7 @@
         <v>45107</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44403,7 +44403,7 @@
         <v>45108</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44460,7 +44460,7 @@
         <v>45113</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -44517,7 +44517,7 @@
         <v>45113</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -44574,7 +44574,7 @@
         <v>45119</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -44631,7 +44631,7 @@
         <v>45125</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -44688,7 +44688,7 @@
         <v>45127</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -44745,7 +44745,7 @@
         <v>45127</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -44802,7 +44802,7 @@
         <v>45127</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -44859,7 +44859,7 @@
         <v>45132</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -44916,7 +44916,7 @@
         <v>45140</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -44973,7 +44973,7 @@
         <v>45142</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45030,7 +45030,7 @@
         <v>45142</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45087,7 +45087,7 @@
         <v>45142</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45144,7 +45144,7 @@
         <v>45147</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45201,7 +45201,7 @@
         <v>45148</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45258,7 +45258,7 @@
         <v>45155</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45315,7 +45315,7 @@
         <v>45155</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45372,7 +45372,7 @@
         <v>45159</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -45429,7 +45429,7 @@
         <v>45159</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -45486,7 +45486,7 @@
         <v>45162</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -45543,7 +45543,7 @@
         <v>45162</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -45600,7 +45600,7 @@
         <v>45163</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -45657,7 +45657,7 @@
         <v>45169</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -45714,7 +45714,7 @@
         <v>45170</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -45771,7 +45771,7 @@
         <v>45170</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -45828,7 +45828,7 @@
         <v>45180</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -45875,7 +45875,7 @@
       </c>
       <c r="R783" s="2" t="inlineStr"/>
     </row>
-    <row r="784">
+    <row r="784" ht="15" customHeight="1">
       <c r="A784" t="inlineStr">
         <is>
           <t>A 42340-2023</t>
@@ -45885,7 +45885,7 @@
         <v>45180</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -45931,6 +45931,63 @@
         <v>0</v>
       </c>
       <c r="R784" s="2" t="inlineStr"/>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>A 42532-2023</t>
+        </is>
+      </c>
+      <c r="B785" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="C785" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D785" t="inlineStr">
+        <is>
+          <t>BLEKINGE LÄN</t>
+        </is>
+      </c>
+      <c r="E785" t="inlineStr">
+        <is>
+          <t>KARLSKRONA</t>
+        </is>
+      </c>
+      <c r="G785" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H785" t="n">
+        <v>0</v>
+      </c>
+      <c r="I785" t="n">
+        <v>0</v>
+      </c>
+      <c r="J785" t="n">
+        <v>0</v>
+      </c>
+      <c r="K785" t="n">
+        <v>0</v>
+      </c>
+      <c r="L785" t="n">
+        <v>0</v>
+      </c>
+      <c r="M785" t="n">
+        <v>0</v>
+      </c>
+      <c r="N785" t="n">
+        <v>0</v>
+      </c>
+      <c r="O785" t="n">
+        <v>0</v>
+      </c>
+      <c r="P785" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q785" t="n">
+        <v>0</v>
+      </c>
+      <c r="R785" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt KARLSKRONA.xlsx
+++ b/Översikt KARLSKRONA.xlsx
@@ -572,7 +572,7 @@
         <v>45051</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>43640</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>44509</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>45101</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>43315</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43843</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>44960</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>45027</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>43356</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>43447</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>43963</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44021</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>44132</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>44139</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>44139</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>44140</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>44159</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>44237</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>44445</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
         <v>44467</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>44531</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>44728</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>45037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>43321</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>43332</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43335</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>43341</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43342</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>43349</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43350</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>43356</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         <v>43357</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43359</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43361</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>43363</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>43367</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>43368</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>43368</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>43369</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>43375</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         <v>43376</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>43384</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3635,7 +3635,7 @@
         <v>43396</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>43396</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>43396</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3806,7 +3806,7 @@
         <v>43397</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>43398</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>43398</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>43398</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>43398</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>43402</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>43403</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>43403</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>43405</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>43409</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>43410</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4443,7 +4443,7 @@
         <v>43410</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>43411</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43412</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>43413</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>43416</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>43416</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>43416</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>43417</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>43419</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>43419</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>43420</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>43420</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>43423</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>43424</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>43426</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>43430</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>43430</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>43431</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>43431</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>43434</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         <v>43434</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>43434</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>43437</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>43437</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5816,7 +5816,7 @@
         <v>43437</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>43438</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>43446</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5987,7 +5987,7 @@
         <v>43451</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6044,7 +6044,7 @@
         <v>43451</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>43451</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>43451</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6215,7 +6215,7 @@
         <v>43451</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>43451</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>43453</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         <v>43454</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6443,7 +6443,7 @@
         <v>43454</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6500,7 +6500,7 @@
         <v>43461</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6557,7 +6557,7 @@
         <v>43465</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6614,7 +6614,7 @@
         <v>43467</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6671,7 +6671,7 @@
         <v>43467</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
         <v>43468</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6785,7 +6785,7 @@
         <v>43473</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6842,7 +6842,7 @@
         <v>43475</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6899,7 +6899,7 @@
         <v>43475</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
         <v>43476</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7013,7 +7013,7 @@
         <v>43476</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7070,7 +7070,7 @@
         <v>43479</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7127,7 +7127,7 @@
         <v>43480</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7184,7 +7184,7 @@
         <v>43480</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7241,7 +7241,7 @@
         <v>43481</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7298,7 +7298,7 @@
         <v>43483</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7355,7 +7355,7 @@
         <v>43485</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7412,7 +7412,7 @@
         <v>43485</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7469,7 +7469,7 @@
         <v>43488</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         <v>43488</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>43488</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>43489</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7697,7 +7697,7 @@
         <v>43493</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>43493</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>43493</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>43493</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>43494</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>43496</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43497</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43497</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43500</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43501</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43508</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43508</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43508</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>43510</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8500,7 +8500,7 @@
         <v>43511</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>43516</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>43517</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         <v>43517</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>43518</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         <v>43521</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>43523</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         <v>43529</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>43529</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>43532</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9075,7 +9075,7 @@
         <v>43535</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9132,7 +9132,7 @@
         <v>43537</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         <v>43538</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9246,7 +9246,7 @@
         <v>43538</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9303,7 +9303,7 @@
         <v>43538</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>43538</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>43542</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9474,7 +9474,7 @@
         <v>43543</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>43546</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>43549</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9645,7 +9645,7 @@
         <v>43549</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9702,7 +9702,7 @@
         <v>43549</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>43567</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>43567</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>43571</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9930,7 +9930,7 @@
         <v>43572</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9987,7 +9987,7 @@
         <v>43573</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10044,7 +10044,7 @@
         <v>43580</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43584</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43587</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43592</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>43593</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43594</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>43594</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>43594</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43595</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         <v>43601</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10614,7 +10614,7 @@
         <v>43601</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10671,7 +10671,7 @@
         <v>43602</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10728,7 +10728,7 @@
         <v>43609</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10785,7 +10785,7 @@
         <v>43626</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10842,7 +10842,7 @@
         <v>43626</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>43626</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>43627</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>43640</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11075,7 +11075,7 @@
         <v>43644</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>43648</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11189,7 +11189,7 @@
         <v>43650</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11246,7 +11246,7 @@
         <v>43650</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11303,7 +11303,7 @@
         <v>43655</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11360,7 +11360,7 @@
         <v>43663</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11417,7 +11417,7 @@
         <v>43668</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11474,7 +11474,7 @@
         <v>43671</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11531,7 +11531,7 @@
         <v>43676</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11588,7 +11588,7 @@
         <v>43682</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11645,7 +11645,7 @@
         <v>43683</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11702,7 +11702,7 @@
         <v>43684</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11764,7 +11764,7 @@
         <v>43684</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11821,7 +11821,7 @@
         <v>43684</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11878,7 +11878,7 @@
         <v>43684</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11935,7 +11935,7 @@
         <v>43686</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11992,7 +11992,7 @@
         <v>43686</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12049,7 +12049,7 @@
         <v>43690</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12106,7 +12106,7 @@
         <v>43691</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         <v>43692</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12220,7 +12220,7 @@
         <v>43692</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12277,7 +12277,7 @@
         <v>43692</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         <v>43692</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         <v>43698</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12448,7 +12448,7 @@
         <v>43698</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12505,7 +12505,7 @@
         <v>43698</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12562,7 +12562,7 @@
         <v>43698</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         <v>43698</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12676,7 +12676,7 @@
         <v>43698</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12733,7 +12733,7 @@
         <v>43698</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12790,7 +12790,7 @@
         <v>43698</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12847,7 +12847,7 @@
         <v>43698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12904,7 +12904,7 @@
         <v>43698</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12961,7 +12961,7 @@
         <v>43698</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13018,7 +13018,7 @@
         <v>43698</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13075,7 +13075,7 @@
         <v>43698</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13132,7 +13132,7 @@
         <v>43699</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13189,7 +13189,7 @@
         <v>43701</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13246,7 +13246,7 @@
         <v>43701</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13303,7 +13303,7 @@
         <v>43706</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13360,7 +13360,7 @@
         <v>43710</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13417,7 +13417,7 @@
         <v>43710</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>43711</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13531,7 +13531,7 @@
         <v>43711</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         <v>43712</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
         <v>43712</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         <v>43712</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         <v>43712</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>43712</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>43712</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13935,7 +13935,7 @@
         <v>43718</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13992,7 +13992,7 @@
         <v>43718</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14049,7 +14049,7 @@
         <v>43719</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14106,7 +14106,7 @@
         <v>43719</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14163,7 +14163,7 @@
         <v>43719</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14220,7 +14220,7 @@
         <v>43720</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14277,7 +14277,7 @@
         <v>43720</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14334,7 +14334,7 @@
         <v>43721</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14391,7 +14391,7 @@
         <v>43727</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         <v>43732</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>43735</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14562,7 +14562,7 @@
         <v>43738</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14619,7 +14619,7 @@
         <v>43742</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14676,7 +14676,7 @@
         <v>43746</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14733,7 +14733,7 @@
         <v>43746</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14790,7 +14790,7 @@
         <v>43747</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14847,7 +14847,7 @@
         <v>43748</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14904,7 +14904,7 @@
         <v>43753</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14961,7 +14961,7 @@
         <v>43753</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>43754</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15075,7 +15075,7 @@
         <v>43756</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15132,7 +15132,7 @@
         <v>43760</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15189,7 +15189,7 @@
         <v>43760</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>43761</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15303,7 +15303,7 @@
         <v>43763</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>43763</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>43763</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>43766</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>43766</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>43770</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>43773</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>43774</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15759,7 +15759,7 @@
         <v>43775</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>43775</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15873,7 +15873,7 @@
         <v>43777</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>43782</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>43783</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>43783</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         <v>43788</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>43788</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16215,7 +16215,7 @@
         <v>43789</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>43790</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         <v>43812</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         <v>43812</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16443,7 +16443,7 @@
         <v>43817</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16500,7 +16500,7 @@
         <v>43818</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>43832</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>43832</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>43833</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16728,7 +16728,7 @@
         <v>43837</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16785,7 +16785,7 @@
         <v>43838</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>43838</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>43840</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>43844</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>43844</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>43845</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>43845</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>43849</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17241,7 +17241,7 @@
         <v>43850</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17298,7 +17298,7 @@
         <v>43852</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17355,7 +17355,7 @@
         <v>43852</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>43854</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>43867</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17526,7 +17526,7 @@
         <v>43867</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>43870</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>43870</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>43872</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>43875</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>43879</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>43887</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17925,7 +17925,7 @@
         <v>43887</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17982,7 +17982,7 @@
         <v>43889</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         <v>43889</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18096,7 +18096,7 @@
         <v>43889</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>43894</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18210,7 +18210,7 @@
         <v>43900</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18267,7 +18267,7 @@
         <v>43902</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18324,7 +18324,7 @@
         <v>43902</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18381,7 +18381,7 @@
         <v>43902</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
         <v>43902</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18495,7 +18495,7 @@
         <v>43907</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18552,7 +18552,7 @@
         <v>43907</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18609,7 +18609,7 @@
         <v>43907</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18666,7 +18666,7 @@
         <v>43907</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18723,7 +18723,7 @@
         <v>43913</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18780,7 +18780,7 @@
         <v>43914</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
         <v>43914</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18894,7 +18894,7 @@
         <v>43915</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18951,7 +18951,7 @@
         <v>43915</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19008,7 +19008,7 @@
         <v>43916</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19065,7 +19065,7 @@
         <v>43916</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19122,7 +19122,7 @@
         <v>43917</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19179,7 +19179,7 @@
         <v>43920</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19236,7 +19236,7 @@
         <v>43920</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19293,7 +19293,7 @@
         <v>43920</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19350,7 +19350,7 @@
         <v>43920</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19407,7 +19407,7 @@
         <v>43921</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19464,7 +19464,7 @@
         <v>43923</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19521,7 +19521,7 @@
         <v>43923</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19583,7 +19583,7 @@
         <v>43923</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19640,7 +19640,7 @@
         <v>43925</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19697,7 +19697,7 @@
         <v>43926</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19754,7 +19754,7 @@
         <v>43927</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19811,7 +19811,7 @@
         <v>43927</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19868,7 +19868,7 @@
         <v>43927</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19925,7 +19925,7 @@
         <v>43927</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>43935</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20039,7 +20039,7 @@
         <v>43937</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20096,7 +20096,7 @@
         <v>43937</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>43937</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20210,7 +20210,7 @@
         <v>43938</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20272,7 +20272,7 @@
         <v>43950</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>43977</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>43977</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20448,7 +20448,7 @@
         <v>43977</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20505,7 +20505,7 @@
         <v>43980</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20562,7 +20562,7 @@
         <v>43980</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20619,7 +20619,7 @@
         <v>43986</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20676,7 +20676,7 @@
         <v>43992</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20733,7 +20733,7 @@
         <v>43993</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20790,7 +20790,7 @@
         <v>44005</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         <v>44006</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20904,7 +20904,7 @@
         <v>44007</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20961,7 +20961,7 @@
         <v>44008</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21018,7 +21018,7 @@
         <v>44014</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21075,7 +21075,7 @@
         <v>44015</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21132,7 +21132,7 @@
         <v>44018</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21189,7 +21189,7 @@
         <v>44019</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21246,7 +21246,7 @@
         <v>44026</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21303,7 +21303,7 @@
         <v>44039</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21360,7 +21360,7 @@
         <v>44046</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21417,7 +21417,7 @@
         <v>44048</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21474,7 +21474,7 @@
         <v>44053</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21531,7 +21531,7 @@
         <v>44053</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
         <v>44053</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         <v>44054</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21702,7 +21702,7 @@
         <v>44055</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21759,7 +21759,7 @@
         <v>44055</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21816,7 +21816,7 @@
         <v>44055</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21873,7 +21873,7 @@
         <v>44055</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21930,7 +21930,7 @@
         <v>44057</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44060</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44060</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>44060</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>44062</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44062</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44062</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44071</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44074</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>44075</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>44080</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>44081</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>44083</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22671,7 +22671,7 @@
         <v>44088</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22728,7 +22728,7 @@
         <v>44088</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22785,7 +22785,7 @@
         <v>44090</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22842,7 +22842,7 @@
         <v>44090</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>44090</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22956,7 +22956,7 @@
         <v>44103</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         <v>44113</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>44113</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23127,7 +23127,7 @@
         <v>44120</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23184,7 +23184,7 @@
         <v>44120</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23241,7 +23241,7 @@
         <v>44123</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23298,7 +23298,7 @@
         <v>44124</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23355,7 +23355,7 @@
         <v>44124</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23412,7 +23412,7 @@
         <v>44125</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23469,7 +23469,7 @@
         <v>44127</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23526,7 +23526,7 @@
         <v>44131</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23583,7 +23583,7 @@
         <v>44132</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23640,7 +23640,7 @@
         <v>44132</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23697,7 +23697,7 @@
         <v>44132</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23754,7 +23754,7 @@
         <v>44132</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23811,7 +23811,7 @@
         <v>44132</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23868,7 +23868,7 @@
         <v>44133</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23925,7 +23925,7 @@
         <v>44139</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23982,7 +23982,7 @@
         <v>44139</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24039,7 +24039,7 @@
         <v>44140</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24096,7 +24096,7 @@
         <v>44140</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24153,7 +24153,7 @@
         <v>44140</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24210,7 +24210,7 @@
         <v>44144</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24267,7 +24267,7 @@
         <v>44146</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24324,7 +24324,7 @@
         <v>44146</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         <v>44152</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24438,7 +24438,7 @@
         <v>44153</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24495,7 +24495,7 @@
         <v>44154</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24552,7 +24552,7 @@
         <v>44166</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24609,7 +24609,7 @@
         <v>44167</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24666,7 +24666,7 @@
         <v>44169</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24723,7 +24723,7 @@
         <v>44174</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24780,7 +24780,7 @@
         <v>44179</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24837,7 +24837,7 @@
         <v>44179</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24894,7 +24894,7 @@
         <v>44186</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24951,7 +24951,7 @@
         <v>44188</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25008,7 +25008,7 @@
         <v>44188</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25065,7 +25065,7 @@
         <v>44200</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25122,7 +25122,7 @@
         <v>44202</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25179,7 +25179,7 @@
         <v>44204</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25236,7 +25236,7 @@
         <v>44204</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25293,7 +25293,7 @@
         <v>44204</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25350,7 +25350,7 @@
         <v>44207</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25407,7 +25407,7 @@
         <v>44208</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25464,7 +25464,7 @@
         <v>44208</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25521,7 +25521,7 @@
         <v>44208</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>44209</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         <v>44211</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>44217</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         <v>44222</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25806,7 +25806,7 @@
         <v>44223</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25863,7 +25863,7 @@
         <v>44225</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25920,7 +25920,7 @@
         <v>44225</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25977,7 +25977,7 @@
         <v>44225</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>44230</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>44235</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>44235</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>44235</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>44235</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>44241</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26376,7 +26376,7 @@
         <v>44253</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26433,7 +26433,7 @@
         <v>44256</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26490,7 +26490,7 @@
         <v>44257</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26547,7 +26547,7 @@
         <v>44259</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26604,7 +26604,7 @@
         <v>44259</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26661,7 +26661,7 @@
         <v>44267</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26718,7 +26718,7 @@
         <v>44267</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26775,7 +26775,7 @@
         <v>44270</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26832,7 +26832,7 @@
         <v>44275</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26889,7 +26889,7 @@
         <v>44279</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         <v>44281</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27003,7 +27003,7 @@
         <v>44284</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27060,7 +27060,7 @@
         <v>44284</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27117,7 +27117,7 @@
         <v>44284</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27174,7 +27174,7 @@
         <v>44285</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27231,7 +27231,7 @@
         <v>44286</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27288,7 +27288,7 @@
         <v>44292</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27345,7 +27345,7 @@
         <v>44300</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27402,7 +27402,7 @@
         <v>44300</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27464,7 +27464,7 @@
         <v>44302</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27521,7 +27521,7 @@
         <v>44302</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27578,7 +27578,7 @@
         <v>44302</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27635,7 +27635,7 @@
         <v>44302</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27692,7 +27692,7 @@
         <v>44305</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27749,7 +27749,7 @@
         <v>44305</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27806,7 +27806,7 @@
         <v>44305</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27863,7 +27863,7 @@
         <v>44306</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27920,7 +27920,7 @@
         <v>44309</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27977,7 +27977,7 @@
         <v>44323</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28034,7 +28034,7 @@
         <v>44323</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28091,7 +28091,7 @@
         <v>44325</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28148,7 +28148,7 @@
         <v>44327</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28205,7 +28205,7 @@
         <v>44333</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28262,7 +28262,7 @@
         <v>44342</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28319,7 +28319,7 @@
         <v>44342</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28376,7 +28376,7 @@
         <v>44342</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28433,7 +28433,7 @@
         <v>44342</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28490,7 +28490,7 @@
         <v>44343</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28547,7 +28547,7 @@
         <v>44349</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28604,7 +28604,7 @@
         <v>44350</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28661,7 +28661,7 @@
         <v>44350</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28718,7 +28718,7 @@
         <v>44350</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28775,7 +28775,7 @@
         <v>44354</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28832,7 +28832,7 @@
         <v>44356</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28889,7 +28889,7 @@
         <v>44364</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         <v>44365</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29003,7 +29003,7 @@
         <v>44365</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29060,7 +29060,7 @@
         <v>44368</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29117,7 +29117,7 @@
         <v>44375</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29174,7 +29174,7 @@
         <v>44383</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29231,7 +29231,7 @@
         <v>44384</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29288,7 +29288,7 @@
         <v>44384</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29345,7 +29345,7 @@
         <v>44391</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29402,7 +29402,7 @@
         <v>44391</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29459,7 +29459,7 @@
         <v>44397</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29516,7 +29516,7 @@
         <v>44398</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29573,7 +29573,7 @@
         <v>44399</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29630,7 +29630,7 @@
         <v>44399</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29687,7 +29687,7 @@
         <v>44406</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29744,7 +29744,7 @@
         <v>44411</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29801,7 +29801,7 @@
         <v>44411</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29858,7 +29858,7 @@
         <v>44420</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29915,7 +29915,7 @@
         <v>44420</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29972,7 +29972,7 @@
         <v>44421</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30029,7 +30029,7 @@
         <v>44424</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30086,7 +30086,7 @@
         <v>44425</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30143,7 +30143,7 @@
         <v>44433</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30200,7 +30200,7 @@
         <v>44435</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30257,7 +30257,7 @@
         <v>44435</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30314,7 +30314,7 @@
         <v>44440</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30371,7 +30371,7 @@
         <v>44440</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30433,7 +30433,7 @@
         <v>44441</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30490,7 +30490,7 @@
         <v>44441</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         <v>44441</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30604,7 +30604,7 @@
         <v>44442</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30661,7 +30661,7 @@
         <v>44447</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30718,7 +30718,7 @@
         <v>44449</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30775,7 +30775,7 @@
         <v>44452</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30832,7 +30832,7 @@
         <v>44452</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30889,7 +30889,7 @@
         <v>44458</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         <v>44461</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31003,7 +31003,7 @@
         <v>44461</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31060,7 +31060,7 @@
         <v>44462</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31117,7 +31117,7 @@
         <v>44466</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31174,7 +31174,7 @@
         <v>44468</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31231,7 +31231,7 @@
         <v>44473</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31288,7 +31288,7 @@
         <v>44476</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31345,7 +31345,7 @@
         <v>44481</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31402,7 +31402,7 @@
         <v>44491</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31459,7 +31459,7 @@
         <v>44496</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31516,7 +31516,7 @@
         <v>44496</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31573,7 +31573,7 @@
         <v>44497</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31630,7 +31630,7 @@
         <v>44498</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31687,7 +31687,7 @@
         <v>44502</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31744,7 +31744,7 @@
         <v>44503</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31801,7 +31801,7 @@
         <v>44503</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31858,7 +31858,7 @@
         <v>44512</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         <v>44515</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31972,7 +31972,7 @@
         <v>44516</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32029,7 +32029,7 @@
         <v>44517</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32086,7 +32086,7 @@
         <v>44523</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32143,7 +32143,7 @@
         <v>44529</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32200,7 +32200,7 @@
         <v>44530</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32257,7 +32257,7 @@
         <v>44539</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32314,7 +32314,7 @@
         <v>44543</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32371,7 +32371,7 @@
         <v>44551</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32428,7 +32428,7 @@
         <v>44553</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32485,7 +32485,7 @@
         <v>44559</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32542,7 +32542,7 @@
         <v>44572</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32599,7 +32599,7 @@
         <v>44572</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32656,7 +32656,7 @@
         <v>44578</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32713,7 +32713,7 @@
         <v>44579</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32770,7 +32770,7 @@
         <v>44584</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32827,7 +32827,7 @@
         <v>44585</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32884,7 +32884,7 @@
         <v>44585</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32941,7 +32941,7 @@
         <v>44586</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -32998,7 +32998,7 @@
         <v>44588</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33055,7 +33055,7 @@
         <v>44592</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33112,7 +33112,7 @@
         <v>44595</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33169,7 +33169,7 @@
         <v>44596</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33231,7 +33231,7 @@
         <v>44596</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33288,7 +33288,7 @@
         <v>44599</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33345,7 +33345,7 @@
         <v>44600</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33402,7 +33402,7 @@
         <v>44608</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33459,7 +33459,7 @@
         <v>44614</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33516,7 +33516,7 @@
         <v>44616</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33573,7 +33573,7 @@
         <v>44617</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33630,7 +33630,7 @@
         <v>44619</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33687,7 +33687,7 @@
         <v>44619</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33744,7 +33744,7 @@
         <v>44620</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33801,7 +33801,7 @@
         <v>44620</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33858,7 +33858,7 @@
         <v>44621</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33915,7 +33915,7 @@
         <v>44623</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -33972,7 +33972,7 @@
         <v>44624</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34029,7 +34029,7 @@
         <v>44624</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34086,7 +34086,7 @@
         <v>44628</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34143,7 +34143,7 @@
         <v>44629</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34200,7 +34200,7 @@
         <v>44629</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34257,7 +34257,7 @@
         <v>44636</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34314,7 +34314,7 @@
         <v>44636</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34371,7 +34371,7 @@
         <v>44637</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34428,7 +34428,7 @@
         <v>44644</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34485,7 +34485,7 @@
         <v>44657</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34542,7 +34542,7 @@
         <v>44663</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34599,7 +34599,7 @@
         <v>44670</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34656,7 +34656,7 @@
         <v>44672</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34713,7 +34713,7 @@
         <v>44686</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34770,7 +34770,7 @@
         <v>44687</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34827,7 +34827,7 @@
         <v>44687</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34884,7 +34884,7 @@
         <v>44693</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -34941,7 +34941,7 @@
         <v>44696</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -34998,7 +34998,7 @@
         <v>44698</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35055,7 +35055,7 @@
         <v>44700</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35112,7 +35112,7 @@
         <v>44705</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35169,7 +35169,7 @@
         <v>44706</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35226,7 +35226,7 @@
         <v>44706</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35283,7 +35283,7 @@
         <v>44710</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35340,7 +35340,7 @@
         <v>44711</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35397,7 +35397,7 @@
         <v>44720</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35454,7 +35454,7 @@
         <v>44725</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35511,7 +35511,7 @@
         <v>44742</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35568,7 +35568,7 @@
         <v>44742</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35625,7 +35625,7 @@
         <v>44742</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35682,7 +35682,7 @@
         <v>44742</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35739,7 +35739,7 @@
         <v>44747</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35796,7 +35796,7 @@
         <v>44747</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35853,7 +35853,7 @@
         <v>44748</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -35910,7 +35910,7 @@
         <v>44753</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -35967,7 +35967,7 @@
         <v>44754</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36024,7 +36024,7 @@
         <v>44754</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36081,7 +36081,7 @@
         <v>44757</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36138,7 +36138,7 @@
         <v>44757</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36195,7 +36195,7 @@
         <v>44767</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36252,7 +36252,7 @@
         <v>44799</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36309,7 +36309,7 @@
         <v>44806</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36366,7 +36366,7 @@
         <v>44812</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36423,7 +36423,7 @@
         <v>44820</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36480,7 +36480,7 @@
         <v>44820</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36537,7 +36537,7 @@
         <v>44825</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36594,7 +36594,7 @@
         <v>44826</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36651,7 +36651,7 @@
         <v>44832</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36708,7 +36708,7 @@
         <v>44832</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36765,7 +36765,7 @@
         <v>44837</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -36822,7 +36822,7 @@
         <v>44844</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -36879,7 +36879,7 @@
         <v>44845</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -36936,7 +36936,7 @@
         <v>44847</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -36993,7 +36993,7 @@
         <v>44847</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37050,7 +37050,7 @@
         <v>44847</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37107,7 +37107,7 @@
         <v>44856</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37164,7 +37164,7 @@
         <v>44858</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37221,7 +37221,7 @@
         <v>44858</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37278,7 +37278,7 @@
         <v>44860</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37335,7 +37335,7 @@
         <v>44860</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37392,7 +37392,7 @@
         <v>44860</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37449,7 +37449,7 @@
         <v>44862</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37506,7 +37506,7 @@
         <v>44865</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37563,7 +37563,7 @@
         <v>44866</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37620,7 +37620,7 @@
         <v>44866</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37677,7 +37677,7 @@
         <v>44867</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37734,7 +37734,7 @@
         <v>44874</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -37791,7 +37791,7 @@
         <v>44874</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -37848,7 +37848,7 @@
         <v>44874</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -37905,7 +37905,7 @@
         <v>44875</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -37962,7 +37962,7 @@
         <v>44879</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38019,7 +38019,7 @@
         <v>44881</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38076,7 +38076,7 @@
         <v>44890</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38133,7 +38133,7 @@
         <v>44893</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38190,7 +38190,7 @@
         <v>44893</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38247,7 +38247,7 @@
         <v>44893</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38304,7 +38304,7 @@
         <v>44903</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38361,7 +38361,7 @@
         <v>44909</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38418,7 +38418,7 @@
         <v>44911</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38475,7 +38475,7 @@
         <v>44911</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38532,7 +38532,7 @@
         <v>44920</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38589,7 +38589,7 @@
         <v>44930</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38646,7 +38646,7 @@
         <v>44930</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38703,7 +38703,7 @@
         <v>44936</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38760,7 +38760,7 @@
         <v>44939</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -38817,7 +38817,7 @@
         <v>44942</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -38874,7 +38874,7 @@
         <v>44950</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -38931,7 +38931,7 @@
         <v>44951</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -38988,7 +38988,7 @@
         <v>44952</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39045,7 +39045,7 @@
         <v>44957</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39102,7 +39102,7 @@
         <v>44958</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39159,7 +39159,7 @@
         <v>44967</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39216,7 +39216,7 @@
         <v>44967</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39273,7 +39273,7 @@
         <v>44970</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39330,7 +39330,7 @@
         <v>44981</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39387,7 +39387,7 @@
         <v>44981</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39444,7 +39444,7 @@
         <v>44984</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39501,7 +39501,7 @@
         <v>44986</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39558,7 +39558,7 @@
         <v>44988</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39615,7 +39615,7 @@
         <v>44988</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39672,7 +39672,7 @@
         <v>44988</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39729,7 +39729,7 @@
         <v>44988</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -39786,7 +39786,7 @@
         <v>44998</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -39843,7 +39843,7 @@
         <v>45001</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -39900,7 +39900,7 @@
         <v>45004</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -39957,7 +39957,7 @@
         <v>45005</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40014,7 +40014,7 @@
         <v>45012</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40071,7 +40071,7 @@
         <v>45012</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40128,7 +40128,7 @@
         <v>45012</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40185,7 +40185,7 @@
         <v>45012</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40242,7 +40242,7 @@
         <v>45015</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40299,7 +40299,7 @@
         <v>45016</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40356,7 +40356,7 @@
         <v>45019</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40413,7 +40413,7 @@
         <v>45019</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40470,7 +40470,7 @@
         <v>45020</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40527,7 +40527,7 @@
         <v>45027</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40584,7 +40584,7 @@
         <v>45027</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40641,7 +40641,7 @@
         <v>45027</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40698,7 +40698,7 @@
         <v>45028</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40755,7 +40755,7 @@
         <v>45030</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -40812,7 +40812,7 @@
         <v>45034</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -40869,7 +40869,7 @@
         <v>45034</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -40926,7 +40926,7 @@
         <v>45035</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -40983,7 +40983,7 @@
         <v>45035</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41040,7 +41040,7 @@
         <v>45037</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41097,7 +41097,7 @@
         <v>45040</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41154,7 +41154,7 @@
         <v>45040</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41211,7 +41211,7 @@
         <v>45042</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41268,7 +41268,7 @@
         <v>45048</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41325,7 +41325,7 @@
         <v>45048</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41382,7 +41382,7 @@
         <v>45050</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41439,7 +41439,7 @@
         <v>45050</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41496,7 +41496,7 @@
         <v>45050</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41553,7 +41553,7 @@
         <v>45050</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41610,7 +41610,7 @@
         <v>45055</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41667,7 +41667,7 @@
         <v>45056</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41724,7 +41724,7 @@
         <v>45057</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -41781,7 +41781,7 @@
         <v>45057</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -41838,7 +41838,7 @@
         <v>45057</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -41895,7 +41895,7 @@
         <v>45057</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -41952,7 +41952,7 @@
         <v>45058</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42009,7 +42009,7 @@
         <v>45065</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42066,7 +42066,7 @@
         <v>45069</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42123,7 +42123,7 @@
         <v>45069</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42180,7 +42180,7 @@
         <v>45070</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42237,7 +42237,7 @@
         <v>45070</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42294,7 +42294,7 @@
         <v>45070</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42351,7 +42351,7 @@
         <v>45070</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42408,7 +42408,7 @@
         <v>45075</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42465,7 +42465,7 @@
         <v>45076</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42522,7 +42522,7 @@
         <v>45076</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42579,7 +42579,7 @@
         <v>45077</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42636,7 +42636,7 @@
         <v>45079</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42693,7 +42693,7 @@
         <v>45080</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -42750,7 +42750,7 @@
         <v>45080</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -42807,7 +42807,7 @@
         <v>45082</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -42864,7 +42864,7 @@
         <v>45084</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -42921,7 +42921,7 @@
         <v>45085</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -42978,7 +42978,7 @@
         <v>45085</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43035,7 +43035,7 @@
         <v>45085</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43092,7 +43092,7 @@
         <v>45085</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43149,7 +43149,7 @@
         <v>45085</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43206,7 +43206,7 @@
         <v>45089</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43263,7 +43263,7 @@
         <v>45090</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43320,7 +43320,7 @@
         <v>45091</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43377,7 +43377,7 @@
         <v>45091</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43434,7 +43434,7 @@
         <v>45092</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43491,7 +43491,7 @@
         <v>45092</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -43548,7 +43548,7 @@
         <v>45092</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -43605,7 +43605,7 @@
         <v>45092</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -43662,7 +43662,7 @@
         <v>45093</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -43719,7 +43719,7 @@
         <v>45094</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -43776,7 +43776,7 @@
         <v>45097</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -43833,7 +43833,7 @@
         <v>45098</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -43890,7 +43890,7 @@
         <v>45098</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -43947,7 +43947,7 @@
         <v>45106</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44004,7 +44004,7 @@
         <v>45106</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44061,7 +44061,7 @@
         <v>45106</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44118,7 +44118,7 @@
         <v>45106</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44175,7 +44175,7 @@
         <v>45106</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44232,7 +44232,7 @@
         <v>45107</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44289,7 +44289,7 @@
         <v>45107</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44346,7 +44346,7 @@
         <v>45107</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44403,7 +44403,7 @@
         <v>45108</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44460,7 +44460,7 @@
         <v>45113</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -44517,7 +44517,7 @@
         <v>45113</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -44574,7 +44574,7 @@
         <v>45119</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -44631,7 +44631,7 @@
         <v>45125</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -44688,7 +44688,7 @@
         <v>45127</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -44745,7 +44745,7 @@
         <v>45127</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -44802,7 +44802,7 @@
         <v>45127</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -44859,7 +44859,7 @@
         <v>45132</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -44916,7 +44916,7 @@
         <v>45140</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -44973,7 +44973,7 @@
         <v>45142</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45030,7 +45030,7 @@
         <v>45142</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45087,7 +45087,7 @@
         <v>45142</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45144,7 +45144,7 @@
         <v>45147</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45201,7 +45201,7 @@
         <v>45148</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45258,7 +45258,7 @@
         <v>45155</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45315,7 +45315,7 @@
         <v>45155</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45372,7 +45372,7 @@
         <v>45159</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -45429,7 +45429,7 @@
         <v>45159</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -45486,7 +45486,7 @@
         <v>45162</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -45543,7 +45543,7 @@
         <v>45162</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -45600,7 +45600,7 @@
         <v>45163</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -45657,7 +45657,7 @@
         <v>45169</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -45714,7 +45714,7 @@
         <v>45170</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -45771,7 +45771,7 @@
         <v>45170</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -45828,7 +45828,7 @@
         <v>45180</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -45885,7 +45885,7 @@
         <v>45180</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -45942,7 +45942,7 @@
         <v>45181</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>

--- a/Översikt KARLSKRONA.xlsx
+++ b/Översikt KARLSKRONA.xlsx
@@ -572,7 +572,7 @@
         <v>45051</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -632,27 +632,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/artfynd/A 19680-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/artfynd/A 19680-2023.xlsx", "A 19680-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/kartor/A 19680-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/kartor/A 19680-2023.png", "A 19680-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomål/A 19680-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomål/A 19680-2023.docx", "A 19680-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomålsmail/A 19680-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomålsmail/A 19680-2023.docx", "A 19680-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsyn/A 19680-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsyn/A 19680-2023.docx", "A 19680-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsynsmail/A 19680-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsynsmail/A 19680-2023.docx", "A 19680-2023")</f>
         <v/>
       </c>
     </row>
@@ -666,7 +666,7 @@
         <v>43640</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -720,27 +720,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/artfynd/A 31033-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/artfynd/A 31033-2019.xlsx", "A 31033-2019")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/kartor/A 31033-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/kartor/A 31033-2019.png", "A 31033-2019")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomål/A 31033-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomål/A 31033-2019.docx", "A 31033-2019")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomålsmail/A 31033-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomålsmail/A 31033-2019.docx", "A 31033-2019")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsyn/A 31033-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsyn/A 31033-2019.docx", "A 31033-2019")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsynsmail/A 31033-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsynsmail/A 31033-2019.docx", "A 31033-2019")</f>
         <v/>
       </c>
     </row>
@@ -754,7 +754,7 @@
         <v>44509</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -807,27 +807,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/artfynd/A 63862-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/artfynd/A 63862-2021.xlsx", "A 63862-2021")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/kartor/A 63862-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/kartor/A 63862-2021.png", "A 63862-2021")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomål/A 63862-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomål/A 63862-2021.docx", "A 63862-2021")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomålsmail/A 63862-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomålsmail/A 63862-2021.docx", "A 63862-2021")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsyn/A 63862-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsyn/A 63862-2021.docx", "A 63862-2021")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsynsmail/A 63862-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsynsmail/A 63862-2021.docx", "A 63862-2021")</f>
         <v/>
       </c>
     </row>
@@ -841,7 +841,7 @@
         <v>45101</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -894,27 +894,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/artfynd/A 28411-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/artfynd/A 28411-2023.xlsx", "A 28411-2023")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/kartor/A 28411-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/kartor/A 28411-2023.png", "A 28411-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomål/A 28411-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomål/A 28411-2023.docx", "A 28411-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomålsmail/A 28411-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomålsmail/A 28411-2023.docx", "A 28411-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsyn/A 28411-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsyn/A 28411-2023.docx", "A 28411-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsynsmail/A 28411-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsynsmail/A 28411-2023.docx", "A 28411-2023")</f>
         <v/>
       </c>
     </row>
@@ -928,7 +928,7 @@
         <v>43315</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -980,27 +980,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/artfynd/A 34185-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/artfynd/A 34185-2018.xlsx", "A 34185-2018")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/kartor/A 34185-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/kartor/A 34185-2018.png", "A 34185-2018")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomål/A 34185-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomål/A 34185-2018.docx", "A 34185-2018")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomålsmail/A 34185-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomålsmail/A 34185-2018.docx", "A 34185-2018")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsyn/A 34185-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsyn/A 34185-2018.docx", "A 34185-2018")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsynsmail/A 34185-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsynsmail/A 34185-2018.docx", "A 34185-2018")</f>
         <v/>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
         <v>43843</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1066,27 +1066,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/artfynd/A 2815-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/artfynd/A 2815-2020.xlsx", "A 2815-2020")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/kartor/A 2815-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/kartor/A 2815-2020.png", "A 2815-2020")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomål/A 2815-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomål/A 2815-2020.docx", "A 2815-2020")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomålsmail/A 2815-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomålsmail/A 2815-2020.docx", "A 2815-2020")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsyn/A 2815-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsyn/A 2815-2020.docx", "A 2815-2020")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsynsmail/A 2815-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsynsmail/A 2815-2020.docx", "A 2815-2020")</f>
         <v/>
       </c>
     </row>
@@ -1100,7 +1100,7 @@
         <v>44960</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1152,27 +1152,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/artfynd/A 5556-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/artfynd/A 5556-2023.xlsx", "A 5556-2023")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/kartor/A 5556-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/kartor/A 5556-2023.png", "A 5556-2023")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomål/A 5556-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomål/A 5556-2023.docx", "A 5556-2023")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomålsmail/A 5556-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomålsmail/A 5556-2023.docx", "A 5556-2023")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsyn/A 5556-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsyn/A 5556-2023.docx", "A 5556-2023")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsynsmail/A 5556-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsynsmail/A 5556-2023.docx", "A 5556-2023")</f>
         <v/>
       </c>
     </row>
@@ -1186,7 +1186,7 @@
         <v>45027</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1238,27 +1238,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/artfynd/A 16176-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/artfynd/A 16176-2023.xlsx", "A 16176-2023")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/kartor/A 16176-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/kartor/A 16176-2023.png", "A 16176-2023")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomål/A 16176-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomål/A 16176-2023.docx", "A 16176-2023")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomålsmail/A 16176-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomålsmail/A 16176-2023.docx", "A 16176-2023")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsyn/A 16176-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsyn/A 16176-2023.docx", "A 16176-2023")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsynsmail/A 16176-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsynsmail/A 16176-2023.docx", "A 16176-2023")</f>
         <v/>
       </c>
     </row>
@@ -1272,7 +1272,7 @@
         <v>43356</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1323,27 +1323,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/artfynd/A 44529-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/artfynd/A 44529-2018.xlsx", "A 44529-2018")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/kartor/A 44529-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/kartor/A 44529-2018.png", "A 44529-2018")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomål/A 44529-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomål/A 44529-2018.docx", "A 44529-2018")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomålsmail/A 44529-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomålsmail/A 44529-2018.docx", "A 44529-2018")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsyn/A 44529-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsyn/A 44529-2018.docx", "A 44529-2018")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsynsmail/A 44529-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsynsmail/A 44529-2018.docx", "A 44529-2018")</f>
         <v/>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
         <v>43447</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1408,27 +1408,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/artfynd/A 70663-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/artfynd/A 70663-2018.xlsx", "A 70663-2018")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/kartor/A 70663-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/kartor/A 70663-2018.png", "A 70663-2018")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomål/A 70663-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomål/A 70663-2018.docx", "A 70663-2018")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomålsmail/A 70663-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomålsmail/A 70663-2018.docx", "A 70663-2018")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsyn/A 70663-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsyn/A 70663-2018.docx", "A 70663-2018")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsynsmail/A 70663-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsynsmail/A 70663-2018.docx", "A 70663-2018")</f>
         <v/>
       </c>
     </row>
@@ -1442,7 +1442,7 @@
         <v>43963</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1493,27 +1493,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/artfynd/A 22438-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/artfynd/A 22438-2020.xlsx", "A 22438-2020")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/kartor/A 22438-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/kartor/A 22438-2020.png", "A 22438-2020")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomål/A 22438-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomål/A 22438-2020.docx", "A 22438-2020")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomålsmail/A 22438-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomålsmail/A 22438-2020.docx", "A 22438-2020")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsyn/A 22438-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsyn/A 22438-2020.docx", "A 22438-2020")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsynsmail/A 22438-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsynsmail/A 22438-2020.docx", "A 22438-2020")</f>
         <v/>
       </c>
     </row>
@@ -1527,7 +1527,7 @@
         <v>44021</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1578,27 +1578,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/artfynd/A 33062-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/artfynd/A 33062-2020.xlsx", "A 33062-2020")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/kartor/A 33062-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/kartor/A 33062-2020.png", "A 33062-2020")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomål/A 33062-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomål/A 33062-2020.docx", "A 33062-2020")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomålsmail/A 33062-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomålsmail/A 33062-2020.docx", "A 33062-2020")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsyn/A 33062-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsyn/A 33062-2020.docx", "A 33062-2020")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsynsmail/A 33062-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsynsmail/A 33062-2020.docx", "A 33062-2020")</f>
         <v/>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
         <v>44132</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1663,27 +1663,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/artfynd/A 55714-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/artfynd/A 55714-2020.xlsx", "A 55714-2020")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/kartor/A 55714-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/kartor/A 55714-2020.png", "A 55714-2020")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomål/A 55714-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomål/A 55714-2020.docx", "A 55714-2020")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomålsmail/A 55714-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomålsmail/A 55714-2020.docx", "A 55714-2020")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsyn/A 55714-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsyn/A 55714-2020.docx", "A 55714-2020")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsynsmail/A 55714-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsynsmail/A 55714-2020.docx", "A 55714-2020")</f>
         <v/>
       </c>
     </row>
@@ -1697,7 +1697,7 @@
         <v>44139</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1748,27 +1748,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/artfynd/A 57181-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/artfynd/A 57181-2020.xlsx", "A 57181-2020")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/kartor/A 57181-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/kartor/A 57181-2020.png", "A 57181-2020")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomål/A 57181-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomål/A 57181-2020.docx", "A 57181-2020")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomålsmail/A 57181-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomålsmail/A 57181-2020.docx", "A 57181-2020")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsyn/A 57181-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsyn/A 57181-2020.docx", "A 57181-2020")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsynsmail/A 57181-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsynsmail/A 57181-2020.docx", "A 57181-2020")</f>
         <v/>
       </c>
     </row>
@@ -1782,7 +1782,7 @@
         <v>44139</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1833,27 +1833,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/artfynd/A 58803-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/artfynd/A 58803-2020.xlsx", "A 58803-2020")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/kartor/A 58803-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/kartor/A 58803-2020.png", "A 58803-2020")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomål/A 58803-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomål/A 58803-2020.docx", "A 58803-2020")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomålsmail/A 58803-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomålsmail/A 58803-2020.docx", "A 58803-2020")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsyn/A 58803-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsyn/A 58803-2020.docx", "A 58803-2020")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsynsmail/A 58803-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsynsmail/A 58803-2020.docx", "A 58803-2020")</f>
         <v/>
       </c>
     </row>
@@ -1867,7 +1867,7 @@
         <v>44140</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1918,27 +1918,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/artfynd/A 57676-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/artfynd/A 57676-2020.xlsx", "A 57676-2020")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/kartor/A 57676-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/kartor/A 57676-2020.png", "A 57676-2020")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomål/A 57676-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomål/A 57676-2020.docx", "A 57676-2020")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomålsmail/A 57676-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomålsmail/A 57676-2020.docx", "A 57676-2020")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsyn/A 57676-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsyn/A 57676-2020.docx", "A 57676-2020")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsynsmail/A 57676-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsynsmail/A 57676-2020.docx", "A 57676-2020")</f>
         <v/>
       </c>
     </row>
@@ -1952,7 +1952,7 @@
         <v>44159</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2003,27 +2003,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/artfynd/A 61898-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/artfynd/A 61898-2020.xlsx", "A 61898-2020")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/kartor/A 61898-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/kartor/A 61898-2020.png", "A 61898-2020")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomål/A 61898-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomål/A 61898-2020.docx", "A 61898-2020")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomålsmail/A 61898-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomålsmail/A 61898-2020.docx", "A 61898-2020")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsyn/A 61898-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsyn/A 61898-2020.docx", "A 61898-2020")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsynsmail/A 61898-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsynsmail/A 61898-2020.docx", "A 61898-2020")</f>
         <v/>
       </c>
     </row>
@@ -2037,7 +2037,7 @@
         <v>44237</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2088,27 +2088,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/artfynd/A 6932-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/artfynd/A 6932-2021.xlsx", "A 6932-2021")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/kartor/A 6932-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/kartor/A 6932-2021.png", "A 6932-2021")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomål/A 6932-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomål/A 6932-2021.docx", "A 6932-2021")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomålsmail/A 6932-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomålsmail/A 6932-2021.docx", "A 6932-2021")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsyn/A 6932-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsyn/A 6932-2021.docx", "A 6932-2021")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsynsmail/A 6932-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsynsmail/A 6932-2021.docx", "A 6932-2021")</f>
         <v/>
       </c>
     </row>
@@ -2122,7 +2122,7 @@
         <v>44445</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2173,27 +2173,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/artfynd/A 46709-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/artfynd/A 46709-2021.xlsx", "A 46709-2021")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/kartor/A 46709-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/kartor/A 46709-2021.png", "A 46709-2021")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomål/A 46709-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomål/A 46709-2021.docx", "A 46709-2021")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomålsmail/A 46709-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomålsmail/A 46709-2021.docx", "A 46709-2021")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsyn/A 46709-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsyn/A 46709-2021.docx", "A 46709-2021")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsynsmail/A 46709-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsynsmail/A 46709-2021.docx", "A 46709-2021")</f>
         <v/>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
         <v>44467</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2258,27 +2258,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/artfynd/A 52837-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/artfynd/A 52837-2021.xlsx", "A 52837-2021")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/kartor/A 52837-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/kartor/A 52837-2021.png", "A 52837-2021")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomål/A 52837-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomål/A 52837-2021.docx", "A 52837-2021")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomålsmail/A 52837-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomålsmail/A 52837-2021.docx", "A 52837-2021")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsyn/A 52837-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsyn/A 52837-2021.docx", "A 52837-2021")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsynsmail/A 52837-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsynsmail/A 52837-2021.docx", "A 52837-2021")</f>
         <v/>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
         <v>44531</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2343,27 +2343,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/artfynd/A 69282-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/artfynd/A 69282-2021.xlsx", "A 69282-2021")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/kartor/A 69282-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/kartor/A 69282-2021.png", "A 69282-2021")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomål/A 69282-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomål/A 69282-2021.docx", "A 69282-2021")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomålsmail/A 69282-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomålsmail/A 69282-2021.docx", "A 69282-2021")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsyn/A 69282-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsyn/A 69282-2021.docx", "A 69282-2021")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsynsmail/A 69282-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsynsmail/A 69282-2021.docx", "A 69282-2021")</f>
         <v/>
       </c>
     </row>
@@ -2377,7 +2377,7 @@
         <v>44728</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2428,27 +2428,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/artfynd/A 24816-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/artfynd/A 24816-2022.xlsx", "A 24816-2022")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/kartor/A 24816-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/kartor/A 24816-2022.png", "A 24816-2022")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomål/A 24816-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomål/A 24816-2022.docx", "A 24816-2022")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomålsmail/A 24816-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomålsmail/A 24816-2022.docx", "A 24816-2022")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsyn/A 24816-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsyn/A 24816-2022.docx", "A 24816-2022")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsynsmail/A 24816-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsynsmail/A 24816-2022.docx", "A 24816-2022")</f>
         <v/>
       </c>
     </row>
@@ -2462,7 +2462,7 @@
         <v>45037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2518,27 +2518,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/artfynd/A 17849-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/artfynd/A 17849-2023.xlsx", "A 17849-2023")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/kartor/A 17849-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/kartor/A 17849-2023.png", "A 17849-2023")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomål/A 17849-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomål/A 17849-2023.docx", "A 17849-2023")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomålsmail/A 17849-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/klagomålsmail/A 17849-2023.docx", "A 17849-2023")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsyn/A 17849-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsyn/A 17849-2023.docx", "A 17849-2023")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsynsmail/A 17849-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKRONA/tillsynsmail/A 17849-2023.docx", "A 17849-2023")</f>
         <v/>
       </c>
     </row>
@@ -2552,7 +2552,7 @@
         <v>43321</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>43332</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43335</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>43341</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43342</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>43349</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43350</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>43356</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         <v>43357</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43359</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43361</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>43363</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>43367</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>43368</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>43368</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>43369</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>43375</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         <v>43376</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>43384</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3635,7 +3635,7 @@
         <v>43396</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>43396</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>43396</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3806,7 +3806,7 @@
         <v>43397</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>43398</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>43398</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>43398</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>43398</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>43402</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>43403</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>43403</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>43405</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>43409</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>43410</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4443,7 +4443,7 @@
         <v>43410</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>43411</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43412</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>43413</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>43416</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>43416</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>43416</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>43417</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>43419</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>43419</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>43420</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>43420</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>43423</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>43424</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>43426</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>43430</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>43430</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>43431</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>43431</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>43434</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         <v>43434</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>43434</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>43437</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>43437</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5816,7 +5816,7 @@
         <v>43437</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>43438</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>43446</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5987,7 +5987,7 @@
         <v>43451</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6044,7 +6044,7 @@
         <v>43451</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>43451</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>43451</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6215,7 +6215,7 @@
         <v>43451</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>43451</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>43453</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         <v>43454</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6443,7 +6443,7 @@
         <v>43454</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6500,7 +6500,7 @@
         <v>43461</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6557,7 +6557,7 @@
         <v>43465</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6614,7 +6614,7 @@
         <v>43467</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6671,7 +6671,7 @@
         <v>43467</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
         <v>43468</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6785,7 +6785,7 @@
         <v>43473</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6842,7 +6842,7 @@
         <v>43475</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6899,7 +6899,7 @@
         <v>43475</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
         <v>43476</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7013,7 +7013,7 @@
         <v>43476</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7070,7 +7070,7 @@
         <v>43479</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7127,7 +7127,7 @@
         <v>43480</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7184,7 +7184,7 @@
         <v>43480</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7241,7 +7241,7 @@
         <v>43481</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7298,7 +7298,7 @@
         <v>43483</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7355,7 +7355,7 @@
         <v>43485</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7412,7 +7412,7 @@
         <v>43485</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7469,7 +7469,7 @@
         <v>43488</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         <v>43488</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>43488</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>43489</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7697,7 +7697,7 @@
         <v>43493</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>43493</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>43493</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>43493</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>43494</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>43496</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43497</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43497</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43500</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43501</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43508</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43508</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43508</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>43510</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8500,7 +8500,7 @@
         <v>43511</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>43516</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>43517</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         <v>43517</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>43518</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         <v>43521</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>43523</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         <v>43529</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>43529</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>43532</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9075,7 +9075,7 @@
         <v>43535</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9132,7 +9132,7 @@
         <v>43537</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         <v>43538</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9246,7 +9246,7 @@
         <v>43538</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9303,7 +9303,7 @@
         <v>43538</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>43538</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>43542</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9474,7 +9474,7 @@
         <v>43543</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>43546</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>43549</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9645,7 +9645,7 @@
         <v>43549</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9702,7 +9702,7 @@
         <v>43549</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>43567</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>43567</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>43571</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9930,7 +9930,7 @@
         <v>43572</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9987,7 +9987,7 @@
         <v>43573</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10044,7 +10044,7 @@
         <v>43580</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43584</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43587</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43592</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>43593</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43594</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>43594</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>43594</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43595</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         <v>43601</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10614,7 +10614,7 @@
         <v>43601</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10671,7 +10671,7 @@
         <v>43602</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10728,7 +10728,7 @@
         <v>43609</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10785,7 +10785,7 @@
         <v>43626</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10842,7 +10842,7 @@
         <v>43626</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>43626</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>43627</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>43640</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11075,7 +11075,7 @@
         <v>43644</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>43648</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11189,7 +11189,7 @@
         <v>43650</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11246,7 +11246,7 @@
         <v>43650</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11303,7 +11303,7 @@
         <v>43655</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11360,7 +11360,7 @@
         <v>43663</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11417,7 +11417,7 @@
         <v>43668</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11474,7 +11474,7 @@
         <v>43671</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11531,7 +11531,7 @@
         <v>43676</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11588,7 +11588,7 @@
         <v>43682</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11645,7 +11645,7 @@
         <v>43683</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11702,7 +11702,7 @@
         <v>43684</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11764,7 +11764,7 @@
         <v>43684</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11821,7 +11821,7 @@
         <v>43684</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11878,7 +11878,7 @@
         <v>43684</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11935,7 +11935,7 @@
         <v>43686</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11992,7 +11992,7 @@
         <v>43686</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12049,7 +12049,7 @@
         <v>43690</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12106,7 +12106,7 @@
         <v>43691</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         <v>43692</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12220,7 +12220,7 @@
         <v>43692</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12277,7 +12277,7 @@
         <v>43692</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         <v>43692</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         <v>43698</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12448,7 +12448,7 @@
         <v>43698</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12505,7 +12505,7 @@
         <v>43698</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12562,7 +12562,7 @@
         <v>43698</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         <v>43698</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12676,7 +12676,7 @@
         <v>43698</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12733,7 +12733,7 @@
         <v>43698</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12790,7 +12790,7 @@
         <v>43698</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12847,7 +12847,7 @@
         <v>43698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12904,7 +12904,7 @@
         <v>43698</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12961,7 +12961,7 @@
         <v>43698</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13018,7 +13018,7 @@
         <v>43698</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13075,7 +13075,7 @@
         <v>43698</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13132,7 +13132,7 @@
         <v>43699</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13189,7 +13189,7 @@
         <v>43701</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13246,7 +13246,7 @@
         <v>43701</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13303,7 +13303,7 @@
         <v>43706</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13360,7 +13360,7 @@
         <v>43710</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13417,7 +13417,7 @@
         <v>43710</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>43711</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13531,7 +13531,7 @@
         <v>43711</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         <v>43712</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
         <v>43712</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         <v>43712</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         <v>43712</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>43712</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>43712</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13935,7 +13935,7 @@
         <v>43718</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13992,7 +13992,7 @@
         <v>43718</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14049,7 +14049,7 @@
         <v>43719</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14106,7 +14106,7 @@
         <v>43719</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14163,7 +14163,7 @@
         <v>43719</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14220,7 +14220,7 @@
         <v>43720</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14277,7 +14277,7 @@
         <v>43720</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14334,7 +14334,7 @@
         <v>43721</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14391,7 +14391,7 @@
         <v>43727</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         <v>43732</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>43735</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14562,7 +14562,7 @@
         <v>43738</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14619,7 +14619,7 @@
         <v>43742</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14676,7 +14676,7 @@
         <v>43746</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14733,7 +14733,7 @@
         <v>43746</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14790,7 +14790,7 @@
         <v>43747</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14847,7 +14847,7 @@
         <v>43748</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14904,7 +14904,7 @@
         <v>43753</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14961,7 +14961,7 @@
         <v>43753</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>43754</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15075,7 +15075,7 @@
         <v>43756</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15132,7 +15132,7 @@
         <v>43760</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15189,7 +15189,7 @@
         <v>43760</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>43761</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15303,7 +15303,7 @@
         <v>43763</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>43763</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>43763</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>43766</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>43766</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>43770</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>43773</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>43774</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15759,7 +15759,7 @@
         <v>43775</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>43775</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15873,7 +15873,7 @@
         <v>43777</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>43782</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>43783</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>43783</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         <v>43788</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>43788</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16215,7 +16215,7 @@
         <v>43789</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>43790</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         <v>43812</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         <v>43812</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16443,7 +16443,7 @@
         <v>43817</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16500,7 +16500,7 @@
         <v>43818</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>43832</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>43832</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>43833</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16728,7 +16728,7 @@
         <v>43837</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16785,7 +16785,7 @@
         <v>43838</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>43838</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>43840</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>43844</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>43844</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>43845</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>43845</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>43849</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17241,7 +17241,7 @@
         <v>43850</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17298,7 +17298,7 @@
         <v>43852</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17355,7 +17355,7 @@
         <v>43852</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>43854</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>43867</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17526,7 +17526,7 @@
         <v>43867</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>43870</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>43870</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>43872</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>43875</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>43879</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>43887</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17925,7 +17925,7 @@
         <v>43887</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17982,7 +17982,7 @@
         <v>43889</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         <v>43889</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18096,7 +18096,7 @@
         <v>43889</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>43894</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18210,7 +18210,7 @@
         <v>43900</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18267,7 +18267,7 @@
         <v>43902</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18324,7 +18324,7 @@
         <v>43902</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18381,7 +18381,7 @@
         <v>43902</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
         <v>43902</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18495,7 +18495,7 @@
         <v>43907</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18552,7 +18552,7 @@
         <v>43907</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18609,7 +18609,7 @@
         <v>43907</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18666,7 +18666,7 @@
         <v>43907</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18723,7 +18723,7 @@
         <v>43913</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18780,7 +18780,7 @@
         <v>43914</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
         <v>43914</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18894,7 +18894,7 @@
         <v>43915</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18951,7 +18951,7 @@
         <v>43915</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19008,7 +19008,7 @@
         <v>43916</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19065,7 +19065,7 @@
         <v>43916</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19122,7 +19122,7 @@
         <v>43917</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19179,7 +19179,7 @@
         <v>43920</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19236,7 +19236,7 @@
         <v>43920</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19293,7 +19293,7 @@
         <v>43920</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19350,7 +19350,7 @@
         <v>43920</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19407,7 +19407,7 @@
         <v>43921</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19464,7 +19464,7 @@
         <v>43923</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19521,7 +19521,7 @@
         <v>43923</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19583,7 +19583,7 @@
         <v>43923</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19640,7 +19640,7 @@
         <v>43925</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19697,7 +19697,7 @@
         <v>43926</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19754,7 +19754,7 @@
         <v>43927</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19811,7 +19811,7 @@
         <v>43927</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19868,7 +19868,7 @@
         <v>43927</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19925,7 +19925,7 @@
         <v>43927</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>43935</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20039,7 +20039,7 @@
         <v>43937</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20096,7 +20096,7 @@
         <v>43937</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>43937</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20210,7 +20210,7 @@
         <v>43938</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20272,7 +20272,7 @@
         <v>43950</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>43977</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>43977</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20448,7 +20448,7 @@
         <v>43977</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20505,7 +20505,7 @@
         <v>43980</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20562,7 +20562,7 @@
         <v>43980</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20619,7 +20619,7 @@
         <v>43986</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20676,7 +20676,7 @@
         <v>43992</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20733,7 +20733,7 @@
         <v>43993</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20790,7 +20790,7 @@
         <v>44005</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         <v>44006</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20904,7 +20904,7 @@
         <v>44007</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20961,7 +20961,7 @@
         <v>44008</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21018,7 +21018,7 @@
         <v>44014</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21075,7 +21075,7 @@
         <v>44015</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21132,7 +21132,7 @@
         <v>44018</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21189,7 +21189,7 @@
         <v>44019</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21246,7 +21246,7 @@
         <v>44026</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21303,7 +21303,7 @@
         <v>44039</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21360,7 +21360,7 @@
         <v>44046</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21417,7 +21417,7 @@
         <v>44048</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21474,7 +21474,7 @@
         <v>44053</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21531,7 +21531,7 @@
         <v>44053</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
         <v>44053</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         <v>44054</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21702,7 +21702,7 @@
         <v>44055</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21759,7 +21759,7 @@
         <v>44055</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21816,7 +21816,7 @@
         <v>44055</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21873,7 +21873,7 @@
         <v>44055</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21930,7 +21930,7 @@
         <v>44057</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44060</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44060</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>44060</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>44062</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44062</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44062</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44071</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44074</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>44075</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>44080</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>44081</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>44083</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22671,7 +22671,7 @@
         <v>44088</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22728,7 +22728,7 @@
         <v>44088</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22785,7 +22785,7 @@
         <v>44090</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22842,7 +22842,7 @@
         <v>44090</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>44090</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22956,7 +22956,7 @@
         <v>44103</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         <v>44113</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>44113</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23127,7 +23127,7 @@
         <v>44120</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23184,7 +23184,7 @@
         <v>44120</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23241,7 +23241,7 @@
         <v>44123</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23298,7 +23298,7 @@
         <v>44124</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23355,7 +23355,7 @@
         <v>44124</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23412,7 +23412,7 @@
         <v>44125</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23469,7 +23469,7 @@
         <v>44127</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23526,7 +23526,7 @@
         <v>44131</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23583,7 +23583,7 @@
         <v>44132</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23640,7 +23640,7 @@
         <v>44132</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23697,7 +23697,7 @@
         <v>44132</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23754,7 +23754,7 @@
         <v>44132</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23811,7 +23811,7 @@
         <v>44132</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23868,7 +23868,7 @@
         <v>44133</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23925,7 +23925,7 @@
         <v>44139</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23982,7 +23982,7 @@
         <v>44139</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24039,7 +24039,7 @@
         <v>44140</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24096,7 +24096,7 @@
         <v>44140</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24153,7 +24153,7 @@
         <v>44140</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24210,7 +24210,7 @@
         <v>44144</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24267,7 +24267,7 @@
         <v>44146</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24324,7 +24324,7 @@
         <v>44146</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         <v>44152</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24438,7 +24438,7 @@
         <v>44153</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24495,7 +24495,7 @@
         <v>44154</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24552,7 +24552,7 @@
         <v>44166</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24609,7 +24609,7 @@
         <v>44167</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24666,7 +24666,7 @@
         <v>44169</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24723,7 +24723,7 @@
         <v>44174</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24780,7 +24780,7 @@
         <v>44179</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24837,7 +24837,7 @@
         <v>44179</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24894,7 +24894,7 @@
         <v>44186</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24951,7 +24951,7 @@
         <v>44188</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25008,7 +25008,7 @@
         <v>44188</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25065,7 +25065,7 @@
         <v>44200</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25122,7 +25122,7 @@
         <v>44202</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25179,7 +25179,7 @@
         <v>44204</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25236,7 +25236,7 @@
         <v>44204</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25293,7 +25293,7 @@
         <v>44204</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25350,7 +25350,7 @@
         <v>44207</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25407,7 +25407,7 @@
         <v>44208</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25464,7 +25464,7 @@
         <v>44208</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25521,7 +25521,7 @@
         <v>44208</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>44209</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         <v>44211</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>44217</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         <v>44222</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25806,7 +25806,7 @@
         <v>44223</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25863,7 +25863,7 @@
         <v>44225</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25920,7 +25920,7 @@
         <v>44225</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25977,7 +25977,7 @@
         <v>44225</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>44230</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>44235</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>44235</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>44235</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>44235</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>44241</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26376,7 +26376,7 @@
         <v>44253</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26433,7 +26433,7 @@
         <v>44256</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26490,7 +26490,7 @@
         <v>44257</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26547,7 +26547,7 @@
         <v>44259</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26604,7 +26604,7 @@
         <v>44259</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26661,7 +26661,7 @@
         <v>44267</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26718,7 +26718,7 @@
         <v>44267</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26775,7 +26775,7 @@
         <v>44270</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26832,7 +26832,7 @@
         <v>44275</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26889,7 +26889,7 @@
         <v>44279</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         <v>44281</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27003,7 +27003,7 @@
         <v>44284</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27060,7 +27060,7 @@
         <v>44284</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27117,7 +27117,7 @@
         <v>44284</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27174,7 +27174,7 @@
         <v>44285</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27231,7 +27231,7 @@
         <v>44286</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27288,7 +27288,7 @@
         <v>44292</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27345,7 +27345,7 @@
         <v>44300</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27402,7 +27402,7 @@
         <v>44300</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27464,7 +27464,7 @@
         <v>44302</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27521,7 +27521,7 @@
         <v>44302</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27578,7 +27578,7 @@
         <v>44302</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27635,7 +27635,7 @@
         <v>44302</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27692,7 +27692,7 @@
         <v>44305</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27749,7 +27749,7 @@
         <v>44305</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27806,7 +27806,7 @@
         <v>44305</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27863,7 +27863,7 @@
         <v>44306</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27920,7 +27920,7 @@
         <v>44309</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27977,7 +27977,7 @@
         <v>44323</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28034,7 +28034,7 @@
         <v>44323</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28091,7 +28091,7 @@
         <v>44325</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28148,7 +28148,7 @@
         <v>44327</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28205,7 +28205,7 @@
         <v>44333</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28262,7 +28262,7 @@
         <v>44342</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28319,7 +28319,7 @@
         <v>44342</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28376,7 +28376,7 @@
         <v>44342</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28433,7 +28433,7 @@
         <v>44342</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28490,7 +28490,7 @@
         <v>44343</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28547,7 +28547,7 @@
         <v>44349</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28604,7 +28604,7 @@
         <v>44350</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28661,7 +28661,7 @@
         <v>44350</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28718,7 +28718,7 @@
         <v>44350</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28775,7 +28775,7 @@
         <v>44354</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28832,7 +28832,7 @@
         <v>44356</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28889,7 +28889,7 @@
         <v>44364</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         <v>44365</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29003,7 +29003,7 @@
         <v>44365</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29060,7 +29060,7 @@
         <v>44368</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29117,7 +29117,7 @@
         <v>44375</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29174,7 +29174,7 @@
         <v>44383</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29231,7 +29231,7 @@
         <v>44384</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29288,7 +29288,7 @@
         <v>44384</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29345,7 +29345,7 @@
         <v>44391</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29402,7 +29402,7 @@
         <v>44391</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29459,7 +29459,7 @@
         <v>44397</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29516,7 +29516,7 @@
         <v>44398</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29573,7 +29573,7 @@
         <v>44399</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29630,7 +29630,7 @@
         <v>44399</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29687,7 +29687,7 @@
         <v>44406</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29744,7 +29744,7 @@
         <v>44411</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29801,7 +29801,7 @@
         <v>44411</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29858,7 +29858,7 @@
         <v>44420</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29915,7 +29915,7 @@
         <v>44420</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29972,7 +29972,7 @@
         <v>44421</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30029,7 +30029,7 @@
         <v>44424</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30086,7 +30086,7 @@
         <v>44425</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30143,7 +30143,7 @@
         <v>44433</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30200,7 +30200,7 @@
         <v>44435</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30257,7 +30257,7 @@
         <v>44435</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30314,7 +30314,7 @@
         <v>44440</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30371,7 +30371,7 @@
         <v>44440</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30433,7 +30433,7 @@
         <v>44441</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30490,7 +30490,7 @@
         <v>44441</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         <v>44441</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30604,7 +30604,7 @@
         <v>44442</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30661,7 +30661,7 @@
         <v>44447</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30718,7 +30718,7 @@
         <v>44449</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30775,7 +30775,7 @@
         <v>44452</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30832,7 +30832,7 @@
         <v>44452</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30889,7 +30889,7 @@
         <v>44458</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         <v>44461</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31003,7 +31003,7 @@
         <v>44461</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31060,7 +31060,7 @@
         <v>44462</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31117,7 +31117,7 @@
         <v>44466</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31174,7 +31174,7 @@
         <v>44468</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31231,7 +31231,7 @@
         <v>44473</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31288,7 +31288,7 @@
         <v>44476</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31345,7 +31345,7 @@
         <v>44481</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31402,7 +31402,7 @@
         <v>44491</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31459,7 +31459,7 @@
         <v>44496</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31516,7 +31516,7 @@
         <v>44496</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31573,7 +31573,7 @@
         <v>44497</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31630,7 +31630,7 @@
         <v>44498</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31687,7 +31687,7 @@
         <v>44502</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31744,7 +31744,7 @@
         <v>44503</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31801,7 +31801,7 @@
         <v>44503</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31858,7 +31858,7 @@
         <v>44512</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         <v>44515</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31972,7 +31972,7 @@
         <v>44516</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32029,7 +32029,7 @@
         <v>44517</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32086,7 +32086,7 @@
         <v>44523</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32143,7 +32143,7 @@
         <v>44529</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32200,7 +32200,7 @@
         <v>44530</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32257,7 +32257,7 @@
         <v>44539</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32314,7 +32314,7 @@
         <v>44543</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32371,7 +32371,7 @@
         <v>44551</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32428,7 +32428,7 @@
         <v>44553</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32485,7 +32485,7 @@
         <v>44559</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32542,7 +32542,7 @@
         <v>44572</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32599,7 +32599,7 @@
         <v>44572</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32656,7 +32656,7 @@
         <v>44578</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32713,7 +32713,7 @@
         <v>44579</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32770,7 +32770,7 @@
         <v>44584</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32827,7 +32827,7 @@
         <v>44585</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32884,7 +32884,7 @@
         <v>44585</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32941,7 +32941,7 @@
         <v>44586</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -32998,7 +32998,7 @@
         <v>44588</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33055,7 +33055,7 @@
         <v>44592</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33112,7 +33112,7 @@
         <v>44595</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33169,7 +33169,7 @@
         <v>44596</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33231,7 +33231,7 @@
         <v>44596</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33288,7 +33288,7 @@
         <v>44599</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33345,7 +33345,7 @@
         <v>44600</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33402,7 +33402,7 @@
         <v>44608</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33459,7 +33459,7 @@
         <v>44614</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33516,7 +33516,7 @@
         <v>44616</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33573,7 +33573,7 @@
         <v>44617</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33630,7 +33630,7 @@
         <v>44619</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33687,7 +33687,7 @@
         <v>44619</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33744,7 +33744,7 @@
         <v>44620</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33801,7 +33801,7 @@
         <v>44620</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33858,7 +33858,7 @@
         <v>44621</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33915,7 +33915,7 @@
         <v>44623</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -33972,7 +33972,7 @@
         <v>44624</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34029,7 +34029,7 @@
         <v>44624</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34086,7 +34086,7 @@
         <v>44628</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34143,7 +34143,7 @@
         <v>44629</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34200,7 +34200,7 @@
         <v>44629</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34257,7 +34257,7 @@
         <v>44636</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34314,7 +34314,7 @@
         <v>44636</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34371,7 +34371,7 @@
         <v>44637</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34428,7 +34428,7 @@
         <v>44644</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34485,7 +34485,7 @@
         <v>44657</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34542,7 +34542,7 @@
         <v>44663</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34599,7 +34599,7 @@
         <v>44670</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34656,7 +34656,7 @@
         <v>44672</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34713,7 +34713,7 @@
         <v>44686</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34770,7 +34770,7 @@
         <v>44687</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34827,7 +34827,7 @@
         <v>44687</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34884,7 +34884,7 @@
         <v>44693</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -34941,7 +34941,7 @@
         <v>44696</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -34998,7 +34998,7 @@
         <v>44698</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35055,7 +35055,7 @@
         <v>44700</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35112,7 +35112,7 @@
         <v>44705</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35169,7 +35169,7 @@
         <v>44706</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35226,7 +35226,7 @@
         <v>44706</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35283,7 +35283,7 @@
         <v>44710</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35340,7 +35340,7 @@
         <v>44711</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35397,7 +35397,7 @@
         <v>44720</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35454,7 +35454,7 @@
         <v>44725</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35511,7 +35511,7 @@
         <v>44742</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35568,7 +35568,7 @@
         <v>44742</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35625,7 +35625,7 @@
         <v>44742</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35682,7 +35682,7 @@
         <v>44742</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35739,7 +35739,7 @@
         <v>44747</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35796,7 +35796,7 @@
         <v>44747</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35853,7 +35853,7 @@
         <v>44748</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -35910,7 +35910,7 @@
         <v>44753</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -35967,7 +35967,7 @@
         <v>44754</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36024,7 +36024,7 @@
         <v>44754</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36081,7 +36081,7 @@
         <v>44757</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36138,7 +36138,7 @@
         <v>44757</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36195,7 +36195,7 @@
         <v>44767</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36252,7 +36252,7 @@
         <v>44799</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36309,7 +36309,7 @@
         <v>44806</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36366,7 +36366,7 @@
         <v>44812</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36423,7 +36423,7 @@
         <v>44820</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36480,7 +36480,7 @@
         <v>44820</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36537,7 +36537,7 @@
         <v>44825</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36594,7 +36594,7 @@
         <v>44826</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36651,7 +36651,7 @@
         <v>44832</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36708,7 +36708,7 @@
         <v>44832</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36765,7 +36765,7 @@
         <v>44837</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -36822,7 +36822,7 @@
         <v>44844</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -36879,7 +36879,7 @@
         <v>44845</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -36936,7 +36936,7 @@
         <v>44847</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -36993,7 +36993,7 @@
         <v>44847</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37050,7 +37050,7 @@
         <v>44847</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37107,7 +37107,7 @@
         <v>44856</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37164,7 +37164,7 @@
         <v>44858</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37221,7 +37221,7 @@
         <v>44858</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37278,7 +37278,7 @@
         <v>44860</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37335,7 +37335,7 @@
         <v>44860</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37392,7 +37392,7 @@
         <v>44860</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37449,7 +37449,7 @@
         <v>44862</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37506,7 +37506,7 @@
         <v>44865</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37563,7 +37563,7 @@
         <v>44866</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37620,7 +37620,7 @@
         <v>44866</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37677,7 +37677,7 @@
         <v>44867</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37734,7 +37734,7 @@
         <v>44874</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -37791,7 +37791,7 @@
         <v>44874</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -37848,7 +37848,7 @@
         <v>44874</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -37905,7 +37905,7 @@
         <v>44875</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -37962,7 +37962,7 @@
         <v>44879</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38019,7 +38019,7 @@
         <v>44881</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38076,7 +38076,7 @@
         <v>44890</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38133,7 +38133,7 @@
         <v>44893</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38190,7 +38190,7 @@
         <v>44893</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38247,7 +38247,7 @@
         <v>44893</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38304,7 +38304,7 @@
         <v>44903</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38361,7 +38361,7 @@
         <v>44909</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38418,7 +38418,7 @@
         <v>44911</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38475,7 +38475,7 @@
         <v>44911</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38532,7 +38532,7 @@
         <v>44920</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38589,7 +38589,7 @@
         <v>44930</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38646,7 +38646,7 @@
         <v>44930</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38703,7 +38703,7 @@
         <v>44936</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38760,7 +38760,7 @@
         <v>44939</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -38817,7 +38817,7 @@
         <v>44942</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -38874,7 +38874,7 @@
         <v>44950</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -38931,7 +38931,7 @@
         <v>44951</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -38988,7 +38988,7 @@
         <v>44952</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39045,7 +39045,7 @@
         <v>44957</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39102,7 +39102,7 @@
         <v>44958</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39159,7 +39159,7 @@
         <v>44967</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39216,7 +39216,7 @@
         <v>44967</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39273,7 +39273,7 @@
         <v>44970</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39330,7 +39330,7 @@
         <v>44981</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39387,7 +39387,7 @@
         <v>44981</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39444,7 +39444,7 @@
         <v>44984</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39501,7 +39501,7 @@
         <v>44986</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39558,7 +39558,7 @@
         <v>44988</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39615,7 +39615,7 @@
         <v>44988</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39672,7 +39672,7 @@
         <v>44988</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39729,7 +39729,7 @@
         <v>44988</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -39786,7 +39786,7 @@
         <v>44998</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -39843,7 +39843,7 @@
         <v>45001</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -39900,7 +39900,7 @@
         <v>45004</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -39957,7 +39957,7 @@
         <v>45005</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40014,7 +40014,7 @@
         <v>45012</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40071,7 +40071,7 @@
         <v>45012</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40128,7 +40128,7 @@
         <v>45012</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40185,7 +40185,7 @@
         <v>45012</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40242,7 +40242,7 @@
         <v>45015</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40299,7 +40299,7 @@
         <v>45016</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40356,7 +40356,7 @@
         <v>45019</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40413,7 +40413,7 @@
         <v>45019</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40470,7 +40470,7 @@
         <v>45020</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40527,7 +40527,7 @@
         <v>45027</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40584,7 +40584,7 @@
         <v>45027</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40641,7 +40641,7 @@
         <v>45027</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40698,7 +40698,7 @@
         <v>45028</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40755,7 +40755,7 @@
         <v>45030</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -40812,7 +40812,7 @@
         <v>45034</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -40869,7 +40869,7 @@
         <v>45034</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -40926,7 +40926,7 @@
         <v>45035</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -40983,7 +40983,7 @@
         <v>45035</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41040,7 +41040,7 @@
         <v>45037</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41097,7 +41097,7 @@
         <v>45040</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41154,7 +41154,7 @@
         <v>45040</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41211,7 +41211,7 @@
         <v>45042</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41268,7 +41268,7 @@
         <v>45048</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41325,7 +41325,7 @@
         <v>45048</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41382,7 +41382,7 @@
         <v>45050</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41439,7 +41439,7 @@
         <v>45050</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41496,7 +41496,7 @@
         <v>45050</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41553,7 +41553,7 @@
         <v>45050</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41610,7 +41610,7 @@
         <v>45055</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41667,7 +41667,7 @@
         <v>45056</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41724,7 +41724,7 @@
         <v>45057</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -41781,7 +41781,7 @@
         <v>45057</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -41838,7 +41838,7 @@
         <v>45057</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -41895,7 +41895,7 @@
         <v>45057</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -41952,7 +41952,7 @@
         <v>45058</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42009,7 +42009,7 @@
         <v>45065</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42066,7 +42066,7 @@
         <v>45069</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42123,7 +42123,7 @@
         <v>45069</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42180,7 +42180,7 @@
         <v>45070</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42237,7 +42237,7 @@
         <v>45070</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42294,7 +42294,7 @@
         <v>45070</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42351,7 +42351,7 @@
         <v>45070</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42408,7 +42408,7 @@
         <v>45075</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42465,7 +42465,7 @@
         <v>45076</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42522,7 +42522,7 @@
         <v>45076</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42579,7 +42579,7 @@
         <v>45077</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42636,7 +42636,7 @@
         <v>45079</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42693,7 +42693,7 @@
         <v>45080</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -42750,7 +42750,7 @@
         <v>45080</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -42807,7 +42807,7 @@
         <v>45082</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -42864,7 +42864,7 @@
         <v>45084</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -42921,7 +42921,7 @@
         <v>45085</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -42978,7 +42978,7 @@
         <v>45085</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43035,7 +43035,7 @@
         <v>45085</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43092,7 +43092,7 @@
         <v>45085</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43149,7 +43149,7 @@
         <v>45085</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43206,7 +43206,7 @@
         <v>45089</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43263,7 +43263,7 @@
         <v>45090</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43320,7 +43320,7 @@
         <v>45091</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43377,7 +43377,7 @@
         <v>45091</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43434,7 +43434,7 @@
         <v>45092</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43491,7 +43491,7 @@
         <v>45092</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -43548,7 +43548,7 @@
         <v>45092</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -43605,7 +43605,7 @@
         <v>45092</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -43662,7 +43662,7 @@
         <v>45093</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -43719,7 +43719,7 @@
         <v>45094</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -43776,7 +43776,7 @@
         <v>45097</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -43833,7 +43833,7 @@
         <v>45098</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -43890,7 +43890,7 @@
         <v>45098</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -43947,7 +43947,7 @@
         <v>45106</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44004,7 +44004,7 @@
         <v>45106</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44061,7 +44061,7 @@
         <v>45106</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44118,7 +44118,7 @@
         <v>45106</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44175,7 +44175,7 @@
         <v>45106</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44232,7 +44232,7 @@
         <v>45107</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44289,7 +44289,7 @@
         <v>45107</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44346,7 +44346,7 @@
         <v>45107</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44403,7 +44403,7 @@
         <v>45108</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44460,7 +44460,7 @@
         <v>45113</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -44517,7 +44517,7 @@
         <v>45113</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -44574,7 +44574,7 @@
         <v>45119</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -44631,7 +44631,7 @@
         <v>45125</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -44688,7 +44688,7 @@
         <v>45127</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -44745,7 +44745,7 @@
         <v>45127</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -44802,7 +44802,7 @@
         <v>45127</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -44859,7 +44859,7 @@
         <v>45132</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -44916,7 +44916,7 @@
         <v>45140</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -44973,7 +44973,7 @@
         <v>45142</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45030,7 +45030,7 @@
         <v>45142</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45087,7 +45087,7 @@
         <v>45142</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45144,7 +45144,7 @@
         <v>45147</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45201,7 +45201,7 @@
         <v>45148</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45258,7 +45258,7 @@
         <v>45155</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45315,7 +45315,7 @@
         <v>45155</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45372,7 +45372,7 @@
         <v>45159</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -45429,7 +45429,7 @@
         <v>45159</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -45486,7 +45486,7 @@
         <v>45162</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -45543,7 +45543,7 @@
         <v>45162</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -45600,7 +45600,7 @@
         <v>45163</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -45657,7 +45657,7 @@
         <v>45169</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -45714,7 +45714,7 @@
         <v>45170</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -45771,7 +45771,7 @@
         <v>45170</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -45828,7 +45828,7 @@
         <v>45180</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -45885,7 +45885,7 @@
         <v>45180</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -45942,7 +45942,7 @@
         <v>45181</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>

--- a/Översikt KARLSKRONA.xlsx
+++ b/Översikt KARLSKRONA.xlsx
@@ -572,7 +572,7 @@
         <v>45051</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>43640</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>44509</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>45101</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>43315</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43843</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>44960</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>45027</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>43356</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>43447</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>43963</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44021</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>44132</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>44139</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>44139</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>44140</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>44159</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>44237</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>44445</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
         <v>44467</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>44531</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>44728</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>45037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>43321</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>43332</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43335</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>43341</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43342</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>43349</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43350</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>43356</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         <v>43357</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43359</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43361</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>43363</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>43367</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>43368</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>43368</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>43369</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>43375</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         <v>43376</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>43384</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3635,7 +3635,7 @@
         <v>43396</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>43396</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>43396</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3806,7 +3806,7 @@
         <v>43397</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>43398</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>43398</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>43398</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>43398</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>43402</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>43403</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>43403</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>43405</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>43409</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>43410</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4443,7 +4443,7 @@
         <v>43410</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>43411</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43412</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>43413</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>43416</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>43416</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>43416</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>43417</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>43419</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>43419</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>43420</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>43420</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>43423</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>43424</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>43426</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>43430</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>43430</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>43431</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>43431</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>43434</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         <v>43434</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>43434</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>43437</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>43437</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5816,7 +5816,7 @@
         <v>43437</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>43438</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>43446</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5987,7 +5987,7 @@
         <v>43451</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6044,7 +6044,7 @@
         <v>43451</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>43451</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>43451</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6215,7 +6215,7 @@
         <v>43451</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>43451</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>43453</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         <v>43454</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6443,7 +6443,7 @@
         <v>43454</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6500,7 +6500,7 @@
         <v>43461</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6557,7 +6557,7 @@
         <v>43465</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6614,7 +6614,7 @@
         <v>43467</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6671,7 +6671,7 @@
         <v>43467</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
         <v>43468</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6785,7 +6785,7 @@
         <v>43473</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6842,7 +6842,7 @@
         <v>43475</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6899,7 +6899,7 @@
         <v>43475</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
         <v>43476</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7013,7 +7013,7 @@
         <v>43476</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7070,7 +7070,7 @@
         <v>43479</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7127,7 +7127,7 @@
         <v>43480</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7184,7 +7184,7 @@
         <v>43480</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7241,7 +7241,7 @@
         <v>43481</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7298,7 +7298,7 @@
         <v>43483</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7355,7 +7355,7 @@
         <v>43485</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7412,7 +7412,7 @@
         <v>43485</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7469,7 +7469,7 @@
         <v>43488</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         <v>43488</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>43488</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>43489</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7697,7 +7697,7 @@
         <v>43493</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>43493</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>43493</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>43493</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>43494</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>43496</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43497</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43497</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43500</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43501</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43508</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43508</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43508</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>43510</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8500,7 +8500,7 @@
         <v>43511</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>43516</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>43517</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         <v>43517</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>43518</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         <v>43521</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>43523</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         <v>43529</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>43529</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>43532</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9075,7 +9075,7 @@
         <v>43535</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9132,7 +9132,7 @@
         <v>43537</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         <v>43538</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9246,7 +9246,7 @@
         <v>43538</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9303,7 +9303,7 @@
         <v>43538</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>43538</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>43542</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9474,7 +9474,7 @@
         <v>43543</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>43546</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>43549</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9645,7 +9645,7 @@
         <v>43549</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9702,7 +9702,7 @@
         <v>43549</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>43567</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>43567</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>43571</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9930,7 +9930,7 @@
         <v>43572</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9987,7 +9987,7 @@
         <v>43573</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10044,7 +10044,7 @@
         <v>43580</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43584</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43587</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43592</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>43593</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43594</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>43594</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>43594</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43595</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         <v>43601</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10614,7 +10614,7 @@
         <v>43601</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10671,7 +10671,7 @@
         <v>43602</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10728,7 +10728,7 @@
         <v>43609</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10785,7 +10785,7 @@
         <v>43626</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10842,7 +10842,7 @@
         <v>43626</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>43626</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>43627</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>43640</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11075,7 +11075,7 @@
         <v>43644</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>43648</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11189,7 +11189,7 @@
         <v>43650</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11246,7 +11246,7 @@
         <v>43650</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11303,7 +11303,7 @@
         <v>43655</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11360,7 +11360,7 @@
         <v>43663</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11417,7 +11417,7 @@
         <v>43668</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11474,7 +11474,7 @@
         <v>43671</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11531,7 +11531,7 @@
         <v>43676</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11588,7 +11588,7 @@
         <v>43682</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11645,7 +11645,7 @@
         <v>43683</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11702,7 +11702,7 @@
         <v>43684</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11764,7 +11764,7 @@
         <v>43684</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11821,7 +11821,7 @@
         <v>43684</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11878,7 +11878,7 @@
         <v>43684</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11935,7 +11935,7 @@
         <v>43686</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11992,7 +11992,7 @@
         <v>43686</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12049,7 +12049,7 @@
         <v>43690</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12106,7 +12106,7 @@
         <v>43691</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         <v>43692</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12220,7 +12220,7 @@
         <v>43692</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12277,7 +12277,7 @@
         <v>43692</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         <v>43692</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         <v>43698</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12448,7 +12448,7 @@
         <v>43698</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12505,7 +12505,7 @@
         <v>43698</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12562,7 +12562,7 @@
         <v>43698</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         <v>43698</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12676,7 +12676,7 @@
         <v>43698</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12733,7 +12733,7 @@
         <v>43698</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12790,7 +12790,7 @@
         <v>43698</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12847,7 +12847,7 @@
         <v>43698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12904,7 +12904,7 @@
         <v>43698</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12961,7 +12961,7 @@
         <v>43698</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13018,7 +13018,7 @@
         <v>43698</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13075,7 +13075,7 @@
         <v>43698</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13132,7 +13132,7 @@
         <v>43699</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13189,7 +13189,7 @@
         <v>43701</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13246,7 +13246,7 @@
         <v>43701</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13303,7 +13303,7 @@
         <v>43706</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13360,7 +13360,7 @@
         <v>43710</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13417,7 +13417,7 @@
         <v>43710</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>43711</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13531,7 +13531,7 @@
         <v>43711</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         <v>43712</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
         <v>43712</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         <v>43712</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         <v>43712</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>43712</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>43712</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13935,7 +13935,7 @@
         <v>43718</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13992,7 +13992,7 @@
         <v>43718</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14049,7 +14049,7 @@
         <v>43719</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14106,7 +14106,7 @@
         <v>43719</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14163,7 +14163,7 @@
         <v>43719</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14220,7 +14220,7 @@
         <v>43720</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14277,7 +14277,7 @@
         <v>43720</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14334,7 +14334,7 @@
         <v>43721</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14391,7 +14391,7 @@
         <v>43727</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         <v>43732</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>43735</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14562,7 +14562,7 @@
         <v>43738</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14619,7 +14619,7 @@
         <v>43742</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14676,7 +14676,7 @@
         <v>43746</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14733,7 +14733,7 @@
         <v>43746</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14790,7 +14790,7 @@
         <v>43747</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14847,7 +14847,7 @@
         <v>43748</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14904,7 +14904,7 @@
         <v>43753</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14961,7 +14961,7 @@
         <v>43753</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>43754</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15075,7 +15075,7 @@
         <v>43756</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15132,7 +15132,7 @@
         <v>43760</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15189,7 +15189,7 @@
         <v>43760</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>43761</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15303,7 +15303,7 @@
         <v>43763</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>43763</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>43763</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>43766</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>43766</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>43770</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>43773</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>43774</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15759,7 +15759,7 @@
         <v>43775</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>43775</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15873,7 +15873,7 @@
         <v>43777</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>43782</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>43783</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>43783</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         <v>43788</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>43788</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16215,7 +16215,7 @@
         <v>43789</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>43790</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         <v>43812</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         <v>43812</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16443,7 +16443,7 @@
         <v>43817</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16500,7 +16500,7 @@
         <v>43818</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>43832</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>43832</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>43833</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16728,7 +16728,7 @@
         <v>43837</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16785,7 +16785,7 @@
         <v>43838</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>43838</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>43840</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>43844</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>43844</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>43845</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>43845</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>43849</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17241,7 +17241,7 @@
         <v>43850</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17298,7 +17298,7 @@
         <v>43852</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17355,7 +17355,7 @@
         <v>43852</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>43854</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>43867</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17526,7 +17526,7 @@
         <v>43867</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>43870</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>43870</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>43872</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>43875</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>43879</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>43887</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17925,7 +17925,7 @@
         <v>43887</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17982,7 +17982,7 @@
         <v>43889</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         <v>43889</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18096,7 +18096,7 @@
         <v>43889</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>43894</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18210,7 +18210,7 @@
         <v>43900</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18267,7 +18267,7 @@
         <v>43902</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18324,7 +18324,7 @@
         <v>43902</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18381,7 +18381,7 @@
         <v>43902</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
         <v>43902</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18495,7 +18495,7 @@
         <v>43907</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18552,7 +18552,7 @@
         <v>43907</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18609,7 +18609,7 @@
         <v>43907</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18666,7 +18666,7 @@
         <v>43907</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18723,7 +18723,7 @@
         <v>43913</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18780,7 +18780,7 @@
         <v>43914</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
         <v>43914</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18894,7 +18894,7 @@
         <v>43915</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18951,7 +18951,7 @@
         <v>43915</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19008,7 +19008,7 @@
         <v>43916</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19065,7 +19065,7 @@
         <v>43916</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19122,7 +19122,7 @@
         <v>43917</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19179,7 +19179,7 @@
         <v>43920</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19236,7 +19236,7 @@
         <v>43920</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19293,7 +19293,7 @@
         <v>43920</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19350,7 +19350,7 @@
         <v>43920</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19407,7 +19407,7 @@
         <v>43921</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19464,7 +19464,7 @@
         <v>43923</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19521,7 +19521,7 @@
         <v>43923</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19583,7 +19583,7 @@
         <v>43923</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19640,7 +19640,7 @@
         <v>43925</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19697,7 +19697,7 @@
         <v>43926</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19754,7 +19754,7 @@
         <v>43927</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19811,7 +19811,7 @@
         <v>43927</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19868,7 +19868,7 @@
         <v>43927</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19925,7 +19925,7 @@
         <v>43927</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>43935</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20039,7 +20039,7 @@
         <v>43937</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20096,7 +20096,7 @@
         <v>43937</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>43937</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20210,7 +20210,7 @@
         <v>43938</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20272,7 +20272,7 @@
         <v>43950</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>43977</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>43977</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20448,7 +20448,7 @@
         <v>43977</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20505,7 +20505,7 @@
         <v>43980</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20562,7 +20562,7 @@
         <v>43980</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20619,7 +20619,7 @@
         <v>43986</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20676,7 +20676,7 @@
         <v>43992</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20733,7 +20733,7 @@
         <v>43993</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20790,7 +20790,7 @@
         <v>44005</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         <v>44006</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20904,7 +20904,7 @@
         <v>44007</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20961,7 +20961,7 @@
         <v>44008</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21018,7 +21018,7 @@
         <v>44014</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21075,7 +21075,7 @@
         <v>44015</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21132,7 +21132,7 @@
         <v>44018</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21189,7 +21189,7 @@
         <v>44019</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21246,7 +21246,7 @@
         <v>44026</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21303,7 +21303,7 @@
         <v>44039</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21360,7 +21360,7 @@
         <v>44046</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21417,7 +21417,7 @@
         <v>44048</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21474,7 +21474,7 @@
         <v>44053</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21531,7 +21531,7 @@
         <v>44053</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
         <v>44053</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         <v>44054</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21702,7 +21702,7 @@
         <v>44055</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21759,7 +21759,7 @@
         <v>44055</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21816,7 +21816,7 @@
         <v>44055</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21873,7 +21873,7 @@
         <v>44055</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21930,7 +21930,7 @@
         <v>44057</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44060</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44060</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>44060</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>44062</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44062</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44062</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44071</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44074</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>44075</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>44080</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>44081</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>44083</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22671,7 +22671,7 @@
         <v>44088</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22728,7 +22728,7 @@
         <v>44088</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22785,7 +22785,7 @@
         <v>44090</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22842,7 +22842,7 @@
         <v>44090</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>44090</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22956,7 +22956,7 @@
         <v>44103</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         <v>44113</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>44113</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23127,7 +23127,7 @@
         <v>44120</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23184,7 +23184,7 @@
         <v>44120</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23241,7 +23241,7 @@
         <v>44123</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23298,7 +23298,7 @@
         <v>44124</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23355,7 +23355,7 @@
         <v>44124</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23412,7 +23412,7 @@
         <v>44125</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23469,7 +23469,7 @@
         <v>44127</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23526,7 +23526,7 @@
         <v>44131</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23583,7 +23583,7 @@
         <v>44132</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23640,7 +23640,7 @@
         <v>44132</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23697,7 +23697,7 @@
         <v>44132</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23754,7 +23754,7 @@
         <v>44132</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23811,7 +23811,7 @@
         <v>44132</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23868,7 +23868,7 @@
         <v>44133</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23925,7 +23925,7 @@
         <v>44139</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23982,7 +23982,7 @@
         <v>44139</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24039,7 +24039,7 @@
         <v>44140</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24096,7 +24096,7 @@
         <v>44140</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24153,7 +24153,7 @@
         <v>44140</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24210,7 +24210,7 @@
         <v>44144</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24267,7 +24267,7 @@
         <v>44146</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24324,7 +24324,7 @@
         <v>44146</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         <v>44152</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24438,7 +24438,7 @@
         <v>44153</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24495,7 +24495,7 @@
         <v>44154</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24552,7 +24552,7 @@
         <v>44166</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24609,7 +24609,7 @@
         <v>44167</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24666,7 +24666,7 @@
         <v>44169</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24723,7 +24723,7 @@
         <v>44174</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24780,7 +24780,7 @@
         <v>44179</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24837,7 +24837,7 @@
         <v>44179</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24894,7 +24894,7 @@
         <v>44186</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24951,7 +24951,7 @@
         <v>44188</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25008,7 +25008,7 @@
         <v>44188</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25065,7 +25065,7 @@
         <v>44200</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25122,7 +25122,7 @@
         <v>44202</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25179,7 +25179,7 @@
         <v>44204</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25236,7 +25236,7 @@
         <v>44204</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25293,7 +25293,7 @@
         <v>44204</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25350,7 +25350,7 @@
         <v>44207</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25407,7 +25407,7 @@
         <v>44208</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25464,7 +25464,7 @@
         <v>44208</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25521,7 +25521,7 @@
         <v>44208</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>44209</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         <v>44211</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>44217</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         <v>44222</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25806,7 +25806,7 @@
         <v>44223</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25863,7 +25863,7 @@
         <v>44225</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25920,7 +25920,7 @@
         <v>44225</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25977,7 +25977,7 @@
         <v>44225</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>44230</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>44235</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>44235</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>44235</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>44235</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>44241</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26376,7 +26376,7 @@
         <v>44253</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26433,7 +26433,7 @@
         <v>44256</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26490,7 +26490,7 @@
         <v>44257</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26547,7 +26547,7 @@
         <v>44259</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26604,7 +26604,7 @@
         <v>44259</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26661,7 +26661,7 @@
         <v>44267</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26718,7 +26718,7 @@
         <v>44267</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26775,7 +26775,7 @@
         <v>44270</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26832,7 +26832,7 @@
         <v>44275</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26889,7 +26889,7 @@
         <v>44279</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         <v>44281</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27003,7 +27003,7 @@
         <v>44284</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27060,7 +27060,7 @@
         <v>44284</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27117,7 +27117,7 @@
         <v>44284</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27174,7 +27174,7 @@
         <v>44285</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27231,7 +27231,7 @@
         <v>44286</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27288,7 +27288,7 @@
         <v>44292</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27345,7 +27345,7 @@
         <v>44300</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27402,7 +27402,7 @@
         <v>44300</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27464,7 +27464,7 @@
         <v>44302</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27521,7 +27521,7 @@
         <v>44302</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27578,7 +27578,7 @@
         <v>44302</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27635,7 +27635,7 @@
         <v>44302</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27692,7 +27692,7 @@
         <v>44305</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27749,7 +27749,7 @@
         <v>44305</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27806,7 +27806,7 @@
         <v>44305</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27863,7 +27863,7 @@
         <v>44306</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27920,7 +27920,7 @@
         <v>44309</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27977,7 +27977,7 @@
         <v>44323</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28034,7 +28034,7 @@
         <v>44323</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28091,7 +28091,7 @@
         <v>44325</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28148,7 +28148,7 @@
         <v>44327</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28205,7 +28205,7 @@
         <v>44333</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28262,7 +28262,7 @@
         <v>44342</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28319,7 +28319,7 @@
         <v>44342</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28376,7 +28376,7 @@
         <v>44342</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28433,7 +28433,7 @@
         <v>44342</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28490,7 +28490,7 @@
         <v>44343</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28547,7 +28547,7 @@
         <v>44349</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28604,7 +28604,7 @@
         <v>44350</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28661,7 +28661,7 @@
         <v>44350</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28718,7 +28718,7 @@
         <v>44350</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28775,7 +28775,7 @@
         <v>44354</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28832,7 +28832,7 @@
         <v>44356</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28889,7 +28889,7 @@
         <v>44364</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         <v>44365</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29003,7 +29003,7 @@
         <v>44365</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29060,7 +29060,7 @@
         <v>44368</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29117,7 +29117,7 @@
         <v>44375</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29174,7 +29174,7 @@
         <v>44383</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29231,7 +29231,7 @@
         <v>44384</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29288,7 +29288,7 @@
         <v>44384</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29345,7 +29345,7 @@
         <v>44391</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29402,7 +29402,7 @@
         <v>44391</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29459,7 +29459,7 @@
         <v>44397</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29516,7 +29516,7 @@
         <v>44398</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29573,7 +29573,7 @@
         <v>44399</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29630,7 +29630,7 @@
         <v>44399</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29687,7 +29687,7 @@
         <v>44406</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29744,7 +29744,7 @@
         <v>44411</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29801,7 +29801,7 @@
         <v>44411</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29858,7 +29858,7 @@
         <v>44420</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29915,7 +29915,7 @@
         <v>44420</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29972,7 +29972,7 @@
         <v>44421</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30029,7 +30029,7 @@
         <v>44424</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30086,7 +30086,7 @@
         <v>44425</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30143,7 +30143,7 @@
         <v>44433</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30200,7 +30200,7 @@
         <v>44435</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30257,7 +30257,7 @@
         <v>44435</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30314,7 +30314,7 @@
         <v>44440</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30371,7 +30371,7 @@
         <v>44440</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30433,7 +30433,7 @@
         <v>44441</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30490,7 +30490,7 @@
         <v>44441</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         <v>44441</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30604,7 +30604,7 @@
         <v>44442</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30661,7 +30661,7 @@
         <v>44447</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30718,7 +30718,7 @@
         <v>44449</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30775,7 +30775,7 @@
         <v>44452</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30832,7 +30832,7 @@
         <v>44452</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30889,7 +30889,7 @@
         <v>44458</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         <v>44461</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31003,7 +31003,7 @@
         <v>44461</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31060,7 +31060,7 @@
         <v>44462</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31117,7 +31117,7 @@
         <v>44466</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31174,7 +31174,7 @@
         <v>44468</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31231,7 +31231,7 @@
         <v>44473</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31288,7 +31288,7 @@
         <v>44476</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31345,7 +31345,7 @@
         <v>44481</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31402,7 +31402,7 @@
         <v>44491</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31459,7 +31459,7 @@
         <v>44496</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31516,7 +31516,7 @@
         <v>44496</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31573,7 +31573,7 @@
         <v>44497</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31630,7 +31630,7 @@
         <v>44498</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31687,7 +31687,7 @@
         <v>44502</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31744,7 +31744,7 @@
         <v>44503</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31801,7 +31801,7 @@
         <v>44503</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31858,7 +31858,7 @@
         <v>44512</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         <v>44515</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31972,7 +31972,7 @@
         <v>44516</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32029,7 +32029,7 @@
         <v>44517</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32086,7 +32086,7 @@
         <v>44523</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32143,7 +32143,7 @@
         <v>44529</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32200,7 +32200,7 @@
         <v>44530</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32257,7 +32257,7 @@
         <v>44539</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32314,7 +32314,7 @@
         <v>44543</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32371,7 +32371,7 @@
         <v>44551</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32428,7 +32428,7 @@
         <v>44553</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32485,7 +32485,7 @@
         <v>44559</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32542,7 +32542,7 @@
         <v>44572</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32599,7 +32599,7 @@
         <v>44572</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32656,7 +32656,7 @@
         <v>44578</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32713,7 +32713,7 @@
         <v>44579</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32770,7 +32770,7 @@
         <v>44584</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32827,7 +32827,7 @@
         <v>44585</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32884,7 +32884,7 @@
         <v>44585</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32941,7 +32941,7 @@
         <v>44586</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -32998,7 +32998,7 @@
         <v>44588</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33055,7 +33055,7 @@
         <v>44592</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33112,7 +33112,7 @@
         <v>44595</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33169,7 +33169,7 @@
         <v>44596</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33231,7 +33231,7 @@
         <v>44596</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33288,7 +33288,7 @@
         <v>44599</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33345,7 +33345,7 @@
         <v>44600</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33402,7 +33402,7 @@
         <v>44608</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33459,7 +33459,7 @@
         <v>44614</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33516,7 +33516,7 @@
         <v>44616</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33573,7 +33573,7 @@
         <v>44617</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33630,7 +33630,7 @@
         <v>44619</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33687,7 +33687,7 @@
         <v>44619</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33744,7 +33744,7 @@
         <v>44620</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33801,7 +33801,7 @@
         <v>44620</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33858,7 +33858,7 @@
         <v>44621</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33915,7 +33915,7 @@
         <v>44623</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -33972,7 +33972,7 @@
         <v>44624</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34029,7 +34029,7 @@
         <v>44624</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34086,7 +34086,7 @@
         <v>44628</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34143,7 +34143,7 @@
         <v>44629</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34200,7 +34200,7 @@
         <v>44629</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34257,7 +34257,7 @@
         <v>44636</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34314,7 +34314,7 @@
         <v>44636</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34371,7 +34371,7 @@
         <v>44637</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34428,7 +34428,7 @@
         <v>44644</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34485,7 +34485,7 @@
         <v>44657</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34542,7 +34542,7 @@
         <v>44663</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34599,7 +34599,7 @@
         <v>44670</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34656,7 +34656,7 @@
         <v>44672</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34713,7 +34713,7 @@
         <v>44686</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34770,7 +34770,7 @@
         <v>44687</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34827,7 +34827,7 @@
         <v>44687</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34884,7 +34884,7 @@
         <v>44693</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -34941,7 +34941,7 @@
         <v>44696</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -34998,7 +34998,7 @@
         <v>44698</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35055,7 +35055,7 @@
         <v>44700</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35112,7 +35112,7 @@
         <v>44705</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35169,7 +35169,7 @@
         <v>44706</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35226,7 +35226,7 @@
         <v>44706</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35283,7 +35283,7 @@
         <v>44710</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35340,7 +35340,7 @@
         <v>44711</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35397,7 +35397,7 @@
         <v>44720</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35454,7 +35454,7 @@
         <v>44725</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35511,7 +35511,7 @@
         <v>44742</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35568,7 +35568,7 @@
         <v>44742</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35625,7 +35625,7 @@
         <v>44742</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35682,7 +35682,7 @@
         <v>44742</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35739,7 +35739,7 @@
         <v>44747</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35796,7 +35796,7 @@
         <v>44747</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35853,7 +35853,7 @@
         <v>44748</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -35910,7 +35910,7 @@
         <v>44753</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -35967,7 +35967,7 @@
         <v>44754</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36024,7 +36024,7 @@
         <v>44754</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36081,7 +36081,7 @@
         <v>44757</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36138,7 +36138,7 @@
         <v>44757</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36195,7 +36195,7 @@
         <v>44767</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36252,7 +36252,7 @@
         <v>44799</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36309,7 +36309,7 @@
         <v>44806</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36366,7 +36366,7 @@
         <v>44812</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36423,7 +36423,7 @@
         <v>44820</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36480,7 +36480,7 @@
         <v>44820</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36537,7 +36537,7 @@
         <v>44825</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36594,7 +36594,7 @@
         <v>44826</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36651,7 +36651,7 @@
         <v>44832</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36708,7 +36708,7 @@
         <v>44832</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36765,7 +36765,7 @@
         <v>44837</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -36822,7 +36822,7 @@
         <v>44844</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -36879,7 +36879,7 @@
         <v>44845</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -36936,7 +36936,7 @@
         <v>44847</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -36993,7 +36993,7 @@
         <v>44847</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37050,7 +37050,7 @@
         <v>44847</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37107,7 +37107,7 @@
         <v>44856</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37164,7 +37164,7 @@
         <v>44858</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37221,7 +37221,7 @@
         <v>44858</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37278,7 +37278,7 @@
         <v>44860</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37335,7 +37335,7 @@
         <v>44860</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37392,7 +37392,7 @@
         <v>44860</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37449,7 +37449,7 @@
         <v>44862</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37506,7 +37506,7 @@
         <v>44865</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37563,7 +37563,7 @@
         <v>44866</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37620,7 +37620,7 @@
         <v>44866</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37677,7 +37677,7 @@
         <v>44867</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37734,7 +37734,7 @@
         <v>44874</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -37791,7 +37791,7 @@
         <v>44874</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -37848,7 +37848,7 @@
         <v>44874</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -37905,7 +37905,7 @@
         <v>44875</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -37962,7 +37962,7 @@
         <v>44879</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38019,7 +38019,7 @@
         <v>44881</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38076,7 +38076,7 @@
         <v>44890</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38133,7 +38133,7 @@
         <v>44893</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38190,7 +38190,7 @@
         <v>44893</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38247,7 +38247,7 @@
         <v>44893</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38304,7 +38304,7 @@
         <v>44903</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38361,7 +38361,7 @@
         <v>44909</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38418,7 +38418,7 @@
         <v>44911</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38475,7 +38475,7 @@
         <v>44911</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38532,7 +38532,7 @@
         <v>44920</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38589,7 +38589,7 @@
         <v>44930</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38646,7 +38646,7 @@
         <v>44930</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38703,7 +38703,7 @@
         <v>44936</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38760,7 +38760,7 @@
         <v>44939</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -38817,7 +38817,7 @@
         <v>44942</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -38874,7 +38874,7 @@
         <v>44950</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -38931,7 +38931,7 @@
         <v>44951</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -38988,7 +38988,7 @@
         <v>44952</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39045,7 +39045,7 @@
         <v>44957</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39102,7 +39102,7 @@
         <v>44958</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39159,7 +39159,7 @@
         <v>44967</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39216,7 +39216,7 @@
         <v>44967</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39273,7 +39273,7 @@
         <v>44970</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39330,7 +39330,7 @@
         <v>44981</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39387,7 +39387,7 @@
         <v>44981</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39444,7 +39444,7 @@
         <v>44984</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39501,7 +39501,7 @@
         <v>44986</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39558,7 +39558,7 @@
         <v>44988</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39615,7 +39615,7 @@
         <v>44988</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39672,7 +39672,7 @@
         <v>44988</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39729,7 +39729,7 @@
         <v>44988</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -39786,7 +39786,7 @@
         <v>44998</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -39843,7 +39843,7 @@
         <v>45001</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -39900,7 +39900,7 @@
         <v>45004</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -39957,7 +39957,7 @@
         <v>45005</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40014,7 +40014,7 @@
         <v>45012</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40071,7 +40071,7 @@
         <v>45012</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40128,7 +40128,7 @@
         <v>45012</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40185,7 +40185,7 @@
         <v>45012</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40242,7 +40242,7 @@
         <v>45015</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40299,7 +40299,7 @@
         <v>45016</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40356,7 +40356,7 @@
         <v>45019</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40413,7 +40413,7 @@
         <v>45019</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40470,7 +40470,7 @@
         <v>45020</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40527,7 +40527,7 @@
         <v>45027</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40584,7 +40584,7 @@
         <v>45027</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40641,7 +40641,7 @@
         <v>45027</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40698,7 +40698,7 @@
         <v>45028</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40755,7 +40755,7 @@
         <v>45030</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -40812,7 +40812,7 @@
         <v>45034</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -40869,7 +40869,7 @@
         <v>45034</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -40926,7 +40926,7 @@
         <v>45035</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -40983,7 +40983,7 @@
         <v>45035</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41040,7 +41040,7 @@
         <v>45037</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41097,7 +41097,7 @@
         <v>45040</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41154,7 +41154,7 @@
         <v>45040</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41211,7 +41211,7 @@
         <v>45042</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41268,7 +41268,7 @@
         <v>45048</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41325,7 +41325,7 @@
         <v>45048</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41382,7 +41382,7 @@
         <v>45050</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41439,7 +41439,7 @@
         <v>45050</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41496,7 +41496,7 @@
         <v>45050</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41553,7 +41553,7 @@
         <v>45050</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41610,7 +41610,7 @@
         <v>45055</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41667,7 +41667,7 @@
         <v>45056</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41724,7 +41724,7 @@
         <v>45057</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -41781,7 +41781,7 @@
         <v>45057</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -41838,7 +41838,7 @@
         <v>45057</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -41895,7 +41895,7 @@
         <v>45057</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -41952,7 +41952,7 @@
         <v>45058</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42009,7 +42009,7 @@
         <v>45065</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42066,7 +42066,7 @@
         <v>45069</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42123,7 +42123,7 @@
         <v>45069</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42180,7 +42180,7 @@
         <v>45070</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42237,7 +42237,7 @@
         <v>45070</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42294,7 +42294,7 @@
         <v>45070</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42351,7 +42351,7 @@
         <v>45070</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42408,7 +42408,7 @@
         <v>45075</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42465,7 +42465,7 @@
         <v>45076</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42522,7 +42522,7 @@
         <v>45076</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42579,7 +42579,7 @@
         <v>45077</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42636,7 +42636,7 @@
         <v>45079</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42693,7 +42693,7 @@
         <v>45080</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -42750,7 +42750,7 @@
         <v>45080</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -42807,7 +42807,7 @@
         <v>45082</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -42864,7 +42864,7 @@
         <v>45084</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -42921,7 +42921,7 @@
         <v>45085</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -42978,7 +42978,7 @@
         <v>45085</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43035,7 +43035,7 @@
         <v>45085</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43092,7 +43092,7 @@
         <v>45085</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43149,7 +43149,7 @@
         <v>45085</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43206,7 +43206,7 @@
         <v>45089</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43263,7 +43263,7 @@
         <v>45090</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43320,7 +43320,7 @@
         <v>45091</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43377,7 +43377,7 @@
         <v>45091</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43434,7 +43434,7 @@
         <v>45092</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43491,7 +43491,7 @@
         <v>45092</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -43548,7 +43548,7 @@
         <v>45092</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -43605,7 +43605,7 @@
         <v>45092</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -43662,7 +43662,7 @@
         <v>45093</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -43719,7 +43719,7 @@
         <v>45094</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -43776,7 +43776,7 @@
         <v>45097</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -43833,7 +43833,7 @@
         <v>45098</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -43890,7 +43890,7 @@
         <v>45098</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -43947,7 +43947,7 @@
         <v>45106</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44004,7 +44004,7 @@
         <v>45106</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44061,7 +44061,7 @@
         <v>45106</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44118,7 +44118,7 @@
         <v>45106</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44175,7 +44175,7 @@
         <v>45106</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44232,7 +44232,7 @@
         <v>45107</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44289,7 +44289,7 @@
         <v>45107</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44346,7 +44346,7 @@
         <v>45107</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44403,7 +44403,7 @@
         <v>45108</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44460,7 +44460,7 @@
         <v>45113</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -44517,7 +44517,7 @@
         <v>45113</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -44574,7 +44574,7 @@
         <v>45119</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -44631,7 +44631,7 @@
         <v>45125</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -44688,7 +44688,7 @@
         <v>45127</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -44745,7 +44745,7 @@
         <v>45127</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -44802,7 +44802,7 @@
         <v>45127</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -44859,7 +44859,7 @@
         <v>45132</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -44916,7 +44916,7 @@
         <v>45140</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -44973,7 +44973,7 @@
         <v>45142</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45030,7 +45030,7 @@
         <v>45142</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45087,7 +45087,7 @@
         <v>45142</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45144,7 +45144,7 @@
         <v>45147</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45201,7 +45201,7 @@
         <v>45148</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45258,7 +45258,7 @@
         <v>45155</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45315,7 +45315,7 @@
         <v>45155</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45372,7 +45372,7 @@
         <v>45159</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -45429,7 +45429,7 @@
         <v>45159</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -45486,7 +45486,7 @@
         <v>45162</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -45543,7 +45543,7 @@
         <v>45162</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -45600,7 +45600,7 @@
         <v>45163</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -45657,7 +45657,7 @@
         <v>45169</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -45714,7 +45714,7 @@
         <v>45170</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -45771,7 +45771,7 @@
         <v>45170</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -45828,7 +45828,7 @@
         <v>45180</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -45885,7 +45885,7 @@
         <v>45180</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -45942,7 +45942,7 @@
         <v>45181</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>

--- a/Översikt KARLSKRONA.xlsx
+++ b/Översikt KARLSKRONA.xlsx
@@ -572,7 +572,7 @@
         <v>45051</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>43640</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>44509</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>45101</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>43315</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43843</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>44960</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>45027</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>43356</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>43447</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>43963</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44021</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>44132</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>44139</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>44139</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>44140</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>44159</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>44237</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>44445</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
         <v>44467</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>44531</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>44728</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>45037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>43321</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>43332</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43335</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>43341</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43342</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>43349</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43350</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>43356</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         <v>43357</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43359</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43361</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>43363</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>43367</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>43368</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>43368</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>43369</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>43375</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         <v>43376</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>43384</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3635,7 +3635,7 @@
         <v>43396</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>43396</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>43396</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3806,7 +3806,7 @@
         <v>43397</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>43398</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>43398</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>43398</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>43398</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>43402</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>43403</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>43403</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>43405</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>43409</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>43410</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4443,7 +4443,7 @@
         <v>43410</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>43411</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43412</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>43413</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>43416</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>43416</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>43416</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>43417</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>43419</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>43419</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>43420</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>43420</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>43423</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>43424</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>43426</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>43430</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>43430</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>43431</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>43431</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>43434</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         <v>43434</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>43434</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>43437</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>43437</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5816,7 +5816,7 @@
         <v>43437</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>43438</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>43446</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5987,7 +5987,7 @@
         <v>43451</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6044,7 +6044,7 @@
         <v>43451</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>43451</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>43451</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6215,7 +6215,7 @@
         <v>43451</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>43451</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>43453</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         <v>43454</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6443,7 +6443,7 @@
         <v>43454</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6500,7 +6500,7 @@
         <v>43461</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6557,7 +6557,7 @@
         <v>43465</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6614,7 +6614,7 @@
         <v>43467</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6671,7 +6671,7 @@
         <v>43467</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
         <v>43468</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6785,7 +6785,7 @@
         <v>43473</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6842,7 +6842,7 @@
         <v>43475</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6899,7 +6899,7 @@
         <v>43475</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
         <v>43476</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7013,7 +7013,7 @@
         <v>43476</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7070,7 +7070,7 @@
         <v>43479</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7127,7 +7127,7 @@
         <v>43480</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7184,7 +7184,7 @@
         <v>43480</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7241,7 +7241,7 @@
         <v>43481</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7298,7 +7298,7 @@
         <v>43483</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7355,7 +7355,7 @@
         <v>43485</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7412,7 +7412,7 @@
         <v>43485</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7469,7 +7469,7 @@
         <v>43488</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         <v>43488</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>43488</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>43489</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7697,7 +7697,7 @@
         <v>43493</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>43493</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>43493</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>43493</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>43494</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>43496</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43497</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43497</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43500</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43501</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43508</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43508</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43508</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>43510</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8500,7 +8500,7 @@
         <v>43511</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>43516</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>43517</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         <v>43517</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>43518</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         <v>43521</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>43523</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         <v>43529</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>43529</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>43532</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9075,7 +9075,7 @@
         <v>43535</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9132,7 +9132,7 @@
         <v>43537</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         <v>43538</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9246,7 +9246,7 @@
         <v>43538</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9303,7 +9303,7 @@
         <v>43538</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>43538</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>43542</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9474,7 +9474,7 @@
         <v>43543</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>43546</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>43549</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9645,7 +9645,7 @@
         <v>43549</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9702,7 +9702,7 @@
         <v>43549</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>43567</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>43567</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>43571</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9930,7 +9930,7 @@
         <v>43572</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9987,7 +9987,7 @@
         <v>43573</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10044,7 +10044,7 @@
         <v>43580</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43584</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43587</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43592</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>43593</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43594</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>43594</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>43594</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43595</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         <v>43601</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10614,7 +10614,7 @@
         <v>43601</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10671,7 +10671,7 @@
         <v>43602</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10728,7 +10728,7 @@
         <v>43609</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10785,7 +10785,7 @@
         <v>43626</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10842,7 +10842,7 @@
         <v>43626</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>43626</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>43627</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>43640</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11075,7 +11075,7 @@
         <v>43644</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>43648</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11189,7 +11189,7 @@
         <v>43650</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11246,7 +11246,7 @@
         <v>43650</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11303,7 +11303,7 @@
         <v>43655</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11360,7 +11360,7 @@
         <v>43663</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11417,7 +11417,7 @@
         <v>43668</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11474,7 +11474,7 @@
         <v>43671</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11531,7 +11531,7 @@
         <v>43676</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11588,7 +11588,7 @@
         <v>43682</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11645,7 +11645,7 @@
         <v>43683</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11702,7 +11702,7 @@
         <v>43684</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11764,7 +11764,7 @@
         <v>43684</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11821,7 +11821,7 @@
         <v>43684</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11878,7 +11878,7 @@
         <v>43684</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11935,7 +11935,7 @@
         <v>43686</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11992,7 +11992,7 @@
         <v>43686</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12049,7 +12049,7 @@
         <v>43690</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12106,7 +12106,7 @@
         <v>43691</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         <v>43692</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12220,7 +12220,7 @@
         <v>43692</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12277,7 +12277,7 @@
         <v>43692</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         <v>43692</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         <v>43698</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12448,7 +12448,7 @@
         <v>43698</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12505,7 +12505,7 @@
         <v>43698</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12562,7 +12562,7 @@
         <v>43698</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         <v>43698</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12676,7 +12676,7 @@
         <v>43698</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12733,7 +12733,7 @@
         <v>43698</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12790,7 +12790,7 @@
         <v>43698</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12847,7 +12847,7 @@
         <v>43698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12904,7 +12904,7 @@
         <v>43698</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12961,7 +12961,7 @@
         <v>43698</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13018,7 +13018,7 @@
         <v>43698</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13075,7 +13075,7 @@
         <v>43698</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13132,7 +13132,7 @@
         <v>43699</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13189,7 +13189,7 @@
         <v>43701</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13246,7 +13246,7 @@
         <v>43701</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13303,7 +13303,7 @@
         <v>43706</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13360,7 +13360,7 @@
         <v>43710</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13417,7 +13417,7 @@
         <v>43710</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>43711</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13531,7 +13531,7 @@
         <v>43711</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         <v>43712</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
         <v>43712</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         <v>43712</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         <v>43712</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>43712</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>43712</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13935,7 +13935,7 @@
         <v>43718</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13992,7 +13992,7 @@
         <v>43718</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14049,7 +14049,7 @@
         <v>43719</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14106,7 +14106,7 @@
         <v>43719</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14163,7 +14163,7 @@
         <v>43719</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14220,7 +14220,7 @@
         <v>43720</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14277,7 +14277,7 @@
         <v>43720</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14334,7 +14334,7 @@
         <v>43721</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14391,7 +14391,7 @@
         <v>43727</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         <v>43732</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>43735</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14562,7 +14562,7 @@
         <v>43738</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14619,7 +14619,7 @@
         <v>43742</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14676,7 +14676,7 @@
         <v>43746</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14733,7 +14733,7 @@
         <v>43746</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14790,7 +14790,7 @@
         <v>43747</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14847,7 +14847,7 @@
         <v>43748</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14904,7 +14904,7 @@
         <v>43753</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14961,7 +14961,7 @@
         <v>43753</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>43754</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15075,7 +15075,7 @@
         <v>43756</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15132,7 +15132,7 @@
         <v>43760</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15189,7 +15189,7 @@
         <v>43760</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>43761</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15303,7 +15303,7 @@
         <v>43763</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>43763</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>43763</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>43766</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>43766</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>43770</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>43773</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>43774</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15759,7 +15759,7 @@
         <v>43775</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>43775</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15873,7 +15873,7 @@
         <v>43777</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>43782</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>43783</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>43783</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         <v>43788</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>43788</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16215,7 +16215,7 @@
         <v>43789</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>43790</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         <v>43812</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         <v>43812</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16443,7 +16443,7 @@
         <v>43817</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16500,7 +16500,7 @@
         <v>43818</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>43832</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>43832</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>43833</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16728,7 +16728,7 @@
         <v>43837</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16785,7 +16785,7 @@
         <v>43838</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>43838</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>43840</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>43844</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>43844</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>43845</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>43845</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>43849</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17241,7 +17241,7 @@
         <v>43850</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17298,7 +17298,7 @@
         <v>43852</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17355,7 +17355,7 @@
         <v>43852</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>43854</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>43867</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17526,7 +17526,7 @@
         <v>43867</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>43870</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>43870</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>43872</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>43875</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>43879</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>43887</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17925,7 +17925,7 @@
         <v>43887</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17982,7 +17982,7 @@
         <v>43889</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         <v>43889</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18096,7 +18096,7 @@
         <v>43889</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>43894</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18210,7 +18210,7 @@
         <v>43900</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18267,7 +18267,7 @@
         <v>43902</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18324,7 +18324,7 @@
         <v>43902</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18381,7 +18381,7 @@
         <v>43902</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
         <v>43902</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18495,7 +18495,7 @@
         <v>43907</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18552,7 +18552,7 @@
         <v>43907</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18609,7 +18609,7 @@
         <v>43907</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18666,7 +18666,7 @@
         <v>43907</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18723,7 +18723,7 @@
         <v>43913</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18780,7 +18780,7 @@
         <v>43914</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
         <v>43914</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18894,7 +18894,7 @@
         <v>43915</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18951,7 +18951,7 @@
         <v>43915</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19008,7 +19008,7 @@
         <v>43916</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19065,7 +19065,7 @@
         <v>43916</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19122,7 +19122,7 @@
         <v>43917</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19179,7 +19179,7 @@
         <v>43920</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19236,7 +19236,7 @@
         <v>43920</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19293,7 +19293,7 @@
         <v>43920</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19350,7 +19350,7 @@
         <v>43920</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19407,7 +19407,7 @@
         <v>43921</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19464,7 +19464,7 @@
         <v>43923</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19521,7 +19521,7 @@
         <v>43923</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19583,7 +19583,7 @@
         <v>43923</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19640,7 +19640,7 @@
         <v>43925</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19697,7 +19697,7 @@
         <v>43926</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19754,7 +19754,7 @@
         <v>43927</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19811,7 +19811,7 @@
         <v>43927</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19868,7 +19868,7 @@
         <v>43927</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19925,7 +19925,7 @@
         <v>43927</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>43935</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20039,7 +20039,7 @@
         <v>43937</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20096,7 +20096,7 @@
         <v>43937</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>43937</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20210,7 +20210,7 @@
         <v>43938</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20272,7 +20272,7 @@
         <v>43950</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>43977</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>43977</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20448,7 +20448,7 @@
         <v>43977</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20505,7 +20505,7 @@
         <v>43980</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20562,7 +20562,7 @@
         <v>43980</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20619,7 +20619,7 @@
         <v>43986</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20676,7 +20676,7 @@
         <v>43992</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20733,7 +20733,7 @@
         <v>43993</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20790,7 +20790,7 @@
         <v>44005</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         <v>44006</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20904,7 +20904,7 @@
         <v>44007</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20961,7 +20961,7 @@
         <v>44008</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21018,7 +21018,7 @@
         <v>44014</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21075,7 +21075,7 @@
         <v>44015</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21132,7 +21132,7 @@
         <v>44018</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21189,7 +21189,7 @@
         <v>44019</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21246,7 +21246,7 @@
         <v>44026</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21303,7 +21303,7 @@
         <v>44039</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21360,7 +21360,7 @@
         <v>44046</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21417,7 +21417,7 @@
         <v>44048</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21474,7 +21474,7 @@
         <v>44053</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21531,7 +21531,7 @@
         <v>44053</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
         <v>44053</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         <v>44054</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21702,7 +21702,7 @@
         <v>44055</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21759,7 +21759,7 @@
         <v>44055</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21816,7 +21816,7 @@
         <v>44055</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21873,7 +21873,7 @@
         <v>44055</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21930,7 +21930,7 @@
         <v>44057</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44060</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44060</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>44060</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>44062</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44062</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44062</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44071</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44074</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>44075</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>44080</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>44081</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>44083</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22671,7 +22671,7 @@
         <v>44088</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22728,7 +22728,7 @@
         <v>44088</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22785,7 +22785,7 @@
         <v>44090</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22842,7 +22842,7 @@
         <v>44090</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>44090</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22956,7 +22956,7 @@
         <v>44103</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         <v>44113</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>44113</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23127,7 +23127,7 @@
         <v>44120</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23184,7 +23184,7 @@
         <v>44120</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23241,7 +23241,7 @@
         <v>44123</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23298,7 +23298,7 @@
         <v>44124</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23355,7 +23355,7 @@
         <v>44124</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23412,7 +23412,7 @@
         <v>44125</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23469,7 +23469,7 @@
         <v>44127</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23526,7 +23526,7 @@
         <v>44131</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23583,7 +23583,7 @@
         <v>44132</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23640,7 +23640,7 @@
         <v>44132</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23697,7 +23697,7 @@
         <v>44132</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23754,7 +23754,7 @@
         <v>44132</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23811,7 +23811,7 @@
         <v>44132</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23868,7 +23868,7 @@
         <v>44133</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23925,7 +23925,7 @@
         <v>44139</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23982,7 +23982,7 @@
         <v>44139</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24039,7 +24039,7 @@
         <v>44140</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24096,7 +24096,7 @@
         <v>44140</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24153,7 +24153,7 @@
         <v>44140</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24210,7 +24210,7 @@
         <v>44144</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24267,7 +24267,7 @@
         <v>44146</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24324,7 +24324,7 @@
         <v>44146</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         <v>44152</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24438,7 +24438,7 @@
         <v>44153</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24495,7 +24495,7 @@
         <v>44154</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24552,7 +24552,7 @@
         <v>44166</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24609,7 +24609,7 @@
         <v>44167</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24666,7 +24666,7 @@
         <v>44169</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24723,7 +24723,7 @@
         <v>44174</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24780,7 +24780,7 @@
         <v>44179</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24837,7 +24837,7 @@
         <v>44179</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24894,7 +24894,7 @@
         <v>44186</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24951,7 +24951,7 @@
         <v>44188</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25008,7 +25008,7 @@
         <v>44188</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25065,7 +25065,7 @@
         <v>44200</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25122,7 +25122,7 @@
         <v>44202</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25179,7 +25179,7 @@
         <v>44204</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25236,7 +25236,7 @@
         <v>44204</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25293,7 +25293,7 @@
         <v>44204</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25350,7 +25350,7 @@
         <v>44207</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25407,7 +25407,7 @@
         <v>44208</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25464,7 +25464,7 @@
         <v>44208</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25521,7 +25521,7 @@
         <v>44208</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>44209</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         <v>44211</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>44217</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         <v>44222</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25806,7 +25806,7 @@
         <v>44223</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25863,7 +25863,7 @@
         <v>44225</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25920,7 +25920,7 @@
         <v>44225</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25977,7 +25977,7 @@
         <v>44225</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>44230</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>44235</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>44235</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>44235</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>44235</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>44241</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26376,7 +26376,7 @@
         <v>44253</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26433,7 +26433,7 @@
         <v>44256</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26490,7 +26490,7 @@
         <v>44257</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26547,7 +26547,7 @@
         <v>44259</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26604,7 +26604,7 @@
         <v>44259</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26661,7 +26661,7 @@
         <v>44267</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26718,7 +26718,7 @@
         <v>44267</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26775,7 +26775,7 @@
         <v>44270</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26832,7 +26832,7 @@
         <v>44275</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26889,7 +26889,7 @@
         <v>44279</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         <v>44281</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27003,7 +27003,7 @@
         <v>44284</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27060,7 +27060,7 @@
         <v>44284</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27117,7 +27117,7 @@
         <v>44284</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27174,7 +27174,7 @@
         <v>44285</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27231,7 +27231,7 @@
         <v>44286</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27288,7 +27288,7 @@
         <v>44292</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27345,7 +27345,7 @@
         <v>44300</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27402,7 +27402,7 @@
         <v>44300</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27464,7 +27464,7 @@
         <v>44302</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27521,7 +27521,7 @@
         <v>44302</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27578,7 +27578,7 @@
         <v>44302</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27635,7 +27635,7 @@
         <v>44302</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27692,7 +27692,7 @@
         <v>44305</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27749,7 +27749,7 @@
         <v>44305</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27806,7 +27806,7 @@
         <v>44305</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27863,7 +27863,7 @@
         <v>44306</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27920,7 +27920,7 @@
         <v>44309</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27977,7 +27977,7 @@
         <v>44323</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28034,7 +28034,7 @@
         <v>44323</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28091,7 +28091,7 @@
         <v>44325</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28148,7 +28148,7 @@
         <v>44327</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28205,7 +28205,7 @@
         <v>44333</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28262,7 +28262,7 @@
         <v>44342</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28319,7 +28319,7 @@
         <v>44342</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28376,7 +28376,7 @@
         <v>44342</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28433,7 +28433,7 @@
         <v>44342</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28490,7 +28490,7 @@
         <v>44343</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28547,7 +28547,7 @@
         <v>44349</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28604,7 +28604,7 @@
         <v>44350</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28661,7 +28661,7 @@
         <v>44350</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28718,7 +28718,7 @@
         <v>44350</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28775,7 +28775,7 @@
         <v>44354</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28832,7 +28832,7 @@
         <v>44356</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28889,7 +28889,7 @@
         <v>44364</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         <v>44365</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29003,7 +29003,7 @@
         <v>44365</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29060,7 +29060,7 @@
         <v>44368</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29117,7 +29117,7 @@
         <v>44375</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29174,7 +29174,7 @@
         <v>44383</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29231,7 +29231,7 @@
         <v>44384</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29288,7 +29288,7 @@
         <v>44384</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29345,7 +29345,7 @@
         <v>44391</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29402,7 +29402,7 @@
         <v>44391</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29459,7 +29459,7 @@
         <v>44397</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29516,7 +29516,7 @@
         <v>44398</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29573,7 +29573,7 @@
         <v>44399</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29630,7 +29630,7 @@
         <v>44399</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29687,7 +29687,7 @@
         <v>44406</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29744,7 +29744,7 @@
         <v>44411</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29801,7 +29801,7 @@
         <v>44411</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29858,7 +29858,7 @@
         <v>44420</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29915,7 +29915,7 @@
         <v>44420</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29972,7 +29972,7 @@
         <v>44421</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30029,7 +30029,7 @@
         <v>44424</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30086,7 +30086,7 @@
         <v>44425</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30143,7 +30143,7 @@
         <v>44433</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30200,7 +30200,7 @@
         <v>44435</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30257,7 +30257,7 @@
         <v>44435</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30314,7 +30314,7 @@
         <v>44440</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30371,7 +30371,7 @@
         <v>44440</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30433,7 +30433,7 @@
         <v>44441</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30490,7 +30490,7 @@
         <v>44441</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         <v>44441</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30604,7 +30604,7 @@
         <v>44442</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30661,7 +30661,7 @@
         <v>44447</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30718,7 +30718,7 @@
         <v>44449</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30775,7 +30775,7 @@
         <v>44452</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30832,7 +30832,7 @@
         <v>44452</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30889,7 +30889,7 @@
         <v>44458</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         <v>44461</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31003,7 +31003,7 @@
         <v>44461</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31060,7 +31060,7 @@
         <v>44462</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31117,7 +31117,7 @@
         <v>44466</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31174,7 +31174,7 @@
         <v>44468</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31231,7 +31231,7 @@
         <v>44473</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31288,7 +31288,7 @@
         <v>44476</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31345,7 +31345,7 @@
         <v>44481</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31402,7 +31402,7 @@
         <v>44491</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31459,7 +31459,7 @@
         <v>44496</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31516,7 +31516,7 @@
         <v>44496</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31573,7 +31573,7 @@
         <v>44497</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31630,7 +31630,7 @@
         <v>44498</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31687,7 +31687,7 @@
         <v>44502</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31744,7 +31744,7 @@
         <v>44503</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31801,7 +31801,7 @@
         <v>44503</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31858,7 +31858,7 @@
         <v>44512</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         <v>44515</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31972,7 +31972,7 @@
         <v>44516</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32029,7 +32029,7 @@
         <v>44517</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32086,7 +32086,7 @@
         <v>44523</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32143,7 +32143,7 @@
         <v>44529</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32200,7 +32200,7 @@
         <v>44530</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32257,7 +32257,7 @@
         <v>44539</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32314,7 +32314,7 @@
         <v>44543</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32371,7 +32371,7 @@
         <v>44551</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32428,7 +32428,7 @@
         <v>44553</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32485,7 +32485,7 @@
         <v>44559</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32542,7 +32542,7 @@
         <v>44572</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32599,7 +32599,7 @@
         <v>44572</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32656,7 +32656,7 @@
         <v>44578</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32713,7 +32713,7 @@
         <v>44579</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32770,7 +32770,7 @@
         <v>44584</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32827,7 +32827,7 @@
         <v>44585</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32884,7 +32884,7 @@
         <v>44585</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32941,7 +32941,7 @@
         <v>44586</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -32998,7 +32998,7 @@
         <v>44588</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33055,7 +33055,7 @@
         <v>44592</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33112,7 +33112,7 @@
         <v>44595</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33169,7 +33169,7 @@
         <v>44596</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33231,7 +33231,7 @@
         <v>44596</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33288,7 +33288,7 @@
         <v>44599</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33345,7 +33345,7 @@
         <v>44600</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33402,7 +33402,7 @@
         <v>44608</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33459,7 +33459,7 @@
         <v>44614</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33516,7 +33516,7 @@
         <v>44616</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33573,7 +33573,7 @@
         <v>44617</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33630,7 +33630,7 @@
         <v>44619</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33687,7 +33687,7 @@
         <v>44619</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33744,7 +33744,7 @@
         <v>44620</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33801,7 +33801,7 @@
         <v>44620</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33858,7 +33858,7 @@
         <v>44621</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33915,7 +33915,7 @@
         <v>44623</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -33972,7 +33972,7 @@
         <v>44624</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34029,7 +34029,7 @@
         <v>44624</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34086,7 +34086,7 @@
         <v>44628</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34143,7 +34143,7 @@
         <v>44629</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34200,7 +34200,7 @@
         <v>44629</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34257,7 +34257,7 @@
         <v>44636</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34314,7 +34314,7 @@
         <v>44636</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34371,7 +34371,7 @@
         <v>44637</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34428,7 +34428,7 @@
         <v>44644</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34485,7 +34485,7 @@
         <v>44657</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34542,7 +34542,7 @@
         <v>44663</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34599,7 +34599,7 @@
         <v>44670</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34656,7 +34656,7 @@
         <v>44672</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34713,7 +34713,7 @@
         <v>44686</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34770,7 +34770,7 @@
         <v>44687</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34827,7 +34827,7 @@
         <v>44687</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34884,7 +34884,7 @@
         <v>44693</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -34941,7 +34941,7 @@
         <v>44696</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -34998,7 +34998,7 @@
         <v>44698</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35055,7 +35055,7 @@
         <v>44700</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35112,7 +35112,7 @@
         <v>44705</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35169,7 +35169,7 @@
         <v>44706</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35226,7 +35226,7 @@
         <v>44706</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35283,7 +35283,7 @@
         <v>44710</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35340,7 +35340,7 @@
         <v>44711</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35397,7 +35397,7 @@
         <v>44720</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35454,7 +35454,7 @@
         <v>44725</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35511,7 +35511,7 @@
         <v>44742</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35568,7 +35568,7 @@
         <v>44742</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35625,7 +35625,7 @@
         <v>44742</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35682,7 +35682,7 @@
         <v>44742</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35739,7 +35739,7 @@
         <v>44747</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35796,7 +35796,7 @@
         <v>44747</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35853,7 +35853,7 @@
         <v>44748</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -35910,7 +35910,7 @@
         <v>44753</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -35967,7 +35967,7 @@
         <v>44754</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36024,7 +36024,7 @@
         <v>44754</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36081,7 +36081,7 @@
         <v>44757</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36138,7 +36138,7 @@
         <v>44757</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36195,7 +36195,7 @@
         <v>44767</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36252,7 +36252,7 @@
         <v>44799</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36309,7 +36309,7 @@
         <v>44806</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36366,7 +36366,7 @@
         <v>44812</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36423,7 +36423,7 @@
         <v>44820</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36480,7 +36480,7 @@
         <v>44820</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36537,7 +36537,7 @@
         <v>44825</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36594,7 +36594,7 @@
         <v>44826</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36651,7 +36651,7 @@
         <v>44832</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36708,7 +36708,7 @@
         <v>44832</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36765,7 +36765,7 @@
         <v>44837</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -36822,7 +36822,7 @@
         <v>44844</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -36879,7 +36879,7 @@
         <v>44845</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -36936,7 +36936,7 @@
         <v>44847</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -36993,7 +36993,7 @@
         <v>44847</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37050,7 +37050,7 @@
         <v>44847</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37107,7 +37107,7 @@
         <v>44856</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37164,7 +37164,7 @@
         <v>44858</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37221,7 +37221,7 @@
         <v>44858</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37278,7 +37278,7 @@
         <v>44860</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37335,7 +37335,7 @@
         <v>44860</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37392,7 +37392,7 @@
         <v>44860</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37449,7 +37449,7 @@
         <v>44862</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37506,7 +37506,7 @@
         <v>44865</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37563,7 +37563,7 @@
         <v>44866</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37620,7 +37620,7 @@
         <v>44866</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37677,7 +37677,7 @@
         <v>44867</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37734,7 +37734,7 @@
         <v>44874</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -37791,7 +37791,7 @@
         <v>44874</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -37848,7 +37848,7 @@
         <v>44874</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -37905,7 +37905,7 @@
         <v>44875</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -37962,7 +37962,7 @@
         <v>44879</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38019,7 +38019,7 @@
         <v>44881</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38076,7 +38076,7 @@
         <v>44890</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38133,7 +38133,7 @@
         <v>44893</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38190,7 +38190,7 @@
         <v>44893</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38247,7 +38247,7 @@
         <v>44893</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38304,7 +38304,7 @@
         <v>44903</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38361,7 +38361,7 @@
         <v>44909</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38418,7 +38418,7 @@
         <v>44911</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38475,7 +38475,7 @@
         <v>44911</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38532,7 +38532,7 @@
         <v>44920</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38589,7 +38589,7 @@
         <v>44930</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38646,7 +38646,7 @@
         <v>44930</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38703,7 +38703,7 @@
         <v>44936</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38760,7 +38760,7 @@
         <v>44939</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -38817,7 +38817,7 @@
         <v>44942</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -38874,7 +38874,7 @@
         <v>44950</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -38931,7 +38931,7 @@
         <v>44951</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -38988,7 +38988,7 @@
         <v>44952</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39045,7 +39045,7 @@
         <v>44957</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39102,7 +39102,7 @@
         <v>44958</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39159,7 +39159,7 @@
         <v>44967</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39216,7 +39216,7 @@
         <v>44967</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39273,7 +39273,7 @@
         <v>44970</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39330,7 +39330,7 @@
         <v>44981</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39387,7 +39387,7 @@
         <v>44981</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39444,7 +39444,7 @@
         <v>44984</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39501,7 +39501,7 @@
         <v>44986</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39558,7 +39558,7 @@
         <v>44988</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39615,7 +39615,7 @@
         <v>44988</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39672,7 +39672,7 @@
         <v>44988</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39729,7 +39729,7 @@
         <v>44988</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -39786,7 +39786,7 @@
         <v>44998</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -39843,7 +39843,7 @@
         <v>45001</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -39900,7 +39900,7 @@
         <v>45004</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -39957,7 +39957,7 @@
         <v>45005</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40014,7 +40014,7 @@
         <v>45012</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40071,7 +40071,7 @@
         <v>45012</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40128,7 +40128,7 @@
         <v>45012</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40185,7 +40185,7 @@
         <v>45012</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40242,7 +40242,7 @@
         <v>45015</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40299,7 +40299,7 @@
         <v>45016</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40356,7 +40356,7 @@
         <v>45019</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40413,7 +40413,7 @@
         <v>45019</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40470,7 +40470,7 @@
         <v>45020</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40527,7 +40527,7 @@
         <v>45027</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40584,7 +40584,7 @@
         <v>45027</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40641,7 +40641,7 @@
         <v>45027</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40698,7 +40698,7 @@
         <v>45028</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40755,7 +40755,7 @@
         <v>45030</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -40812,7 +40812,7 @@
         <v>45034</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -40869,7 +40869,7 @@
         <v>45034</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -40926,7 +40926,7 @@
         <v>45035</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -40983,7 +40983,7 @@
         <v>45035</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41040,7 +41040,7 @@
         <v>45037</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41097,7 +41097,7 @@
         <v>45040</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41154,7 +41154,7 @@
         <v>45040</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41211,7 +41211,7 @@
         <v>45042</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41268,7 +41268,7 @@
         <v>45048</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41325,7 +41325,7 @@
         <v>45048</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41382,7 +41382,7 @@
         <v>45050</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41439,7 +41439,7 @@
         <v>45050</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41496,7 +41496,7 @@
         <v>45050</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41553,7 +41553,7 @@
         <v>45050</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41610,7 +41610,7 @@
         <v>45055</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41667,7 +41667,7 @@
         <v>45056</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41724,7 +41724,7 @@
         <v>45057</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -41781,7 +41781,7 @@
         <v>45057</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -41838,7 +41838,7 @@
         <v>45057</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -41895,7 +41895,7 @@
         <v>45057</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -41952,7 +41952,7 @@
         <v>45058</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42009,7 +42009,7 @@
         <v>45065</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42066,7 +42066,7 @@
         <v>45069</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42123,7 +42123,7 @@
         <v>45069</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42180,7 +42180,7 @@
         <v>45070</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42237,7 +42237,7 @@
         <v>45070</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42294,7 +42294,7 @@
         <v>45070</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42351,7 +42351,7 @@
         <v>45070</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42408,7 +42408,7 @@
         <v>45075</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42465,7 +42465,7 @@
         <v>45076</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42522,7 +42522,7 @@
         <v>45076</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42579,7 +42579,7 @@
         <v>45077</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42636,7 +42636,7 @@
         <v>45079</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42693,7 +42693,7 @@
         <v>45080</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -42750,7 +42750,7 @@
         <v>45080</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -42807,7 +42807,7 @@
         <v>45082</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -42864,7 +42864,7 @@
         <v>45084</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -42921,7 +42921,7 @@
         <v>45085</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -42978,7 +42978,7 @@
         <v>45085</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43035,7 +43035,7 @@
         <v>45085</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43092,7 +43092,7 @@
         <v>45085</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43149,7 +43149,7 @@
         <v>45085</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43206,7 +43206,7 @@
         <v>45089</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43263,7 +43263,7 @@
         <v>45090</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43320,7 +43320,7 @@
         <v>45091</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43377,7 +43377,7 @@
         <v>45091</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43434,7 +43434,7 @@
         <v>45092</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43491,7 +43491,7 @@
         <v>45092</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -43548,7 +43548,7 @@
         <v>45092</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -43605,7 +43605,7 @@
         <v>45092</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -43662,7 +43662,7 @@
         <v>45093</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -43719,7 +43719,7 @@
         <v>45094</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -43776,7 +43776,7 @@
         <v>45097</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -43833,7 +43833,7 @@
         <v>45098</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -43890,7 +43890,7 @@
         <v>45098</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -43947,7 +43947,7 @@
         <v>45106</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44004,7 +44004,7 @@
         <v>45106</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44061,7 +44061,7 @@
         <v>45106</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44118,7 +44118,7 @@
         <v>45106</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44175,7 +44175,7 @@
         <v>45106</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44232,7 +44232,7 @@
         <v>45107</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44289,7 +44289,7 @@
         <v>45107</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44346,7 +44346,7 @@
         <v>45107</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44403,7 +44403,7 @@
         <v>45108</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44460,7 +44460,7 @@
         <v>45113</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -44517,7 +44517,7 @@
         <v>45113</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -44574,7 +44574,7 @@
         <v>45119</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -44631,7 +44631,7 @@
         <v>45125</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -44688,7 +44688,7 @@
         <v>45127</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -44745,7 +44745,7 @@
         <v>45127</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -44802,7 +44802,7 @@
         <v>45127</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -44859,7 +44859,7 @@
         <v>45132</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -44916,7 +44916,7 @@
         <v>45140</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -44973,7 +44973,7 @@
         <v>45142</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45030,7 +45030,7 @@
         <v>45142</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45087,7 +45087,7 @@
         <v>45142</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45144,7 +45144,7 @@
         <v>45147</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45201,7 +45201,7 @@
         <v>45148</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45258,7 +45258,7 @@
         <v>45155</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45315,7 +45315,7 @@
         <v>45155</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45372,7 +45372,7 @@
         <v>45159</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -45429,7 +45429,7 @@
         <v>45159</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -45486,7 +45486,7 @@
         <v>45162</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -45543,7 +45543,7 @@
         <v>45162</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -45600,7 +45600,7 @@
         <v>45163</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -45657,7 +45657,7 @@
         <v>45169</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -45714,7 +45714,7 @@
         <v>45170</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -45771,7 +45771,7 @@
         <v>45170</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -45828,7 +45828,7 @@
         <v>45180</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -45885,7 +45885,7 @@
         <v>45180</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -45942,7 +45942,7 @@
         <v>45181</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>

--- a/Översikt KARLSKRONA.xlsx
+++ b/Översikt KARLSKRONA.xlsx
@@ -572,7 +572,7 @@
         <v>45051</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>43640</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>44509</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>45101</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>43315</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43843</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>44960</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>45027</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>43356</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>43447</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>43963</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44021</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>44132</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>44139</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>44139</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>44140</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>44159</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>44237</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>44445</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
         <v>44467</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>44531</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>44728</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>45037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>43321</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>43332</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43335</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>43341</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43342</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>43349</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43350</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>43356</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         <v>43357</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43359</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43361</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>43363</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>43367</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>43368</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>43368</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>43369</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>43375</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         <v>43376</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>43384</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3635,7 +3635,7 @@
         <v>43396</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>43396</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>43396</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3806,7 +3806,7 @@
         <v>43397</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>43398</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>43398</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>43398</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>43398</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>43402</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>43403</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>43403</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>43405</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>43409</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>43410</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4443,7 +4443,7 @@
         <v>43410</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>43411</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43412</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>43413</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>43416</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>43416</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>43416</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>43417</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>43419</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>43419</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>43420</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>43420</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>43423</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>43424</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>43426</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>43430</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>43430</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>43431</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>43431</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>43434</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         <v>43434</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>43434</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>43437</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>43437</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5816,7 +5816,7 @@
         <v>43437</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>43438</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>43446</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5987,7 +5987,7 @@
         <v>43451</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6044,7 +6044,7 @@
         <v>43451</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>43451</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>43451</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6215,7 +6215,7 @@
         <v>43451</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>43451</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>43453</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         <v>43454</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6443,7 +6443,7 @@
         <v>43454</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6500,7 +6500,7 @@
         <v>43461</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6557,7 +6557,7 @@
         <v>43465</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6614,7 +6614,7 @@
         <v>43467</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6671,7 +6671,7 @@
         <v>43467</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
         <v>43468</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6785,7 +6785,7 @@
         <v>43473</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6842,7 +6842,7 @@
         <v>43475</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6899,7 +6899,7 @@
         <v>43475</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
         <v>43476</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7013,7 +7013,7 @@
         <v>43476</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7070,7 +7070,7 @@
         <v>43479</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7127,7 +7127,7 @@
         <v>43480</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7184,7 +7184,7 @@
         <v>43480</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7241,7 +7241,7 @@
         <v>43481</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7298,7 +7298,7 @@
         <v>43483</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7355,7 +7355,7 @@
         <v>43485</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7412,7 +7412,7 @@
         <v>43485</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7469,7 +7469,7 @@
         <v>43488</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         <v>43488</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>43488</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>43489</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7697,7 +7697,7 @@
         <v>43493</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>43493</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>43493</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>43493</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>43494</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>43496</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43497</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43497</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43500</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43501</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43508</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43508</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43508</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>43510</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8500,7 +8500,7 @@
         <v>43511</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>43516</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>43517</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         <v>43517</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>43518</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         <v>43521</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>43523</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         <v>43529</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>43529</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>43532</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9075,7 +9075,7 @@
         <v>43535</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9132,7 +9132,7 @@
         <v>43537</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         <v>43538</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9246,7 +9246,7 @@
         <v>43538</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9303,7 +9303,7 @@
         <v>43538</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>43538</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>43542</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9474,7 +9474,7 @@
         <v>43543</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>43546</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>43549</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9645,7 +9645,7 @@
         <v>43549</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9702,7 +9702,7 @@
         <v>43549</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>43567</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>43567</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>43571</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9930,7 +9930,7 @@
         <v>43572</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9987,7 +9987,7 @@
         <v>43573</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10044,7 +10044,7 @@
         <v>43580</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43584</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43587</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43592</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>43593</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43594</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>43594</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>43594</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43595</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         <v>43601</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10614,7 +10614,7 @@
         <v>43601</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10671,7 +10671,7 @@
         <v>43602</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10728,7 +10728,7 @@
         <v>43609</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10785,7 +10785,7 @@
         <v>43626</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10842,7 +10842,7 @@
         <v>43626</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>43626</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>43627</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>43640</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11075,7 +11075,7 @@
         <v>43644</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>43648</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11189,7 +11189,7 @@
         <v>43650</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11246,7 +11246,7 @@
         <v>43650</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11303,7 +11303,7 @@
         <v>43655</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11360,7 +11360,7 @@
         <v>43663</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11417,7 +11417,7 @@
         <v>43668</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11474,7 +11474,7 @@
         <v>43671</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11531,7 +11531,7 @@
         <v>43676</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11588,7 +11588,7 @@
         <v>43682</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11645,7 +11645,7 @@
         <v>43683</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11702,7 +11702,7 @@
         <v>43684</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11764,7 +11764,7 @@
         <v>43684</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11821,7 +11821,7 @@
         <v>43684</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11878,7 +11878,7 @@
         <v>43684</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11935,7 +11935,7 @@
         <v>43686</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11992,7 +11992,7 @@
         <v>43686</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12049,7 +12049,7 @@
         <v>43690</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12106,7 +12106,7 @@
         <v>43691</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         <v>43692</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12220,7 +12220,7 @@
         <v>43692</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12277,7 +12277,7 @@
         <v>43692</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         <v>43692</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         <v>43698</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12448,7 +12448,7 @@
         <v>43698</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12505,7 +12505,7 @@
         <v>43698</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12562,7 +12562,7 @@
         <v>43698</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         <v>43698</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12676,7 +12676,7 @@
         <v>43698</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12733,7 +12733,7 @@
         <v>43698</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12790,7 +12790,7 @@
         <v>43698</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12847,7 +12847,7 @@
         <v>43698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12904,7 +12904,7 @@
         <v>43698</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12961,7 +12961,7 @@
         <v>43698</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13018,7 +13018,7 @@
         <v>43698</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13075,7 +13075,7 @@
         <v>43698</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13132,7 +13132,7 @@
         <v>43699</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13189,7 +13189,7 @@
         <v>43701</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13246,7 +13246,7 @@
         <v>43701</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13303,7 +13303,7 @@
         <v>43706</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13360,7 +13360,7 @@
         <v>43710</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13417,7 +13417,7 @@
         <v>43710</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>43711</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13531,7 +13531,7 @@
         <v>43711</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         <v>43712</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
         <v>43712</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         <v>43712</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         <v>43712</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>43712</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>43712</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13935,7 +13935,7 @@
         <v>43718</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13992,7 +13992,7 @@
         <v>43718</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14049,7 +14049,7 @@
         <v>43719</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14106,7 +14106,7 @@
         <v>43719</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14163,7 +14163,7 @@
         <v>43719</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14220,7 +14220,7 @@
         <v>43720</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14277,7 +14277,7 @@
         <v>43720</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14334,7 +14334,7 @@
         <v>43721</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14391,7 +14391,7 @@
         <v>43727</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         <v>43732</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>43735</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14562,7 +14562,7 @@
         <v>43738</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14619,7 +14619,7 @@
         <v>43742</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14676,7 +14676,7 @@
         <v>43746</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14733,7 +14733,7 @@
         <v>43746</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14790,7 +14790,7 @@
         <v>43747</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14847,7 +14847,7 @@
         <v>43748</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14904,7 +14904,7 @@
         <v>43753</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14961,7 +14961,7 @@
         <v>43753</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>43754</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15075,7 +15075,7 @@
         <v>43756</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15132,7 +15132,7 @@
         <v>43760</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15189,7 +15189,7 @@
         <v>43760</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>43761</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15303,7 +15303,7 @@
         <v>43763</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>43763</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>43763</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>43766</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>43766</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>43770</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>43773</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>43774</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15759,7 +15759,7 @@
         <v>43775</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>43775</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15873,7 +15873,7 @@
         <v>43777</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>43782</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>43783</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>43783</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         <v>43788</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>43788</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16215,7 +16215,7 @@
         <v>43789</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>43790</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         <v>43812</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         <v>43812</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16443,7 +16443,7 @@
         <v>43817</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16500,7 +16500,7 @@
         <v>43818</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>43832</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>43832</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>43833</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16728,7 +16728,7 @@
         <v>43837</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16785,7 +16785,7 @@
         <v>43838</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>43838</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>43840</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>43844</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>43844</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>43845</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>43845</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>43849</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17241,7 +17241,7 @@
         <v>43850</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17298,7 +17298,7 @@
         <v>43852</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17355,7 +17355,7 @@
         <v>43852</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>43854</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>43867</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17526,7 +17526,7 @@
         <v>43867</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>43870</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>43870</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>43872</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>43875</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>43879</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>43887</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17925,7 +17925,7 @@
         <v>43887</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17982,7 +17982,7 @@
         <v>43889</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         <v>43889</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18096,7 +18096,7 @@
         <v>43889</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>43894</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18210,7 +18210,7 @@
         <v>43900</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18267,7 +18267,7 @@
         <v>43902</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18324,7 +18324,7 @@
         <v>43902</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18381,7 +18381,7 @@
         <v>43902</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
         <v>43902</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18495,7 +18495,7 @@
         <v>43907</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18552,7 +18552,7 @@
         <v>43907</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18609,7 +18609,7 @@
         <v>43907</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18666,7 +18666,7 @@
         <v>43907</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18723,7 +18723,7 @@
         <v>43913</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18780,7 +18780,7 @@
         <v>43914</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
         <v>43914</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18894,7 +18894,7 @@
         <v>43915</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18951,7 +18951,7 @@
         <v>43915</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19008,7 +19008,7 @@
         <v>43916</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19065,7 +19065,7 @@
         <v>43916</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19122,7 +19122,7 @@
         <v>43917</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19179,7 +19179,7 @@
         <v>43920</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19236,7 +19236,7 @@
         <v>43920</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19293,7 +19293,7 @@
         <v>43920</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19350,7 +19350,7 @@
         <v>43920</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19407,7 +19407,7 @@
         <v>43921</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19464,7 +19464,7 @@
         <v>43923</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19521,7 +19521,7 @@
         <v>43923</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19583,7 +19583,7 @@
         <v>43923</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19640,7 +19640,7 @@
         <v>43925</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19697,7 +19697,7 @@
         <v>43926</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19754,7 +19754,7 @@
         <v>43927</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19811,7 +19811,7 @@
         <v>43927</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19868,7 +19868,7 @@
         <v>43927</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19925,7 +19925,7 @@
         <v>43927</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>43935</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20039,7 +20039,7 @@
         <v>43937</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20096,7 +20096,7 @@
         <v>43937</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>43937</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20210,7 +20210,7 @@
         <v>43938</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20272,7 +20272,7 @@
         <v>43950</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>43977</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>43977</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20448,7 +20448,7 @@
         <v>43977</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20505,7 +20505,7 @@
         <v>43980</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20562,7 +20562,7 @@
         <v>43980</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20619,7 +20619,7 @@
         <v>43986</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20676,7 +20676,7 @@
         <v>43992</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20733,7 +20733,7 @@
         <v>43993</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20790,7 +20790,7 @@
         <v>44005</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         <v>44006</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20904,7 +20904,7 @@
         <v>44007</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20961,7 +20961,7 @@
         <v>44008</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21018,7 +21018,7 @@
         <v>44014</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21075,7 +21075,7 @@
         <v>44015</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21132,7 +21132,7 @@
         <v>44018</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21189,7 +21189,7 @@
         <v>44019</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21246,7 +21246,7 @@
         <v>44026</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21303,7 +21303,7 @@
         <v>44039</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21360,7 +21360,7 @@
         <v>44046</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21417,7 +21417,7 @@
         <v>44048</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21474,7 +21474,7 @@
         <v>44053</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21531,7 +21531,7 @@
         <v>44053</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
         <v>44053</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         <v>44054</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21702,7 +21702,7 @@
         <v>44055</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21759,7 +21759,7 @@
         <v>44055</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21816,7 +21816,7 @@
         <v>44055</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21873,7 +21873,7 @@
         <v>44055</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21930,7 +21930,7 @@
         <v>44057</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44060</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44060</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>44060</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>44062</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44062</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44062</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44071</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44074</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>44075</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>44080</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>44081</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>44083</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22671,7 +22671,7 @@
         <v>44088</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22728,7 +22728,7 @@
         <v>44088</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22785,7 +22785,7 @@
         <v>44090</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22842,7 +22842,7 @@
         <v>44090</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>44090</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22956,7 +22956,7 @@
         <v>44103</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         <v>44113</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>44113</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23127,7 +23127,7 @@
         <v>44120</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23184,7 +23184,7 @@
         <v>44120</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23241,7 +23241,7 @@
         <v>44123</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23298,7 +23298,7 @@
         <v>44124</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23355,7 +23355,7 @@
         <v>44124</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23412,7 +23412,7 @@
         <v>44125</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23469,7 +23469,7 @@
         <v>44127</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23526,7 +23526,7 @@
         <v>44131</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23583,7 +23583,7 @@
         <v>44132</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23640,7 +23640,7 @@
         <v>44132</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23697,7 +23697,7 @@
         <v>44132</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23754,7 +23754,7 @@
         <v>44132</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23811,7 +23811,7 @@
         <v>44132</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23868,7 +23868,7 @@
         <v>44133</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23925,7 +23925,7 @@
         <v>44139</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23982,7 +23982,7 @@
         <v>44139</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24039,7 +24039,7 @@
         <v>44140</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24096,7 +24096,7 @@
         <v>44140</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24153,7 +24153,7 @@
         <v>44140</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24210,7 +24210,7 @@
         <v>44144</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24267,7 +24267,7 @@
         <v>44146</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24324,7 +24324,7 @@
         <v>44146</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         <v>44152</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24438,7 +24438,7 @@
         <v>44153</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24495,7 +24495,7 @@
         <v>44154</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24552,7 +24552,7 @@
         <v>44166</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24609,7 +24609,7 @@
         <v>44167</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24666,7 +24666,7 @@
         <v>44169</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24723,7 +24723,7 @@
         <v>44174</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24780,7 +24780,7 @@
         <v>44179</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24837,7 +24837,7 @@
         <v>44179</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24894,7 +24894,7 @@
         <v>44186</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24951,7 +24951,7 @@
         <v>44188</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25008,7 +25008,7 @@
         <v>44188</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25065,7 +25065,7 @@
         <v>44200</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25122,7 +25122,7 @@
         <v>44202</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25179,7 +25179,7 @@
         <v>44204</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25236,7 +25236,7 @@
         <v>44204</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25293,7 +25293,7 @@
         <v>44204</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25350,7 +25350,7 @@
         <v>44207</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25407,7 +25407,7 @@
         <v>44208</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25464,7 +25464,7 @@
         <v>44208</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25521,7 +25521,7 @@
         <v>44208</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>44209</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         <v>44211</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>44217</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         <v>44222</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25806,7 +25806,7 @@
         <v>44223</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25863,7 +25863,7 @@
         <v>44225</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25920,7 +25920,7 @@
         <v>44225</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25977,7 +25977,7 @@
         <v>44225</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>44230</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>44235</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>44235</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>44235</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>44235</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>44241</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26376,7 +26376,7 @@
         <v>44253</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26433,7 +26433,7 @@
         <v>44256</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26490,7 +26490,7 @@
         <v>44257</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26547,7 +26547,7 @@
         <v>44259</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26604,7 +26604,7 @@
         <v>44259</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26661,7 +26661,7 @@
         <v>44267</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26718,7 +26718,7 @@
         <v>44267</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26775,7 +26775,7 @@
         <v>44270</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26832,7 +26832,7 @@
         <v>44275</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26889,7 +26889,7 @@
         <v>44279</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         <v>44281</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27003,7 +27003,7 @@
         <v>44284</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27060,7 +27060,7 @@
         <v>44284</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27117,7 +27117,7 @@
         <v>44284</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27174,7 +27174,7 @@
         <v>44285</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27231,7 +27231,7 @@
         <v>44286</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27288,7 +27288,7 @@
         <v>44292</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27345,7 +27345,7 @@
         <v>44300</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27402,7 +27402,7 @@
         <v>44300</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27464,7 +27464,7 @@
         <v>44302</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27521,7 +27521,7 @@
         <v>44302</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27578,7 +27578,7 @@
         <v>44302</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27635,7 +27635,7 @@
         <v>44302</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27692,7 +27692,7 @@
         <v>44305</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27749,7 +27749,7 @@
         <v>44305</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27806,7 +27806,7 @@
         <v>44305</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27863,7 +27863,7 @@
         <v>44306</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27920,7 +27920,7 @@
         <v>44309</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27977,7 +27977,7 @@
         <v>44323</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28034,7 +28034,7 @@
         <v>44323</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28091,7 +28091,7 @@
         <v>44325</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28148,7 +28148,7 @@
         <v>44327</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28205,7 +28205,7 @@
         <v>44333</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28262,7 +28262,7 @@
         <v>44342</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28319,7 +28319,7 @@
         <v>44342</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28376,7 +28376,7 @@
         <v>44342</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28433,7 +28433,7 @@
         <v>44342</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28490,7 +28490,7 @@
         <v>44343</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28547,7 +28547,7 @@
         <v>44349</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28604,7 +28604,7 @@
         <v>44350</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28661,7 +28661,7 @@
         <v>44350</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28718,7 +28718,7 @@
         <v>44350</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28775,7 +28775,7 @@
         <v>44354</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28832,7 +28832,7 @@
         <v>44356</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28889,7 +28889,7 @@
         <v>44364</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         <v>44365</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29003,7 +29003,7 @@
         <v>44365</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29060,7 +29060,7 @@
         <v>44368</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29117,7 +29117,7 @@
         <v>44375</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29174,7 +29174,7 @@
         <v>44383</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29231,7 +29231,7 @@
         <v>44384</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29288,7 +29288,7 @@
         <v>44384</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29345,7 +29345,7 @@
         <v>44391</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29402,7 +29402,7 @@
         <v>44391</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29459,7 +29459,7 @@
         <v>44397</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29516,7 +29516,7 @@
         <v>44398</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29573,7 +29573,7 @@
         <v>44399</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29630,7 +29630,7 @@
         <v>44399</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29687,7 +29687,7 @@
         <v>44406</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29744,7 +29744,7 @@
         <v>44411</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29801,7 +29801,7 @@
         <v>44411</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29858,7 +29858,7 @@
         <v>44420</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29915,7 +29915,7 @@
         <v>44420</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29972,7 +29972,7 @@
         <v>44421</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30029,7 +30029,7 @@
         <v>44424</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30086,7 +30086,7 @@
         <v>44425</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30143,7 +30143,7 @@
         <v>44433</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30200,7 +30200,7 @@
         <v>44435</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30257,7 +30257,7 @@
         <v>44435</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30314,7 +30314,7 @@
         <v>44440</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30371,7 +30371,7 @@
         <v>44440</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30433,7 +30433,7 @@
         <v>44441</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30490,7 +30490,7 @@
         <v>44441</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         <v>44441</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30604,7 +30604,7 @@
         <v>44442</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30661,7 +30661,7 @@
         <v>44447</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30718,7 +30718,7 @@
         <v>44449</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30775,7 +30775,7 @@
         <v>44452</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30832,7 +30832,7 @@
         <v>44452</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30889,7 +30889,7 @@
         <v>44458</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         <v>44461</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31003,7 +31003,7 @@
         <v>44461</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31060,7 +31060,7 @@
         <v>44462</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31117,7 +31117,7 @@
         <v>44466</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31174,7 +31174,7 @@
         <v>44468</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31231,7 +31231,7 @@
         <v>44473</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31288,7 +31288,7 @@
         <v>44476</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31345,7 +31345,7 @@
         <v>44481</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31402,7 +31402,7 @@
         <v>44491</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31459,7 +31459,7 @@
         <v>44496</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31516,7 +31516,7 @@
         <v>44496</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31573,7 +31573,7 @@
         <v>44497</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31630,7 +31630,7 @@
         <v>44498</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31687,7 +31687,7 @@
         <v>44502</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31744,7 +31744,7 @@
         <v>44503</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31801,7 +31801,7 @@
         <v>44503</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31858,7 +31858,7 @@
         <v>44512</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         <v>44515</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31972,7 +31972,7 @@
         <v>44516</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32029,7 +32029,7 @@
         <v>44517</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32086,7 +32086,7 @@
         <v>44523</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32143,7 +32143,7 @@
         <v>44529</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32200,7 +32200,7 @@
         <v>44530</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32257,7 +32257,7 @@
         <v>44539</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32314,7 +32314,7 @@
         <v>44543</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32371,7 +32371,7 @@
         <v>44551</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32428,7 +32428,7 @@
         <v>44553</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32485,7 +32485,7 @@
         <v>44559</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32542,7 +32542,7 @@
         <v>44572</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32599,7 +32599,7 @@
         <v>44572</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32656,7 +32656,7 @@
         <v>44578</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32713,7 +32713,7 @@
         <v>44579</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32770,7 +32770,7 @@
         <v>44584</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32827,7 +32827,7 @@
         <v>44585</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32884,7 +32884,7 @@
         <v>44585</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32941,7 +32941,7 @@
         <v>44586</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -32998,7 +32998,7 @@
         <v>44588</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33055,7 +33055,7 @@
         <v>44592</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33112,7 +33112,7 @@
         <v>44595</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33169,7 +33169,7 @@
         <v>44596</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33231,7 +33231,7 @@
         <v>44596</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33288,7 +33288,7 @@
         <v>44599</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33345,7 +33345,7 @@
         <v>44600</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33402,7 +33402,7 @@
         <v>44608</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33459,7 +33459,7 @@
         <v>44614</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33516,7 +33516,7 @@
         <v>44616</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33573,7 +33573,7 @@
         <v>44617</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33630,7 +33630,7 @@
         <v>44619</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33687,7 +33687,7 @@
         <v>44619</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33744,7 +33744,7 @@
         <v>44620</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33801,7 +33801,7 @@
         <v>44620</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33858,7 +33858,7 @@
         <v>44621</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33915,7 +33915,7 @@
         <v>44623</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -33972,7 +33972,7 @@
         <v>44624</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34029,7 +34029,7 @@
         <v>44624</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34086,7 +34086,7 @@
         <v>44628</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34143,7 +34143,7 @@
         <v>44629</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34200,7 +34200,7 @@
         <v>44629</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34257,7 +34257,7 @@
         <v>44636</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34314,7 +34314,7 @@
         <v>44636</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34371,7 +34371,7 @@
         <v>44637</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34428,7 +34428,7 @@
         <v>44644</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34485,7 +34485,7 @@
         <v>44657</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34542,7 +34542,7 @@
         <v>44663</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34599,7 +34599,7 @@
         <v>44670</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34656,7 +34656,7 @@
         <v>44672</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34713,7 +34713,7 @@
         <v>44686</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34770,7 +34770,7 @@
         <v>44687</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34827,7 +34827,7 @@
         <v>44687</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34884,7 +34884,7 @@
         <v>44693</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -34941,7 +34941,7 @@
         <v>44696</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -34998,7 +34998,7 @@
         <v>44698</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35055,7 +35055,7 @@
         <v>44700</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35112,7 +35112,7 @@
         <v>44705</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35169,7 +35169,7 @@
         <v>44706</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35226,7 +35226,7 @@
         <v>44706</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35283,7 +35283,7 @@
         <v>44710</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35340,7 +35340,7 @@
         <v>44711</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35397,7 +35397,7 @@
         <v>44720</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35454,7 +35454,7 @@
         <v>44725</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35511,7 +35511,7 @@
         <v>44742</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35568,7 +35568,7 @@
         <v>44742</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35625,7 +35625,7 @@
         <v>44742</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35682,7 +35682,7 @@
         <v>44742</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35739,7 +35739,7 @@
         <v>44747</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35796,7 +35796,7 @@
         <v>44747</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35853,7 +35853,7 @@
         <v>44748</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -35910,7 +35910,7 @@
         <v>44753</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -35967,7 +35967,7 @@
         <v>44754</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36024,7 +36024,7 @@
         <v>44754</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36081,7 +36081,7 @@
         <v>44757</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36138,7 +36138,7 @@
         <v>44757</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36195,7 +36195,7 @@
         <v>44767</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36252,7 +36252,7 @@
         <v>44799</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36309,7 +36309,7 @@
         <v>44806</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36366,7 +36366,7 @@
         <v>44812</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36423,7 +36423,7 @@
         <v>44820</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36480,7 +36480,7 @@
         <v>44820</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36537,7 +36537,7 @@
         <v>44825</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36594,7 +36594,7 @@
         <v>44826</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36651,7 +36651,7 @@
         <v>44832</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36708,7 +36708,7 @@
         <v>44832</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36765,7 +36765,7 @@
         <v>44837</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -36822,7 +36822,7 @@
         <v>44844</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -36879,7 +36879,7 @@
         <v>44845</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -36936,7 +36936,7 @@
         <v>44847</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -36993,7 +36993,7 @@
         <v>44847</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37050,7 +37050,7 @@
         <v>44847</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37107,7 +37107,7 @@
         <v>44856</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37164,7 +37164,7 @@
         <v>44858</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37221,7 +37221,7 @@
         <v>44858</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37278,7 +37278,7 @@
         <v>44860</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37335,7 +37335,7 @@
         <v>44860</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37392,7 +37392,7 @@
         <v>44860</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37449,7 +37449,7 @@
         <v>44862</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37506,7 +37506,7 @@
         <v>44865</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37563,7 +37563,7 @@
         <v>44866</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37620,7 +37620,7 @@
         <v>44866</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37677,7 +37677,7 @@
         <v>44867</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37734,7 +37734,7 @@
         <v>44874</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -37791,7 +37791,7 @@
         <v>44874</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -37848,7 +37848,7 @@
         <v>44874</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -37905,7 +37905,7 @@
         <v>44875</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -37962,7 +37962,7 @@
         <v>44879</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38019,7 +38019,7 @@
         <v>44881</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38076,7 +38076,7 @@
         <v>44890</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38133,7 +38133,7 @@
         <v>44893</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38190,7 +38190,7 @@
         <v>44893</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38247,7 +38247,7 @@
         <v>44893</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38304,7 +38304,7 @@
         <v>44903</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38361,7 +38361,7 @@
         <v>44909</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38418,7 +38418,7 @@
         <v>44911</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38475,7 +38475,7 @@
         <v>44911</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38532,7 +38532,7 @@
         <v>44920</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38589,7 +38589,7 @@
         <v>44930</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38646,7 +38646,7 @@
         <v>44930</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38703,7 +38703,7 @@
         <v>44936</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38760,7 +38760,7 @@
         <v>44939</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -38817,7 +38817,7 @@
         <v>44942</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -38874,7 +38874,7 @@
         <v>44950</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -38931,7 +38931,7 @@
         <v>44951</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -38988,7 +38988,7 @@
         <v>44952</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39045,7 +39045,7 @@
         <v>44957</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39102,7 +39102,7 @@
         <v>44958</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39159,7 +39159,7 @@
         <v>44967</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39216,7 +39216,7 @@
         <v>44967</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39273,7 +39273,7 @@
         <v>44970</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39330,7 +39330,7 @@
         <v>44981</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39387,7 +39387,7 @@
         <v>44981</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39444,7 +39444,7 @@
         <v>44984</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39501,7 +39501,7 @@
         <v>44986</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39558,7 +39558,7 @@
         <v>44988</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39615,7 +39615,7 @@
         <v>44988</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39672,7 +39672,7 @@
         <v>44988</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39729,7 +39729,7 @@
         <v>44988</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -39786,7 +39786,7 @@
         <v>44998</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -39843,7 +39843,7 @@
         <v>45001</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -39900,7 +39900,7 @@
         <v>45004</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -39957,7 +39957,7 @@
         <v>45005</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40014,7 +40014,7 @@
         <v>45012</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40071,7 +40071,7 @@
         <v>45012</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40128,7 +40128,7 @@
         <v>45012</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40185,7 +40185,7 @@
         <v>45012</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40242,7 +40242,7 @@
         <v>45015</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40299,7 +40299,7 @@
         <v>45016</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40356,7 +40356,7 @@
         <v>45019</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40413,7 +40413,7 @@
         <v>45019</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40470,7 +40470,7 @@
         <v>45020</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40527,7 +40527,7 @@
         <v>45027</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40584,7 +40584,7 @@
         <v>45027</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40641,7 +40641,7 @@
         <v>45027</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40698,7 +40698,7 @@
         <v>45028</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40755,7 +40755,7 @@
         <v>45030</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -40812,7 +40812,7 @@
         <v>45034</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -40869,7 +40869,7 @@
         <v>45034</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -40926,7 +40926,7 @@
         <v>45035</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -40983,7 +40983,7 @@
         <v>45035</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41040,7 +41040,7 @@
         <v>45037</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41097,7 +41097,7 @@
         <v>45040</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41154,7 +41154,7 @@
         <v>45040</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41211,7 +41211,7 @@
         <v>45042</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41268,7 +41268,7 @@
         <v>45048</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41325,7 +41325,7 @@
         <v>45048</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41382,7 +41382,7 @@
         <v>45050</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41439,7 +41439,7 @@
         <v>45050</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41496,7 +41496,7 @@
         <v>45050</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41553,7 +41553,7 @@
         <v>45050</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41610,7 +41610,7 @@
         <v>45055</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41667,7 +41667,7 @@
         <v>45056</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41724,7 +41724,7 @@
         <v>45057</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -41781,7 +41781,7 @@
         <v>45057</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -41838,7 +41838,7 @@
         <v>45057</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -41895,7 +41895,7 @@
         <v>45057</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -41952,7 +41952,7 @@
         <v>45058</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42009,7 +42009,7 @@
         <v>45065</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42066,7 +42066,7 @@
         <v>45069</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42123,7 +42123,7 @@
         <v>45069</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42180,7 +42180,7 @@
         <v>45070</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42237,7 +42237,7 @@
         <v>45070</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42294,7 +42294,7 @@
         <v>45070</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42351,7 +42351,7 @@
         <v>45070</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42408,7 +42408,7 @@
         <v>45075</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42465,7 +42465,7 @@
         <v>45076</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42522,7 +42522,7 @@
         <v>45076</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42579,7 +42579,7 @@
         <v>45077</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42636,7 +42636,7 @@
         <v>45079</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42693,7 +42693,7 @@
         <v>45080</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -42750,7 +42750,7 @@
         <v>45080</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -42807,7 +42807,7 @@
         <v>45082</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -42864,7 +42864,7 @@
         <v>45084</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -42921,7 +42921,7 @@
         <v>45085</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -42978,7 +42978,7 @@
         <v>45085</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43035,7 +43035,7 @@
         <v>45085</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43092,7 +43092,7 @@
         <v>45085</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43149,7 +43149,7 @@
         <v>45085</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43206,7 +43206,7 @@
         <v>45089</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45189</